--- a/day day up.xlsx
+++ b/day day up.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266">
   <si>
     <t>// 公历日期只做参考，按照自己的循环走</t>
   </si>
@@ -732,16 +732,106 @@
     <t>又来了，真他妈佩服我自己，上个月的目标直接拷过来用完全适合</t>
   </si>
   <si>
+    <t>加班加到23:30</t>
+  </si>
+  <si>
     <t>M2-W1-D4</t>
   </si>
   <si>
+    <t>加班9：30</t>
+  </si>
+  <si>
+    <t>业务不熟，不沟通，不仔细测，想到一点改一点，日志打得又不全</t>
+  </si>
+  <si>
     <t>M2-W1-D5</t>
   </si>
   <si>
     <t>M2-W1-D6</t>
   </si>
   <si>
+    <t>康复40组；星星鹿</t>
+  </si>
+  <si>
     <t>M2-W1-D7</t>
+  </si>
+  <si>
+    <t>康复8组；thinking in java 第4章结束</t>
+  </si>
+  <si>
+    <t>看着写的很满，其实没什么收获，但，好过不写</t>
+  </si>
+  <si>
+    <t>康复12组，cize 腹肌</t>
+  </si>
+  <si>
+    <t>M2-W2-D2</t>
+  </si>
+  <si>
+    <t>康复课</t>
+  </si>
+  <si>
+    <t>M2-W2-D3</t>
+  </si>
+  <si>
+    <t>康复20组</t>
+  </si>
+  <si>
+    <t>M2-W2-D4</t>
+  </si>
+  <si>
+    <t>椭圆机30分钟；星星鹿</t>
+  </si>
+  <si>
+    <t>M2-W2-D5</t>
+  </si>
+  <si>
+    <t>浪费人生</t>
+  </si>
+  <si>
+    <t>M2-W2-D6</t>
+  </si>
+  <si>
+    <t>M2-W2-D7</t>
+  </si>
+  <si>
+    <t>康复课结束</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>23-Friday</t>
+  </si>
+  <si>
+    <t>thinking in java 5.5.4</t>
+  </si>
+  <si>
+    <t>24-Saturday</t>
+  </si>
+  <si>
+    <t>leetcode189</t>
+  </si>
+  <si>
+    <t>25-Sunday</t>
+  </si>
+  <si>
+    <t>thinking in java 第5章结束</t>
+  </si>
+  <si>
+    <t>26-Monday</t>
+  </si>
+  <si>
+    <t>thinking in java 第6章结束；康复10组</t>
+  </si>
+  <si>
+    <t>27-Tuesday</t>
+  </si>
+  <si>
+    <t>椭圆机-小强度-45分钟；thinking in java 7.5</t>
+  </si>
+  <si>
+    <t>28-Wednesday</t>
   </si>
 </sst>
 </file>
@@ -749,10 +839,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
   <fonts count="33">
@@ -835,21 +925,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -864,6 +939,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -871,35 +954,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -919,14 +992,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -934,8 +999,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -950,30 +1039,31 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -999,97 +1089,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1101,49 +1101,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1167,7 +1131,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1183,8 +1243,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1325,76 +1415,15 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1422,6 +1451,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1430,10 +1533,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1442,137 +1545,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1824,6 +1927,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2176,10 +2288,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P397"/>
+  <dimension ref="A1:P393"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A330" workbookViewId="0">
-      <selection activeCell="C346" sqref="C346:H347"/>
+    <sheetView tabSelected="1" topLeftCell="A354" workbookViewId="0">
+      <selection activeCell="C373" sqref="C373:H373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -6139,15 +6251,15 @@
       <c r="F341" s="15"/>
       <c r="G341" s="15"/>
       <c r="H341" s="16"/>
-      <c r="I341" s="84" t="s">
+      <c r="I341" s="87" t="s">
         <v>231</v>
       </c>
-      <c r="J341" s="84"/>
-      <c r="K341" s="84"/>
-      <c r="L341" s="84"/>
-      <c r="M341" s="84"/>
-      <c r="N341" s="84"/>
-      <c r="O341" s="84"/>
+      <c r="J341" s="87"/>
+      <c r="K341" s="87"/>
+      <c r="L341" s="87"/>
+      <c r="M341" s="87"/>
+      <c r="N341" s="87"/>
+      <c r="O341" s="87"/>
     </row>
     <row r="342" ht="18" customHeight="1" spans="1:15">
       <c r="A342" s="17"/>
@@ -6158,13 +6270,13 @@
       <c r="F342" s="20"/>
       <c r="G342" s="20"/>
       <c r="H342" s="21"/>
-      <c r="I342" s="84"/>
-      <c r="J342" s="84"/>
-      <c r="K342" s="84"/>
-      <c r="L342" s="84"/>
-      <c r="M342" s="84"/>
-      <c r="N342" s="84"/>
-      <c r="O342" s="84"/>
+      <c r="I342" s="87"/>
+      <c r="J342" s="87"/>
+      <c r="K342" s="87"/>
+      <c r="L342" s="87"/>
+      <c r="M342" s="87"/>
+      <c r="N342" s="87"/>
+      <c r="O342" s="87"/>
     </row>
     <row r="343" ht="18" customHeight="1" spans="1:15">
       <c r="A343" s="22"/>
@@ -6175,13 +6287,13 @@
       <c r="F343" s="25"/>
       <c r="G343" s="25"/>
       <c r="H343" s="26"/>
-      <c r="I343" s="84"/>
-      <c r="J343" s="84"/>
-      <c r="K343" s="84"/>
-      <c r="L343" s="84"/>
-      <c r="M343" s="84"/>
-      <c r="N343" s="84"/>
-      <c r="O343" s="84"/>
+      <c r="I343" s="87"/>
+      <c r="J343" s="87"/>
+      <c r="K343" s="87"/>
+      <c r="L343" s="87"/>
+      <c r="M343" s="87"/>
+      <c r="N343" s="87"/>
+      <c r="O343" s="87"/>
     </row>
     <row r="344" ht="18" customHeight="1" spans="1:8">
       <c r="A344" s="17" t="s">
@@ -6210,19 +6322,21 @@
         <v>139</v>
       </c>
       <c r="B346" s="75"/>
-      <c r="C346" s="50"/>
-      <c r="D346" s="51"/>
-      <c r="E346" s="51"/>
-      <c r="F346" s="51"/>
-      <c r="G346" s="51"/>
-      <c r="H346" s="52"/>
+      <c r="C346" s="55"/>
+      <c r="D346" s="55"/>
+      <c r="E346" s="55"/>
+      <c r="F346" s="55"/>
+      <c r="G346" s="55"/>
+      <c r="H346" s="55"/>
     </row>
     <row r="347" ht="18" customHeight="1" spans="1:8">
       <c r="A347" s="70" t="s">
         <v>143</v>
       </c>
       <c r="B347" s="75"/>
-      <c r="C347" s="50"/>
+      <c r="C347" s="50" t="s">
+        <v>232</v>
+      </c>
       <c r="D347" s="51"/>
       <c r="E347" s="51"/>
       <c r="F347" s="51"/>
@@ -6234,28 +6348,40 @@
         <v>147</v>
       </c>
       <c r="B348" s="75"/>
-      <c r="C348" s="50"/>
+      <c r="C348" s="50" t="s">
+        <v>225</v>
+      </c>
       <c r="D348" s="51"/>
       <c r="E348" s="51"/>
       <c r="F348" s="51"/>
       <c r="G348" s="51"/>
       <c r="H348" s="52"/>
     </row>
-    <row r="349" ht="18" customHeight="1" spans="1:8">
+    <row r="349" ht="18" customHeight="1" spans="1:14">
       <c r="A349" s="70" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B349" s="75"/>
-      <c r="C349" s="50"/>
+      <c r="C349" s="50" t="s">
+        <v>234</v>
+      </c>
       <c r="D349" s="51"/>
       <c r="E349" s="51"/>
       <c r="F349" s="51"/>
       <c r="G349" s="51"/>
       <c r="H349" s="52"/>
+      <c r="I349" s="53" t="s">
+        <v>235</v>
+      </c>
+      <c r="J349" s="53"/>
+      <c r="K349" s="53"/>
+      <c r="L349" s="53"/>
+      <c r="M349" s="53"/>
+      <c r="N349" s="53"/>
     </row>
     <row r="350" ht="18" customHeight="1" spans="1:8">
       <c r="A350" s="70" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B350" s="75"/>
       <c r="C350" s="50"/>
@@ -6267,50 +6393,301 @@
     </row>
     <row r="351" ht="18" customHeight="1" spans="1:8">
       <c r="A351" s="70" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B351" s="75"/>
-      <c r="C351" s="50"/>
+      <c r="C351" s="50" t="s">
+        <v>238</v>
+      </c>
       <c r="D351" s="51"/>
       <c r="E351" s="51"/>
       <c r="F351" s="51"/>
       <c r="G351" s="51"/>
       <c r="H351" s="52"/>
     </row>
-    <row r="352" ht="18" customHeight="1" spans="1:8">
+    <row r="352" ht="18" customHeight="1" spans="1:14">
       <c r="A352" s="70" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B352" s="75"/>
-      <c r="C352" s="50"/>
+      <c r="C352" s="50" t="s">
+        <v>240</v>
+      </c>
       <c r="D352" s="51"/>
       <c r="E352" s="51"/>
       <c r="F352" s="51"/>
       <c r="G352" s="51"/>
       <c r="H352" s="52"/>
+      <c r="I352" s="55" t="s">
+        <v>241</v>
+      </c>
+      <c r="J352" s="55"/>
+      <c r="K352" s="55"/>
+      <c r="L352" s="55"/>
+      <c r="M352" s="55"/>
+      <c r="N352" s="55"/>
     </row>
     <row r="353" ht="18" customHeight="1"/>
-    <row r="354" ht="18" customHeight="1"/>
-    <row r="355" ht="18" customHeight="1"/>
-    <row r="356" ht="18" customHeight="1"/>
-    <row r="357" ht="18" customHeight="1"/>
-    <row r="358" ht="18" customHeight="1"/>
-    <row r="359" ht="18" customHeight="1"/>
-    <row r="360" ht="18" customHeight="1"/>
-    <row r="361" ht="18" customHeight="1"/>
-    <row r="362" ht="18" customHeight="1"/>
+    <row r="354" ht="18" customHeight="1" spans="1:8">
+      <c r="A354" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B354" s="18"/>
+      <c r="C354" s="19"/>
+      <c r="D354" s="20"/>
+      <c r="E354" s="20"/>
+      <c r="F354" s="20"/>
+      <c r="G354" s="20"/>
+      <c r="H354" s="21"/>
+    </row>
+    <row r="355" ht="18" customHeight="1" spans="1:8">
+      <c r="A355" s="22"/>
+      <c r="B355" s="23"/>
+      <c r="C355" s="24"/>
+      <c r="D355" s="25"/>
+      <c r="E355" s="25"/>
+      <c r="F355" s="25"/>
+      <c r="G355" s="25"/>
+      <c r="H355" s="26"/>
+    </row>
+    <row r="356" ht="18" customHeight="1" spans="1:8">
+      <c r="A356" s="70" t="s">
+        <v>153</v>
+      </c>
+      <c r="B356" s="75"/>
+      <c r="C356" s="84" t="s">
+        <v>242</v>
+      </c>
+      <c r="D356" s="85"/>
+      <c r="E356" s="85"/>
+      <c r="F356" s="85"/>
+      <c r="G356" s="85"/>
+      <c r="H356" s="85"/>
+    </row>
+    <row r="357" ht="18" customHeight="1" spans="1:8">
+      <c r="A357" s="70" t="s">
+        <v>243</v>
+      </c>
+      <c r="B357" s="75"/>
+      <c r="C357" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="D357" s="86"/>
+      <c r="E357" s="86"/>
+      <c r="F357" s="86"/>
+      <c r="G357" s="86"/>
+      <c r="H357" s="86"/>
+    </row>
+    <row r="358" ht="18" customHeight="1" spans="1:8">
+      <c r="A358" s="70" t="s">
+        <v>245</v>
+      </c>
+      <c r="B358" s="75"/>
+      <c r="C358" s="52" t="s">
+        <v>246</v>
+      </c>
+      <c r="D358" s="86"/>
+      <c r="E358" s="86"/>
+      <c r="F358" s="86"/>
+      <c r="G358" s="86"/>
+      <c r="H358" s="86"/>
+    </row>
+    <row r="359" ht="18" customHeight="1" spans="1:8">
+      <c r="A359" s="70" t="s">
+        <v>247</v>
+      </c>
+      <c r="B359" s="75"/>
+      <c r="C359" s="52" t="s">
+        <v>248</v>
+      </c>
+      <c r="D359" s="86"/>
+      <c r="E359" s="86"/>
+      <c r="F359" s="86"/>
+      <c r="G359" s="86"/>
+      <c r="H359" s="86"/>
+    </row>
+    <row r="360" ht="18" customHeight="1" spans="1:14">
+      <c r="A360" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="B360" s="75"/>
+      <c r="C360" s="52"/>
+      <c r="D360" s="86"/>
+      <c r="E360" s="86"/>
+      <c r="F360" s="86"/>
+      <c r="G360" s="86"/>
+      <c r="H360" s="86"/>
+      <c r="I360" s="53" t="s">
+        <v>250</v>
+      </c>
+      <c r="J360" s="53"/>
+      <c r="K360" s="53"/>
+      <c r="L360" s="53"/>
+      <c r="M360" s="53"/>
+      <c r="N360" s="53"/>
+    </row>
+    <row r="361" ht="18" customHeight="1" spans="1:14">
+      <c r="A361" s="70" t="s">
+        <v>251</v>
+      </c>
+      <c r="B361" s="75"/>
+      <c r="C361" s="52"/>
+      <c r="D361" s="86"/>
+      <c r="E361" s="86"/>
+      <c r="F361" s="86"/>
+      <c r="G361" s="86"/>
+      <c r="H361" s="86"/>
+      <c r="I361" s="53" t="s">
+        <v>250</v>
+      </c>
+      <c r="J361" s="53"/>
+      <c r="K361" s="53"/>
+      <c r="L361" s="53"/>
+      <c r="M361" s="53"/>
+      <c r="N361" s="53"/>
+    </row>
+    <row r="362" ht="18" customHeight="1" spans="1:8">
+      <c r="A362" s="70" t="s">
+        <v>252</v>
+      </c>
+      <c r="B362" s="75"/>
+      <c r="C362" s="52" t="s">
+        <v>253</v>
+      </c>
+      <c r="D362" s="86"/>
+      <c r="E362" s="86"/>
+      <c r="F362" s="86"/>
+      <c r="G362" s="86"/>
+      <c r="H362" s="86"/>
+    </row>
     <row r="363" ht="18" customHeight="1"/>
-    <row r="364" ht="18" customHeight="1"/>
-    <row r="365" ht="18" customHeight="1"/>
-    <row r="366" ht="18" customHeight="1"/>
-    <row r="367" ht="18" customHeight="1"/>
-    <row r="368" ht="18" customHeight="1"/>
+    <row r="364" ht="18" customHeight="1" spans="1:8">
+      <c r="A364" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="B364" s="18"/>
+      <c r="C364" s="19"/>
+      <c r="D364" s="20"/>
+      <c r="E364" s="20"/>
+      <c r="F364" s="20"/>
+      <c r="G364" s="20"/>
+      <c r="H364" s="21"/>
+    </row>
+    <row r="365" ht="18" customHeight="1" spans="1:8">
+      <c r="A365" s="22"/>
+      <c r="B365" s="23"/>
+      <c r="C365" s="24"/>
+      <c r="D365" s="25"/>
+      <c r="E365" s="25"/>
+      <c r="F365" s="25"/>
+      <c r="G365" s="25"/>
+      <c r="H365" s="26"/>
+    </row>
+    <row r="366" ht="18" customHeight="1" spans="1:8">
+      <c r="A366" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="B366" s="75"/>
+      <c r="C366" s="84" t="s">
+        <v>256</v>
+      </c>
+      <c r="D366" s="85"/>
+      <c r="E366" s="85"/>
+      <c r="F366" s="85"/>
+      <c r="G366" s="85"/>
+      <c r="H366" s="85"/>
+    </row>
+    <row r="367" ht="18" customHeight="1" spans="1:8">
+      <c r="A367" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="B367" s="75"/>
+      <c r="C367" s="52" t="s">
+        <v>258</v>
+      </c>
+      <c r="D367" s="86"/>
+      <c r="E367" s="86"/>
+      <c r="F367" s="86"/>
+      <c r="G367" s="86"/>
+      <c r="H367" s="86"/>
+    </row>
+    <row r="368" ht="18" customHeight="1" spans="1:8">
+      <c r="A368" s="70" t="s">
+        <v>259</v>
+      </c>
+      <c r="B368" s="75"/>
+      <c r="C368" s="84" t="s">
+        <v>260</v>
+      </c>
+      <c r="D368" s="85"/>
+      <c r="E368" s="85"/>
+      <c r="F368" s="85"/>
+      <c r="G368" s="85"/>
+      <c r="H368" s="85"/>
+    </row>
     <row r="369" ht="18" customHeight="1"/>
-    <row r="370" ht="18" customHeight="1"/>
-    <row r="371" ht="18" customHeight="1"/>
-    <row r="372" ht="18" customHeight="1"/>
-    <row r="373" ht="18" customHeight="1"/>
-    <row r="374" ht="18" customHeight="1"/>
+    <row r="370" ht="18" customHeight="1" spans="1:8">
+      <c r="A370" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="B370" s="18"/>
+      <c r="C370" s="19"/>
+      <c r="D370" s="20"/>
+      <c r="E370" s="20"/>
+      <c r="F370" s="20"/>
+      <c r="G370" s="20"/>
+      <c r="H370" s="21"/>
+    </row>
+    <row r="371" ht="18" customHeight="1" spans="1:8">
+      <c r="A371" s="22"/>
+      <c r="B371" s="23"/>
+      <c r="C371" s="24"/>
+      <c r="D371" s="25"/>
+      <c r="E371" s="25"/>
+      <c r="F371" s="25"/>
+      <c r="G371" s="25"/>
+      <c r="H371" s="26"/>
+    </row>
+    <row r="372" ht="18" customHeight="1" spans="1:8">
+      <c r="A372" s="70" t="s">
+        <v>261</v>
+      </c>
+      <c r="B372" s="75"/>
+      <c r="C372" s="84" t="s">
+        <v>262</v>
+      </c>
+      <c r="D372" s="85"/>
+      <c r="E372" s="85"/>
+      <c r="F372" s="85"/>
+      <c r="G372" s="85"/>
+      <c r="H372" s="85"/>
+    </row>
+    <row r="373" ht="18" customHeight="1" spans="1:8">
+      <c r="A373" s="70" t="s">
+        <v>263</v>
+      </c>
+      <c r="B373" s="75"/>
+      <c r="C373" s="52" t="s">
+        <v>264</v>
+      </c>
+      <c r="D373" s="86"/>
+      <c r="E373" s="86"/>
+      <c r="F373" s="86"/>
+      <c r="G373" s="86"/>
+      <c r="H373" s="86"/>
+    </row>
+    <row r="374" ht="18" customHeight="1" spans="1:8">
+      <c r="A374" s="70" t="s">
+        <v>265</v>
+      </c>
+      <c r="B374" s="75"/>
+      <c r="C374" s="84"/>
+      <c r="D374" s="85"/>
+      <c r="E374" s="85"/>
+      <c r="F374" s="85"/>
+      <c r="G374" s="85"/>
+      <c r="H374" s="85"/>
+    </row>
     <row r="375" ht="18" customHeight="1"/>
     <row r="376" ht="18" customHeight="1"/>
     <row r="377" ht="18" customHeight="1"/>
@@ -6330,12 +6707,8 @@
     <row r="391" ht="18" customHeight="1"/>
     <row r="392" ht="18" customHeight="1"/>
     <row r="393" ht="18" customHeight="1"/>
-    <row r="394" ht="18" customHeight="1"/>
-    <row r="395" ht="18" customHeight="1"/>
-    <row r="396" ht="18" customHeight="1"/>
-    <row r="397" ht="18" customHeight="1"/>
   </sheetData>
-  <mergeCells count="383">
+  <mergeCells count="419">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="C3:H3"/>
@@ -6597,12 +6970,42 @@
     <mergeCell ref="C348:H348"/>
     <mergeCell ref="A349:B349"/>
     <mergeCell ref="C349:H349"/>
+    <mergeCell ref="I349:N349"/>
     <mergeCell ref="A350:B350"/>
     <mergeCell ref="C350:H350"/>
     <mergeCell ref="A351:B351"/>
     <mergeCell ref="C351:H351"/>
     <mergeCell ref="A352:B352"/>
     <mergeCell ref="C352:H352"/>
+    <mergeCell ref="I352:N352"/>
+    <mergeCell ref="A356:B356"/>
+    <mergeCell ref="C356:H356"/>
+    <mergeCell ref="A357:B357"/>
+    <mergeCell ref="C357:H357"/>
+    <mergeCell ref="A358:B358"/>
+    <mergeCell ref="C358:H358"/>
+    <mergeCell ref="A359:B359"/>
+    <mergeCell ref="C359:H359"/>
+    <mergeCell ref="A360:B360"/>
+    <mergeCell ref="C360:H360"/>
+    <mergeCell ref="I360:N360"/>
+    <mergeCell ref="A361:B361"/>
+    <mergeCell ref="C361:H361"/>
+    <mergeCell ref="I361:N361"/>
+    <mergeCell ref="A362:B362"/>
+    <mergeCell ref="C362:H362"/>
+    <mergeCell ref="A366:B366"/>
+    <mergeCell ref="C366:H366"/>
+    <mergeCell ref="A367:B367"/>
+    <mergeCell ref="C367:H367"/>
+    <mergeCell ref="A368:B368"/>
+    <mergeCell ref="C368:H368"/>
+    <mergeCell ref="A372:B372"/>
+    <mergeCell ref="C372:H372"/>
+    <mergeCell ref="A373:B373"/>
+    <mergeCell ref="C373:H373"/>
+    <mergeCell ref="A374:B374"/>
+    <mergeCell ref="C374:H374"/>
     <mergeCell ref="I62:I65"/>
     <mergeCell ref="I67:I70"/>
     <mergeCell ref="I72:I75"/>
@@ -6719,6 +7122,12 @@
     <mergeCell ref="A344:B345"/>
     <mergeCell ref="C344:H345"/>
     <mergeCell ref="I341:O343"/>
+    <mergeCell ref="A354:B355"/>
+    <mergeCell ref="C354:H355"/>
+    <mergeCell ref="A364:B365"/>
+    <mergeCell ref="C364:H365"/>
+    <mergeCell ref="A370:B371"/>
+    <mergeCell ref="C370:H371"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/day day up.xlsx
+++ b/day day up.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22555" windowHeight="9632"/>
+    <workbookView windowWidth="23136" windowHeight="9632"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308">
   <si>
     <t>// 公历日期只做参考，按照自己的循环走</t>
   </si>
@@ -833,17 +833,143 @@
   <si>
     <t>28-Wednesday</t>
   </si>
+  <si>
+    <t>thinging in java 第7章结束；康复10组（强度不够了）</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>这都三月了啊</t>
+  </si>
+  <si>
+    <t>1-Thursday</t>
+  </si>
+  <si>
+    <t>thinking in java 8.3；康复20组</t>
+  </si>
+  <si>
+    <t>2-Friday</t>
+  </si>
+  <si>
+    <t>3-Saturday</t>
+  </si>
+  <si>
+    <t>康复50组；鼠绘爬虫</t>
+  </si>
+  <si>
+    <t>4-Sunday</t>
+  </si>
+  <si>
+    <t>5-Monday</t>
+  </si>
+  <si>
+    <t>thinging in java 第8章结束；</t>
+  </si>
+  <si>
+    <t>6-Tuesday</t>
+  </si>
+  <si>
+    <t>7-Wednesday</t>
+  </si>
+  <si>
+    <t>thinging in java 第9章结束；</t>
+  </si>
+  <si>
+    <t>8-Thursday</t>
+  </si>
+  <si>
+    <t>mina小觑；EXTRA. 8-Count Abs</t>
+  </si>
+  <si>
+    <t>9-Friday</t>
+  </si>
+  <si>
+    <t>tenga</t>
+  </si>
+  <si>
+    <t>10-Saturday</t>
+  </si>
+  <si>
+    <t>selenium；效果为0的康复</t>
+  </si>
+  <si>
+    <t>11-Sunday</t>
+  </si>
+  <si>
+    <t>爬猎人，爬一拳超人；thinking in java 10.2</t>
+  </si>
+  <si>
+    <t>12-Monday</t>
+  </si>
+  <si>
+    <t>5个linux指令；EXTRA. 8-Count Abs</t>
+  </si>
+  <si>
+    <t>13-Tuesday</t>
+  </si>
+  <si>
+    <t>康复10组；thinking in java 10.4</t>
+  </si>
+  <si>
+    <t>14-Wednesday</t>
+  </si>
+  <si>
+    <t>15-Thursday</t>
+  </si>
+  <si>
+    <t>thinking in java 11.3</t>
+  </si>
+  <si>
+    <t>腰疼</t>
+  </si>
+  <si>
+    <t>16-Friday</t>
+  </si>
+  <si>
+    <t>练琴1h；thinking in java 11.9</t>
+  </si>
+  <si>
+    <t>17-Saturday</t>
+  </si>
+  <si>
+    <t>苏州中心，徐家浜，湄长路</t>
+  </si>
+  <si>
+    <t>18-Sunday</t>
+  </si>
+  <si>
+    <t>练琴2h；thinking in java 12</t>
+  </si>
+  <si>
+    <t>19-Monday</t>
+  </si>
+  <si>
+    <t>康复20组（弱）；thinking in java 12.4；摸琴</t>
+  </si>
+  <si>
+    <t>20-Tuesday</t>
+  </si>
+  <si>
+    <t>EXTRA. 8-Count Abs</t>
+  </si>
+  <si>
+    <t>21-Wednesday</t>
+  </si>
+  <si>
+    <t>22-Thursday</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="000000"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -926,24 +1052,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -955,9 +1073,63 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -969,10 +1141,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -992,57 +1165,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1054,16 +1181,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1089,19 +1215,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1113,19 +1245,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1137,13 +1275,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1161,73 +1365,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1239,37 +1383,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1429,30 +1555,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1463,15 +1565,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1517,6 +1610,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1525,6 +1642,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1533,10 +1659,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1545,137 +1671,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1935,6 +2061,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2288,10 +2420,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P393"/>
+  <dimension ref="A1:P412"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A354" workbookViewId="0">
-      <selection activeCell="C373" sqref="C373:H373"/>
+    <sheetView tabSelected="1" topLeftCell="A387" workbookViewId="0">
+      <selection activeCell="C407" sqref="C407:H407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -6251,15 +6383,15 @@
       <c r="F341" s="15"/>
       <c r="G341" s="15"/>
       <c r="H341" s="16"/>
-      <c r="I341" s="87" t="s">
+      <c r="I341" s="89" t="s">
         <v>231</v>
       </c>
-      <c r="J341" s="87"/>
-      <c r="K341" s="87"/>
-      <c r="L341" s="87"/>
-      <c r="M341" s="87"/>
-      <c r="N341" s="87"/>
-      <c r="O341" s="87"/>
+      <c r="J341" s="89"/>
+      <c r="K341" s="89"/>
+      <c r="L341" s="89"/>
+      <c r="M341" s="89"/>
+      <c r="N341" s="89"/>
+      <c r="O341" s="89"/>
     </row>
     <row r="342" ht="18" customHeight="1" spans="1:15">
       <c r="A342" s="17"/>
@@ -6270,13 +6402,13 @@
       <c r="F342" s="20"/>
       <c r="G342" s="20"/>
       <c r="H342" s="21"/>
-      <c r="I342" s="87"/>
-      <c r="J342" s="87"/>
-      <c r="K342" s="87"/>
-      <c r="L342" s="87"/>
-      <c r="M342" s="87"/>
-      <c r="N342" s="87"/>
-      <c r="O342" s="87"/>
+      <c r="I342" s="89"/>
+      <c r="J342" s="89"/>
+      <c r="K342" s="89"/>
+      <c r="L342" s="89"/>
+      <c r="M342" s="89"/>
+      <c r="N342" s="89"/>
+      <c r="O342" s="89"/>
     </row>
     <row r="343" ht="18" customHeight="1" spans="1:15">
       <c r="A343" s="22"/>
@@ -6287,13 +6419,13 @@
       <c r="F343" s="25"/>
       <c r="G343" s="25"/>
       <c r="H343" s="26"/>
-      <c r="I343" s="87"/>
-      <c r="J343" s="87"/>
-      <c r="K343" s="87"/>
-      <c r="L343" s="87"/>
-      <c r="M343" s="87"/>
-      <c r="N343" s="87"/>
-      <c r="O343" s="87"/>
+      <c r="I343" s="89"/>
+      <c r="J343" s="89"/>
+      <c r="K343" s="89"/>
+      <c r="L343" s="89"/>
+      <c r="M343" s="89"/>
+      <c r="N343" s="89"/>
+      <c r="O343" s="89"/>
     </row>
     <row r="344" ht="18" customHeight="1" spans="1:8">
       <c r="A344" s="17" t="s">
@@ -6681,7 +6813,9 @@
         <v>265</v>
       </c>
       <c r="B374" s="75"/>
-      <c r="C374" s="84"/>
+      <c r="C374" s="84" t="s">
+        <v>266</v>
+      </c>
       <c r="D374" s="85"/>
       <c r="E374" s="85"/>
       <c r="F374" s="85"/>
@@ -6690,25 +6824,452 @@
     </row>
     <row r="375" ht="18" customHeight="1"/>
     <row r="376" ht="18" customHeight="1"/>
-    <row r="377" ht="18" customHeight="1"/>
-    <row r="378" ht="18" customHeight="1"/>
-    <row r="379" ht="18" customHeight="1"/>
-    <row r="380" ht="18" customHeight="1"/>
-    <row r="381" ht="18" customHeight="1"/>
-    <row r="382" ht="18" customHeight="1"/>
+    <row r="377" ht="18" customHeight="1" spans="1:8">
+      <c r="A377" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="B377" s="18"/>
+      <c r="C377" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="D377" s="20"/>
+      <c r="E377" s="20"/>
+      <c r="F377" s="20"/>
+      <c r="G377" s="20"/>
+      <c r="H377" s="21"/>
+    </row>
+    <row r="378" ht="18" customHeight="1" spans="1:8">
+      <c r="A378" s="22"/>
+      <c r="B378" s="23"/>
+      <c r="C378" s="24"/>
+      <c r="D378" s="25"/>
+      <c r="E378" s="25"/>
+      <c r="F378" s="25"/>
+      <c r="G378" s="25"/>
+      <c r="H378" s="26"/>
+    </row>
+    <row r="379" ht="18" customHeight="1" spans="1:8">
+      <c r="A379" s="87" t="s">
+        <v>269</v>
+      </c>
+      <c r="B379" s="88"/>
+      <c r="C379" s="84" t="s">
+        <v>270</v>
+      </c>
+      <c r="D379" s="85"/>
+      <c r="E379" s="85"/>
+      <c r="F379" s="85"/>
+      <c r="G379" s="85"/>
+      <c r="H379" s="85"/>
+    </row>
+    <row r="380" ht="18" customHeight="1" spans="1:8">
+      <c r="A380" s="87" t="s">
+        <v>271</v>
+      </c>
+      <c r="B380" s="88"/>
+      <c r="C380" s="52"/>
+      <c r="D380" s="86"/>
+      <c r="E380" s="86"/>
+      <c r="F380" s="86"/>
+      <c r="G380" s="86"/>
+      <c r="H380" s="86"/>
+    </row>
+    <row r="381" ht="18" customHeight="1" spans="1:8">
+      <c r="A381" s="87" t="s">
+        <v>272</v>
+      </c>
+      <c r="B381" s="88"/>
+      <c r="C381" s="84" t="s">
+        <v>273</v>
+      </c>
+      <c r="D381" s="85"/>
+      <c r="E381" s="85"/>
+      <c r="F381" s="85"/>
+      <c r="G381" s="85"/>
+      <c r="H381" s="85"/>
+    </row>
+    <row r="382" ht="18" customHeight="1" spans="1:8">
+      <c r="A382" s="87" t="s">
+        <v>274</v>
+      </c>
+      <c r="B382" s="88"/>
+      <c r="C382" s="52"/>
+      <c r="D382" s="86"/>
+      <c r="E382" s="86"/>
+      <c r="F382" s="86"/>
+      <c r="G382" s="86"/>
+      <c r="H382" s="86"/>
+    </row>
     <row r="383" ht="18" customHeight="1"/>
-    <row r="384" ht="18" customHeight="1"/>
-    <row r="385" ht="18" customHeight="1"/>
-    <row r="386" ht="18" customHeight="1"/>
-    <row r="387" ht="18" customHeight="1"/>
-    <row r="388" ht="18" customHeight="1"/>
-    <row r="389" ht="18" customHeight="1"/>
-    <row r="390" ht="18" customHeight="1"/>
-    <row r="391" ht="18" customHeight="1"/>
-    <row r="392" ht="18" customHeight="1"/>
+    <row r="384" ht="18" customHeight="1" spans="1:8">
+      <c r="A384" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="B384" s="27"/>
+      <c r="C384" s="29"/>
+      <c r="D384" s="29"/>
+      <c r="E384" s="29"/>
+      <c r="F384" s="29"/>
+      <c r="G384" s="29"/>
+      <c r="H384" s="29"/>
+    </row>
+    <row r="385" ht="18" customHeight="1" spans="1:8">
+      <c r="A385" s="27"/>
+      <c r="B385" s="27"/>
+      <c r="C385" s="29"/>
+      <c r="D385" s="29"/>
+      <c r="E385" s="29"/>
+      <c r="F385" s="29"/>
+      <c r="G385" s="29"/>
+      <c r="H385" s="29"/>
+    </row>
+    <row r="386" ht="18" customHeight="1" spans="1:8">
+      <c r="A386" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="B386" s="29"/>
+      <c r="C386" s="86" t="s">
+        <v>276</v>
+      </c>
+      <c r="D386" s="86"/>
+      <c r="E386" s="86"/>
+      <c r="F386" s="86"/>
+      <c r="G386" s="86"/>
+      <c r="H386" s="86"/>
+    </row>
+    <row r="387" ht="18" customHeight="1" spans="1:8">
+      <c r="A387" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="B387" s="29"/>
+      <c r="C387" s="86" t="s">
+        <v>225</v>
+      </c>
+      <c r="D387" s="86"/>
+      <c r="E387" s="86"/>
+      <c r="F387" s="86"/>
+      <c r="G387" s="86"/>
+      <c r="H387" s="86"/>
+    </row>
+    <row r="388" ht="18" customHeight="1" spans="1:8">
+      <c r="A388" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="B388" s="29"/>
+      <c r="C388" s="86" t="s">
+        <v>279</v>
+      </c>
+      <c r="D388" s="86"/>
+      <c r="E388" s="86"/>
+      <c r="F388" s="86"/>
+      <c r="G388" s="86"/>
+      <c r="H388" s="86"/>
+    </row>
+    <row r="389" ht="18" customHeight="1" spans="1:8">
+      <c r="A389" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="B389" s="29"/>
+      <c r="C389" s="86" t="s">
+        <v>281</v>
+      </c>
+      <c r="D389" s="86"/>
+      <c r="E389" s="86"/>
+      <c r="F389" s="86"/>
+      <c r="G389" s="86"/>
+      <c r="H389" s="86"/>
+    </row>
+    <row r="390" ht="18" customHeight="1" spans="1:9">
+      <c r="A390" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="B390" s="29"/>
+      <c r="C390" s="86"/>
+      <c r="D390" s="86"/>
+      <c r="E390" s="86"/>
+      <c r="F390" s="86"/>
+      <c r="G390" s="86"/>
+      <c r="H390" s="86"/>
+      <c r="I390" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="391" ht="18" customHeight="1" spans="1:8">
+      <c r="A391" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="B391" s="29"/>
+      <c r="C391" s="86" t="s">
+        <v>285</v>
+      </c>
+      <c r="D391" s="86"/>
+      <c r="E391" s="86"/>
+      <c r="F391" s="86"/>
+      <c r="G391" s="86"/>
+      <c r="H391" s="86"/>
+    </row>
+    <row r="392" ht="18" customHeight="1" spans="1:8">
+      <c r="A392" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="B392" s="29"/>
+      <c r="C392" s="86" t="s">
+        <v>287</v>
+      </c>
+      <c r="D392" s="86"/>
+      <c r="E392" s="86"/>
+      <c r="F392" s="86"/>
+      <c r="G392" s="86"/>
+      <c r="H392" s="86"/>
+    </row>
     <row r="393" ht="18" customHeight="1"/>
+    <row r="394" spans="1:8">
+      <c r="A394" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="B394" s="27"/>
+      <c r="C394" s="29"/>
+      <c r="D394" s="29"/>
+      <c r="E394" s="29"/>
+      <c r="F394" s="29"/>
+      <c r="G394" s="29"/>
+      <c r="H394" s="29"/>
+    </row>
+    <row r="395" spans="1:8">
+      <c r="A395" s="27"/>
+      <c r="B395" s="27"/>
+      <c r="C395" s="29"/>
+      <c r="D395" s="29"/>
+      <c r="E395" s="29"/>
+      <c r="F395" s="29"/>
+      <c r="G395" s="29"/>
+      <c r="H395" s="29"/>
+    </row>
+    <row r="396" ht="15.7" spans="1:8">
+      <c r="A396" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="B396" s="29"/>
+      <c r="C396" s="86" t="s">
+        <v>289</v>
+      </c>
+      <c r="D396" s="86"/>
+      <c r="E396" s="86"/>
+      <c r="F396" s="86"/>
+      <c r="G396" s="86"/>
+      <c r="H396" s="86"/>
+    </row>
+    <row r="397" ht="15.7" spans="1:8">
+      <c r="A397" s="29" t="s">
+        <v>290</v>
+      </c>
+      <c r="B397" s="29"/>
+      <c r="C397" s="86" t="s">
+        <v>291</v>
+      </c>
+      <c r="D397" s="86"/>
+      <c r="E397" s="86"/>
+      <c r="F397" s="86"/>
+      <c r="G397" s="86"/>
+      <c r="H397" s="86"/>
+    </row>
+    <row r="398" ht="15.7" spans="1:9">
+      <c r="A398" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="B398" s="29"/>
+      <c r="C398" s="86" t="s">
+        <v>225</v>
+      </c>
+      <c r="D398" s="86"/>
+      <c r="E398" s="86"/>
+      <c r="F398" s="86"/>
+      <c r="G398" s="86"/>
+      <c r="H398" s="86"/>
+      <c r="I398" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="399" ht="15.7" spans="1:13">
+      <c r="A399" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="B399" s="29"/>
+      <c r="C399" s="86" t="s">
+        <v>294</v>
+      </c>
+      <c r="D399" s="86"/>
+      <c r="E399" s="86"/>
+      <c r="F399" s="86"/>
+      <c r="G399" s="86"/>
+      <c r="H399" s="86"/>
+      <c r="I399" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="J399" s="20"/>
+      <c r="K399" s="20"/>
+      <c r="L399" s="20"/>
+      <c r="M399" s="20"/>
+    </row>
+    <row r="400" ht="15.7" spans="1:8">
+      <c r="A400" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="B400" s="29"/>
+      <c r="C400" s="86" t="s">
+        <v>297</v>
+      </c>
+      <c r="D400" s="86"/>
+      <c r="E400" s="86"/>
+      <c r="F400" s="86"/>
+      <c r="G400" s="86"/>
+      <c r="H400" s="86"/>
+    </row>
+    <row r="401" ht="15.7" spans="1:13">
+      <c r="A401" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="B401" s="29"/>
+      <c r="C401" s="86"/>
+      <c r="D401" s="86"/>
+      <c r="E401" s="86"/>
+      <c r="F401" s="86"/>
+      <c r="G401" s="86"/>
+      <c r="H401" s="86"/>
+      <c r="I401" s="55" t="s">
+        <v>299</v>
+      </c>
+      <c r="J401" s="55"/>
+      <c r="K401" s="55"/>
+      <c r="L401" s="55"/>
+      <c r="M401" s="55"/>
+    </row>
+    <row r="402" ht="15.7" spans="1:8">
+      <c r="A402" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="B402" s="29"/>
+      <c r="C402" s="86" t="s">
+        <v>301</v>
+      </c>
+      <c r="D402" s="86"/>
+      <c r="E402" s="86"/>
+      <c r="F402" s="86"/>
+      <c r="G402" s="86"/>
+      <c r="H402" s="86"/>
+    </row>
+    <row r="404" spans="1:8">
+      <c r="A404" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="B404" s="27"/>
+      <c r="C404" s="29"/>
+      <c r="D404" s="29"/>
+      <c r="E404" s="29"/>
+      <c r="F404" s="29"/>
+      <c r="G404" s="29"/>
+      <c r="H404" s="29"/>
+    </row>
+    <row r="405" spans="1:8">
+      <c r="A405" s="27"/>
+      <c r="B405" s="27"/>
+      <c r="C405" s="29"/>
+      <c r="D405" s="29"/>
+      <c r="E405" s="29"/>
+      <c r="F405" s="29"/>
+      <c r="G405" s="29"/>
+      <c r="H405" s="29"/>
+    </row>
+    <row r="406" ht="15.7" spans="1:8">
+      <c r="A406" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="B406" s="29"/>
+      <c r="C406" s="86" t="s">
+        <v>303</v>
+      </c>
+      <c r="D406" s="86"/>
+      <c r="E406" s="86"/>
+      <c r="F406" s="86"/>
+      <c r="G406" s="86"/>
+      <c r="H406" s="86"/>
+    </row>
+    <row r="407" ht="15.7" spans="1:8">
+      <c r="A407" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="B407" s="29"/>
+      <c r="C407" s="86" t="s">
+        <v>305</v>
+      </c>
+      <c r="D407" s="86"/>
+      <c r="E407" s="86"/>
+      <c r="F407" s="86"/>
+      <c r="G407" s="86"/>
+      <c r="H407" s="86"/>
+    </row>
+    <row r="408" ht="15.7" spans="1:8">
+      <c r="A408" s="29" t="s">
+        <v>306</v>
+      </c>
+      <c r="B408" s="29"/>
+      <c r="C408" s="86"/>
+      <c r="D408" s="86"/>
+      <c r="E408" s="86"/>
+      <c r="F408" s="86"/>
+      <c r="G408" s="86"/>
+      <c r="H408" s="86"/>
+    </row>
+    <row r="409" ht="15.7" spans="1:8">
+      <c r="A409" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="B409" s="29"/>
+      <c r="C409" s="86"/>
+      <c r="D409" s="86"/>
+      <c r="E409" s="86"/>
+      <c r="F409" s="86"/>
+      <c r="G409" s="86"/>
+      <c r="H409" s="86"/>
+    </row>
+    <row r="410" ht="15.7" spans="1:8">
+      <c r="A410" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="B410" s="29"/>
+      <c r="C410" s="86"/>
+      <c r="D410" s="86"/>
+      <c r="E410" s="86"/>
+      <c r="F410" s="86"/>
+      <c r="G410" s="86"/>
+      <c r="H410" s="86"/>
+    </row>
+    <row r="411" ht="15.7" spans="1:8">
+      <c r="A411" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="B411" s="29"/>
+      <c r="C411" s="86"/>
+      <c r="D411" s="86"/>
+      <c r="E411" s="86"/>
+      <c r="F411" s="86"/>
+      <c r="G411" s="86"/>
+      <c r="H411" s="86"/>
+    </row>
+    <row r="412" ht="15.7" spans="1:8">
+      <c r="A412" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="B412" s="29"/>
+      <c r="C412" s="86"/>
+      <c r="D412" s="86"/>
+      <c r="E412" s="86"/>
+      <c r="F412" s="86"/>
+      <c r="G412" s="86"/>
+      <c r="H412" s="86"/>
+    </row>
   </sheetData>
-  <mergeCells count="419">
+  <mergeCells count="479">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="C3:H3"/>
@@ -7006,6 +7567,58 @@
     <mergeCell ref="C373:H373"/>
     <mergeCell ref="A374:B374"/>
     <mergeCell ref="C374:H374"/>
+    <mergeCell ref="A379:B379"/>
+    <mergeCell ref="C379:H379"/>
+    <mergeCell ref="A380:B380"/>
+    <mergeCell ref="C380:H380"/>
+    <mergeCell ref="A381:B381"/>
+    <mergeCell ref="C381:H381"/>
+    <mergeCell ref="A382:B382"/>
+    <mergeCell ref="C382:H382"/>
+    <mergeCell ref="A386:B386"/>
+    <mergeCell ref="C386:H386"/>
+    <mergeCell ref="A387:B387"/>
+    <mergeCell ref="C387:H387"/>
+    <mergeCell ref="A388:B388"/>
+    <mergeCell ref="C388:H388"/>
+    <mergeCell ref="A389:B389"/>
+    <mergeCell ref="C389:H389"/>
+    <mergeCell ref="A390:B390"/>
+    <mergeCell ref="C390:H390"/>
+    <mergeCell ref="A391:B391"/>
+    <mergeCell ref="C391:H391"/>
+    <mergeCell ref="A392:B392"/>
+    <mergeCell ref="C392:H392"/>
+    <mergeCell ref="A396:B396"/>
+    <mergeCell ref="C396:H396"/>
+    <mergeCell ref="A397:B397"/>
+    <mergeCell ref="C397:H397"/>
+    <mergeCell ref="A398:B398"/>
+    <mergeCell ref="C398:H398"/>
+    <mergeCell ref="A399:B399"/>
+    <mergeCell ref="C399:H399"/>
+    <mergeCell ref="I399:M399"/>
+    <mergeCell ref="A400:B400"/>
+    <mergeCell ref="C400:H400"/>
+    <mergeCell ref="A401:B401"/>
+    <mergeCell ref="C401:H401"/>
+    <mergeCell ref="I401:M401"/>
+    <mergeCell ref="A402:B402"/>
+    <mergeCell ref="C402:H402"/>
+    <mergeCell ref="A406:B406"/>
+    <mergeCell ref="C406:H406"/>
+    <mergeCell ref="A407:B407"/>
+    <mergeCell ref="C407:H407"/>
+    <mergeCell ref="A408:B408"/>
+    <mergeCell ref="C408:H408"/>
+    <mergeCell ref="A409:B409"/>
+    <mergeCell ref="C409:H409"/>
+    <mergeCell ref="A410:B410"/>
+    <mergeCell ref="C410:H410"/>
+    <mergeCell ref="A411:B411"/>
+    <mergeCell ref="C411:H411"/>
+    <mergeCell ref="A412:B412"/>
+    <mergeCell ref="C412:H412"/>
     <mergeCell ref="I62:I65"/>
     <mergeCell ref="I67:I70"/>
     <mergeCell ref="I72:I75"/>
@@ -7128,6 +7741,14 @@
     <mergeCell ref="C364:H365"/>
     <mergeCell ref="A370:B371"/>
     <mergeCell ref="C370:H371"/>
+    <mergeCell ref="A377:B378"/>
+    <mergeCell ref="C377:H378"/>
+    <mergeCell ref="A384:B385"/>
+    <mergeCell ref="C384:H385"/>
+    <mergeCell ref="A394:B395"/>
+    <mergeCell ref="C394:H395"/>
+    <mergeCell ref="A404:B405"/>
+    <mergeCell ref="C404:H405"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/day day up.xlsx
+++ b/day day up.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332">
   <si>
     <t>// 公历日期只做参考，按照自己的循环走</t>
   </si>
@@ -807,6 +807,9 @@
     <t>thinking in java 5.5.4</t>
   </si>
   <si>
+    <t>从这一天开始看书学习的</t>
+  </si>
+  <si>
     <t>24-Saturday</t>
   </si>
   <si>
@@ -957,7 +960,76 @@
     <t>21-Wednesday</t>
   </si>
   <si>
+    <t>康复5组；</t>
+  </si>
+  <si>
     <t>22-Thursday</t>
+  </si>
+  <si>
+    <t>EXTRA. 8-Count Abs；练琴1h</t>
+  </si>
+  <si>
+    <t>一笔糊涂账哟</t>
+  </si>
+  <si>
+    <t>康复10组（保质保量）；thinking in java 12.11</t>
+  </si>
+  <si>
+    <t>吉他2h（有质有量）；thinking in java 13.1</t>
+  </si>
+  <si>
+    <t>thinking in java 13.5</t>
+  </si>
+  <si>
+    <t>没质没量</t>
+  </si>
+  <si>
+    <t>29-Thursday</t>
+  </si>
+  <si>
+    <t>吉他2h（还行吧）；thinking in java 13.8</t>
+  </si>
+  <si>
+    <t>30-Friday</t>
+  </si>
+  <si>
+    <t>头号玩家</t>
+  </si>
+  <si>
+    <t>31-Saturday</t>
+  </si>
+  <si>
+    <t>卵子</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>1-Sunday</t>
+  </si>
+  <si>
+    <t>thinking in java 14.1；康复20组（做不动了，下周准备带一点正常力量训练）</t>
+  </si>
+  <si>
+    <t>thinking in java 14.4</t>
+  </si>
+  <si>
+    <t>吉他2h（一般）</t>
+  </si>
+  <si>
+    <t>康复10组（没质没量，特么我之前练的还都是错的，难怪这么久没什么反应）</t>
+  </si>
+  <si>
+    <t>吉他2h（还行吧）</t>
+  </si>
+  <si>
+    <t>thinking in java 14章结束</t>
+  </si>
+  <si>
+    <t>thinking in java 15.2</t>
+  </si>
+  <si>
+    <t>thinking in java 15.4</t>
   </si>
 </sst>
 </file>
@@ -965,11 +1037,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="000000"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -1052,7 +1124,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1072,39 +1167,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1125,17 +1190,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1157,17 +1228,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1176,20 +1262,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1215,139 +1287,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1365,7 +1311,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1377,25 +1431,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1569,6 +1641,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1587,8 +1683,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1617,21 +1713,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1642,15 +1723,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1659,10 +1731,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1671,137 +1743,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2070,6 +2142,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2420,10 +2498,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P412"/>
+  <dimension ref="A1:P446"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A387" workbookViewId="0">
-      <selection activeCell="C407" sqref="C407:H407"/>
+    <sheetView tabSelected="1" topLeftCell="A420" workbookViewId="0">
+      <selection activeCell="C441" sqref="C441:H441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -6715,7 +6793,7 @@
       <c r="G365" s="25"/>
       <c r="H365" s="26"/>
     </row>
-    <row r="366" ht="18" customHeight="1" spans="1:8">
+    <row r="366" ht="18" customHeight="1" spans="1:13">
       <c r="A366" s="70" t="s">
         <v>255</v>
       </c>
@@ -6728,14 +6806,21 @@
       <c r="F366" s="85"/>
       <c r="G366" s="85"/>
       <c r="H366" s="85"/>
+      <c r="I366" s="65" t="s">
+        <v>257</v>
+      </c>
+      <c r="J366" s="64"/>
+      <c r="K366" s="64"/>
+      <c r="L366" s="64"/>
+      <c r="M366" s="64"/>
     </row>
     <row r="367" ht="18" customHeight="1" spans="1:8">
       <c r="A367" s="70" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B367" s="75"/>
       <c r="C367" s="52" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D367" s="86"/>
       <c r="E367" s="86"/>
@@ -6745,11 +6830,11 @@
     </row>
     <row r="368" ht="18" customHeight="1" spans="1:8">
       <c r="A368" s="70" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B368" s="75"/>
       <c r="C368" s="84" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D368" s="85"/>
       <c r="E368" s="85"/>
@@ -6782,11 +6867,11 @@
     </row>
     <row r="372" ht="18" customHeight="1" spans="1:8">
       <c r="A372" s="70" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B372" s="75"/>
       <c r="C372" s="84" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D372" s="85"/>
       <c r="E372" s="85"/>
@@ -6796,11 +6881,11 @@
     </row>
     <row r="373" ht="18" customHeight="1" spans="1:8">
       <c r="A373" s="70" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B373" s="75"/>
       <c r="C373" s="52" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D373" s="86"/>
       <c r="E373" s="86"/>
@@ -6810,11 +6895,11 @@
     </row>
     <row r="374" ht="18" customHeight="1" spans="1:8">
       <c r="A374" s="70" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B374" s="75"/>
       <c r="C374" s="84" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D374" s="85"/>
       <c r="E374" s="85"/>
@@ -6826,11 +6911,11 @@
     <row r="376" ht="18" customHeight="1"/>
     <row r="377" ht="18" customHeight="1" spans="1:8">
       <c r="A377" s="17" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B377" s="18"/>
       <c r="C377" s="19" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D377" s="20"/>
       <c r="E377" s="20"/>
@@ -6850,11 +6935,11 @@
     </row>
     <row r="379" ht="18" customHeight="1" spans="1:8">
       <c r="A379" s="87" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B379" s="88"/>
       <c r="C379" s="84" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D379" s="85"/>
       <c r="E379" s="85"/>
@@ -6864,7 +6949,7 @@
     </row>
     <row r="380" ht="18" customHeight="1" spans="1:8">
       <c r="A380" s="87" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B380" s="88"/>
       <c r="C380" s="52"/>
@@ -6876,11 +6961,11 @@
     </row>
     <row r="381" ht="18" customHeight="1" spans="1:8">
       <c r="A381" s="87" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B381" s="88"/>
       <c r="C381" s="84" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D381" s="85"/>
       <c r="E381" s="85"/>
@@ -6890,7 +6975,7 @@
     </row>
     <row r="382" ht="18" customHeight="1" spans="1:8">
       <c r="A382" s="87" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B382" s="88"/>
       <c r="C382" s="52"/>
@@ -6903,7 +6988,7 @@
     <row r="383" ht="18" customHeight="1"/>
     <row r="384" ht="18" customHeight="1" spans="1:8">
       <c r="A384" s="27" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B384" s="27"/>
       <c r="C384" s="29"/>
@@ -6925,11 +7010,11 @@
     </row>
     <row r="386" ht="18" customHeight="1" spans="1:8">
       <c r="A386" s="29" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B386" s="29"/>
       <c r="C386" s="86" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D386" s="86"/>
       <c r="E386" s="86"/>
@@ -6939,7 +7024,7 @@
     </row>
     <row r="387" ht="18" customHeight="1" spans="1:8">
       <c r="A387" s="29" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B387" s="29"/>
       <c r="C387" s="86" t="s">
@@ -6953,11 +7038,11 @@
     </row>
     <row r="388" ht="18" customHeight="1" spans="1:8">
       <c r="A388" s="29" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B388" s="29"/>
       <c r="C388" s="86" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D388" s="86"/>
       <c r="E388" s="86"/>
@@ -6967,11 +7052,11 @@
     </row>
     <row r="389" ht="18" customHeight="1" spans="1:8">
       <c r="A389" s="29" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B389" s="29"/>
       <c r="C389" s="86" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D389" s="86"/>
       <c r="E389" s="86"/>
@@ -6981,7 +7066,7 @@
     </row>
     <row r="390" ht="18" customHeight="1" spans="1:9">
       <c r="A390" s="29" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B390" s="29"/>
       <c r="C390" s="86"/>
@@ -6991,16 +7076,16 @@
       <c r="G390" s="86"/>
       <c r="H390" s="86"/>
       <c r="I390" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="391" ht="18" customHeight="1" spans="1:8">
       <c r="A391" s="29" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B391" s="29"/>
       <c r="C391" s="86" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D391" s="86"/>
       <c r="E391" s="86"/>
@@ -7010,11 +7095,11 @@
     </row>
     <row r="392" ht="18" customHeight="1" spans="1:8">
       <c r="A392" s="29" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B392" s="29"/>
       <c r="C392" s="86" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D392" s="86"/>
       <c r="E392" s="86"/>
@@ -7025,7 +7110,7 @@
     <row r="393" ht="18" customHeight="1"/>
     <row r="394" spans="1:8">
       <c r="A394" s="27" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B394" s="27"/>
       <c r="C394" s="29"/>
@@ -7047,11 +7132,11 @@
     </row>
     <row r="396" ht="15.7" spans="1:8">
       <c r="A396" s="29" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B396" s="29"/>
       <c r="C396" s="86" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D396" s="86"/>
       <c r="E396" s="86"/>
@@ -7061,11 +7146,11 @@
     </row>
     <row r="397" ht="15.7" spans="1:8">
       <c r="A397" s="29" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B397" s="29"/>
       <c r="C397" s="86" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D397" s="86"/>
       <c r="E397" s="86"/>
@@ -7075,7 +7160,7 @@
     </row>
     <row r="398" ht="15.7" spans="1:9">
       <c r="A398" s="29" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B398" s="29"/>
       <c r="C398" s="86" t="s">
@@ -7087,16 +7172,16 @@
       <c r="G398" s="86"/>
       <c r="H398" s="86"/>
       <c r="I398" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="399" ht="15.7" spans="1:13">
       <c r="A399" s="29" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B399" s="29"/>
       <c r="C399" s="86" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D399" s="86"/>
       <c r="E399" s="86"/>
@@ -7104,7 +7189,7 @@
       <c r="G399" s="86"/>
       <c r="H399" s="86"/>
       <c r="I399" s="20" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="J399" s="20"/>
       <c r="K399" s="20"/>
@@ -7113,11 +7198,11 @@
     </row>
     <row r="400" ht="15.7" spans="1:8">
       <c r="A400" s="29" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B400" s="29"/>
       <c r="C400" s="86" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D400" s="86"/>
       <c r="E400" s="86"/>
@@ -7127,7 +7212,7 @@
     </row>
     <row r="401" ht="15.7" spans="1:13">
       <c r="A401" s="29" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B401" s="29"/>
       <c r="C401" s="86"/>
@@ -7137,7 +7222,7 @@
       <c r="G401" s="86"/>
       <c r="H401" s="86"/>
       <c r="I401" s="55" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="J401" s="55"/>
       <c r="K401" s="55"/>
@@ -7146,11 +7231,11 @@
     </row>
     <row r="402" ht="15.7" spans="1:8">
       <c r="A402" s="29" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B402" s="29"/>
       <c r="C402" s="86" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D402" s="86"/>
       <c r="E402" s="86"/>
@@ -7160,7 +7245,7 @@
     </row>
     <row r="404" spans="1:8">
       <c r="A404" s="27" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B404" s="27"/>
       <c r="C404" s="29"/>
@@ -7182,11 +7267,11 @@
     </row>
     <row r="406" ht="15.7" spans="1:8">
       <c r="A406" s="29" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B406" s="29"/>
       <c r="C406" s="86" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D406" s="86"/>
       <c r="E406" s="86"/>
@@ -7196,11 +7281,11 @@
     </row>
     <row r="407" ht="15.7" spans="1:8">
       <c r="A407" s="29" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B407" s="29"/>
       <c r="C407" s="86" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D407" s="86"/>
       <c r="E407" s="86"/>
@@ -7210,10 +7295,12 @@
     </row>
     <row r="408" ht="15.7" spans="1:8">
       <c r="A408" s="29" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B408" s="29"/>
-      <c r="C408" s="86"/>
+      <c r="C408" s="86" t="s">
+        <v>308</v>
+      </c>
       <c r="D408" s="86"/>
       <c r="E408" s="86"/>
       <c r="F408" s="86"/>
@@ -7222,10 +7309,12 @@
     </row>
     <row r="409" ht="15.7" spans="1:8">
       <c r="A409" s="29" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B409" s="29"/>
-      <c r="C409" s="86"/>
+      <c r="C409" s="86" t="s">
+        <v>310</v>
+      </c>
       <c r="D409" s="86"/>
       <c r="E409" s="86"/>
       <c r="F409" s="86"/>
@@ -7237,39 +7326,421 @@
         <v>255</v>
       </c>
       <c r="B410" s="29"/>
-      <c r="C410" s="86"/>
-      <c r="D410" s="86"/>
-      <c r="E410" s="86"/>
-      <c r="F410" s="86"/>
-      <c r="G410" s="86"/>
-      <c r="H410" s="86"/>
+      <c r="C410" s="90" t="s">
+        <v>311</v>
+      </c>
+      <c r="D410" s="57"/>
+      <c r="E410" s="57"/>
+      <c r="F410" s="57"/>
+      <c r="G410" s="57"/>
+      <c r="H410" s="58"/>
     </row>
     <row r="411" ht="15.7" spans="1:8">
       <c r="A411" s="29" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B411" s="29"/>
-      <c r="C411" s="86"/>
-      <c r="D411" s="86"/>
-      <c r="E411" s="86"/>
-      <c r="F411" s="86"/>
-      <c r="G411" s="86"/>
-      <c r="H411" s="86"/>
+      <c r="C411" s="59"/>
+      <c r="D411" s="55"/>
+      <c r="E411" s="55"/>
+      <c r="F411" s="55"/>
+      <c r="G411" s="55"/>
+      <c r="H411" s="60"/>
     </row>
     <row r="412" ht="15.7" spans="1:8">
       <c r="A412" s="29" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B412" s="29"/>
-      <c r="C412" s="86"/>
-      <c r="D412" s="86"/>
-      <c r="E412" s="86"/>
-      <c r="F412" s="86"/>
-      <c r="G412" s="86"/>
-      <c r="H412" s="86"/>
+      <c r="C412" s="61"/>
+      <c r="D412" s="62"/>
+      <c r="E412" s="62"/>
+      <c r="F412" s="62"/>
+      <c r="G412" s="62"/>
+      <c r="H412" s="63"/>
+    </row>
+    <row r="414" spans="1:8">
+      <c r="A414" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="B414" s="27"/>
+      <c r="C414" s="29"/>
+      <c r="D414" s="29"/>
+      <c r="E414" s="29"/>
+      <c r="F414" s="29"/>
+      <c r="G414" s="29"/>
+      <c r="H414" s="29"/>
+    </row>
+    <row r="415" spans="1:8">
+      <c r="A415" s="27"/>
+      <c r="B415" s="27"/>
+      <c r="C415" s="29"/>
+      <c r="D415" s="29"/>
+      <c r="E415" s="29"/>
+      <c r="F415" s="29"/>
+      <c r="G415" s="29"/>
+      <c r="H415" s="29"/>
+    </row>
+    <row r="416" ht="15.7" spans="1:8">
+      <c r="A416" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="B416" s="29"/>
+      <c r="C416" s="86" t="s">
+        <v>312</v>
+      </c>
+      <c r="D416" s="86"/>
+      <c r="E416" s="86"/>
+      <c r="F416" s="86"/>
+      <c r="G416" s="86"/>
+      <c r="H416" s="86"/>
+    </row>
+    <row r="417" ht="15.7" spans="1:8">
+      <c r="A417" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="B417" s="29"/>
+      <c r="C417" s="86" t="s">
+        <v>313</v>
+      </c>
+      <c r="D417" s="86"/>
+      <c r="E417" s="86"/>
+      <c r="F417" s="86"/>
+      <c r="G417" s="86"/>
+      <c r="H417" s="86"/>
+    </row>
+    <row r="418" ht="15.7" spans="1:13">
+      <c r="A418" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="B418" s="29"/>
+      <c r="C418" s="86" t="s">
+        <v>314</v>
+      </c>
+      <c r="D418" s="86"/>
+      <c r="E418" s="86"/>
+      <c r="F418" s="86"/>
+      <c r="G418" s="86"/>
+      <c r="H418" s="86"/>
+      <c r="I418" s="55" t="s">
+        <v>315</v>
+      </c>
+      <c r="J418" s="55"/>
+      <c r="K418" s="55"/>
+      <c r="L418" s="55"/>
+      <c r="M418" s="55"/>
+    </row>
+    <row r="419" ht="15.7" spans="1:8">
+      <c r="A419" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="B419" s="29"/>
+      <c r="C419" s="86" t="s">
+        <v>317</v>
+      </c>
+      <c r="D419" s="86"/>
+      <c r="E419" s="86"/>
+      <c r="F419" s="86"/>
+      <c r="G419" s="86"/>
+      <c r="H419" s="86"/>
+    </row>
+    <row r="420" ht="15.7" spans="1:8">
+      <c r="A420" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="B420" s="29"/>
+      <c r="C420" s="86" t="s">
+        <v>319</v>
+      </c>
+      <c r="D420" s="86"/>
+      <c r="E420" s="86"/>
+      <c r="F420" s="86"/>
+      <c r="G420" s="86"/>
+      <c r="H420" s="86"/>
+    </row>
+    <row r="421" ht="15.7" spans="1:13">
+      <c r="A421" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="B421" s="29"/>
+      <c r="C421" s="86"/>
+      <c r="D421" s="86"/>
+      <c r="E421" s="86"/>
+      <c r="F421" s="86"/>
+      <c r="G421" s="86"/>
+      <c r="H421" s="86"/>
+      <c r="I421" s="91" t="s">
+        <v>321</v>
+      </c>
+      <c r="J421" s="91"/>
+      <c r="K421" s="91"/>
+      <c r="L421" s="91"/>
+      <c r="M421" s="91"/>
+    </row>
+    <row r="423" spans="1:8">
+      <c r="A423" s="27" t="s">
+        <v>322</v>
+      </c>
+      <c r="B423" s="27"/>
+      <c r="C423" s="29"/>
+      <c r="D423" s="29"/>
+      <c r="E423" s="29"/>
+      <c r="F423" s="29"/>
+      <c r="G423" s="29"/>
+      <c r="H423" s="29"/>
+    </row>
+    <row r="424" spans="1:8">
+      <c r="A424" s="27"/>
+      <c r="B424" s="27"/>
+      <c r="C424" s="29"/>
+      <c r="D424" s="29"/>
+      <c r="E424" s="29"/>
+      <c r="F424" s="29"/>
+      <c r="G424" s="29"/>
+      <c r="H424" s="29"/>
+    </row>
+    <row r="425" ht="15.7" spans="1:8">
+      <c r="A425" s="29" t="s">
+        <v>323</v>
+      </c>
+      <c r="B425" s="29"/>
+      <c r="C425" s="86" t="s">
+        <v>324</v>
+      </c>
+      <c r="D425" s="86"/>
+      <c r="E425" s="86"/>
+      <c r="F425" s="86"/>
+      <c r="G425" s="86"/>
+      <c r="H425" s="86"/>
+    </row>
+    <row r="428" spans="1:8">
+      <c r="A428" s="27" t="s">
+        <v>322</v>
+      </c>
+      <c r="B428" s="27"/>
+      <c r="C428" s="29"/>
+      <c r="D428" s="29"/>
+      <c r="E428" s="29"/>
+      <c r="F428" s="29"/>
+      <c r="G428" s="29"/>
+      <c r="H428" s="29"/>
+    </row>
+    <row r="429" spans="1:8">
+      <c r="A429" s="27"/>
+      <c r="B429" s="27"/>
+      <c r="C429" s="29"/>
+      <c r="D429" s="29"/>
+      <c r="E429" s="29"/>
+      <c r="F429" s="29"/>
+      <c r="G429" s="29"/>
+      <c r="H429" s="29"/>
+    </row>
+    <row r="430" ht="15.7" spans="1:8">
+      <c r="A430" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="B430" s="29"/>
+      <c r="C430" s="86" t="s">
+        <v>325</v>
+      </c>
+      <c r="D430" s="86"/>
+      <c r="E430" s="86"/>
+      <c r="F430" s="86"/>
+      <c r="G430" s="86"/>
+      <c r="H430" s="86"/>
+    </row>
+    <row r="431" ht="15.7" spans="1:8">
+      <c r="A431" s="29" t="s">
+        <v>291</v>
+      </c>
+      <c r="B431" s="29"/>
+      <c r="C431" s="86" t="s">
+        <v>326</v>
+      </c>
+      <c r="D431" s="86"/>
+      <c r="E431" s="86"/>
+      <c r="F431" s="86"/>
+      <c r="G431" s="86"/>
+      <c r="H431" s="86"/>
+    </row>
+    <row r="432" ht="15.7" spans="1:8">
+      <c r="A432" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="B432" s="29"/>
+      <c r="C432" s="86" t="s">
+        <v>327</v>
+      </c>
+      <c r="D432" s="86"/>
+      <c r="E432" s="86"/>
+      <c r="F432" s="86"/>
+      <c r="G432" s="86"/>
+      <c r="H432" s="86"/>
+    </row>
+    <row r="433" ht="15.7" spans="1:8">
+      <c r="A433" s="29" t="s">
+        <v>294</v>
+      </c>
+      <c r="B433" s="29"/>
+      <c r="C433" s="86" t="s">
+        <v>328</v>
+      </c>
+      <c r="D433" s="86"/>
+      <c r="E433" s="86"/>
+      <c r="F433" s="86"/>
+      <c r="G433" s="86"/>
+      <c r="H433" s="86"/>
+    </row>
+    <row r="434" ht="15.7" spans="1:8">
+      <c r="A434" s="29" t="s">
+        <v>297</v>
+      </c>
+      <c r="B434" s="29"/>
+      <c r="C434" s="86"/>
+      <c r="D434" s="86"/>
+      <c r="E434" s="86"/>
+      <c r="F434" s="86"/>
+      <c r="G434" s="86"/>
+      <c r="H434" s="86"/>
+    </row>
+    <row r="435" ht="15.7" spans="1:8">
+      <c r="A435" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="B435" s="29"/>
+      <c r="C435" s="86" t="s">
+        <v>329</v>
+      </c>
+      <c r="D435" s="86"/>
+      <c r="E435" s="86"/>
+      <c r="F435" s="86"/>
+      <c r="G435" s="86"/>
+      <c r="H435" s="86"/>
+    </row>
+    <row r="436" ht="15.7" spans="1:8">
+      <c r="A436" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="B436" s="29"/>
+      <c r="C436" s="86" t="s">
+        <v>330</v>
+      </c>
+      <c r="D436" s="86"/>
+      <c r="E436" s="86"/>
+      <c r="F436" s="86"/>
+      <c r="G436" s="86"/>
+      <c r="H436" s="86"/>
+    </row>
+    <row r="438" spans="1:8">
+      <c r="A438" s="27" t="s">
+        <v>322</v>
+      </c>
+      <c r="B438" s="27"/>
+      <c r="C438" s="29"/>
+      <c r="D438" s="29"/>
+      <c r="E438" s="29"/>
+      <c r="F438" s="29"/>
+      <c r="G438" s="29"/>
+      <c r="H438" s="29"/>
+    </row>
+    <row r="439" spans="1:8">
+      <c r="A439" s="27"/>
+      <c r="B439" s="27"/>
+      <c r="C439" s="29"/>
+      <c r="D439" s="29"/>
+      <c r="E439" s="29"/>
+      <c r="F439" s="29"/>
+      <c r="G439" s="29"/>
+      <c r="H439" s="29"/>
+    </row>
+    <row r="440" ht="15.7" spans="1:8">
+      <c r="A440" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="B440" s="29"/>
+      <c r="C440" s="86"/>
+      <c r="D440" s="86"/>
+      <c r="E440" s="86"/>
+      <c r="F440" s="86"/>
+      <c r="G440" s="86"/>
+      <c r="H440" s="86"/>
+    </row>
+    <row r="441" ht="15.7" spans="1:8">
+      <c r="A441" s="29" t="s">
+        <v>291</v>
+      </c>
+      <c r="B441" s="29"/>
+      <c r="C441" s="86" t="s">
+        <v>331</v>
+      </c>
+      <c r="D441" s="86"/>
+      <c r="E441" s="86"/>
+      <c r="F441" s="86"/>
+      <c r="G441" s="86"/>
+      <c r="H441" s="86"/>
+    </row>
+    <row r="442" ht="15.7" spans="1:8">
+      <c r="A442" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="B442" s="29"/>
+      <c r="C442" s="86"/>
+      <c r="D442" s="86"/>
+      <c r="E442" s="86"/>
+      <c r="F442" s="86"/>
+      <c r="G442" s="86"/>
+      <c r="H442" s="86"/>
+    </row>
+    <row r="443" ht="15.7" spans="1:8">
+      <c r="A443" s="29" t="s">
+        <v>294</v>
+      </c>
+      <c r="B443" s="29"/>
+      <c r="C443" s="86"/>
+      <c r="D443" s="86"/>
+      <c r="E443" s="86"/>
+      <c r="F443" s="86"/>
+      <c r="G443" s="86"/>
+      <c r="H443" s="86"/>
+    </row>
+    <row r="444" ht="15.7" spans="1:8">
+      <c r="A444" s="29" t="s">
+        <v>297</v>
+      </c>
+      <c r="B444" s="29"/>
+      <c r="C444" s="86"/>
+      <c r="D444" s="86"/>
+      <c r="E444" s="86"/>
+      <c r="F444" s="86"/>
+      <c r="G444" s="86"/>
+      <c r="H444" s="86"/>
+    </row>
+    <row r="445" ht="15.7" spans="1:8">
+      <c r="A445" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="B445" s="29"/>
+      <c r="C445" s="86"/>
+      <c r="D445" s="86"/>
+      <c r="E445" s="86"/>
+      <c r="F445" s="86"/>
+      <c r="G445" s="86"/>
+      <c r="H445" s="86"/>
+    </row>
+    <row r="446" ht="15.7" spans="1:8">
+      <c r="A446" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="B446" s="29"/>
+      <c r="C446" s="86"/>
+      <c r="D446" s="86"/>
+      <c r="E446" s="86"/>
+      <c r="F446" s="86"/>
+      <c r="G446" s="86"/>
+      <c r="H446" s="86"/>
     </row>
   </sheetData>
-  <mergeCells count="479">
+  <mergeCells count="530">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="C3:H3"/>
@@ -7557,6 +8028,7 @@
     <mergeCell ref="C362:H362"/>
     <mergeCell ref="A366:B366"/>
     <mergeCell ref="C366:H366"/>
+    <mergeCell ref="I366:M366"/>
     <mergeCell ref="A367:B367"/>
     <mergeCell ref="C367:H367"/>
     <mergeCell ref="A368:B368"/>
@@ -7614,11 +8086,52 @@
     <mergeCell ref="A409:B409"/>
     <mergeCell ref="C409:H409"/>
     <mergeCell ref="A410:B410"/>
-    <mergeCell ref="C410:H410"/>
     <mergeCell ref="A411:B411"/>
-    <mergeCell ref="C411:H411"/>
     <mergeCell ref="A412:B412"/>
-    <mergeCell ref="C412:H412"/>
+    <mergeCell ref="A416:B416"/>
+    <mergeCell ref="C416:H416"/>
+    <mergeCell ref="A417:B417"/>
+    <mergeCell ref="C417:H417"/>
+    <mergeCell ref="A418:B418"/>
+    <mergeCell ref="C418:H418"/>
+    <mergeCell ref="I418:M418"/>
+    <mergeCell ref="A419:B419"/>
+    <mergeCell ref="C419:H419"/>
+    <mergeCell ref="A420:B420"/>
+    <mergeCell ref="C420:H420"/>
+    <mergeCell ref="A421:B421"/>
+    <mergeCell ref="C421:H421"/>
+    <mergeCell ref="I421:M421"/>
+    <mergeCell ref="A425:B425"/>
+    <mergeCell ref="C425:H425"/>
+    <mergeCell ref="A430:B430"/>
+    <mergeCell ref="C430:H430"/>
+    <mergeCell ref="A431:B431"/>
+    <mergeCell ref="C431:H431"/>
+    <mergeCell ref="A432:B432"/>
+    <mergeCell ref="C432:H432"/>
+    <mergeCell ref="A433:B433"/>
+    <mergeCell ref="C433:H433"/>
+    <mergeCell ref="A434:B434"/>
+    <mergeCell ref="C434:H434"/>
+    <mergeCell ref="A435:B435"/>
+    <mergeCell ref="C435:H435"/>
+    <mergeCell ref="A436:B436"/>
+    <mergeCell ref="C436:H436"/>
+    <mergeCell ref="A440:B440"/>
+    <mergeCell ref="C440:H440"/>
+    <mergeCell ref="A441:B441"/>
+    <mergeCell ref="C441:H441"/>
+    <mergeCell ref="A442:B442"/>
+    <mergeCell ref="C442:H442"/>
+    <mergeCell ref="A443:B443"/>
+    <mergeCell ref="C443:H443"/>
+    <mergeCell ref="A444:B444"/>
+    <mergeCell ref="C444:H444"/>
+    <mergeCell ref="A445:B445"/>
+    <mergeCell ref="C445:H445"/>
+    <mergeCell ref="A446:B446"/>
+    <mergeCell ref="C446:H446"/>
     <mergeCell ref="I62:I65"/>
     <mergeCell ref="I67:I70"/>
     <mergeCell ref="I72:I75"/>
@@ -7749,6 +8262,15 @@
     <mergeCell ref="C394:H395"/>
     <mergeCell ref="A404:B405"/>
     <mergeCell ref="C404:H405"/>
+    <mergeCell ref="C410:H412"/>
+    <mergeCell ref="A414:B415"/>
+    <mergeCell ref="C414:H415"/>
+    <mergeCell ref="A423:B424"/>
+    <mergeCell ref="C423:H424"/>
+    <mergeCell ref="A428:B429"/>
+    <mergeCell ref="C428:H429"/>
+    <mergeCell ref="A438:B439"/>
+    <mergeCell ref="C438:H439"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/day day up.xlsx
+++ b/day day up.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394">
   <si>
     <t>// 公历日期只做参考，按照自己的循环走</t>
   </si>
@@ -1011,25 +1011,211 @@
     <t>thinking in java 14.1；康复20组（做不动了，下周准备带一点正常力量训练）</t>
   </si>
   <si>
+    <t>2-Monday</t>
+  </si>
+  <si>
     <t>thinking in java 14.4</t>
   </si>
   <si>
+    <t>3-Tuesday</t>
+  </si>
+  <si>
     <t>吉他2h（一般）</t>
   </si>
   <si>
+    <t>4-Wednesday</t>
+  </si>
+  <si>
     <t>康复10组（没质没量，特么我之前练的还都是错的，难怪这么久没什么反应）</t>
   </si>
   <si>
+    <t>5-Thursday</t>
+  </si>
+  <si>
     <t>吉他2h（还行吧）</t>
   </si>
   <si>
+    <t>6-Friday</t>
+  </si>
+  <si>
+    <t>7-Saturday</t>
+  </si>
+  <si>
     <t>thinking in java 14章结束</t>
   </si>
   <si>
+    <t>8-Sunday</t>
+  </si>
+  <si>
     <t>thinking in java 15.2</t>
   </si>
   <si>
+    <t>9-Monday</t>
+  </si>
+  <si>
+    <t>423项目，从这一天开始加班的，万恶伊始</t>
+  </si>
+  <si>
+    <t>10-Tuesday</t>
+  </si>
+  <si>
     <t>thinking in java 15.4</t>
+  </si>
+  <si>
+    <t>11-Wednesday</t>
+  </si>
+  <si>
+    <t>12-Thursday</t>
+  </si>
+  <si>
+    <t>13-Friday</t>
+  </si>
+  <si>
+    <t>14-Saturday</t>
+  </si>
+  <si>
+    <t>15-Sunday</t>
+  </si>
+  <si>
+    <t>16-Monday</t>
+  </si>
+  <si>
+    <t>17-Tuesday</t>
+  </si>
+  <si>
+    <t>18-Wednesday</t>
+  </si>
+  <si>
+    <t>19-Thursday</t>
+  </si>
+  <si>
+    <t>20-Friday</t>
+  </si>
+  <si>
+    <t>21-Saturday</t>
+  </si>
+  <si>
+    <t>22-Sunday</t>
+  </si>
+  <si>
+    <t>康复34组；练琴1.5h</t>
+  </si>
+  <si>
+    <t>练琴1.5h</t>
+  </si>
+  <si>
+    <t>练琴1.5h；泛型的两个小知识点</t>
+  </si>
+  <si>
+    <t>感冒</t>
+  </si>
+  <si>
+    <t>练琴1h</t>
+  </si>
+  <si>
+    <t>断档</t>
+  </si>
+  <si>
+    <t>六月</t>
+  </si>
+  <si>
+    <t>3号-周日</t>
+  </si>
+  <si>
+    <t>上午，混日子；下午，练琴（混）；晚上，万历十五年5S（混）</t>
+  </si>
+  <si>
+    <t>4号-周一</t>
+  </si>
+  <si>
+    <t>上午，可以；下午，最后1小时有点混；晚上，唉，也就那样吧</t>
+  </si>
+  <si>
+    <t>5号</t>
+  </si>
+  <si>
+    <t>上午&amp;下午，算不上混，可也不知道在干嘛；晚上，妥妥的混</t>
+  </si>
+  <si>
+    <t>差点忘掉记这个东西</t>
+  </si>
+  <si>
+    <t>6号</t>
+  </si>
+  <si>
+    <t>妥妥的混</t>
+  </si>
+  <si>
+    <t>7号</t>
+  </si>
+  <si>
+    <t>上午，混</t>
+  </si>
+  <si>
+    <t>8号</t>
+  </si>
+  <si>
+    <t>9号</t>
+  </si>
+  <si>
+    <t>10号</t>
+  </si>
+  <si>
+    <t>11号</t>
+  </si>
+  <si>
+    <t>12号</t>
+  </si>
+  <si>
+    <t>13号</t>
+  </si>
+  <si>
+    <t>14号</t>
+  </si>
+  <si>
+    <t>15号</t>
+  </si>
+  <si>
+    <t>16号</t>
+  </si>
+  <si>
+    <t>17号</t>
+  </si>
+  <si>
+    <t>18号</t>
+  </si>
+  <si>
+    <t>19号</t>
+  </si>
+  <si>
+    <t>20号</t>
+  </si>
+  <si>
+    <t>21号</t>
+  </si>
+  <si>
+    <t>22号</t>
+  </si>
+  <si>
+    <t>23号</t>
+  </si>
+  <si>
+    <t>24号</t>
+  </si>
+  <si>
+    <t>25号</t>
+  </si>
+  <si>
+    <t>26号</t>
+  </si>
+  <si>
+    <t>27号</t>
+  </si>
+  <si>
+    <t>28号</t>
+  </si>
+  <si>
+    <t>29号</t>
   </si>
 </sst>
 </file>
@@ -1037,13 +1223,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="000000"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1123,6 +1309,32 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -1131,7 +1343,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1160,8 +1403,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1190,28 +1448,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -1223,37 +1459,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1287,6 +1492,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1299,7 +1522,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1311,7 +1546,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1323,7 +1570,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1335,7 +1642,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1347,85 +1660,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1437,37 +1672,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1626,6 +1831,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1637,6 +1851,45 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1658,48 +1911,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1712,17 +1928,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1731,10 +1936,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1743,137 +1948,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2147,8 +2352,50 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2498,10 +2745,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P446"/>
+  <dimension ref="A1:P503"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A420" workbookViewId="0">
-      <selection activeCell="C441" sqref="C441:H441"/>
+    <sheetView tabSelected="1" topLeftCell="A469" workbookViewId="0">
+      <selection activeCell="D484" sqref="D484"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -7469,13 +7716,13 @@
       <c r="F421" s="86"/>
       <c r="G421" s="86"/>
       <c r="H421" s="86"/>
-      <c r="I421" s="91" t="s">
+      <c r="I421" s="92" t="s">
         <v>321</v>
       </c>
-      <c r="J421" s="91"/>
-      <c r="K421" s="91"/>
-      <c r="L421" s="91"/>
-      <c r="M421" s="91"/>
+      <c r="J421" s="92"/>
+      <c r="K421" s="92"/>
+      <c r="L421" s="92"/>
+      <c r="M421" s="92"/>
     </row>
     <row r="423" spans="1:8">
       <c r="A423" s="27" t="s">
@@ -7537,11 +7784,11 @@
     </row>
     <row r="430" ht="15.7" spans="1:8">
       <c r="A430" s="29" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="B430" s="29"/>
       <c r="C430" s="86" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D430" s="86"/>
       <c r="E430" s="86"/>
@@ -7551,11 +7798,11 @@
     </row>
     <row r="431" ht="15.7" spans="1:8">
       <c r="A431" s="29" t="s">
-        <v>291</v>
+        <v>327</v>
       </c>
       <c r="B431" s="29"/>
       <c r="C431" s="86" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D431" s="86"/>
       <c r="E431" s="86"/>
@@ -7565,11 +7812,11 @@
     </row>
     <row r="432" ht="15.7" spans="1:8">
       <c r="A432" s="29" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="B432" s="29"/>
       <c r="C432" s="86" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D432" s="86"/>
       <c r="E432" s="86"/>
@@ -7579,11 +7826,11 @@
     </row>
     <row r="433" ht="15.7" spans="1:8">
       <c r="A433" s="29" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="B433" s="29"/>
       <c r="C433" s="86" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="D433" s="86"/>
       <c r="E433" s="86"/>
@@ -7593,7 +7840,7 @@
     </row>
     <row r="434" ht="15.7" spans="1:8">
       <c r="A434" s="29" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c r="B434" s="29"/>
       <c r="C434" s="86"/>
@@ -7605,11 +7852,11 @@
     </row>
     <row r="435" ht="15.7" spans="1:8">
       <c r="A435" s="29" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="B435" s="29"/>
       <c r="C435" s="86" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="D435" s="86"/>
       <c r="E435" s="86"/>
@@ -7619,11 +7866,11 @@
     </row>
     <row r="436" ht="15.7" spans="1:8">
       <c r="A436" s="29" t="s">
-        <v>301</v>
+        <v>336</v>
       </c>
       <c r="B436" s="29"/>
       <c r="C436" s="86" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="D436" s="86"/>
       <c r="E436" s="86"/>
@@ -7653,9 +7900,9 @@
       <c r="G439" s="29"/>
       <c r="H439" s="29"/>
     </row>
-    <row r="440" ht="15.7" spans="1:8">
+    <row r="440" ht="15.7" spans="1:14">
       <c r="A440" s="29" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="B440" s="29"/>
       <c r="C440" s="86"/>
@@ -7664,14 +7911,22 @@
       <c r="F440" s="86"/>
       <c r="G440" s="86"/>
       <c r="H440" s="86"/>
+      <c r="I440" s="68" t="s">
+        <v>339</v>
+      </c>
+      <c r="J440" s="68"/>
+      <c r="K440" s="68"/>
+      <c r="L440" s="68"/>
+      <c r="M440" s="68"/>
+      <c r="N440" s="68"/>
     </row>
     <row r="441" ht="15.7" spans="1:8">
       <c r="A441" s="29" t="s">
-        <v>291</v>
+        <v>340</v>
       </c>
       <c r="B441" s="29"/>
       <c r="C441" s="86" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="D441" s="86"/>
       <c r="E441" s="86"/>
@@ -7681,66 +7936,592 @@
     </row>
     <row r="442" ht="15.7" spans="1:8">
       <c r="A442" s="29" t="s">
-        <v>293</v>
+        <v>342</v>
       </c>
       <c r="B442" s="29"/>
-      <c r="C442" s="86"/>
-      <c r="D442" s="86"/>
-      <c r="E442" s="86"/>
-      <c r="F442" s="86"/>
-      <c r="G442" s="86"/>
-      <c r="H442" s="86"/>
+      <c r="C442" s="91" t="s">
+        <v>100</v>
+      </c>
+      <c r="D442" s="67"/>
+      <c r="E442" s="67"/>
+      <c r="F442" s="67"/>
+      <c r="G442" s="67"/>
+      <c r="H442" s="13"/>
     </row>
     <row r="443" ht="15.7" spans="1:8">
       <c r="A443" s="29" t="s">
-        <v>294</v>
+        <v>343</v>
       </c>
       <c r="B443" s="29"/>
-      <c r="C443" s="86"/>
-      <c r="D443" s="86"/>
-      <c r="E443" s="86"/>
-      <c r="F443" s="86"/>
-      <c r="G443" s="86"/>
-      <c r="H443" s="86"/>
+      <c r="C443" s="17"/>
+      <c r="D443" s="68"/>
+      <c r="E443" s="68"/>
+      <c r="F443" s="68"/>
+      <c r="G443" s="68"/>
+      <c r="H443" s="18"/>
     </row>
     <row r="444" ht="15.7" spans="1:8">
       <c r="A444" s="29" t="s">
-        <v>297</v>
+        <v>344</v>
       </c>
       <c r="B444" s="29"/>
-      <c r="C444" s="86"/>
-      <c r="D444" s="86"/>
-      <c r="E444" s="86"/>
-      <c r="F444" s="86"/>
-      <c r="G444" s="86"/>
-      <c r="H444" s="86"/>
+      <c r="C444" s="17"/>
+      <c r="D444" s="68"/>
+      <c r="E444" s="68"/>
+      <c r="F444" s="68"/>
+      <c r="G444" s="68"/>
+      <c r="H444" s="18"/>
     </row>
     <row r="445" ht="15.7" spans="1:8">
       <c r="A445" s="29" t="s">
-        <v>299</v>
+        <v>345</v>
       </c>
       <c r="B445" s="29"/>
-      <c r="C445" s="86"/>
-      <c r="D445" s="86"/>
-      <c r="E445" s="86"/>
-      <c r="F445" s="86"/>
-      <c r="G445" s="86"/>
-      <c r="H445" s="86"/>
+      <c r="C445" s="17"/>
+      <c r="D445" s="68"/>
+      <c r="E445" s="68"/>
+      <c r="F445" s="68"/>
+      <c r="G445" s="68"/>
+      <c r="H445" s="18"/>
     </row>
     <row r="446" ht="15.7" spans="1:8">
       <c r="A446" s="29" t="s">
-        <v>301</v>
+        <v>346</v>
       </c>
       <c r="B446" s="29"/>
-      <c r="C446" s="86"/>
-      <c r="D446" s="86"/>
-      <c r="E446" s="86"/>
-      <c r="F446" s="86"/>
-      <c r="G446" s="86"/>
-      <c r="H446" s="86"/>
+      <c r="C446" s="22"/>
+      <c r="D446" s="69"/>
+      <c r="E446" s="69"/>
+      <c r="F446" s="69"/>
+      <c r="G446" s="69"/>
+      <c r="H446" s="23"/>
+    </row>
+    <row r="448" spans="1:8">
+      <c r="A448" s="27" t="s">
+        <v>322</v>
+      </c>
+      <c r="B448" s="27"/>
+      <c r="C448" s="29"/>
+      <c r="D448" s="29"/>
+      <c r="E448" s="29"/>
+      <c r="F448" s="29"/>
+      <c r="G448" s="29"/>
+      <c r="H448" s="29"/>
+    </row>
+    <row r="449" spans="1:8">
+      <c r="A449" s="27"/>
+      <c r="B449" s="27"/>
+      <c r="C449" s="29"/>
+      <c r="D449" s="29"/>
+      <c r="E449" s="29"/>
+      <c r="F449" s="29"/>
+      <c r="G449" s="29"/>
+      <c r="H449" s="29"/>
+    </row>
+    <row r="450" ht="15.7" spans="1:8">
+      <c r="A450" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="B450" s="29"/>
+      <c r="C450" s="93" t="s">
+        <v>100</v>
+      </c>
+      <c r="D450" s="94"/>
+      <c r="E450" s="94"/>
+      <c r="F450" s="94"/>
+      <c r="G450" s="94"/>
+      <c r="H450" s="95"/>
+    </row>
+    <row r="451" ht="15.7" spans="1:8">
+      <c r="A451" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="B451" s="29"/>
+      <c r="C451" s="96"/>
+      <c r="D451" s="97"/>
+      <c r="E451" s="97"/>
+      <c r="F451" s="97"/>
+      <c r="G451" s="97"/>
+      <c r="H451" s="98"/>
+    </row>
+    <row r="452" ht="15.7" spans="1:8">
+      <c r="A452" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="B452" s="29"/>
+      <c r="C452" s="96"/>
+      <c r="D452" s="97"/>
+      <c r="E452" s="97"/>
+      <c r="F452" s="97"/>
+      <c r="G452" s="97"/>
+      <c r="H452" s="98"/>
+    </row>
+    <row r="453" ht="15.7" spans="1:8">
+      <c r="A453" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="B453" s="29"/>
+      <c r="C453" s="96"/>
+      <c r="D453" s="97"/>
+      <c r="E453" s="97"/>
+      <c r="F453" s="97"/>
+      <c r="G453" s="97"/>
+      <c r="H453" s="98"/>
+    </row>
+    <row r="454" ht="15.7" spans="1:8">
+      <c r="A454" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="B454" s="29"/>
+      <c r="C454" s="96"/>
+      <c r="D454" s="97"/>
+      <c r="E454" s="97"/>
+      <c r="F454" s="97"/>
+      <c r="G454" s="97"/>
+      <c r="H454" s="98"/>
+    </row>
+    <row r="455" ht="15.7" spans="1:8">
+      <c r="A455" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="B455" s="29"/>
+      <c r="C455" s="96"/>
+      <c r="D455" s="97"/>
+      <c r="E455" s="97"/>
+      <c r="F455" s="97"/>
+      <c r="G455" s="97"/>
+      <c r="H455" s="98"/>
+    </row>
+    <row r="456" ht="15.7" spans="1:8">
+      <c r="A456" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="B456" s="29"/>
+      <c r="C456" s="99" t="s">
+        <v>354</v>
+      </c>
+      <c r="D456" s="100"/>
+      <c r="E456" s="100"/>
+      <c r="F456" s="100"/>
+      <c r="G456" s="100"/>
+      <c r="H456" s="101"/>
+    </row>
+    <row r="458" spans="1:8">
+      <c r="A458" s="27" t="s">
+        <v>322</v>
+      </c>
+      <c r="B458" s="27"/>
+      <c r="C458" s="12"/>
+      <c r="D458" s="67"/>
+      <c r="E458" s="67"/>
+      <c r="F458" s="67"/>
+      <c r="G458" s="67"/>
+      <c r="H458" s="13"/>
+    </row>
+    <row r="459" spans="1:8">
+      <c r="A459" s="27"/>
+      <c r="B459" s="27"/>
+      <c r="C459" s="22"/>
+      <c r="D459" s="69"/>
+      <c r="E459" s="69"/>
+      <c r="F459" s="69"/>
+      <c r="G459" s="69"/>
+      <c r="H459" s="23"/>
+    </row>
+    <row r="460" ht="15.7" spans="1:8">
+      <c r="A460" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="B460" s="29"/>
+      <c r="C460" s="99" t="s">
+        <v>355</v>
+      </c>
+      <c r="D460" s="100"/>
+      <c r="E460" s="100"/>
+      <c r="F460" s="100"/>
+      <c r="G460" s="100"/>
+      <c r="H460" s="101"/>
+    </row>
+    <row r="461" ht="15.7" spans="1:8">
+      <c r="A461" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="B461" s="29"/>
+      <c r="C461" s="99" t="s">
+        <v>356</v>
+      </c>
+      <c r="D461" s="100"/>
+      <c r="E461" s="100"/>
+      <c r="F461" s="100"/>
+      <c r="G461" s="100"/>
+      <c r="H461" s="101"/>
+    </row>
+    <row r="462" ht="15.7" spans="1:8">
+      <c r="A462" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="B462" s="29"/>
+      <c r="C462" s="99"/>
+      <c r="D462" s="100"/>
+      <c r="E462" s="100"/>
+      <c r="F462" s="100"/>
+      <c r="G462" s="100"/>
+      <c r="H462" s="101"/>
+    </row>
+    <row r="463" ht="15.7" spans="1:8">
+      <c r="A463" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="B463" s="29"/>
+      <c r="C463" s="99" t="s">
+        <v>357</v>
+      </c>
+      <c r="D463" s="100"/>
+      <c r="E463" s="100"/>
+      <c r="F463" s="100"/>
+      <c r="G463" s="100"/>
+      <c r="H463" s="101"/>
+    </row>
+    <row r="464" ht="15.7" spans="1:8">
+      <c r="A464" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="B464" s="29"/>
+      <c r="C464" s="99" t="s">
+        <v>358</v>
+      </c>
+      <c r="D464" s="100"/>
+      <c r="E464" s="100"/>
+      <c r="F464" s="100"/>
+      <c r="G464" s="100"/>
+      <c r="H464" s="101"/>
+    </row>
+    <row r="465" ht="15.7" spans="1:8">
+      <c r="A465" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="B465" s="29"/>
+      <c r="C465" s="99"/>
+      <c r="D465" s="100"/>
+      <c r="E465" s="100"/>
+      <c r="F465" s="100"/>
+      <c r="G465" s="100"/>
+      <c r="H465" s="101"/>
+    </row>
+    <row r="466" ht="15.7" spans="1:8">
+      <c r="A466" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="B466" s="29"/>
+      <c r="C466" s="99"/>
+      <c r="D466" s="100"/>
+      <c r="E466" s="100"/>
+      <c r="F466" s="100"/>
+      <c r="G466" s="100"/>
+      <c r="H466" s="101"/>
+    </row>
+    <row r="468" spans="1:8">
+      <c r="A468" s="102" t="s">
+        <v>359</v>
+      </c>
+      <c r="B468" s="102"/>
+      <c r="C468" s="102"/>
+      <c r="D468" s="102"/>
+      <c r="E468" s="102"/>
+      <c r="F468" s="102"/>
+      <c r="G468" s="102"/>
+      <c r="H468" s="102"/>
+    </row>
+    <row r="469" spans="1:8">
+      <c r="A469" s="102"/>
+      <c r="B469" s="102"/>
+      <c r="C469" s="102"/>
+      <c r="D469" s="102"/>
+      <c r="E469" s="102"/>
+      <c r="F469" s="102"/>
+      <c r="G469" s="102"/>
+      <c r="H469" s="102"/>
+    </row>
+    <row r="470" spans="1:8">
+      <c r="A470" s="102"/>
+      <c r="B470" s="102"/>
+      <c r="C470" s="102"/>
+      <c r="D470" s="102"/>
+      <c r="E470" s="102"/>
+      <c r="F470" s="102"/>
+      <c r="G470" s="102"/>
+      <c r="H470" s="102"/>
+    </row>
+    <row r="471" spans="1:8">
+      <c r="A471" s="102"/>
+      <c r="B471" s="102"/>
+      <c r="C471" s="102"/>
+      <c r="D471" s="102"/>
+      <c r="E471" s="102"/>
+      <c r="F471" s="102"/>
+      <c r="G471" s="102"/>
+      <c r="H471" s="102"/>
+    </row>
+    <row r="472" spans="1:8">
+      <c r="A472" s="102"/>
+      <c r="B472" s="102"/>
+      <c r="C472" s="102"/>
+      <c r="D472" s="102"/>
+      <c r="E472" s="102"/>
+      <c r="F472" s="102"/>
+      <c r="G472" s="102"/>
+      <c r="H472" s="102"/>
+    </row>
+    <row r="474" spans="1:8">
+      <c r="A474" s="27" t="s">
+        <v>360</v>
+      </c>
+      <c r="B474" s="27"/>
+      <c r="C474" s="12"/>
+      <c r="D474" s="67"/>
+      <c r="E474" s="67"/>
+      <c r="F474" s="67"/>
+      <c r="G474" s="67"/>
+      <c r="H474" s="13"/>
+    </row>
+    <row r="475" spans="1:8">
+      <c r="A475" s="27"/>
+      <c r="B475" s="27"/>
+      <c r="C475" s="22"/>
+      <c r="D475" s="69"/>
+      <c r="E475" s="69"/>
+      <c r="F475" s="69"/>
+      <c r="G475" s="69"/>
+      <c r="H475" s="23"/>
+    </row>
+    <row r="476" ht="15.7" spans="1:8">
+      <c r="A476" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="B476" s="29"/>
+      <c r="C476" s="103" t="s">
+        <v>362</v>
+      </c>
+      <c r="D476" s="103"/>
+      <c r="E476" s="103"/>
+      <c r="F476" s="103"/>
+      <c r="G476" s="103"/>
+      <c r="H476" s="103"/>
+    </row>
+    <row r="477" ht="15.7" spans="1:8">
+      <c r="A477" s="104"/>
+      <c r="B477" s="104"/>
+      <c r="C477" s="105"/>
+      <c r="D477" s="105"/>
+      <c r="E477" s="105"/>
+      <c r="F477" s="105"/>
+      <c r="G477" s="105"/>
+      <c r="H477" s="105"/>
+    </row>
+    <row r="478" ht="15.7" spans="1:8">
+      <c r="A478" s="29" t="s">
+        <v>363</v>
+      </c>
+      <c r="B478" s="29"/>
+      <c r="C478" s="103" t="s">
+        <v>364</v>
+      </c>
+      <c r="D478" s="103"/>
+      <c r="E478" s="103"/>
+      <c r="F478" s="103"/>
+      <c r="G478" s="103"/>
+      <c r="H478" s="103"/>
+    </row>
+    <row r="479" ht="15.7" spans="1:14">
+      <c r="A479" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="B479" s="29"/>
+      <c r="C479" s="103" t="s">
+        <v>366</v>
+      </c>
+      <c r="D479" s="103"/>
+      <c r="E479" s="103"/>
+      <c r="F479" s="103"/>
+      <c r="G479" s="103"/>
+      <c r="H479" s="103"/>
+      <c r="I479" s="55" t="s">
+        <v>367</v>
+      </c>
+      <c r="J479" s="55"/>
+      <c r="K479" s="55"/>
+      <c r="L479" s="55"/>
+      <c r="M479" s="55"/>
+      <c r="N479" s="55"/>
+    </row>
+    <row r="480" ht="15.7" spans="1:8">
+      <c r="A480" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="B480" s="29"/>
+      <c r="C480" s="103" t="s">
+        <v>369</v>
+      </c>
+      <c r="D480" s="103"/>
+      <c r="E480" s="103"/>
+      <c r="F480" s="103"/>
+      <c r="G480" s="103"/>
+      <c r="H480" s="103"/>
+    </row>
+    <row r="481" ht="15.7" spans="1:8">
+      <c r="A481" s="29" t="s">
+        <v>370</v>
+      </c>
+      <c r="B481" s="29"/>
+      <c r="C481" s="103" t="s">
+        <v>371</v>
+      </c>
+      <c r="D481" s="103"/>
+      <c r="E481" s="103"/>
+      <c r="F481" s="103"/>
+      <c r="G481" s="103"/>
+      <c r="H481" s="103"/>
+    </row>
+    <row r="482" ht="15.7" spans="1:8">
+      <c r="A482" s="29" t="s">
+        <v>372</v>
+      </c>
+      <c r="B482" s="29"/>
+      <c r="C482" s="105"/>
+      <c r="D482" s="105"/>
+      <c r="E482" s="105"/>
+      <c r="F482" s="105"/>
+      <c r="G482" s="105"/>
+      <c r="H482" s="105"/>
+    </row>
+    <row r="483" ht="15.7" spans="1:2">
+      <c r="A483" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="B483" s="29"/>
+    </row>
+    <row r="484" ht="15.7" spans="1:2">
+      <c r="A484" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="B484" s="29"/>
+    </row>
+    <row r="485" ht="15.7" spans="1:2">
+      <c r="A485" s="29" t="s">
+        <v>375</v>
+      </c>
+      <c r="B485" s="29"/>
+    </row>
+    <row r="486" ht="15.7" spans="1:2">
+      <c r="A486" s="29" t="s">
+        <v>376</v>
+      </c>
+      <c r="B486" s="29"/>
+    </row>
+    <row r="487" ht="15.7" spans="1:2">
+      <c r="A487" s="29" t="s">
+        <v>377</v>
+      </c>
+      <c r="B487" s="29"/>
+    </row>
+    <row r="488" ht="15.7" spans="1:2">
+      <c r="A488" s="29" t="s">
+        <v>378</v>
+      </c>
+      <c r="B488" s="29"/>
+    </row>
+    <row r="489" ht="15.7" spans="1:2">
+      <c r="A489" s="29" t="s">
+        <v>379</v>
+      </c>
+      <c r="B489" s="29"/>
+    </row>
+    <row r="490" ht="15.7" spans="1:2">
+      <c r="A490" s="29" t="s">
+        <v>380</v>
+      </c>
+      <c r="B490" s="29"/>
+    </row>
+    <row r="491" ht="15.7" spans="1:2">
+      <c r="A491" s="29" t="s">
+        <v>381</v>
+      </c>
+      <c r="B491" s="29"/>
+    </row>
+    <row r="492" ht="15.7" spans="1:2">
+      <c r="A492" s="29" t="s">
+        <v>382</v>
+      </c>
+      <c r="B492" s="29"/>
+    </row>
+    <row r="493" ht="15.7" spans="1:2">
+      <c r="A493" s="29" t="s">
+        <v>383</v>
+      </c>
+      <c r="B493" s="29"/>
+    </row>
+    <row r="494" ht="15.7" spans="1:2">
+      <c r="A494" s="29" t="s">
+        <v>384</v>
+      </c>
+      <c r="B494" s="29"/>
+    </row>
+    <row r="495" ht="15.7" spans="1:2">
+      <c r="A495" s="29" t="s">
+        <v>385</v>
+      </c>
+      <c r="B495" s="29"/>
+    </row>
+    <row r="496" ht="15.7" spans="1:2">
+      <c r="A496" s="29" t="s">
+        <v>386</v>
+      </c>
+      <c r="B496" s="29"/>
+    </row>
+    <row r="497" ht="15.7" spans="1:2">
+      <c r="A497" s="29" t="s">
+        <v>387</v>
+      </c>
+      <c r="B497" s="29"/>
+    </row>
+    <row r="498" ht="15.7" spans="1:2">
+      <c r="A498" s="29" t="s">
+        <v>388</v>
+      </c>
+      <c r="B498" s="29"/>
+    </row>
+    <row r="499" ht="15.7" spans="1:2">
+      <c r="A499" s="29" t="s">
+        <v>389</v>
+      </c>
+      <c r="B499" s="29"/>
+    </row>
+    <row r="500" ht="15.7" spans="1:2">
+      <c r="A500" s="29" t="s">
+        <v>390</v>
+      </c>
+      <c r="B500" s="29"/>
+    </row>
+    <row r="501" ht="15.7" spans="1:2">
+      <c r="A501" s="29" t="s">
+        <v>391</v>
+      </c>
+      <c r="B501" s="29"/>
+    </row>
+    <row r="502" ht="15.7" spans="1:2">
+      <c r="A502" s="29" t="s">
+        <v>392</v>
+      </c>
+      <c r="B502" s="29"/>
+    </row>
+    <row r="503" ht="15.7" spans="1:2">
+      <c r="A503" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="B503" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="530">
+  <mergeCells count="593">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="C3:H3"/>
@@ -8120,18 +8901,72 @@
     <mergeCell ref="C436:H436"/>
     <mergeCell ref="A440:B440"/>
     <mergeCell ref="C440:H440"/>
+    <mergeCell ref="I440:N440"/>
     <mergeCell ref="A441:B441"/>
     <mergeCell ref="C441:H441"/>
     <mergeCell ref="A442:B442"/>
-    <mergeCell ref="C442:H442"/>
     <mergeCell ref="A443:B443"/>
-    <mergeCell ref="C443:H443"/>
     <mergeCell ref="A444:B444"/>
-    <mergeCell ref="C444:H444"/>
     <mergeCell ref="A445:B445"/>
-    <mergeCell ref="C445:H445"/>
     <mergeCell ref="A446:B446"/>
-    <mergeCell ref="C446:H446"/>
+    <mergeCell ref="A450:B450"/>
+    <mergeCell ref="A451:B451"/>
+    <mergeCell ref="A452:B452"/>
+    <mergeCell ref="A453:B453"/>
+    <mergeCell ref="A454:B454"/>
+    <mergeCell ref="A455:B455"/>
+    <mergeCell ref="A456:B456"/>
+    <mergeCell ref="C456:H456"/>
+    <mergeCell ref="A460:B460"/>
+    <mergeCell ref="C460:H460"/>
+    <mergeCell ref="A461:B461"/>
+    <mergeCell ref="C461:H461"/>
+    <mergeCell ref="A462:B462"/>
+    <mergeCell ref="C462:H462"/>
+    <mergeCell ref="A463:B463"/>
+    <mergeCell ref="C463:H463"/>
+    <mergeCell ref="A464:B464"/>
+    <mergeCell ref="C464:H464"/>
+    <mergeCell ref="A465:B465"/>
+    <mergeCell ref="C465:H465"/>
+    <mergeCell ref="A466:B466"/>
+    <mergeCell ref="C466:H466"/>
+    <mergeCell ref="A476:B476"/>
+    <mergeCell ref="C476:H476"/>
+    <mergeCell ref="A477:B477"/>
+    <mergeCell ref="C477:H477"/>
+    <mergeCell ref="A478:B478"/>
+    <mergeCell ref="C478:H478"/>
+    <mergeCell ref="A479:B479"/>
+    <mergeCell ref="C479:H479"/>
+    <mergeCell ref="I479:N479"/>
+    <mergeCell ref="A480:B480"/>
+    <mergeCell ref="C480:H480"/>
+    <mergeCell ref="A481:B481"/>
+    <mergeCell ref="C481:H481"/>
+    <mergeCell ref="A482:B482"/>
+    <mergeCell ref="C482:H482"/>
+    <mergeCell ref="A483:B483"/>
+    <mergeCell ref="A484:B484"/>
+    <mergeCell ref="A485:B485"/>
+    <mergeCell ref="A486:B486"/>
+    <mergeCell ref="A487:B487"/>
+    <mergeCell ref="A488:B488"/>
+    <mergeCell ref="A489:B489"/>
+    <mergeCell ref="A490:B490"/>
+    <mergeCell ref="A491:B491"/>
+    <mergeCell ref="A492:B492"/>
+    <mergeCell ref="A493:B493"/>
+    <mergeCell ref="A494:B494"/>
+    <mergeCell ref="A495:B495"/>
+    <mergeCell ref="A496:B496"/>
+    <mergeCell ref="A497:B497"/>
+    <mergeCell ref="A498:B498"/>
+    <mergeCell ref="A499:B499"/>
+    <mergeCell ref="A500:B500"/>
+    <mergeCell ref="A501:B501"/>
+    <mergeCell ref="A502:B502"/>
+    <mergeCell ref="A503:B503"/>
     <mergeCell ref="I62:I65"/>
     <mergeCell ref="I67:I70"/>
     <mergeCell ref="I72:I75"/>
@@ -8271,6 +9106,15 @@
     <mergeCell ref="C428:H429"/>
     <mergeCell ref="A438:B439"/>
     <mergeCell ref="C438:H439"/>
+    <mergeCell ref="C442:H446"/>
+    <mergeCell ref="A448:B449"/>
+    <mergeCell ref="C448:H449"/>
+    <mergeCell ref="C450:H455"/>
+    <mergeCell ref="A458:B459"/>
+    <mergeCell ref="C458:H459"/>
+    <mergeCell ref="A468:H472"/>
+    <mergeCell ref="A474:B475"/>
+    <mergeCell ref="C474:H475"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/day day up.xlsx
+++ b/day day up.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23136" windowHeight="9632"/>
+    <workbookView windowWidth="23136" windowHeight="10043"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402">
   <si>
     <t>// 公历日期只做参考，按照自己的循环走</t>
   </si>
@@ -1149,28 +1149,52 @@
     <t>7号</t>
   </si>
   <si>
-    <t>上午，混</t>
+    <t>上午，混；我呵呵哟</t>
   </si>
   <si>
     <t>8号</t>
   </si>
   <si>
+    <t>丧得厉害</t>
+  </si>
+  <si>
     <t>9号</t>
   </si>
   <si>
+    <t>万历十五年13S；星星鹿一页；丧！</t>
+  </si>
+  <si>
     <t>10号</t>
   </si>
   <si>
+    <t>万历十五年20E；混加丧！</t>
+  </si>
+  <si>
     <t>11号</t>
   </si>
   <si>
+    <t>上班混一天了</t>
+  </si>
+  <si>
     <t>12号</t>
   </si>
   <si>
+    <t>我已经烦到不想记这个了</t>
+  </si>
+  <si>
     <t>13号</t>
   </si>
   <si>
+    <t>缺</t>
+  </si>
+  <si>
+    <t>已经忘掉记这个了</t>
+  </si>
+  <si>
     <t>14号</t>
+  </si>
+  <si>
+    <t>准备好下午混混了</t>
   </si>
   <si>
     <t>15号</t>
@@ -1223,13 +1247,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="000000"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1239,13 +1263,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="6" tint="-0.25"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="6" tint="-0.25"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -1329,7 +1353,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1343,13 +1381,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1366,37 +1403,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1405,21 +1411,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1448,6 +1440,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -1464,9 +1463,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1492,13 +1522,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1510,31 +1660,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1546,85 +1684,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1636,43 +1696,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1840,21 +1870,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1879,17 +1894,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1911,20 +1937,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1936,10 +1966,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1948,146 +1978,149 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2112,64 +2145,64 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2280,19 +2313,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2304,7 +2334,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2328,7 +2358,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2340,13 +2370,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2376,25 +2406,31 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2745,10 +2781,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P503"/>
+  <dimension ref="A1:XFD504"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A469" workbookViewId="0">
-      <selection activeCell="D484" sqref="D484"/>
+    <sheetView tabSelected="1" topLeftCell="A472" workbookViewId="0">
+      <selection activeCell="C476" sqref="C476:H476"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -2757,2359 +2793,2359 @@
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" ht="43" customHeight="1" spans="1:8">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>2017</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" ht="25" customHeight="1" spans="1:8">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:8">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="6" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:8">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="6" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" ht="25" customHeight="1" spans="1:8">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="7" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:8">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" ht="25" customHeight="1" spans="1:8">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
     </row>
     <row r="9" ht="25" customHeight="1" spans="1:8">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" ht="25" customHeight="1" spans="1:8">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
     </row>
     <row r="11" ht="25" customHeight="1" spans="1:8">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
     </row>
     <row r="12" ht="25" customHeight="1" spans="1:8">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
     </row>
     <row r="14" ht="14.4" customHeight="1"/>
     <row r="15" ht="18" customHeight="1" spans="1:8">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11" t="s">
+      <c r="B15" s="11"/>
+      <c r="C15" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:8">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
     </row>
     <row r="17" ht="18" customHeight="1" spans="1:8">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
     </row>
     <row r="18" ht="18" customHeight="1" spans="1:8">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
     </row>
     <row r="19" ht="18" customHeight="1" spans="1:15">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="14" t="s">
+      <c r="B19" s="14"/>
+      <c r="C19" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
-      <c r="J19" s="41" t="s">
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="17"/>
+      <c r="J19" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="44"/>
     </row>
     <row r="20" ht="18" customHeight="1" spans="1:15">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="21"/>
-      <c r="J20" s="44"/>
-      <c r="O20" s="45"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="22"/>
+      <c r="J20" s="45"/>
+      <c r="O20" s="46"/>
     </row>
     <row r="21" ht="18" customHeight="1" spans="1:15">
-      <c r="A21" s="22"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="26"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="48"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="27"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="49"/>
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:15">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19" t="s">
+      <c r="B22" s="19"/>
+      <c r="C22" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="21"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="49"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="22"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:8">
-      <c r="A23" s="22"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="26"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="27"/>
     </row>
     <row r="24" ht="18" customHeight="1" spans="1:8">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="28" t="s">
+      <c r="B24" s="28"/>
+      <c r="C24" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="29" t="s">
+      <c r="D24" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:8">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="28" t="s">
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="29" t="s">
+      <c r="D25" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
     </row>
     <row r="26" ht="18" customHeight="1" spans="1:8">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28" t="s">
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="29" t="s">
+      <c r="D26" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
     </row>
     <row r="27" ht="18" customHeight="1" spans="1:8">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="28" t="s">
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="29" t="s">
+      <c r="D27" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:8">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
     </row>
     <row r="29" ht="18" customHeight="1" spans="1:8">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="28" t="s">
+      <c r="B29" s="28"/>
+      <c r="C29" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="29" t="s">
+      <c r="D29" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
     </row>
     <row r="30" ht="18" customHeight="1" spans="1:15">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="28" t="s">
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="29" t="s">
+      <c r="D30" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="J30" s="50" t="s">
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="J30" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="K30" s="51"/>
-      <c r="L30" s="51"/>
-      <c r="M30" s="51"/>
-      <c r="N30" s="51"/>
-      <c r="O30" s="52"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="53"/>
     </row>
     <row r="31" ht="18" customHeight="1" spans="1:8">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="28" t="s">
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="29" t="s">
+      <c r="D31" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
     </row>
     <row r="32" ht="18" customHeight="1" spans="1:8">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="28" t="s">
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="29" t="s">
+      <c r="D32" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
     </row>
     <row r="33" ht="18" customHeight="1"/>
     <row r="34" ht="18" customHeight="1" spans="1:15">
-      <c r="A34" s="27" t="s">
+      <c r="A34" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="27"/>
-      <c r="C34" s="28" t="s">
+      <c r="B34" s="28"/>
+      <c r="C34" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="29" t="s">
+      <c r="D34" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="J34" s="53" t="s">
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="J34" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="53"/>
-      <c r="N34" s="53"/>
-      <c r="O34" s="53"/>
+      <c r="K34" s="54"/>
+      <c r="L34" s="54"/>
+      <c r="M34" s="54"/>
+      <c r="N34" s="54"/>
+      <c r="O34" s="54"/>
     </row>
     <row r="35" ht="18" customHeight="1" spans="1:15">
-      <c r="A35" s="27"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="28" t="s">
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="29" t="s">
+      <c r="D35" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="J35" s="53" t="s">
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="J35" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="K35" s="53"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="53"/>
-      <c r="N35" s="53"/>
-      <c r="O35" s="53"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="54"/>
+      <c r="O35" s="54"/>
     </row>
     <row r="36" ht="18" customHeight="1" spans="1:8">
-      <c r="A36" s="27"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="28" t="s">
+      <c r="A36" s="28"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="29" t="s">
+      <c r="D36" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
     </row>
     <row r="37" ht="18" customHeight="1" spans="1:8">
-      <c r="A37" s="27"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="28" t="s">
+      <c r="A37" s="28"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="29" t="s">
+      <c r="D37" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
     </row>
     <row r="38" ht="18" customHeight="1"/>
     <row r="39" ht="18" customHeight="1" spans="1:8">
-      <c r="A39" s="27" t="s">
+      <c r="A39" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="27"/>
-      <c r="C39" s="28" t="s">
+      <c r="B39" s="28"/>
+      <c r="C39" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="29" t="s">
+      <c r="D39" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
     </row>
     <row r="40" ht="18" customHeight="1" spans="1:11">
-      <c r="A40" s="27"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="28" t="s">
+      <c r="A40" s="28"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="29" t="s">
+      <c r="D40" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
-      <c r="J40" s="54" t="s">
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="J40" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="K40" s="20"/>
+      <c r="K40" s="21"/>
     </row>
     <row r="41" ht="18" customHeight="1" spans="1:8">
-      <c r="A41" s="27"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="28" t="s">
+      <c r="A41" s="28"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="29" t="s">
+      <c r="D41" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
     </row>
     <row r="42" ht="18" customHeight="1" spans="1:14">
-      <c r="A42" s="27"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="28" t="s">
+      <c r="A42" s="28"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="29" t="s">
+      <c r="D42" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="53" t="s">
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="J42" s="53"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="53"/>
-      <c r="M42" s="53"/>
-      <c r="N42" s="53"/>
+      <c r="J42" s="54"/>
+      <c r="K42" s="54"/>
+      <c r="L42" s="54"/>
+      <c r="M42" s="54"/>
+      <c r="N42" s="54"/>
     </row>
     <row r="43" ht="18" customHeight="1"/>
     <row r="44" ht="18" customHeight="1" spans="1:8">
-      <c r="A44" s="27" t="s">
+      <c r="A44" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="28" t="s">
+      <c r="B44" s="28"/>
+      <c r="C44" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D44" s="29" t="s">
+      <c r="D44" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
     </row>
     <row r="45" ht="18" customHeight="1" spans="1:15">
-      <c r="A45" s="27"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="28" t="s">
+      <c r="A45" s="28"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="29" t="s">
+      <c r="D45" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29"/>
-      <c r="J45" s="53" t="s">
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="J45" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="K45" s="53"/>
-      <c r="L45" s="53"/>
-      <c r="M45" s="53"/>
-      <c r="N45" s="53"/>
-      <c r="O45" s="53"/>
+      <c r="K45" s="54"/>
+      <c r="L45" s="54"/>
+      <c r="M45" s="54"/>
+      <c r="N45" s="54"/>
+      <c r="O45" s="54"/>
     </row>
     <row r="46" ht="18" customHeight="1" spans="1:8">
-      <c r="A46" s="27"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="28" t="s">
+      <c r="A46" s="28"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D46" s="29" t="s">
+      <c r="D46" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
     </row>
     <row r="47" ht="18" customHeight="1" spans="1:8">
-      <c r="A47" s="27"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="28" t="s">
+      <c r="A47" s="28"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D47" s="29" t="s">
+      <c r="D47" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
     </row>
     <row r="48" ht="18" customHeight="1"/>
     <row r="49" ht="18" customHeight="1" spans="1:8">
-      <c r="A49" s="27" t="s">
+      <c r="A49" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="27"/>
-      <c r="C49" s="28" t="s">
+      <c r="B49" s="28"/>
+      <c r="C49" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="29" t="s">
+      <c r="D49" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="29"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
     </row>
     <row r="50" ht="18" customHeight="1" spans="1:11">
-      <c r="A50" s="27"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="28" t="s">
+      <c r="A50" s="28"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D50" s="29" t="s">
+      <c r="D50" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="29"/>
-      <c r="J50" s="54" t="s">
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="J50" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="K50" s="20"/>
+      <c r="K50" s="21"/>
     </row>
     <row r="51" ht="18" customHeight="1" spans="1:8">
-      <c r="A51" s="27"/>
-      <c r="B51" s="27"/>
-      <c r="C51" s="28" t="s">
+      <c r="A51" s="28"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D51" s="29" t="s">
+      <c r="D51" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="29"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
     </row>
     <row r="52" ht="18" customHeight="1" spans="1:8">
-      <c r="A52" s="27"/>
-      <c r="B52" s="27"/>
-      <c r="C52" s="28" t="s">
+      <c r="A52" s="28"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="29"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
     </row>
     <row r="53" ht="18" customHeight="1"/>
     <row r="54" ht="18" customHeight="1" spans="1:8">
-      <c r="A54" s="27" t="s">
+      <c r="A54" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="27"/>
-      <c r="C54" s="32" t="s">
+      <c r="B54" s="28"/>
+      <c r="C54" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="33"/>
-      <c r="H54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="35"/>
     </row>
     <row r="55" ht="18" customHeight="1" spans="1:8">
-      <c r="A55" s="27"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="36"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="36"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="37"/>
+      <c r="A55" s="28"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="38"/>
     </row>
     <row r="56" ht="18" customHeight="1" spans="1:8">
-      <c r="A56" s="27"/>
-      <c r="B56" s="27"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="36"/>
-      <c r="E56" s="36"/>
-      <c r="F56" s="36"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="37"/>
+      <c r="A56" s="28"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="38"/>
     </row>
     <row r="57" ht="18" customHeight="1" spans="1:8">
-      <c r="A57" s="27"/>
-      <c r="B57" s="27"/>
-      <c r="C57" s="38"/>
-      <c r="D57" s="39"/>
-      <c r="E57" s="39"/>
-      <c r="F57" s="39"/>
-      <c r="G57" s="39"/>
-      <c r="H57" s="40"/>
+      <c r="A57" s="28"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="40"/>
+      <c r="H57" s="41"/>
     </row>
     <row r="58" ht="18" customHeight="1"/>
     <row r="59" ht="18" customHeight="1"/>
     <row r="60" ht="18" customHeight="1" spans="1:8">
-      <c r="A60" s="27" t="s">
+      <c r="A60" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="B60" s="27"/>
-      <c r="C60" s="29" t="s">
+      <c r="B60" s="28"/>
+      <c r="C60" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="29"/>
-      <c r="G60" s="29"/>
-      <c r="H60" s="29"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="30"/>
     </row>
     <row r="61" ht="18" customHeight="1" spans="1:8">
-      <c r="A61" s="27"/>
-      <c r="B61" s="27"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="29"/>
+      <c r="A61" s="28"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="30"/>
     </row>
     <row r="62" ht="18" customHeight="1" spans="1:9">
-      <c r="A62" s="27" t="s">
+      <c r="A62" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="B62" s="27"/>
-      <c r="C62" s="28" t="s">
+      <c r="B62" s="28"/>
+      <c r="C62" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D62" s="29" t="s">
+      <c r="D62" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="E62" s="29"/>
-      <c r="F62" s="29"/>
-      <c r="G62" s="29"/>
-      <c r="H62" s="29"/>
-      <c r="I62" s="55" t="s">
+      <c r="E62" s="30"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="56" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="63" ht="18" customHeight="1" spans="1:9">
-      <c r="A63" s="27"/>
-      <c r="B63" s="27"/>
-      <c r="C63" s="28" t="s">
+      <c r="A63" s="28"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D63" s="29" t="s">
+      <c r="D63" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="E63" s="29"/>
-      <c r="F63" s="29"/>
-      <c r="G63" s="29"/>
-      <c r="H63" s="29"/>
-      <c r="I63" s="55"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="56"/>
     </row>
     <row r="64" ht="18" customHeight="1" spans="1:9">
-      <c r="A64" s="27"/>
-      <c r="B64" s="27"/>
-      <c r="C64" s="28" t="s">
+      <c r="A64" s="28"/>
+      <c r="B64" s="28"/>
+      <c r="C64" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D64" s="29" t="s">
+      <c r="D64" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="E64" s="29"/>
-      <c r="F64" s="29"/>
-      <c r="G64" s="29"/>
-      <c r="H64" s="29"/>
-      <c r="I64" s="55"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="30"/>
+      <c r="I64" s="56"/>
     </row>
     <row r="65" ht="18" customHeight="1" spans="1:9">
-      <c r="A65" s="27"/>
-      <c r="B65" s="27"/>
-      <c r="C65" s="28" t="s">
+      <c r="A65" s="28"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D65" s="29" t="s">
+      <c r="D65" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="E65" s="29"/>
-      <c r="F65" s="29"/>
-      <c r="G65" s="29"/>
-      <c r="H65" s="29"/>
-      <c r="I65" s="55"/>
+      <c r="E65" s="30"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="30"/>
+      <c r="I65" s="56"/>
     </row>
     <row r="66" ht="18" customHeight="1"/>
     <row r="67" ht="18" customHeight="1" spans="1:9">
-      <c r="A67" s="27" t="s">
+      <c r="A67" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="B67" s="27"/>
-      <c r="C67" s="28" t="s">
+      <c r="B67" s="28"/>
+      <c r="C67" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D67" s="29" t="s">
+      <c r="D67" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="E67" s="29"/>
-      <c r="F67" s="29"/>
-      <c r="G67" s="29"/>
-      <c r="H67" s="29"/>
-      <c r="I67" s="55" t="s">
+      <c r="E67" s="30"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="30"/>
+      <c r="I67" s="56" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="68" ht="18" customHeight="1" spans="1:9">
-      <c r="A68" s="27"/>
-      <c r="B68" s="27"/>
-      <c r="C68" s="28" t="s">
+      <c r="A68" s="28"/>
+      <c r="B68" s="28"/>
+      <c r="C68" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D68" s="29" t="s">
+      <c r="D68" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="E68" s="29"/>
-      <c r="F68" s="29"/>
-      <c r="G68" s="29"/>
-      <c r="H68" s="29"/>
-      <c r="I68" s="55"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="30"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="30"/>
+      <c r="I68" s="56"/>
     </row>
     <row r="69" ht="18" customHeight="1" spans="1:9">
-      <c r="A69" s="27"/>
-      <c r="B69" s="27"/>
-      <c r="C69" s="28" t="s">
+      <c r="A69" s="28"/>
+      <c r="B69" s="28"/>
+      <c r="C69" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D69" s="29" t="s">
+      <c r="D69" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="E69" s="29"/>
-      <c r="F69" s="29"/>
-      <c r="G69" s="29"/>
-      <c r="H69" s="29"/>
-      <c r="I69" s="55"/>
+      <c r="E69" s="30"/>
+      <c r="F69" s="30"/>
+      <c r="G69" s="30"/>
+      <c r="H69" s="30"/>
+      <c r="I69" s="56"/>
     </row>
     <row r="70" ht="18" customHeight="1" spans="1:9">
-      <c r="A70" s="27"/>
-      <c r="B70" s="27"/>
-      <c r="C70" s="28" t="s">
+      <c r="A70" s="28"/>
+      <c r="B70" s="28"/>
+      <c r="C70" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D70" s="29" t="s">
+      <c r="D70" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="E70" s="29"/>
-      <c r="F70" s="29"/>
-      <c r="G70" s="29"/>
-      <c r="H70" s="29"/>
-      <c r="I70" s="55"/>
+      <c r="E70" s="30"/>
+      <c r="F70" s="30"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="30"/>
+      <c r="I70" s="56"/>
     </row>
     <row r="71" ht="18" customHeight="1"/>
     <row r="72" ht="18" customHeight="1" spans="1:9">
-      <c r="A72" s="27" t="s">
+      <c r="A72" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B72" s="27"/>
-      <c r="C72" s="28" t="s">
+      <c r="B72" s="28"/>
+      <c r="C72" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D72" s="29" t="s">
+      <c r="D72" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="E72" s="29"/>
-      <c r="F72" s="29"/>
-      <c r="G72" s="29"/>
-      <c r="H72" s="29"/>
-      <c r="I72" s="55" t="s">
+      <c r="E72" s="30"/>
+      <c r="F72" s="30"/>
+      <c r="G72" s="30"/>
+      <c r="H72" s="30"/>
+      <c r="I72" s="56" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="73" ht="18" customHeight="1" spans="1:14">
-      <c r="A73" s="27"/>
-      <c r="B73" s="27"/>
-      <c r="C73" s="28" t="s">
+      <c r="A73" s="28"/>
+      <c r="B73" s="28"/>
+      <c r="C73" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D73" s="29" t="s">
+      <c r="D73" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="E73" s="29"/>
-      <c r="F73" s="29"/>
-      <c r="G73" s="29"/>
-      <c r="H73" s="29"/>
-      <c r="I73" s="55"/>
-      <c r="J73" s="53" t="s">
+      <c r="E73" s="30"/>
+      <c r="F73" s="30"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="30"/>
+      <c r="I73" s="56"/>
+      <c r="J73" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="K73" s="53"/>
-      <c r="L73" s="53"/>
-      <c r="M73" s="53"/>
-      <c r="N73" s="53"/>
+      <c r="K73" s="54"/>
+      <c r="L73" s="54"/>
+      <c r="M73" s="54"/>
+      <c r="N73" s="54"/>
     </row>
     <row r="74" ht="18" customHeight="1" spans="1:9">
-      <c r="A74" s="27"/>
-      <c r="B74" s="27"/>
-      <c r="C74" s="28" t="s">
+      <c r="A74" s="28"/>
+      <c r="B74" s="28"/>
+      <c r="C74" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D74" s="29" t="s">
+      <c r="D74" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="E74" s="29"/>
-      <c r="F74" s="29"/>
-      <c r="G74" s="29"/>
-      <c r="H74" s="29"/>
-      <c r="I74" s="55"/>
+      <c r="E74" s="30"/>
+      <c r="F74" s="30"/>
+      <c r="G74" s="30"/>
+      <c r="H74" s="30"/>
+      <c r="I74" s="56"/>
     </row>
     <row r="75" ht="18" customHeight="1" spans="1:9">
-      <c r="A75" s="27"/>
-      <c r="B75" s="27"/>
-      <c r="C75" s="28" t="s">
+      <c r="A75" s="28"/>
+      <c r="B75" s="28"/>
+      <c r="C75" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D75" s="29" t="s">
+      <c r="D75" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="E75" s="29"/>
-      <c r="F75" s="29"/>
-      <c r="G75" s="29"/>
-      <c r="H75" s="29"/>
-      <c r="I75" s="55"/>
+      <c r="E75" s="30"/>
+      <c r="F75" s="30"/>
+      <c r="G75" s="30"/>
+      <c r="H75" s="30"/>
+      <c r="I75" s="56"/>
     </row>
     <row r="76" ht="18" customHeight="1"/>
     <row r="77" ht="18" customHeight="1" spans="1:9">
-      <c r="A77" s="27" t="s">
+      <c r="A77" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B77" s="27"/>
-      <c r="C77" s="28" t="s">
+      <c r="B77" s="28"/>
+      <c r="C77" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D77" s="29" t="s">
+      <c r="D77" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="E77" s="29"/>
-      <c r="F77" s="29"/>
-      <c r="G77" s="29"/>
-      <c r="H77" s="29"/>
-      <c r="I77" s="64" t="s">
+      <c r="E77" s="30"/>
+      <c r="F77" s="30"/>
+      <c r="G77" s="30"/>
+      <c r="H77" s="30"/>
+      <c r="I77" s="65" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="78" ht="18" customHeight="1" spans="1:9">
-      <c r="A78" s="27"/>
-      <c r="B78" s="27"/>
-      <c r="C78" s="28" t="s">
+      <c r="A78" s="28"/>
+      <c r="B78" s="28"/>
+      <c r="C78" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D78" s="29" t="s">
+      <c r="D78" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="E78" s="29"/>
-      <c r="F78" s="29"/>
-      <c r="G78" s="29"/>
-      <c r="H78" s="29"/>
-      <c r="I78" s="64"/>
+      <c r="E78" s="30"/>
+      <c r="F78" s="30"/>
+      <c r="G78" s="30"/>
+      <c r="H78" s="30"/>
+      <c r="I78" s="65"/>
     </row>
     <row r="79" ht="18" customHeight="1" spans="1:9">
-      <c r="A79" s="27"/>
-      <c r="B79" s="27"/>
-      <c r="C79" s="28" t="s">
+      <c r="A79" s="28"/>
+      <c r="B79" s="28"/>
+      <c r="C79" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D79" s="29"/>
-      <c r="E79" s="29"/>
-      <c r="F79" s="29"/>
-      <c r="G79" s="29"/>
-      <c r="H79" s="29"/>
-      <c r="I79" s="64"/>
+      <c r="D79" s="30"/>
+      <c r="E79" s="30"/>
+      <c r="F79" s="30"/>
+      <c r="G79" s="30"/>
+      <c r="H79" s="30"/>
+      <c r="I79" s="65"/>
     </row>
     <row r="80" ht="18" customHeight="1" spans="1:9">
-      <c r="A80" s="27"/>
-      <c r="B80" s="27"/>
-      <c r="C80" s="28" t="s">
+      <c r="A80" s="28"/>
+      <c r="B80" s="28"/>
+      <c r="C80" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D80" s="29"/>
-      <c r="E80" s="29"/>
-      <c r="F80" s="29"/>
-      <c r="G80" s="29"/>
-      <c r="H80" s="29"/>
-      <c r="I80" s="64"/>
+      <c r="D80" s="30"/>
+      <c r="E80" s="30"/>
+      <c r="F80" s="30"/>
+      <c r="G80" s="30"/>
+      <c r="H80" s="30"/>
+      <c r="I80" s="65"/>
     </row>
     <row r="81" ht="18" customHeight="1"/>
     <row r="82" ht="18" customHeight="1" spans="1:9">
-      <c r="A82" s="27" t="s">
+      <c r="A82" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="B82" s="27"/>
-      <c r="C82" s="28" t="s">
+      <c r="B82" s="28"/>
+      <c r="C82" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D82" s="29" t="s">
+      <c r="D82" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="E82" s="29"/>
-      <c r="F82" s="29"/>
-      <c r="G82" s="29"/>
-      <c r="H82" s="29"/>
-      <c r="I82" s="64" t="s">
+      <c r="E82" s="30"/>
+      <c r="F82" s="30"/>
+      <c r="G82" s="30"/>
+      <c r="H82" s="30"/>
+      <c r="I82" s="65" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="83" ht="18" customHeight="1" spans="1:9">
-      <c r="A83" s="27"/>
-      <c r="B83" s="27"/>
-      <c r="C83" s="28" t="s">
+      <c r="A83" s="28"/>
+      <c r="B83" s="28"/>
+      <c r="C83" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D83" s="29" t="s">
+      <c r="D83" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="E83" s="29"/>
-      <c r="F83" s="29"/>
-      <c r="G83" s="29"/>
-      <c r="H83" s="29"/>
-      <c r="I83" s="64"/>
+      <c r="E83" s="30"/>
+      <c r="F83" s="30"/>
+      <c r="G83" s="30"/>
+      <c r="H83" s="30"/>
+      <c r="I83" s="65"/>
     </row>
     <row r="84" ht="18" customHeight="1" spans="1:9">
-      <c r="A84" s="27"/>
-      <c r="B84" s="27"/>
-      <c r="C84" s="28" t="s">
+      <c r="A84" s="28"/>
+      <c r="B84" s="28"/>
+      <c r="C84" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D84" s="29"/>
-      <c r="E84" s="29"/>
-      <c r="F84" s="29"/>
-      <c r="G84" s="29"/>
-      <c r="H84" s="29"/>
-      <c r="I84" s="64"/>
+      <c r="D84" s="30"/>
+      <c r="E84" s="30"/>
+      <c r="F84" s="30"/>
+      <c r="G84" s="30"/>
+      <c r="H84" s="30"/>
+      <c r="I84" s="65"/>
     </row>
     <row r="85" ht="18" customHeight="1" spans="1:9">
-      <c r="A85" s="27"/>
-      <c r="B85" s="27"/>
-      <c r="C85" s="28" t="s">
+      <c r="A85" s="28"/>
+      <c r="B85" s="28"/>
+      <c r="C85" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D85" s="29"/>
-      <c r="E85" s="29"/>
-      <c r="F85" s="29"/>
-      <c r="G85" s="29"/>
-      <c r="H85" s="29"/>
-      <c r="I85" s="64"/>
+      <c r="D85" s="30"/>
+      <c r="E85" s="30"/>
+      <c r="F85" s="30"/>
+      <c r="G85" s="30"/>
+      <c r="H85" s="30"/>
+      <c r="I85" s="65"/>
     </row>
     <row r="86" ht="18" customHeight="1"/>
     <row r="87" ht="18" customHeight="1" spans="1:9">
-      <c r="A87" s="27" t="s">
+      <c r="A87" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="B87" s="27"/>
-      <c r="C87" s="28" t="s">
+      <c r="B87" s="28"/>
+      <c r="C87" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D87" s="29"/>
-      <c r="E87" s="29"/>
-      <c r="F87" s="29"/>
-      <c r="G87" s="29"/>
-      <c r="H87" s="29"/>
-      <c r="I87" s="64" t="s">
+      <c r="D87" s="30"/>
+      <c r="E87" s="30"/>
+      <c r="F87" s="30"/>
+      <c r="G87" s="30"/>
+      <c r="H87" s="30"/>
+      <c r="I87" s="65" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="88" ht="18" customHeight="1" spans="1:9">
-      <c r="A88" s="27"/>
-      <c r="B88" s="27"/>
-      <c r="C88" s="28" t="s">
+      <c r="A88" s="28"/>
+      <c r="B88" s="28"/>
+      <c r="C88" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D88" s="29" t="s">
+      <c r="D88" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="E88" s="29"/>
-      <c r="F88" s="29"/>
-      <c r="G88" s="29"/>
-      <c r="H88" s="29"/>
-      <c r="I88" s="64"/>
+      <c r="E88" s="30"/>
+      <c r="F88" s="30"/>
+      <c r="G88" s="30"/>
+      <c r="H88" s="30"/>
+      <c r="I88" s="65"/>
     </row>
     <row r="89" ht="18" customHeight="1" spans="1:9">
-      <c r="A89" s="27"/>
-      <c r="B89" s="27"/>
-      <c r="C89" s="28" t="s">
+      <c r="A89" s="28"/>
+      <c r="B89" s="28"/>
+      <c r="C89" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D89" s="29" t="s">
+      <c r="D89" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="E89" s="29"/>
-      <c r="F89" s="29"/>
-      <c r="G89" s="29"/>
-      <c r="H89" s="29"/>
-      <c r="I89" s="64"/>
+      <c r="E89" s="30"/>
+      <c r="F89" s="30"/>
+      <c r="G89" s="30"/>
+      <c r="H89" s="30"/>
+      <c r="I89" s="65"/>
     </row>
     <row r="90" ht="18" customHeight="1" spans="1:9">
-      <c r="A90" s="27"/>
-      <c r="B90" s="27"/>
-      <c r="C90" s="28" t="s">
+      <c r="A90" s="28"/>
+      <c r="B90" s="28"/>
+      <c r="C90" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D90" s="29"/>
-      <c r="E90" s="29"/>
-      <c r="F90" s="29"/>
-      <c r="G90" s="29"/>
-      <c r="H90" s="29"/>
-      <c r="I90" s="64"/>
+      <c r="D90" s="30"/>
+      <c r="E90" s="30"/>
+      <c r="F90" s="30"/>
+      <c r="G90" s="30"/>
+      <c r="H90" s="30"/>
+      <c r="I90" s="65"/>
     </row>
     <row r="91" ht="18" customHeight="1"/>
     <row r="92" ht="18" customHeight="1" spans="1:9">
-      <c r="A92" s="27" t="s">
+      <c r="A92" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="B92" s="27"/>
-      <c r="C92" s="56" t="s">
+      <c r="B92" s="28"/>
+      <c r="C92" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="D92" s="57"/>
-      <c r="E92" s="57"/>
-      <c r="F92" s="57"/>
-      <c r="G92" s="57"/>
-      <c r="H92" s="58"/>
-      <c r="I92" s="65" t="s">
+      <c r="D92" s="58"/>
+      <c r="E92" s="58"/>
+      <c r="F92" s="58"/>
+      <c r="G92" s="58"/>
+      <c r="H92" s="59"/>
+      <c r="I92" s="66" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="93" ht="18" customHeight="1" spans="1:9">
-      <c r="A93" s="27"/>
-      <c r="B93" s="27"/>
-      <c r="C93" s="59"/>
-      <c r="D93" s="55"/>
-      <c r="E93" s="55"/>
-      <c r="F93" s="55"/>
-      <c r="G93" s="55"/>
-      <c r="H93" s="60"/>
-      <c r="I93" s="65"/>
+      <c r="A93" s="28"/>
+      <c r="B93" s="28"/>
+      <c r="C93" s="60"/>
+      <c r="D93" s="56"/>
+      <c r="E93" s="56"/>
+      <c r="F93" s="56"/>
+      <c r="G93" s="56"/>
+      <c r="H93" s="61"/>
+      <c r="I93" s="66"/>
     </row>
     <row r="94" ht="18" customHeight="1" spans="1:9">
-      <c r="A94" s="27"/>
-      <c r="B94" s="27"/>
-      <c r="C94" s="59"/>
-      <c r="D94" s="55"/>
-      <c r="E94" s="55"/>
-      <c r="F94" s="55"/>
-      <c r="G94" s="55"/>
-      <c r="H94" s="60"/>
-      <c r="I94" s="65"/>
+      <c r="A94" s="28"/>
+      <c r="B94" s="28"/>
+      <c r="C94" s="60"/>
+      <c r="D94" s="56"/>
+      <c r="E94" s="56"/>
+      <c r="F94" s="56"/>
+      <c r="G94" s="56"/>
+      <c r="H94" s="61"/>
+      <c r="I94" s="66"/>
     </row>
     <row r="95" ht="18" customHeight="1" spans="1:9">
-      <c r="A95" s="27"/>
-      <c r="B95" s="27"/>
-      <c r="C95" s="61"/>
-      <c r="D95" s="62"/>
-      <c r="E95" s="62"/>
-      <c r="F95" s="62"/>
-      <c r="G95" s="62"/>
-      <c r="H95" s="63"/>
-      <c r="I95" s="65"/>
+      <c r="A95" s="28"/>
+      <c r="B95" s="28"/>
+      <c r="C95" s="62"/>
+      <c r="D95" s="63"/>
+      <c r="E95" s="63"/>
+      <c r="F95" s="63"/>
+      <c r="G95" s="63"/>
+      <c r="H95" s="64"/>
+      <c r="I95" s="66"/>
     </row>
     <row r="96" ht="18" customHeight="1"/>
     <row r="97" ht="18" customHeight="1"/>
     <row r="98" ht="18" customHeight="1" spans="1:8">
-      <c r="A98" s="27" t="s">
+      <c r="A98" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="B98" s="27"/>
-      <c r="C98" s="29" t="s">
+      <c r="B98" s="28"/>
+      <c r="C98" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="D98" s="29"/>
-      <c r="E98" s="29"/>
-      <c r="F98" s="29"/>
-      <c r="G98" s="29"/>
-      <c r="H98" s="29"/>
+      <c r="D98" s="30"/>
+      <c r="E98" s="30"/>
+      <c r="F98" s="30"/>
+      <c r="G98" s="30"/>
+      <c r="H98" s="30"/>
     </row>
     <row r="99" ht="18" customHeight="1" spans="1:8">
-      <c r="A99" s="27"/>
-      <c r="B99" s="27"/>
-      <c r="C99" s="29"/>
-      <c r="D99" s="29"/>
-      <c r="E99" s="29"/>
-      <c r="F99" s="29"/>
-      <c r="G99" s="29"/>
-      <c r="H99" s="29"/>
+      <c r="A99" s="28"/>
+      <c r="B99" s="28"/>
+      <c r="C99" s="30"/>
+      <c r="D99" s="30"/>
+      <c r="E99" s="30"/>
+      <c r="F99" s="30"/>
+      <c r="G99" s="30"/>
+      <c r="H99" s="30"/>
     </row>
     <row r="100" ht="18" customHeight="1" spans="1:9">
-      <c r="A100" s="27" t="s">
+      <c r="A100" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="B100" s="27"/>
-      <c r="C100" s="28" t="s">
+      <c r="B100" s="28"/>
+      <c r="C100" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D100" s="29" t="s">
+      <c r="D100" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="E100" s="29"/>
-      <c r="F100" s="29"/>
-      <c r="G100" s="29"/>
-      <c r="H100" s="29"/>
-      <c r="I100" s="55" t="s">
+      <c r="E100" s="30"/>
+      <c r="F100" s="30"/>
+      <c r="G100" s="30"/>
+      <c r="H100" s="30"/>
+      <c r="I100" s="56" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="101" ht="18" customHeight="1" spans="1:16">
-      <c r="A101" s="27"/>
-      <c r="B101" s="27"/>
-      <c r="C101" s="28" t="s">
+      <c r="A101" s="28"/>
+      <c r="B101" s="28"/>
+      <c r="C101" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D101" s="29" t="s">
+      <c r="D101" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="E101" s="29"/>
-      <c r="F101" s="29"/>
-      <c r="G101" s="29"/>
-      <c r="H101" s="29"/>
-      <c r="I101" s="55"/>
-      <c r="K101" s="53" t="s">
+      <c r="E101" s="30"/>
+      <c r="F101" s="30"/>
+      <c r="G101" s="30"/>
+      <c r="H101" s="30"/>
+      <c r="I101" s="56"/>
+      <c r="K101" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="L101" s="53"/>
-      <c r="M101" s="53"/>
-      <c r="N101" s="53"/>
-      <c r="O101" s="53"/>
-      <c r="P101" s="53"/>
+      <c r="L101" s="54"/>
+      <c r="M101" s="54"/>
+      <c r="N101" s="54"/>
+      <c r="O101" s="54"/>
+      <c r="P101" s="54"/>
     </row>
     <row r="102" ht="18" customHeight="1" spans="1:9">
-      <c r="A102" s="27"/>
-      <c r="B102" s="27"/>
-      <c r="C102" s="28" t="s">
+      <c r="A102" s="28"/>
+      <c r="B102" s="28"/>
+      <c r="C102" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D102" s="29" t="s">
+      <c r="D102" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="E102" s="29"/>
-      <c r="F102" s="29"/>
-      <c r="G102" s="29"/>
-      <c r="H102" s="29"/>
-      <c r="I102" s="55"/>
+      <c r="E102" s="30"/>
+      <c r="F102" s="30"/>
+      <c r="G102" s="30"/>
+      <c r="H102" s="30"/>
+      <c r="I102" s="56"/>
     </row>
     <row r="103" ht="18" customHeight="1" spans="1:9">
-      <c r="A103" s="27"/>
-      <c r="B103" s="27"/>
-      <c r="C103" s="28" t="s">
+      <c r="A103" s="28"/>
+      <c r="B103" s="28"/>
+      <c r="C103" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D103" s="29" t="s">
+      <c r="D103" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="E103" s="29"/>
-      <c r="F103" s="29"/>
-      <c r="G103" s="29"/>
-      <c r="H103" s="29"/>
-      <c r="I103" s="55"/>
+      <c r="E103" s="30"/>
+      <c r="F103" s="30"/>
+      <c r="G103" s="30"/>
+      <c r="H103" s="30"/>
+      <c r="I103" s="56"/>
     </row>
     <row r="104" ht="18" customHeight="1"/>
     <row r="105" ht="18" customHeight="1" spans="1:9">
-      <c r="A105" s="27" t="s">
+      <c r="A105" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="B105" s="27"/>
-      <c r="C105" s="28" t="s">
+      <c r="B105" s="28"/>
+      <c r="C105" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D105" s="29" t="s">
+      <c r="D105" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="E105" s="29"/>
-      <c r="F105" s="29"/>
-      <c r="G105" s="29"/>
-      <c r="H105" s="29"/>
-      <c r="I105" s="65" t="s">
+      <c r="E105" s="30"/>
+      <c r="F105" s="30"/>
+      <c r="G105" s="30"/>
+      <c r="H105" s="30"/>
+      <c r="I105" s="66" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="106" ht="18" customHeight="1" spans="1:16">
-      <c r="A106" s="27"/>
-      <c r="B106" s="27"/>
-      <c r="C106" s="28" t="s">
+      <c r="A106" s="28"/>
+      <c r="B106" s="28"/>
+      <c r="C106" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D106" s="29"/>
-      <c r="E106" s="29"/>
-      <c r="F106" s="29"/>
-      <c r="G106" s="29"/>
-      <c r="H106" s="29"/>
-      <c r="I106" s="65"/>
-      <c r="K106" s="66" t="s">
+      <c r="D106" s="30"/>
+      <c r="E106" s="30"/>
+      <c r="F106" s="30"/>
+      <c r="G106" s="30"/>
+      <c r="H106" s="30"/>
+      <c r="I106" s="66"/>
+      <c r="K106" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="L106" s="66"/>
-      <c r="M106" s="66"/>
-      <c r="N106" s="66"/>
-      <c r="O106" s="66"/>
-      <c r="P106" s="66"/>
+      <c r="L106" s="67"/>
+      <c r="M106" s="67"/>
+      <c r="N106" s="67"/>
+      <c r="O106" s="67"/>
+      <c r="P106" s="67"/>
     </row>
     <row r="107" ht="18" customHeight="1" spans="1:9">
-      <c r="A107" s="27"/>
-      <c r="B107" s="27"/>
-      <c r="C107" s="28" t="s">
+      <c r="A107" s="28"/>
+      <c r="B107" s="28"/>
+      <c r="C107" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D107" s="29"/>
-      <c r="E107" s="29"/>
-      <c r="F107" s="29"/>
-      <c r="G107" s="29"/>
-      <c r="H107" s="29"/>
-      <c r="I107" s="65"/>
+      <c r="D107" s="30"/>
+      <c r="E107" s="30"/>
+      <c r="F107" s="30"/>
+      <c r="G107" s="30"/>
+      <c r="H107" s="30"/>
+      <c r="I107" s="66"/>
     </row>
     <row r="108" ht="18" customHeight="1" spans="1:9">
-      <c r="A108" s="27"/>
-      <c r="B108" s="27"/>
-      <c r="C108" s="28" t="s">
+      <c r="A108" s="28"/>
+      <c r="B108" s="28"/>
+      <c r="C108" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D108" s="29"/>
-      <c r="E108" s="29"/>
-      <c r="F108" s="29"/>
-      <c r="G108" s="29"/>
-      <c r="H108" s="29"/>
-      <c r="I108" s="65"/>
+      <c r="D108" s="30"/>
+      <c r="E108" s="30"/>
+      <c r="F108" s="30"/>
+      <c r="G108" s="30"/>
+      <c r="H108" s="30"/>
+      <c r="I108" s="66"/>
     </row>
     <row r="109" ht="18" customHeight="1"/>
     <row r="110" ht="18" customHeight="1" spans="1:9">
-      <c r="A110" s="27" t="s">
+      <c r="A110" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="B110" s="27"/>
-      <c r="C110" s="28" t="s">
+      <c r="B110" s="28"/>
+      <c r="C110" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D110" s="29" t="s">
+      <c r="D110" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="E110" s="29"/>
-      <c r="F110" s="29"/>
-      <c r="G110" s="29"/>
-      <c r="H110" s="29"/>
-      <c r="I110" s="64" t="s">
+      <c r="E110" s="30"/>
+      <c r="F110" s="30"/>
+      <c r="G110" s="30"/>
+      <c r="H110" s="30"/>
+      <c r="I110" s="65" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="111" ht="18" customHeight="1" spans="1:16">
-      <c r="A111" s="27"/>
-      <c r="B111" s="27"/>
-      <c r="C111" s="28" t="s">
+      <c r="A111" s="28"/>
+      <c r="B111" s="28"/>
+      <c r="C111" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D111" s="29" t="s">
+      <c r="D111" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="E111" s="29"/>
-      <c r="F111" s="29"/>
-      <c r="G111" s="29"/>
-      <c r="H111" s="29"/>
-      <c r="I111" s="64"/>
-      <c r="K111" s="66" t="s">
+      <c r="E111" s="30"/>
+      <c r="F111" s="30"/>
+      <c r="G111" s="30"/>
+      <c r="H111" s="30"/>
+      <c r="I111" s="65"/>
+      <c r="K111" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="L111" s="66"/>
-      <c r="M111" s="66"/>
-      <c r="N111" s="66"/>
-      <c r="O111" s="66"/>
-      <c r="P111" s="66"/>
+      <c r="L111" s="67"/>
+      <c r="M111" s="67"/>
+      <c r="N111" s="67"/>
+      <c r="O111" s="67"/>
+      <c r="P111" s="67"/>
     </row>
     <row r="112" ht="18" customHeight="1" spans="1:9">
-      <c r="A112" s="27"/>
-      <c r="B112" s="27"/>
-      <c r="C112" s="28" t="s">
+      <c r="A112" s="28"/>
+      <c r="B112" s="28"/>
+      <c r="C112" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D112" s="29" t="s">
+      <c r="D112" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="E112" s="29"/>
-      <c r="F112" s="29"/>
-      <c r="G112" s="29"/>
-      <c r="H112" s="29"/>
-      <c r="I112" s="64"/>
+      <c r="E112" s="30"/>
+      <c r="F112" s="30"/>
+      <c r="G112" s="30"/>
+      <c r="H112" s="30"/>
+      <c r="I112" s="65"/>
     </row>
     <row r="113" ht="18" customHeight="1" spans="1:9">
-      <c r="A113" s="27"/>
-      <c r="B113" s="27"/>
-      <c r="C113" s="28" t="s">
+      <c r="A113" s="28"/>
+      <c r="B113" s="28"/>
+      <c r="C113" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D113" s="29" t="s">
+      <c r="D113" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="E113" s="29"/>
-      <c r="F113" s="29"/>
-      <c r="G113" s="29"/>
-      <c r="H113" s="29"/>
-      <c r="I113" s="64"/>
+      <c r="E113" s="30"/>
+      <c r="F113" s="30"/>
+      <c r="G113" s="30"/>
+      <c r="H113" s="30"/>
+      <c r="I113" s="65"/>
     </row>
     <row r="114" ht="18" customHeight="1"/>
     <row r="115" ht="18" customHeight="1" spans="1:9">
-      <c r="A115" s="27" t="s">
+      <c r="A115" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="B115" s="27"/>
-      <c r="C115" s="28" t="s">
+      <c r="B115" s="28"/>
+      <c r="C115" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D115" s="29" t="s">
+      <c r="D115" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="E115" s="29"/>
-      <c r="F115" s="29"/>
-      <c r="G115" s="29"/>
-      <c r="H115" s="29"/>
-      <c r="I115" s="65" t="s">
+      <c r="E115" s="30"/>
+      <c r="F115" s="30"/>
+      <c r="G115" s="30"/>
+      <c r="H115" s="30"/>
+      <c r="I115" s="66" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="116" ht="18" customHeight="1" spans="1:16">
-      <c r="A116" s="27"/>
-      <c r="B116" s="27"/>
-      <c r="C116" s="28" t="s">
+      <c r="A116" s="28"/>
+      <c r="B116" s="28"/>
+      <c r="C116" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D116" s="29" t="s">
+      <c r="D116" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="E116" s="29"/>
-      <c r="F116" s="29"/>
-      <c r="G116" s="29"/>
-      <c r="H116" s="29"/>
-      <c r="I116" s="65"/>
-      <c r="K116" s="53" t="s">
+      <c r="E116" s="30"/>
+      <c r="F116" s="30"/>
+      <c r="G116" s="30"/>
+      <c r="H116" s="30"/>
+      <c r="I116" s="66"/>
+      <c r="K116" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="L116" s="53"/>
-      <c r="M116" s="53"/>
-      <c r="N116" s="53"/>
-      <c r="O116" s="53"/>
-      <c r="P116" s="53"/>
+      <c r="L116" s="54"/>
+      <c r="M116" s="54"/>
+      <c r="N116" s="54"/>
+      <c r="O116" s="54"/>
+      <c r="P116" s="54"/>
     </row>
     <row r="117" ht="18" customHeight="1" spans="1:9">
-      <c r="A117" s="27"/>
-      <c r="B117" s="27"/>
-      <c r="C117" s="28" t="s">
+      <c r="A117" s="28"/>
+      <c r="B117" s="28"/>
+      <c r="C117" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D117" s="29"/>
-      <c r="E117" s="29"/>
-      <c r="F117" s="29"/>
-      <c r="G117" s="29"/>
-      <c r="H117" s="29"/>
-      <c r="I117" s="65"/>
+      <c r="D117" s="30"/>
+      <c r="E117" s="30"/>
+      <c r="F117" s="30"/>
+      <c r="G117" s="30"/>
+      <c r="H117" s="30"/>
+      <c r="I117" s="66"/>
     </row>
     <row r="118" ht="18" customHeight="1" spans="1:9">
-      <c r="A118" s="27"/>
-      <c r="B118" s="27"/>
-      <c r="C118" s="28" t="s">
+      <c r="A118" s="28"/>
+      <c r="B118" s="28"/>
+      <c r="C118" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D118" s="29"/>
-      <c r="E118" s="29"/>
-      <c r="F118" s="29"/>
-      <c r="G118" s="29"/>
-      <c r="H118" s="29"/>
-      <c r="I118" s="65"/>
+      <c r="D118" s="30"/>
+      <c r="E118" s="30"/>
+      <c r="F118" s="30"/>
+      <c r="G118" s="30"/>
+      <c r="H118" s="30"/>
+      <c r="I118" s="66"/>
     </row>
     <row r="119" ht="18" customHeight="1"/>
     <row r="120" ht="18" customHeight="1" spans="1:9">
-      <c r="A120" s="27" t="s">
+      <c r="A120" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="B120" s="27"/>
-      <c r="C120" s="28" t="s">
+      <c r="B120" s="28"/>
+      <c r="C120" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D120" s="29" t="s">
+      <c r="D120" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="E120" s="29"/>
-      <c r="F120" s="29"/>
-      <c r="G120" s="29"/>
-      <c r="H120" s="29"/>
-      <c r="I120" s="65"/>
+      <c r="E120" s="30"/>
+      <c r="F120" s="30"/>
+      <c r="G120" s="30"/>
+      <c r="H120" s="30"/>
+      <c r="I120" s="66"/>
     </row>
     <row r="121" ht="18" customHeight="1" spans="1:9">
-      <c r="A121" s="27"/>
-      <c r="B121" s="27"/>
-      <c r="C121" s="28" t="s">
+      <c r="A121" s="28"/>
+      <c r="B121" s="28"/>
+      <c r="C121" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D121" s="29" t="s">
+      <c r="D121" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="E121" s="29"/>
-      <c r="F121" s="29"/>
-      <c r="G121" s="29"/>
-      <c r="H121" s="29"/>
-      <c r="I121" s="65"/>
+      <c r="E121" s="30"/>
+      <c r="F121" s="30"/>
+      <c r="G121" s="30"/>
+      <c r="H121" s="30"/>
+      <c r="I121" s="66"/>
     </row>
     <row r="122" ht="18" customHeight="1" spans="1:9">
-      <c r="A122" s="27"/>
-      <c r="B122" s="27"/>
-      <c r="C122" s="28" t="s">
+      <c r="A122" s="28"/>
+      <c r="B122" s="28"/>
+      <c r="C122" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D122" s="29" t="s">
+      <c r="D122" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="E122" s="29"/>
-      <c r="F122" s="29"/>
-      <c r="G122" s="29"/>
-      <c r="H122" s="29"/>
-      <c r="I122" s="65"/>
+      <c r="E122" s="30"/>
+      <c r="F122" s="30"/>
+      <c r="G122" s="30"/>
+      <c r="H122" s="30"/>
+      <c r="I122" s="66"/>
     </row>
     <row r="123" ht="18" customHeight="1" spans="1:9">
-      <c r="A123" s="27"/>
-      <c r="B123" s="27"/>
-      <c r="C123" s="28" t="s">
+      <c r="A123" s="28"/>
+      <c r="B123" s="28"/>
+      <c r="C123" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D123" s="29" t="s">
+      <c r="D123" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="E123" s="29"/>
-      <c r="F123" s="29"/>
-      <c r="G123" s="29"/>
-      <c r="H123" s="29"/>
-      <c r="I123" s="65"/>
+      <c r="E123" s="30"/>
+      <c r="F123" s="30"/>
+      <c r="G123" s="30"/>
+      <c r="H123" s="30"/>
+      <c r="I123" s="66"/>
     </row>
     <row r="124" ht="18" customHeight="1"/>
     <row r="125" ht="18" customHeight="1" spans="1:9">
-      <c r="A125" s="27" t="s">
+      <c r="A125" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="B125" s="27"/>
-      <c r="C125" s="28" t="s">
+      <c r="B125" s="28"/>
+      <c r="C125" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D125" s="29"/>
-      <c r="E125" s="29"/>
-      <c r="F125" s="29"/>
-      <c r="G125" s="29"/>
-      <c r="H125" s="29"/>
-      <c r="I125" s="55" t="s">
+      <c r="D125" s="30"/>
+      <c r="E125" s="30"/>
+      <c r="F125" s="30"/>
+      <c r="G125" s="30"/>
+      <c r="H125" s="30"/>
+      <c r="I125" s="56" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="126" ht="18" customHeight="1" spans="1:9">
-      <c r="A126" s="27"/>
-      <c r="B126" s="27"/>
-      <c r="C126" s="28" t="s">
+      <c r="A126" s="28"/>
+      <c r="B126" s="28"/>
+      <c r="C126" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D126" s="29" t="s">
+      <c r="D126" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="E126" s="29"/>
-      <c r="F126" s="29"/>
-      <c r="G126" s="29"/>
-      <c r="H126" s="29"/>
-      <c r="I126" s="55"/>
+      <c r="E126" s="30"/>
+      <c r="F126" s="30"/>
+      <c r="G126" s="30"/>
+      <c r="H126" s="30"/>
+      <c r="I126" s="56"/>
     </row>
     <row r="127" ht="18" customHeight="1" spans="1:9">
-      <c r="A127" s="27"/>
-      <c r="B127" s="27"/>
-      <c r="C127" s="28" t="s">
+      <c r="A127" s="28"/>
+      <c r="B127" s="28"/>
+      <c r="C127" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D127" s="29" t="s">
+      <c r="D127" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="E127" s="29"/>
-      <c r="F127" s="29"/>
-      <c r="G127" s="29"/>
-      <c r="H127" s="29"/>
-      <c r="I127" s="55"/>
+      <c r="E127" s="30"/>
+      <c r="F127" s="30"/>
+      <c r="G127" s="30"/>
+      <c r="H127" s="30"/>
+      <c r="I127" s="56"/>
     </row>
     <row r="128" ht="18" customHeight="1" spans="1:9">
-      <c r="A128" s="27"/>
-      <c r="B128" s="27"/>
-      <c r="C128" s="28" t="s">
+      <c r="A128" s="28"/>
+      <c r="B128" s="28"/>
+      <c r="C128" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D128" s="29" t="s">
+      <c r="D128" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="E128" s="29"/>
-      <c r="F128" s="29"/>
-      <c r="G128" s="29"/>
-      <c r="H128" s="29"/>
-      <c r="I128" s="55"/>
+      <c r="E128" s="30"/>
+      <c r="F128" s="30"/>
+      <c r="G128" s="30"/>
+      <c r="H128" s="30"/>
+      <c r="I128" s="56"/>
     </row>
     <row r="129" ht="18" customHeight="1"/>
     <row r="130" ht="18" customHeight="1" spans="1:9">
-      <c r="A130" s="27" t="s">
+      <c r="A130" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="B130" s="27"/>
-      <c r="C130" s="56" t="s">
+      <c r="B130" s="28"/>
+      <c r="C130" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="D130" s="57"/>
-      <c r="E130" s="57"/>
-      <c r="F130" s="57"/>
-      <c r="G130" s="57"/>
-      <c r="H130" s="58"/>
-      <c r="I130" s="65" t="s">
+      <c r="D130" s="58"/>
+      <c r="E130" s="58"/>
+      <c r="F130" s="58"/>
+      <c r="G130" s="58"/>
+      <c r="H130" s="59"/>
+      <c r="I130" s="66" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="131" ht="18" customHeight="1" spans="1:9">
-      <c r="A131" s="27"/>
-      <c r="B131" s="27"/>
-      <c r="C131" s="59"/>
-      <c r="D131" s="55"/>
-      <c r="E131" s="55"/>
-      <c r="F131" s="55"/>
-      <c r="G131" s="55"/>
-      <c r="H131" s="60"/>
-      <c r="I131" s="65"/>
+      <c r="A131" s="28"/>
+      <c r="B131" s="28"/>
+      <c r="C131" s="60"/>
+      <c r="D131" s="56"/>
+      <c r="E131" s="56"/>
+      <c r="F131" s="56"/>
+      <c r="G131" s="56"/>
+      <c r="H131" s="61"/>
+      <c r="I131" s="66"/>
     </row>
     <row r="132" ht="18" customHeight="1" spans="1:9">
-      <c r="A132" s="27"/>
-      <c r="B132" s="27"/>
-      <c r="C132" s="59"/>
-      <c r="D132" s="55"/>
-      <c r="E132" s="55"/>
-      <c r="F132" s="55"/>
-      <c r="G132" s="55"/>
-      <c r="H132" s="60"/>
-      <c r="I132" s="65"/>
+      <c r="A132" s="28"/>
+      <c r="B132" s="28"/>
+      <c r="C132" s="60"/>
+      <c r="D132" s="56"/>
+      <c r="E132" s="56"/>
+      <c r="F132" s="56"/>
+      <c r="G132" s="56"/>
+      <c r="H132" s="61"/>
+      <c r="I132" s="66"/>
     </row>
     <row r="133" ht="18" customHeight="1" spans="1:9">
-      <c r="A133" s="27"/>
-      <c r="B133" s="27"/>
-      <c r="C133" s="61"/>
-      <c r="D133" s="62"/>
-      <c r="E133" s="62"/>
-      <c r="F133" s="62"/>
-      <c r="G133" s="62"/>
-      <c r="H133" s="63"/>
-      <c r="I133" s="65"/>
+      <c r="A133" s="28"/>
+      <c r="B133" s="28"/>
+      <c r="C133" s="62"/>
+      <c r="D133" s="63"/>
+      <c r="E133" s="63"/>
+      <c r="F133" s="63"/>
+      <c r="G133" s="63"/>
+      <c r="H133" s="64"/>
+      <c r="I133" s="66"/>
     </row>
     <row r="134" ht="18" customHeight="1"/>
     <row r="135" ht="18" customHeight="1"/>
     <row r="136" ht="18" customHeight="1" spans="1:8">
-      <c r="A136" s="27" t="s">
+      <c r="A136" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="B136" s="27"/>
-      <c r="C136" s="29"/>
-      <c r="D136" s="29"/>
-      <c r="E136" s="29"/>
-      <c r="F136" s="29"/>
-      <c r="G136" s="29"/>
-      <c r="H136" s="29"/>
+      <c r="B136" s="28"/>
+      <c r="C136" s="30"/>
+      <c r="D136" s="30"/>
+      <c r="E136" s="30"/>
+      <c r="F136" s="30"/>
+      <c r="G136" s="30"/>
+      <c r="H136" s="30"/>
     </row>
     <row r="137" ht="18" customHeight="1" spans="1:8">
-      <c r="A137" s="27"/>
-      <c r="B137" s="27"/>
-      <c r="C137" s="29"/>
-      <c r="D137" s="29"/>
-      <c r="E137" s="29"/>
-      <c r="F137" s="29"/>
-      <c r="G137" s="29"/>
-      <c r="H137" s="29"/>
+      <c r="A137" s="28"/>
+      <c r="B137" s="28"/>
+      <c r="C137" s="30"/>
+      <c r="D137" s="30"/>
+      <c r="E137" s="30"/>
+      <c r="F137" s="30"/>
+      <c r="G137" s="30"/>
+      <c r="H137" s="30"/>
     </row>
     <row r="138" ht="18" customHeight="1" spans="1:16">
-      <c r="A138" s="27" t="s">
+      <c r="A138" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="B138" s="27"/>
-      <c r="C138" s="28" t="s">
+      <c r="B138" s="28"/>
+      <c r="C138" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D138" s="29" t="s">
+      <c r="D138" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="E138" s="29"/>
-      <c r="F138" s="29"/>
-      <c r="G138" s="29"/>
-      <c r="H138" s="29"/>
-      <c r="I138" s="64" t="s">
+      <c r="E138" s="30"/>
+      <c r="F138" s="30"/>
+      <c r="G138" s="30"/>
+      <c r="H138" s="30"/>
+      <c r="I138" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="K138" s="55" t="s">
+      <c r="K138" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="L138" s="55"/>
-      <c r="M138" s="55"/>
-      <c r="N138" s="55"/>
-      <c r="O138" s="55"/>
-      <c r="P138" s="55"/>
+      <c r="L138" s="56"/>
+      <c r="M138" s="56"/>
+      <c r="N138" s="56"/>
+      <c r="O138" s="56"/>
+      <c r="P138" s="56"/>
     </row>
     <row r="139" ht="18" customHeight="1" spans="1:9">
-      <c r="A139" s="27"/>
-      <c r="B139" s="27"/>
-      <c r="C139" s="28" t="s">
+      <c r="A139" s="28"/>
+      <c r="B139" s="28"/>
+      <c r="C139" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D139" s="29"/>
-      <c r="E139" s="29"/>
-      <c r="F139" s="29"/>
-      <c r="G139" s="29"/>
-      <c r="H139" s="29"/>
-      <c r="I139" s="55"/>
+      <c r="D139" s="30"/>
+      <c r="E139" s="30"/>
+      <c r="F139" s="30"/>
+      <c r="G139" s="30"/>
+      <c r="H139" s="30"/>
+      <c r="I139" s="56"/>
     </row>
     <row r="140" ht="18" customHeight="1" spans="1:9">
-      <c r="A140" s="27"/>
-      <c r="B140" s="27"/>
-      <c r="C140" s="28" t="s">
+      <c r="A140" s="28"/>
+      <c r="B140" s="28"/>
+      <c r="C140" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D140" s="29"/>
-      <c r="E140" s="29"/>
-      <c r="F140" s="29"/>
-      <c r="G140" s="29"/>
-      <c r="H140" s="29"/>
-      <c r="I140" s="55"/>
+      <c r="D140" s="30"/>
+      <c r="E140" s="30"/>
+      <c r="F140" s="30"/>
+      <c r="G140" s="30"/>
+      <c r="H140" s="30"/>
+      <c r="I140" s="56"/>
     </row>
     <row r="141" ht="18" customHeight="1" spans="1:9">
-      <c r="A141" s="27"/>
-      <c r="B141" s="27"/>
-      <c r="C141" s="28" t="s">
+      <c r="A141" s="28"/>
+      <c r="B141" s="28"/>
+      <c r="C141" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D141" s="29"/>
-      <c r="E141" s="29"/>
-      <c r="F141" s="29"/>
-      <c r="G141" s="29"/>
-      <c r="H141" s="29"/>
-      <c r="I141" s="55"/>
+      <c r="D141" s="30"/>
+      <c r="E141" s="30"/>
+      <c r="F141" s="30"/>
+      <c r="G141" s="30"/>
+      <c r="H141" s="30"/>
+      <c r="I141" s="56"/>
     </row>
     <row r="142" ht="18" customHeight="1"/>
     <row r="143" ht="18" customHeight="1" spans="1:16">
-      <c r="A143" s="27" t="s">
+      <c r="A143" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="B143" s="27"/>
-      <c r="C143" s="28" t="s">
+      <c r="B143" s="28"/>
+      <c r="C143" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D143" s="29" t="s">
+      <c r="D143" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="E143" s="29"/>
-      <c r="F143" s="29"/>
-      <c r="G143" s="29"/>
-      <c r="H143" s="29"/>
-      <c r="J143" s="53" t="s">
+      <c r="E143" s="30"/>
+      <c r="F143" s="30"/>
+      <c r="G143" s="30"/>
+      <c r="H143" s="30"/>
+      <c r="J143" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="K143" s="53"/>
-      <c r="L143" s="53"/>
-      <c r="M143" s="53"/>
-      <c r="N143" s="53"/>
-      <c r="O143" s="53"/>
-      <c r="P143" s="53"/>
+      <c r="K143" s="54"/>
+      <c r="L143" s="54"/>
+      <c r="M143" s="54"/>
+      <c r="N143" s="54"/>
+      <c r="O143" s="54"/>
+      <c r="P143" s="54"/>
     </row>
     <row r="144" ht="18" customHeight="1" spans="1:8">
-      <c r="A144" s="27"/>
-      <c r="B144" s="27"/>
-      <c r="C144" s="28" t="s">
+      <c r="A144" s="28"/>
+      <c r="B144" s="28"/>
+      <c r="C144" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D144" s="29" t="s">
+      <c r="D144" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="E144" s="29"/>
-      <c r="F144" s="29"/>
-      <c r="G144" s="29"/>
-      <c r="H144" s="29"/>
+      <c r="E144" s="30"/>
+      <c r="F144" s="30"/>
+      <c r="G144" s="30"/>
+      <c r="H144" s="30"/>
     </row>
     <row r="145" ht="18" customHeight="1" spans="1:8">
-      <c r="A145" s="27"/>
-      <c r="B145" s="27"/>
-      <c r="C145" s="28" t="s">
+      <c r="A145" s="28"/>
+      <c r="B145" s="28"/>
+      <c r="C145" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D145" s="29" t="s">
+      <c r="D145" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="E145" s="29"/>
-      <c r="F145" s="29"/>
-      <c r="G145" s="29"/>
-      <c r="H145" s="29"/>
+      <c r="E145" s="30"/>
+      <c r="F145" s="30"/>
+      <c r="G145" s="30"/>
+      <c r="H145" s="30"/>
     </row>
     <row r="146" ht="18" customHeight="1" spans="1:8">
-      <c r="A146" s="27"/>
-      <c r="B146" s="27"/>
-      <c r="C146" s="28" t="s">
+      <c r="A146" s="28"/>
+      <c r="B146" s="28"/>
+      <c r="C146" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D146" s="29" t="s">
+      <c r="D146" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="E146" s="29"/>
-      <c r="F146" s="29"/>
-      <c r="G146" s="29"/>
-      <c r="H146" s="29"/>
+      <c r="E146" s="30"/>
+      <c r="F146" s="30"/>
+      <c r="G146" s="30"/>
+      <c r="H146" s="30"/>
     </row>
     <row r="147" ht="18" customHeight="1"/>
     <row r="148" ht="18" customHeight="1" spans="1:16">
-      <c r="A148" s="27" t="s">
+      <c r="A148" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="B148" s="27"/>
-      <c r="C148" s="28" t="s">
+      <c r="B148" s="28"/>
+      <c r="C148" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D148" s="29" t="s">
+      <c r="D148" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="E148" s="29"/>
-      <c r="F148" s="29"/>
-      <c r="G148" s="29"/>
-      <c r="H148" s="29"/>
-      <c r="K148" s="53" t="s">
+      <c r="E148" s="30"/>
+      <c r="F148" s="30"/>
+      <c r="G148" s="30"/>
+      <c r="H148" s="30"/>
+      <c r="K148" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="L148" s="53"/>
-      <c r="M148" s="53"/>
-      <c r="N148" s="53"/>
-      <c r="O148" s="53"/>
-      <c r="P148" s="53"/>
+      <c r="L148" s="54"/>
+      <c r="M148" s="54"/>
+      <c r="N148" s="54"/>
+      <c r="O148" s="54"/>
+      <c r="P148" s="54"/>
     </row>
     <row r="149" ht="18" customHeight="1" spans="1:8">
-      <c r="A149" s="27"/>
-      <c r="B149" s="27"/>
-      <c r="C149" s="28" t="s">
+      <c r="A149" s="28"/>
+      <c r="B149" s="28"/>
+      <c r="C149" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D149" s="29" t="s">
+      <c r="D149" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="E149" s="29"/>
-      <c r="F149" s="29"/>
-      <c r="G149" s="29"/>
-      <c r="H149" s="29"/>
+      <c r="E149" s="30"/>
+      <c r="F149" s="30"/>
+      <c r="G149" s="30"/>
+      <c r="H149" s="30"/>
     </row>
     <row r="150" ht="18" customHeight="1" spans="1:8">
-      <c r="A150" s="27"/>
-      <c r="B150" s="27"/>
-      <c r="C150" s="28" t="s">
+      <c r="A150" s="28"/>
+      <c r="B150" s="28"/>
+      <c r="C150" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D150" s="29" t="s">
+      <c r="D150" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="E150" s="29"/>
-      <c r="F150" s="29"/>
-      <c r="G150" s="29"/>
-      <c r="H150" s="29"/>
+      <c r="E150" s="30"/>
+      <c r="F150" s="30"/>
+      <c r="G150" s="30"/>
+      <c r="H150" s="30"/>
     </row>
     <row r="151" ht="18" customHeight="1" spans="1:8">
-      <c r="A151" s="27"/>
-      <c r="B151" s="27"/>
-      <c r="C151" s="28" t="s">
+      <c r="A151" s="28"/>
+      <c r="B151" s="28"/>
+      <c r="C151" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D151" s="29" t="s">
+      <c r="D151" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="E151" s="29"/>
-      <c r="F151" s="29"/>
-      <c r="G151" s="29"/>
-      <c r="H151" s="29"/>
+      <c r="E151" s="30"/>
+      <c r="F151" s="30"/>
+      <c r="G151" s="30"/>
+      <c r="H151" s="30"/>
     </row>
     <row r="152" ht="18" customHeight="1"/>
     <row r="153" ht="18" customHeight="1" spans="1:9">
-      <c r="A153" s="27" t="s">
+      <c r="A153" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="B153" s="27"/>
-      <c r="C153" s="28" t="s">
+      <c r="B153" s="28"/>
+      <c r="C153" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D153" s="29" t="s">
+      <c r="D153" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="E153" s="29"/>
-      <c r="F153" s="29"/>
-      <c r="G153" s="29"/>
-      <c r="H153" s="29"/>
-      <c r="I153" s="55" t="s">
+      <c r="E153" s="30"/>
+      <c r="F153" s="30"/>
+      <c r="G153" s="30"/>
+      <c r="H153" s="30"/>
+      <c r="I153" s="56" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="154" ht="18" customHeight="1" spans="1:9">
-      <c r="A154" s="27"/>
-      <c r="B154" s="27"/>
-      <c r="C154" s="28" t="s">
+      <c r="A154" s="28"/>
+      <c r="B154" s="28"/>
+      <c r="C154" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D154" s="29" t="s">
+      <c r="D154" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="E154" s="29"/>
-      <c r="F154" s="29"/>
-      <c r="G154" s="29"/>
-      <c r="H154" s="29"/>
-      <c r="I154" s="55"/>
+      <c r="E154" s="30"/>
+      <c r="F154" s="30"/>
+      <c r="G154" s="30"/>
+      <c r="H154" s="30"/>
+      <c r="I154" s="56"/>
     </row>
     <row r="155" ht="18" customHeight="1" spans="1:9">
-      <c r="A155" s="27"/>
-      <c r="B155" s="27"/>
-      <c r="C155" s="28" t="s">
+      <c r="A155" s="28"/>
+      <c r="B155" s="28"/>
+      <c r="C155" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D155" s="29"/>
-      <c r="E155" s="29"/>
-      <c r="F155" s="29"/>
-      <c r="G155" s="29"/>
-      <c r="H155" s="29"/>
-      <c r="I155" s="55"/>
+      <c r="D155" s="30"/>
+      <c r="E155" s="30"/>
+      <c r="F155" s="30"/>
+      <c r="G155" s="30"/>
+      <c r="H155" s="30"/>
+      <c r="I155" s="56"/>
     </row>
     <row r="156" ht="18" customHeight="1" spans="1:9">
-      <c r="A156" s="27"/>
-      <c r="B156" s="27"/>
-      <c r="C156" s="28" t="s">
+      <c r="A156" s="28"/>
+      <c r="B156" s="28"/>
+      <c r="C156" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D156" s="29" t="s">
+      <c r="D156" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="E156" s="29"/>
-      <c r="F156" s="29"/>
-      <c r="G156" s="29"/>
-      <c r="H156" s="29"/>
-      <c r="I156" s="55"/>
+      <c r="E156" s="30"/>
+      <c r="F156" s="30"/>
+      <c r="G156" s="30"/>
+      <c r="H156" s="30"/>
+      <c r="I156" s="56"/>
     </row>
     <row r="157" ht="18" customHeight="1"/>
     <row r="158" ht="18" customHeight="1" spans="1:8">
-      <c r="A158" s="27" t="s">
+      <c r="A158" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="B158" s="27"/>
-      <c r="C158" s="28" t="s">
+      <c r="B158" s="28"/>
+      <c r="C158" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D158" s="29" t="s">
+      <c r="D158" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="E158" s="29"/>
-      <c r="F158" s="29"/>
-      <c r="G158" s="29"/>
-      <c r="H158" s="29"/>
+      <c r="E158" s="30"/>
+      <c r="F158" s="30"/>
+      <c r="G158" s="30"/>
+      <c r="H158" s="30"/>
     </row>
     <row r="159" ht="18" customHeight="1" spans="1:8">
-      <c r="A159" s="27"/>
-      <c r="B159" s="27"/>
-      <c r="C159" s="28" t="s">
+      <c r="A159" s="28"/>
+      <c r="B159" s="28"/>
+      <c r="C159" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D159" s="29"/>
-      <c r="E159" s="29"/>
-      <c r="F159" s="29"/>
-      <c r="G159" s="29"/>
-      <c r="H159" s="29"/>
+      <c r="D159" s="30"/>
+      <c r="E159" s="30"/>
+      <c r="F159" s="30"/>
+      <c r="G159" s="30"/>
+      <c r="H159" s="30"/>
     </row>
     <row r="160" ht="18" customHeight="1" spans="1:8">
-      <c r="A160" s="27"/>
-      <c r="B160" s="27"/>
-      <c r="C160" s="28" t="s">
+      <c r="A160" s="28"/>
+      <c r="B160" s="28"/>
+      <c r="C160" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D160" s="29"/>
-      <c r="E160" s="29"/>
-      <c r="F160" s="29"/>
-      <c r="G160" s="29"/>
-      <c r="H160" s="29"/>
+      <c r="D160" s="30"/>
+      <c r="E160" s="30"/>
+      <c r="F160" s="30"/>
+      <c r="G160" s="30"/>
+      <c r="H160" s="30"/>
     </row>
     <row r="161" ht="18" customHeight="1" spans="1:8">
-      <c r="A161" s="27"/>
-      <c r="B161" s="27"/>
-      <c r="C161" s="28" t="s">
+      <c r="A161" s="28"/>
+      <c r="B161" s="28"/>
+      <c r="C161" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D161" s="29"/>
-      <c r="E161" s="29"/>
-      <c r="F161" s="29"/>
-      <c r="G161" s="29"/>
-      <c r="H161" s="29"/>
+      <c r="D161" s="30"/>
+      <c r="E161" s="30"/>
+      <c r="F161" s="30"/>
+      <c r="G161" s="30"/>
+      <c r="H161" s="30"/>
     </row>
     <row r="162" ht="18" customHeight="1"/>
     <row r="163" ht="18" customHeight="1" spans="1:8">
-      <c r="A163" s="27" t="s">
+      <c r="A163" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="B163" s="27"/>
-      <c r="C163" s="28" t="s">
+      <c r="B163" s="28"/>
+      <c r="C163" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D163" s="29"/>
-      <c r="E163" s="29"/>
-      <c r="F163" s="29"/>
-      <c r="G163" s="29"/>
-      <c r="H163" s="29"/>
+      <c r="D163" s="30"/>
+      <c r="E163" s="30"/>
+      <c r="F163" s="30"/>
+      <c r="G163" s="30"/>
+      <c r="H163" s="30"/>
     </row>
     <row r="164" ht="18" customHeight="1" spans="1:8">
-      <c r="A164" s="27"/>
-      <c r="B164" s="27"/>
-      <c r="C164" s="28" t="s">
+      <c r="A164" s="28"/>
+      <c r="B164" s="28"/>
+      <c r="C164" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D164" s="29" t="s">
+      <c r="D164" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="E164" s="29"/>
-      <c r="F164" s="29"/>
-      <c r="G164" s="29"/>
-      <c r="H164" s="29"/>
+      <c r="E164" s="30"/>
+      <c r="F164" s="30"/>
+      <c r="G164" s="30"/>
+      <c r="H164" s="30"/>
     </row>
     <row r="165" ht="18" customHeight="1" spans="1:8">
-      <c r="A165" s="27"/>
-      <c r="B165" s="27"/>
-      <c r="C165" s="28" t="s">
+      <c r="A165" s="28"/>
+      <c r="B165" s="28"/>
+      <c r="C165" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D165" s="29"/>
-      <c r="E165" s="29"/>
-      <c r="F165" s="29"/>
-      <c r="G165" s="29"/>
-      <c r="H165" s="29"/>
+      <c r="D165" s="30"/>
+      <c r="E165" s="30"/>
+      <c r="F165" s="30"/>
+      <c r="G165" s="30"/>
+      <c r="H165" s="30"/>
     </row>
     <row r="166" ht="18" customHeight="1" spans="1:8">
-      <c r="A166" s="27"/>
-      <c r="B166" s="27"/>
-      <c r="C166" s="28" t="s">
+      <c r="A166" s="28"/>
+      <c r="B166" s="28"/>
+      <c r="C166" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D166" s="29"/>
-      <c r="E166" s="29"/>
-      <c r="F166" s="29"/>
-      <c r="G166" s="29"/>
-      <c r="H166" s="29"/>
+      <c r="D166" s="30"/>
+      <c r="E166" s="30"/>
+      <c r="F166" s="30"/>
+      <c r="G166" s="30"/>
+      <c r="H166" s="30"/>
     </row>
     <row r="167" ht="18" customHeight="1"/>
     <row r="168" ht="18" customHeight="1" spans="1:8">
-      <c r="A168" s="27" t="s">
+      <c r="A168" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="B168" s="27"/>
-      <c r="C168" s="28" t="s">
+      <c r="B168" s="28"/>
+      <c r="C168" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D168" s="12"/>
-      <c r="E168" s="67"/>
-      <c r="F168" s="67"/>
-      <c r="G168" s="67"/>
-      <c r="H168" s="13"/>
+      <c r="D168" s="13"/>
+      <c r="E168" s="68"/>
+      <c r="F168" s="68"/>
+      <c r="G168" s="68"/>
+      <c r="H168" s="14"/>
     </row>
     <row r="169" ht="18" customHeight="1" spans="1:8">
-      <c r="A169" s="27"/>
-      <c r="B169" s="27"/>
-      <c r="C169" s="28" t="s">
+      <c r="A169" s="28"/>
+      <c r="B169" s="28"/>
+      <c r="C169" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D169" s="17"/>
-      <c r="E169" s="68"/>
-      <c r="F169" s="68"/>
-      <c r="G169" s="68"/>
-      <c r="H169" s="18"/>
+      <c r="D169" s="18"/>
+      <c r="E169" s="1"/>
+      <c r="F169" s="1"/>
+      <c r="G169" s="1"/>
+      <c r="H169" s="19"/>
     </row>
     <row r="170" ht="18" customHeight="1" spans="1:8">
-      <c r="A170" s="27"/>
-      <c r="B170" s="27"/>
-      <c r="C170" s="28" t="s">
+      <c r="A170" s="28"/>
+      <c r="B170" s="28"/>
+      <c r="C170" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D170" s="17"/>
-      <c r="E170" s="68"/>
-      <c r="F170" s="68"/>
-      <c r="G170" s="68"/>
-      <c r="H170" s="18"/>
+      <c r="D170" s="18"/>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1"/>
+      <c r="G170" s="1"/>
+      <c r="H170" s="19"/>
     </row>
     <row r="171" ht="18" customHeight="1" spans="1:8">
-      <c r="A171" s="27"/>
-      <c r="B171" s="27"/>
-      <c r="C171" s="28" t="s">
+      <c r="A171" s="28"/>
+      <c r="B171" s="28"/>
+      <c r="C171" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D171" s="22"/>
+      <c r="D171" s="23"/>
       <c r="E171" s="69"/>
       <c r="F171" s="69"/>
       <c r="G171" s="69"/>
-      <c r="H171" s="23"/>
+      <c r="H171" s="24"/>
     </row>
     <row r="172" ht="18" customHeight="1"/>
     <row r="173" ht="18" customHeight="1"/>
     <row r="174" ht="18" customHeight="1"/>
     <row r="175" ht="18" customHeight="1" spans="1:8">
-      <c r="A175" s="12" t="s">
+      <c r="A175" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B175" s="13"/>
-      <c r="C175" s="14"/>
-      <c r="D175" s="15"/>
-      <c r="E175" s="15"/>
-      <c r="F175" s="15"/>
-      <c r="G175" s="15"/>
-      <c r="H175" s="16"/>
+      <c r="B175" s="14"/>
+      <c r="C175" s="15"/>
+      <c r="D175" s="16"/>
+      <c r="E175" s="16"/>
+      <c r="F175" s="16"/>
+      <c r="G175" s="16"/>
+      <c r="H175" s="17"/>
     </row>
     <row r="176" ht="18" customHeight="1" spans="1:8">
-      <c r="A176" s="17"/>
-      <c r="B176" s="18"/>
-      <c r="C176" s="19"/>
-      <c r="D176" s="20"/>
-      <c r="E176" s="20"/>
-      <c r="F176" s="20"/>
-      <c r="G176" s="20"/>
-      <c r="H176" s="21"/>
+      <c r="A176" s="18"/>
+      <c r="B176" s="19"/>
+      <c r="C176" s="20"/>
+      <c r="D176" s="21"/>
+      <c r="E176" s="21"/>
+      <c r="F176" s="21"/>
+      <c r="G176" s="21"/>
+      <c r="H176" s="22"/>
     </row>
     <row r="177" ht="18" customHeight="1" spans="1:8">
-      <c r="A177" s="22"/>
-      <c r="B177" s="23"/>
-      <c r="C177" s="24"/>
-      <c r="D177" s="25"/>
-      <c r="E177" s="25"/>
-      <c r="F177" s="25"/>
-      <c r="G177" s="25"/>
-      <c r="H177" s="26"/>
+      <c r="A177" s="23"/>
+      <c r="B177" s="24"/>
+      <c r="C177" s="25"/>
+      <c r="D177" s="26"/>
+      <c r="E177" s="26"/>
+      <c r="F177" s="26"/>
+      <c r="G177" s="26"/>
+      <c r="H177" s="27"/>
     </row>
     <row r="178" ht="18" customHeight="1" spans="1:8">
-      <c r="A178" s="17" t="s">
+      <c r="A178" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="B178" s="18"/>
-      <c r="C178" s="19" t="s">
+      <c r="B178" s="19"/>
+      <c r="C178" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="D178" s="20"/>
-      <c r="E178" s="20"/>
-      <c r="F178" s="20"/>
-      <c r="G178" s="20"/>
-      <c r="H178" s="21"/>
+      <c r="D178" s="21"/>
+      <c r="E178" s="21"/>
+      <c r="F178" s="21"/>
+      <c r="G178" s="21"/>
+      <c r="H178" s="22"/>
     </row>
     <row r="179" ht="18" customHeight="1" spans="1:8">
-      <c r="A179" s="22"/>
-      <c r="B179" s="23"/>
-      <c r="C179" s="24"/>
-      <c r="D179" s="25"/>
-      <c r="E179" s="25"/>
-      <c r="F179" s="25"/>
-      <c r="G179" s="25"/>
-      <c r="H179" s="26"/>
+      <c r="A179" s="23"/>
+      <c r="B179" s="24"/>
+      <c r="C179" s="25"/>
+      <c r="D179" s="26"/>
+      <c r="E179" s="26"/>
+      <c r="F179" s="26"/>
+      <c r="G179" s="26"/>
+      <c r="H179" s="27"/>
     </row>
     <row r="180" ht="18" customHeight="1" spans="1:8">
-      <c r="A180" s="27" t="s">
+      <c r="A180" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="B180" s="27"/>
-      <c r="C180" s="28" t="s">
+      <c r="B180" s="28"/>
+      <c r="C180" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D180" s="29" t="s">
+      <c r="D180" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="E180" s="29"/>
-      <c r="F180" s="29"/>
-      <c r="G180" s="29"/>
-      <c r="H180" s="29"/>
+      <c r="E180" s="30"/>
+      <c r="F180" s="30"/>
+      <c r="G180" s="30"/>
+      <c r="H180" s="30"/>
     </row>
     <row r="181" ht="18" customHeight="1" spans="1:8">
-      <c r="A181" s="27"/>
-      <c r="B181" s="27"/>
-      <c r="C181" s="28" t="s">
+      <c r="A181" s="28"/>
+      <c r="B181" s="28"/>
+      <c r="C181" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D181" s="29" t="s">
+      <c r="D181" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="E181" s="29"/>
-      <c r="F181" s="29"/>
-      <c r="G181" s="29"/>
-      <c r="H181" s="29"/>
+      <c r="E181" s="30"/>
+      <c r="F181" s="30"/>
+      <c r="G181" s="30"/>
+      <c r="H181" s="30"/>
     </row>
     <row r="182" ht="18" customHeight="1" spans="1:8">
-      <c r="A182" s="27"/>
-      <c r="B182" s="27"/>
-      <c r="C182" s="28" t="s">
+      <c r="A182" s="28"/>
+      <c r="B182" s="28"/>
+      <c r="C182" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D182" s="29" t="s">
+      <c r="D182" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="E182" s="29"/>
-      <c r="F182" s="29"/>
-      <c r="G182" s="29"/>
-      <c r="H182" s="29"/>
+      <c r="E182" s="30"/>
+      <c r="F182" s="30"/>
+      <c r="G182" s="30"/>
+      <c r="H182" s="30"/>
     </row>
     <row r="183" ht="18" customHeight="1" spans="1:8">
-      <c r="A183" s="27"/>
-      <c r="B183" s="27"/>
-      <c r="C183" s="28" t="s">
+      <c r="A183" s="28"/>
+      <c r="B183" s="28"/>
+      <c r="C183" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D183" s="29" t="s">
+      <c r="D183" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="E183" s="29"/>
-      <c r="F183" s="29"/>
-      <c r="G183" s="29"/>
-      <c r="H183" s="29"/>
+      <c r="E183" s="30"/>
+      <c r="F183" s="30"/>
+      <c r="G183" s="30"/>
+      <c r="H183" s="30"/>
     </row>
     <row r="184" ht="18" customHeight="1"/>
     <row r="185" ht="18" customHeight="1" spans="1:8">
-      <c r="A185" s="27" t="s">
+      <c r="A185" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="B185" s="27"/>
-      <c r="C185" s="28" t="s">
+      <c r="B185" s="28"/>
+      <c r="C185" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D185" s="29" t="s">
+      <c r="D185" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="E185" s="29"/>
-      <c r="F185" s="29"/>
-      <c r="G185" s="29"/>
-      <c r="H185" s="29"/>
+      <c r="E185" s="30"/>
+      <c r="F185" s="30"/>
+      <c r="G185" s="30"/>
+      <c r="H185" s="30"/>
     </row>
     <row r="186" ht="18" customHeight="1" spans="1:8">
-      <c r="A186" s="27"/>
-      <c r="B186" s="27"/>
-      <c r="C186" s="28" t="s">
+      <c r="A186" s="28"/>
+      <c r="B186" s="28"/>
+      <c r="C186" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D186" s="29" t="s">
+      <c r="D186" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="E186" s="29"/>
-      <c r="F186" s="29"/>
-      <c r="G186" s="29"/>
-      <c r="H186" s="29"/>
+      <c r="E186" s="30"/>
+      <c r="F186" s="30"/>
+      <c r="G186" s="30"/>
+      <c r="H186" s="30"/>
     </row>
     <row r="187" ht="18" customHeight="1" spans="1:8">
-      <c r="A187" s="27"/>
-      <c r="B187" s="27"/>
-      <c r="C187" s="28" t="s">
+      <c r="A187" s="28"/>
+      <c r="B187" s="28"/>
+      <c r="C187" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D187" s="29" t="s">
+      <c r="D187" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="E187" s="29"/>
-      <c r="F187" s="29"/>
-      <c r="G187" s="29"/>
-      <c r="H187" s="29"/>
+      <c r="E187" s="30"/>
+      <c r="F187" s="30"/>
+      <c r="G187" s="30"/>
+      <c r="H187" s="30"/>
     </row>
     <row r="188" ht="18" customHeight="1" spans="1:8">
-      <c r="A188" s="27"/>
-      <c r="B188" s="27"/>
-      <c r="C188" s="28" t="s">
+      <c r="A188" s="28"/>
+      <c r="B188" s="28"/>
+      <c r="C188" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D188" s="29" t="s">
+      <c r="D188" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="E188" s="29"/>
-      <c r="F188" s="29"/>
-      <c r="G188" s="29"/>
-      <c r="H188" s="29"/>
+      <c r="E188" s="30"/>
+      <c r="F188" s="30"/>
+      <c r="G188" s="30"/>
+      <c r="H188" s="30"/>
     </row>
     <row r="189" ht="18" customHeight="1" spans="1:8">
       <c r="A189" s="70"/>
       <c r="B189" s="71"/>
-      <c r="C189" s="49"/>
-      <c r="D189" s="20"/>
-      <c r="E189" s="20"/>
-      <c r="F189" s="20"/>
-      <c r="G189" s="20"/>
-      <c r="H189" s="20"/>
+      <c r="C189" s="50"/>
+      <c r="D189" s="21"/>
+      <c r="E189" s="21"/>
+      <c r="F189" s="21"/>
+      <c r="G189" s="21"/>
+      <c r="H189" s="21"/>
     </row>
     <row r="190" ht="18" customHeight="1" spans="1:9">
-      <c r="A190" s="27" t="s">
+      <c r="A190" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="B190" s="27"/>
-      <c r="C190" s="28" t="s">
+      <c r="B190" s="28"/>
+      <c r="C190" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D190" s="29" t="s">
+      <c r="D190" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="E190" s="29"/>
-      <c r="F190" s="29"/>
-      <c r="G190" s="29"/>
-      <c r="H190" s="29"/>
-      <c r="I190" s="55" t="s">
+      <c r="E190" s="30"/>
+      <c r="F190" s="30"/>
+      <c r="G190" s="30"/>
+      <c r="H190" s="30"/>
+      <c r="I190" s="56" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="191" ht="18" customHeight="1" spans="1:9">
-      <c r="A191" s="27"/>
-      <c r="B191" s="27"/>
-      <c r="C191" s="28" t="s">
+      <c r="A191" s="28"/>
+      <c r="B191" s="28"/>
+      <c r="C191" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D191" s="29" t="s">
+      <c r="D191" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="E191" s="29"/>
-      <c r="F191" s="29"/>
-      <c r="G191" s="29"/>
-      <c r="H191" s="29"/>
-      <c r="I191" s="55"/>
+      <c r="E191" s="30"/>
+      <c r="F191" s="30"/>
+      <c r="G191" s="30"/>
+      <c r="H191" s="30"/>
+      <c r="I191" s="56"/>
     </row>
     <row r="192" ht="18" customHeight="1" spans="1:9">
-      <c r="A192" s="27"/>
-      <c r="B192" s="27"/>
-      <c r="C192" s="28" t="s">
+      <c r="A192" s="28"/>
+      <c r="B192" s="28"/>
+      <c r="C192" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D192" s="29"/>
-      <c r="E192" s="29"/>
-      <c r="F192" s="29"/>
-      <c r="G192" s="29"/>
-      <c r="H192" s="29"/>
-      <c r="I192" s="55"/>
+      <c r="D192" s="30"/>
+      <c r="E192" s="30"/>
+      <c r="F192" s="30"/>
+      <c r="G192" s="30"/>
+      <c r="H192" s="30"/>
+      <c r="I192" s="56"/>
     </row>
     <row r="193" ht="18" customHeight="1" spans="1:9">
-      <c r="A193" s="27"/>
-      <c r="B193" s="27"/>
-      <c r="C193" s="28" t="s">
+      <c r="A193" s="28"/>
+      <c r="B193" s="28"/>
+      <c r="C193" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D193" s="29"/>
-      <c r="E193" s="29"/>
-      <c r="F193" s="29"/>
-      <c r="G193" s="29"/>
-      <c r="H193" s="29"/>
-      <c r="I193" s="55"/>
+      <c r="D193" s="30"/>
+      <c r="E193" s="30"/>
+      <c r="F193" s="30"/>
+      <c r="G193" s="30"/>
+      <c r="H193" s="30"/>
+      <c r="I193" s="56"/>
     </row>
     <row r="194" ht="18" customHeight="1"/>
     <row r="195" ht="18" customHeight="1" spans="1:9">
-      <c r="A195" s="27" t="s">
+      <c r="A195" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="B195" s="27"/>
+      <c r="B195" s="28"/>
       <c r="C195" s="72" t="s">
         <v>151</v>
       </c>
@@ -5121,8 +5157,8 @@
       <c r="I195" s="73"/>
     </row>
     <row r="196" ht="18" customHeight="1" spans="1:9">
-      <c r="A196" s="27"/>
-      <c r="B196" s="27"/>
+      <c r="A196" s="28"/>
+      <c r="B196" s="28"/>
       <c r="C196" s="74"/>
       <c r="D196" s="73"/>
       <c r="E196" s="73"/>
@@ -5132,8 +5168,8 @@
       <c r="I196" s="73"/>
     </row>
     <row r="197" ht="18" customHeight="1" spans="1:9">
-      <c r="A197" s="27"/>
-      <c r="B197" s="27"/>
+      <c r="A197" s="28"/>
+      <c r="B197" s="28"/>
       <c r="C197" s="74"/>
       <c r="D197" s="73"/>
       <c r="E197" s="73"/>
@@ -5143,8 +5179,8 @@
       <c r="I197" s="73"/>
     </row>
     <row r="198" ht="18" customHeight="1" spans="1:9">
-      <c r="A198" s="27"/>
-      <c r="B198" s="27"/>
+      <c r="A198" s="28"/>
+      <c r="B198" s="28"/>
       <c r="C198" s="74"/>
       <c r="D198" s="73"/>
       <c r="E198" s="73"/>
@@ -5156,99 +5192,99 @@
     <row r="199" ht="18" customHeight="1"/>
     <row r="200" ht="18" customHeight="1"/>
     <row r="201" ht="18" customHeight="1" spans="1:8">
-      <c r="A201" s="27" t="s">
+      <c r="A201" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="B201" s="27"/>
-      <c r="C201" s="29" t="s">
+      <c r="B201" s="28"/>
+      <c r="C201" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="D201" s="29"/>
-      <c r="E201" s="29"/>
-      <c r="F201" s="29"/>
-      <c r="G201" s="29"/>
-      <c r="H201" s="29"/>
+      <c r="D201" s="30"/>
+      <c r="E201" s="30"/>
+      <c r="F201" s="30"/>
+      <c r="G201" s="30"/>
+      <c r="H201" s="30"/>
     </row>
     <row r="202" ht="18" customHeight="1" spans="1:8">
-      <c r="A202" s="27"/>
-      <c r="B202" s="27"/>
-      <c r="C202" s="29"/>
-      <c r="D202" s="29"/>
-      <c r="E202" s="29"/>
-      <c r="F202" s="29"/>
-      <c r="G202" s="29"/>
-      <c r="H202" s="29"/>
+      <c r="A202" s="28"/>
+      <c r="B202" s="28"/>
+      <c r="C202" s="30"/>
+      <c r="D202" s="30"/>
+      <c r="E202" s="30"/>
+      <c r="F202" s="30"/>
+      <c r="G202" s="30"/>
+      <c r="H202" s="30"/>
     </row>
     <row r="203" ht="18" customHeight="1" spans="1:8">
-      <c r="A203" s="27" t="s">
+      <c r="A203" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="B203" s="27"/>
-      <c r="C203" s="28" t="s">
+      <c r="B203" s="28"/>
+      <c r="C203" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D203" s="29" t="s">
+      <c r="D203" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="E203" s="29"/>
-      <c r="F203" s="29"/>
-      <c r="G203" s="29"/>
-      <c r="H203" s="29"/>
+      <c r="E203" s="30"/>
+      <c r="F203" s="30"/>
+      <c r="G203" s="30"/>
+      <c r="H203" s="30"/>
     </row>
     <row r="204" ht="18" customHeight="1" spans="1:15">
-      <c r="A204" s="27"/>
-      <c r="B204" s="27"/>
-      <c r="C204" s="28" t="s">
+      <c r="A204" s="28"/>
+      <c r="B204" s="28"/>
+      <c r="C204" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D204" s="29" t="s">
+      <c r="D204" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="E204" s="29"/>
-      <c r="F204" s="29"/>
-      <c r="G204" s="29"/>
-      <c r="H204" s="29"/>
-      <c r="J204" s="20" t="s">
+      <c r="E204" s="30"/>
+      <c r="F204" s="30"/>
+      <c r="G204" s="30"/>
+      <c r="H204" s="30"/>
+      <c r="J204" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="K204" s="20"/>
-      <c r="L204" s="20"/>
-      <c r="M204" s="20"/>
-      <c r="N204" s="20"/>
-      <c r="O204" s="20"/>
+      <c r="K204" s="21"/>
+      <c r="L204" s="21"/>
+      <c r="M204" s="21"/>
+      <c r="N204" s="21"/>
+      <c r="O204" s="21"/>
     </row>
     <row r="205" ht="18" customHeight="1" spans="1:8">
-      <c r="A205" s="27"/>
-      <c r="B205" s="27"/>
-      <c r="C205" s="28" t="s">
+      <c r="A205" s="28"/>
+      <c r="B205" s="28"/>
+      <c r="C205" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D205" s="29"/>
-      <c r="E205" s="29"/>
-      <c r="F205" s="29"/>
-      <c r="G205" s="29"/>
-      <c r="H205" s="29"/>
+      <c r="D205" s="30"/>
+      <c r="E205" s="30"/>
+      <c r="F205" s="30"/>
+      <c r="G205" s="30"/>
+      <c r="H205" s="30"/>
     </row>
     <row r="206" ht="18" customHeight="1" spans="1:8">
-      <c r="A206" s="27"/>
-      <c r="B206" s="27"/>
-      <c r="C206" s="28" t="s">
+      <c r="A206" s="28"/>
+      <c r="B206" s="28"/>
+      <c r="C206" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D206" s="29" t="s">
+      <c r="D206" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="E206" s="29"/>
-      <c r="F206" s="29"/>
-      <c r="G206" s="29"/>
-      <c r="H206" s="29"/>
+      <c r="E206" s="30"/>
+      <c r="F206" s="30"/>
+      <c r="G206" s="30"/>
+      <c r="H206" s="30"/>
     </row>
     <row r="207" ht="18" customHeight="1"/>
     <row r="208" ht="18" customHeight="1" spans="1:9">
-      <c r="A208" s="27" t="s">
+      <c r="A208" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="B208" s="27"/>
+      <c r="B208" s="28"/>
       <c r="C208" s="72" t="s">
         <v>151</v>
       </c>
@@ -5260,8 +5296,8 @@
       <c r="I208" s="73"/>
     </row>
     <row r="209" ht="18" customHeight="1" spans="1:9">
-      <c r="A209" s="27"/>
-      <c r="B209" s="27"/>
+      <c r="A209" s="28"/>
+      <c r="B209" s="28"/>
       <c r="C209" s="74"/>
       <c r="D209" s="73"/>
       <c r="E209" s="73"/>
@@ -5271,8 +5307,8 @@
       <c r="I209" s="73"/>
     </row>
     <row r="210" ht="18" customHeight="1" spans="1:9">
-      <c r="A210" s="27"/>
-      <c r="B210" s="27"/>
+      <c r="A210" s="28"/>
+      <c r="B210" s="28"/>
       <c r="C210" s="74"/>
       <c r="D210" s="73"/>
       <c r="E210" s="73"/>
@@ -5282,8 +5318,8 @@
       <c r="I210" s="73"/>
     </row>
     <row r="211" ht="18" customHeight="1" spans="1:9">
-      <c r="A211" s="27"/>
-      <c r="B211" s="27"/>
+      <c r="A211" s="28"/>
+      <c r="B211" s="28"/>
       <c r="C211" s="74"/>
       <c r="D211" s="73"/>
       <c r="E211" s="73"/>
@@ -5295,146 +5331,146 @@
     <row r="212" ht="18" customHeight="1"/>
     <row r="213" ht="18" customHeight="1"/>
     <row r="214" ht="18" customHeight="1" spans="1:8">
-      <c r="A214" s="27" t="s">
+      <c r="A214" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="B214" s="27"/>
-      <c r="C214" s="29" t="s">
+      <c r="B214" s="28"/>
+      <c r="C214" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="D214" s="29"/>
-      <c r="E214" s="29"/>
-      <c r="F214" s="29"/>
-      <c r="G214" s="29"/>
-      <c r="H214" s="29"/>
+      <c r="D214" s="30"/>
+      <c r="E214" s="30"/>
+      <c r="F214" s="30"/>
+      <c r="G214" s="30"/>
+      <c r="H214" s="30"/>
     </row>
     <row r="215" ht="18" customHeight="1" spans="1:8">
-      <c r="A215" s="27"/>
-      <c r="B215" s="27"/>
-      <c r="C215" s="29"/>
-      <c r="D215" s="29"/>
-      <c r="E215" s="29"/>
-      <c r="F215" s="29"/>
-      <c r="G215" s="29"/>
-      <c r="H215" s="29"/>
+      <c r="A215" s="28"/>
+      <c r="B215" s="28"/>
+      <c r="C215" s="30"/>
+      <c r="D215" s="30"/>
+      <c r="E215" s="30"/>
+      <c r="F215" s="30"/>
+      <c r="G215" s="30"/>
+      <c r="H215" s="30"/>
     </row>
     <row r="216" ht="18" customHeight="1" spans="1:8">
-      <c r="A216" s="27" t="s">
+      <c r="A216" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="B216" s="27"/>
-      <c r="C216" s="28" t="s">
+      <c r="B216" s="28"/>
+      <c r="C216" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D216" s="29" t="s">
+      <c r="D216" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="E216" s="29"/>
-      <c r="F216" s="29"/>
-      <c r="G216" s="29"/>
-      <c r="H216" s="29"/>
+      <c r="E216" s="30"/>
+      <c r="F216" s="30"/>
+      <c r="G216" s="30"/>
+      <c r="H216" s="30"/>
     </row>
     <row r="217" ht="18" customHeight="1" spans="1:8">
-      <c r="A217" s="27"/>
-      <c r="B217" s="27"/>
-      <c r="C217" s="28" t="s">
+      <c r="A217" s="28"/>
+      <c r="B217" s="28"/>
+      <c r="C217" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D217" s="29" t="s">
+      <c r="D217" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="E217" s="29"/>
-      <c r="F217" s="29"/>
-      <c r="G217" s="29"/>
-      <c r="H217" s="29"/>
+      <c r="E217" s="30"/>
+      <c r="F217" s="30"/>
+      <c r="G217" s="30"/>
+      <c r="H217" s="30"/>
     </row>
     <row r="218" ht="18" customHeight="1" spans="1:8">
-      <c r="A218" s="27"/>
-      <c r="B218" s="27"/>
-      <c r="C218" s="28" t="s">
+      <c r="A218" s="28"/>
+      <c r="B218" s="28"/>
+      <c r="C218" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D218" s="29"/>
-      <c r="E218" s="29"/>
-      <c r="F218" s="29"/>
-      <c r="G218" s="29"/>
-      <c r="H218" s="29"/>
+      <c r="D218" s="30"/>
+      <c r="E218" s="30"/>
+      <c r="F218" s="30"/>
+      <c r="G218" s="30"/>
+      <c r="H218" s="30"/>
     </row>
     <row r="219" ht="18" customHeight="1" spans="1:8">
-      <c r="A219" s="27"/>
-      <c r="B219" s="27"/>
-      <c r="C219" s="28" t="s">
+      <c r="A219" s="28"/>
+      <c r="B219" s="28"/>
+      <c r="C219" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D219" s="29" t="s">
+      <c r="D219" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="E219" s="29"/>
-      <c r="F219" s="29"/>
-      <c r="G219" s="29"/>
-      <c r="H219" s="29"/>
+      <c r="E219" s="30"/>
+      <c r="F219" s="30"/>
+      <c r="G219" s="30"/>
+      <c r="H219" s="30"/>
     </row>
     <row r="220" ht="18" customHeight="1"/>
     <row r="221" ht="18" customHeight="1" spans="1:8">
-      <c r="A221" s="27" t="s">
+      <c r="A221" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="B221" s="27"/>
-      <c r="C221" s="28" t="s">
+      <c r="B221" s="28"/>
+      <c r="C221" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D221" s="29" t="s">
+      <c r="D221" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="E221" s="29"/>
-      <c r="F221" s="29"/>
-      <c r="G221" s="29"/>
-      <c r="H221" s="29"/>
+      <c r="E221" s="30"/>
+      <c r="F221" s="30"/>
+      <c r="G221" s="30"/>
+      <c r="H221" s="30"/>
     </row>
     <row r="222" ht="18" customHeight="1" spans="1:8">
-      <c r="A222" s="27"/>
-      <c r="B222" s="27"/>
-      <c r="C222" s="28" t="s">
+      <c r="A222" s="28"/>
+      <c r="B222" s="28"/>
+      <c r="C222" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D222" s="29" t="s">
+      <c r="D222" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="E222" s="29"/>
-      <c r="F222" s="29"/>
-      <c r="G222" s="29"/>
-      <c r="H222" s="29"/>
+      <c r="E222" s="30"/>
+      <c r="F222" s="30"/>
+      <c r="G222" s="30"/>
+      <c r="H222" s="30"/>
     </row>
     <row r="223" ht="18" customHeight="1" spans="1:8">
-      <c r="A223" s="27"/>
-      <c r="B223" s="27"/>
-      <c r="C223" s="28" t="s">
+      <c r="A223" s="28"/>
+      <c r="B223" s="28"/>
+      <c r="C223" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D223" s="29"/>
-      <c r="E223" s="29"/>
-      <c r="F223" s="29"/>
-      <c r="G223" s="29"/>
-      <c r="H223" s="29"/>
+      <c r="D223" s="30"/>
+      <c r="E223" s="30"/>
+      <c r="F223" s="30"/>
+      <c r="G223" s="30"/>
+      <c r="H223" s="30"/>
     </row>
     <row r="224" ht="18" customHeight="1" spans="1:8">
-      <c r="A224" s="27"/>
-      <c r="B224" s="27"/>
-      <c r="C224" s="28" t="s">
+      <c r="A224" s="28"/>
+      <c r="B224" s="28"/>
+      <c r="C224" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D224" s="29"/>
-      <c r="E224" s="29"/>
-      <c r="F224" s="29"/>
-      <c r="G224" s="29"/>
-      <c r="H224" s="29"/>
+      <c r="D224" s="30"/>
+      <c r="E224" s="30"/>
+      <c r="F224" s="30"/>
+      <c r="G224" s="30"/>
+      <c r="H224" s="30"/>
     </row>
     <row r="225" ht="18" customHeight="1"/>
     <row r="226" ht="18" customHeight="1" spans="1:9">
-      <c r="A226" s="27" t="s">
+      <c r="A226" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="B226" s="27"/>
+      <c r="B226" s="28"/>
       <c r="C226" s="72" t="s">
         <v>151</v>
       </c>
@@ -5446,8 +5482,8 @@
       <c r="I226" s="73"/>
     </row>
     <row r="227" ht="18" customHeight="1" spans="1:9">
-      <c r="A227" s="27"/>
-      <c r="B227" s="27"/>
+      <c r="A227" s="28"/>
+      <c r="B227" s="28"/>
       <c r="C227" s="74"/>
       <c r="D227" s="73"/>
       <c r="E227" s="73"/>
@@ -5457,8 +5493,8 @@
       <c r="I227" s="73"/>
     </row>
     <row r="228" ht="18" customHeight="1" spans="1:9">
-      <c r="A228" s="27"/>
-      <c r="B228" s="27"/>
+      <c r="A228" s="28"/>
+      <c r="B228" s="28"/>
       <c r="C228" s="74"/>
       <c r="D228" s="73"/>
       <c r="E228" s="73"/>
@@ -5468,8 +5504,8 @@
       <c r="I228" s="73"/>
     </row>
     <row r="229" ht="18" customHeight="1" spans="1:9">
-      <c r="A229" s="27"/>
-      <c r="B229" s="27"/>
+      <c r="A229" s="28"/>
+      <c r="B229" s="28"/>
       <c r="C229" s="74"/>
       <c r="D229" s="73"/>
       <c r="E229" s="73"/>
@@ -5481,91 +5517,91 @@
     <row r="230" ht="18" customHeight="1"/>
     <row r="231" ht="18" customHeight="1"/>
     <row r="232" ht="18" customHeight="1" spans="1:8">
-      <c r="A232" s="27" t="s">
+      <c r="A232" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="B232" s="27"/>
-      <c r="C232" s="29" t="s">
+      <c r="B232" s="28"/>
+      <c r="C232" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="D232" s="29"/>
-      <c r="E232" s="29"/>
-      <c r="F232" s="29"/>
-      <c r="G232" s="29"/>
-      <c r="H232" s="29"/>
+      <c r="D232" s="30"/>
+      <c r="E232" s="30"/>
+      <c r="F232" s="30"/>
+      <c r="G232" s="30"/>
+      <c r="H232" s="30"/>
     </row>
     <row r="233" ht="18" customHeight="1" spans="1:8">
-      <c r="A233" s="27"/>
-      <c r="B233" s="27"/>
-      <c r="C233" s="29"/>
-      <c r="D233" s="29"/>
-      <c r="E233" s="29"/>
-      <c r="F233" s="29"/>
-      <c r="G233" s="29"/>
-      <c r="H233" s="29"/>
+      <c r="A233" s="28"/>
+      <c r="B233" s="28"/>
+      <c r="C233" s="30"/>
+      <c r="D233" s="30"/>
+      <c r="E233" s="30"/>
+      <c r="F233" s="30"/>
+      <c r="G233" s="30"/>
+      <c r="H233" s="30"/>
     </row>
     <row r="234" ht="18" customHeight="1" spans="1:8">
-      <c r="A234" s="27" t="s">
+      <c r="A234" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="B234" s="27"/>
-      <c r="C234" s="28" t="s">
+      <c r="B234" s="28"/>
+      <c r="C234" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D234" s="29" t="s">
+      <c r="D234" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="E234" s="29"/>
-      <c r="F234" s="29"/>
-      <c r="G234" s="29"/>
-      <c r="H234" s="29"/>
+      <c r="E234" s="30"/>
+      <c r="F234" s="30"/>
+      <c r="G234" s="30"/>
+      <c r="H234" s="30"/>
     </row>
     <row r="235" ht="18" customHeight="1" spans="1:8">
-      <c r="A235" s="27"/>
-      <c r="B235" s="27"/>
-      <c r="C235" s="28" t="s">
+      <c r="A235" s="28"/>
+      <c r="B235" s="28"/>
+      <c r="C235" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D235" s="29" t="s">
+      <c r="D235" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="E235" s="29"/>
-      <c r="F235" s="29"/>
-      <c r="G235" s="29"/>
-      <c r="H235" s="29"/>
+      <c r="E235" s="30"/>
+      <c r="F235" s="30"/>
+      <c r="G235" s="30"/>
+      <c r="H235" s="30"/>
     </row>
     <row r="236" ht="18" customHeight="1" spans="1:8">
-      <c r="A236" s="27"/>
-      <c r="B236" s="27"/>
-      <c r="C236" s="28" t="s">
+      <c r="A236" s="28"/>
+      <c r="B236" s="28"/>
+      <c r="C236" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D236" s="29"/>
-      <c r="E236" s="29"/>
-      <c r="F236" s="29"/>
-      <c r="G236" s="29"/>
-      <c r="H236" s="29"/>
+      <c r="D236" s="30"/>
+      <c r="E236" s="30"/>
+      <c r="F236" s="30"/>
+      <c r="G236" s="30"/>
+      <c r="H236" s="30"/>
     </row>
     <row r="237" ht="18" customHeight="1" spans="1:8">
-      <c r="A237" s="27"/>
-      <c r="B237" s="27"/>
-      <c r="C237" s="28" t="s">
+      <c r="A237" s="28"/>
+      <c r="B237" s="28"/>
+      <c r="C237" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D237" s="29" t="s">
+      <c r="D237" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="E237" s="29"/>
-      <c r="F237" s="29"/>
-      <c r="G237" s="29"/>
-      <c r="H237" s="29"/>
+      <c r="E237" s="30"/>
+      <c r="F237" s="30"/>
+      <c r="G237" s="30"/>
+      <c r="H237" s="30"/>
     </row>
     <row r="238" ht="18" customHeight="1"/>
     <row r="239" ht="18" customHeight="1" spans="1:9">
-      <c r="A239" s="27" t="s">
+      <c r="A239" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="B239" s="27"/>
+      <c r="B239" s="28"/>
       <c r="C239" s="72" t="s">
         <v>151</v>
       </c>
@@ -5577,8 +5613,8 @@
       <c r="I239" s="73"/>
     </row>
     <row r="240" ht="18" customHeight="1" spans="1:9">
-      <c r="A240" s="27"/>
-      <c r="B240" s="27"/>
+      <c r="A240" s="28"/>
+      <c r="B240" s="28"/>
       <c r="C240" s="74"/>
       <c r="D240" s="73"/>
       <c r="E240" s="73"/>
@@ -5588,8 +5624,8 @@
       <c r="I240" s="73"/>
     </row>
     <row r="241" ht="18" customHeight="1" spans="1:9">
-      <c r="A241" s="27"/>
-      <c r="B241" s="27"/>
+      <c r="A241" s="28"/>
+      <c r="B241" s="28"/>
       <c r="C241" s="74"/>
       <c r="D241" s="73"/>
       <c r="E241" s="73"/>
@@ -5599,8 +5635,8 @@
       <c r="I241" s="73"/>
     </row>
     <row r="242" ht="18" customHeight="1" spans="1:9">
-      <c r="A242" s="27"/>
-      <c r="B242" s="27"/>
+      <c r="A242" s="28"/>
+      <c r="B242" s="28"/>
       <c r="C242" s="74"/>
       <c r="D242" s="73"/>
       <c r="E242" s="73"/>
@@ -5613,200 +5649,200 @@
     <row r="244" ht="18" customHeight="1"/>
     <row r="245" ht="18" customHeight="1"/>
     <row r="246" ht="18" customHeight="1" spans="1:8">
-      <c r="A246" s="12" t="s">
+      <c r="A246" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="B246" s="13"/>
-      <c r="C246" s="14"/>
-      <c r="D246" s="15"/>
-      <c r="E246" s="15"/>
-      <c r="F246" s="15"/>
-      <c r="G246" s="15"/>
-      <c r="H246" s="16"/>
+      <c r="B246" s="14"/>
+      <c r="C246" s="15"/>
+      <c r="D246" s="16"/>
+      <c r="E246" s="16"/>
+      <c r="F246" s="16"/>
+      <c r="G246" s="16"/>
+      <c r="H246" s="17"/>
     </row>
     <row r="247" ht="18" customHeight="1" spans="1:8">
-      <c r="A247" s="17"/>
-      <c r="B247" s="18"/>
-      <c r="C247" s="19"/>
-      <c r="D247" s="20"/>
-      <c r="E247" s="20"/>
-      <c r="F247" s="20"/>
-      <c r="G247" s="20"/>
-      <c r="H247" s="21"/>
+      <c r="A247" s="18"/>
+      <c r="B247" s="19"/>
+      <c r="C247" s="20"/>
+      <c r="D247" s="21"/>
+      <c r="E247" s="21"/>
+      <c r="F247" s="21"/>
+      <c r="G247" s="21"/>
+      <c r="H247" s="22"/>
     </row>
     <row r="248" ht="18" customHeight="1" spans="1:8">
-      <c r="A248" s="22"/>
-      <c r="B248" s="23"/>
-      <c r="C248" s="24"/>
-      <c r="D248" s="25"/>
-      <c r="E248" s="25"/>
-      <c r="F248" s="25"/>
-      <c r="G248" s="25"/>
-      <c r="H248" s="26"/>
+      <c r="A248" s="23"/>
+      <c r="B248" s="24"/>
+      <c r="C248" s="25"/>
+      <c r="D248" s="26"/>
+      <c r="E248" s="26"/>
+      <c r="F248" s="26"/>
+      <c r="G248" s="26"/>
+      <c r="H248" s="27"/>
     </row>
     <row r="249" ht="18" customHeight="1" spans="1:8">
-      <c r="A249" s="17" t="s">
+      <c r="A249" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="B249" s="18"/>
-      <c r="C249" s="19"/>
-      <c r="D249" s="20"/>
-      <c r="E249" s="20"/>
-      <c r="F249" s="20"/>
-      <c r="G249" s="20"/>
-      <c r="H249" s="21"/>
+      <c r="B249" s="19"/>
+      <c r="C249" s="20"/>
+      <c r="D249" s="21"/>
+      <c r="E249" s="21"/>
+      <c r="F249" s="21"/>
+      <c r="G249" s="21"/>
+      <c r="H249" s="22"/>
     </row>
     <row r="250" ht="18" customHeight="1" spans="1:8">
-      <c r="A250" s="22"/>
-      <c r="B250" s="23"/>
-      <c r="C250" s="24"/>
-      <c r="D250" s="25"/>
-      <c r="E250" s="25"/>
-      <c r="F250" s="25"/>
-      <c r="G250" s="25"/>
-      <c r="H250" s="26"/>
+      <c r="A250" s="23"/>
+      <c r="B250" s="24"/>
+      <c r="C250" s="25"/>
+      <c r="D250" s="26"/>
+      <c r="E250" s="26"/>
+      <c r="F250" s="26"/>
+      <c r="G250" s="26"/>
+      <c r="H250" s="27"/>
     </row>
     <row r="251" ht="18" customHeight="1" spans="1:8">
       <c r="A251" s="70" t="s">
         <v>172</v>
       </c>
       <c r="B251" s="75"/>
-      <c r="C251" s="50" t="s">
+      <c r="C251" s="51" t="s">
         <v>173</v>
       </c>
-      <c r="D251" s="51"/>
-      <c r="E251" s="51"/>
-      <c r="F251" s="51"/>
-      <c r="G251" s="51"/>
-      <c r="H251" s="52"/>
+      <c r="D251" s="52"/>
+      <c r="E251" s="52"/>
+      <c r="F251" s="52"/>
+      <c r="G251" s="52"/>
+      <c r="H251" s="53"/>
     </row>
     <row r="252" ht="18" customHeight="1" spans="1:8">
       <c r="A252" s="70" t="s">
         <v>174</v>
       </c>
       <c r="B252" s="75"/>
-      <c r="C252" s="50" t="s">
+      <c r="C252" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="D252" s="51"/>
-      <c r="E252" s="51"/>
-      <c r="F252" s="51"/>
-      <c r="G252" s="51"/>
-      <c r="H252" s="52"/>
+      <c r="D252" s="52"/>
+      <c r="E252" s="52"/>
+      <c r="F252" s="52"/>
+      <c r="G252" s="52"/>
+      <c r="H252" s="53"/>
     </row>
     <row r="253" ht="18" customHeight="1" spans="1:8">
       <c r="A253" s="70" t="s">
         <v>176</v>
       </c>
       <c r="B253" s="75"/>
-      <c r="C253" s="50" t="s">
+      <c r="C253" s="51" t="s">
         <v>177</v>
       </c>
-      <c r="D253" s="51"/>
-      <c r="E253" s="51"/>
-      <c r="F253" s="51"/>
-      <c r="G253" s="51"/>
-      <c r="H253" s="52"/>
+      <c r="D253" s="52"/>
+      <c r="E253" s="52"/>
+      <c r="F253" s="52"/>
+      <c r="G253" s="52"/>
+      <c r="H253" s="53"/>
     </row>
     <row r="254" ht="18" customHeight="1" spans="1:8">
       <c r="A254" s="70" t="s">
         <v>178</v>
       </c>
       <c r="B254" s="75"/>
-      <c r="C254" s="50" t="s">
+      <c r="C254" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="D254" s="51"/>
-      <c r="E254" s="51"/>
-      <c r="F254" s="51"/>
-      <c r="G254" s="51"/>
-      <c r="H254" s="52"/>
+      <c r="D254" s="52"/>
+      <c r="E254" s="52"/>
+      <c r="F254" s="52"/>
+      <c r="G254" s="52"/>
+      <c r="H254" s="53"/>
     </row>
     <row r="255" ht="18" customHeight="1" spans="1:8">
       <c r="A255" s="70" t="s">
         <v>180</v>
       </c>
       <c r="B255" s="75"/>
-      <c r="C255" s="50" t="s">
+      <c r="C255" s="51" t="s">
         <v>181</v>
       </c>
-      <c r="D255" s="51"/>
-      <c r="E255" s="51"/>
-      <c r="F255" s="51"/>
-      <c r="G255" s="51"/>
-      <c r="H255" s="52"/>
+      <c r="D255" s="52"/>
+      <c r="E255" s="52"/>
+      <c r="F255" s="52"/>
+      <c r="G255" s="52"/>
+      <c r="H255" s="53"/>
     </row>
     <row r="256" ht="18" customHeight="1" spans="3:8">
-      <c r="C256" s="53"/>
-      <c r="D256" s="53"/>
-      <c r="E256" s="53"/>
-      <c r="F256" s="53"/>
-      <c r="G256" s="53"/>
-      <c r="H256" s="53"/>
+      <c r="C256" s="54"/>
+      <c r="D256" s="54"/>
+      <c r="E256" s="54"/>
+      <c r="F256" s="54"/>
+      <c r="G256" s="54"/>
+      <c r="H256" s="54"/>
     </row>
     <row r="257" ht="18" customHeight="1" spans="1:8">
-      <c r="A257" s="27" t="s">
+      <c r="A257" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="B257" s="27"/>
-      <c r="C257" s="29"/>
-      <c r="D257" s="29"/>
-      <c r="E257" s="29"/>
-      <c r="F257" s="29"/>
-      <c r="G257" s="29"/>
-      <c r="H257" s="29"/>
+      <c r="B257" s="28"/>
+      <c r="C257" s="30"/>
+      <c r="D257" s="30"/>
+      <c r="E257" s="30"/>
+      <c r="F257" s="30"/>
+      <c r="G257" s="30"/>
+      <c r="H257" s="30"/>
     </row>
     <row r="258" ht="18" customHeight="1" spans="1:8">
-      <c r="A258" s="27"/>
-      <c r="B258" s="27"/>
-      <c r="C258" s="29"/>
-      <c r="D258" s="29"/>
-      <c r="E258" s="29"/>
-      <c r="F258" s="29"/>
-      <c r="G258" s="29"/>
-      <c r="H258" s="29"/>
+      <c r="A258" s="28"/>
+      <c r="B258" s="28"/>
+      <c r="C258" s="30"/>
+      <c r="D258" s="30"/>
+      <c r="E258" s="30"/>
+      <c r="F258" s="30"/>
+      <c r="G258" s="30"/>
+      <c r="H258" s="30"/>
     </row>
     <row r="259" ht="18" customHeight="1" spans="1:8">
       <c r="A259" s="70" t="s">
         <v>183</v>
       </c>
       <c r="B259" s="75"/>
-      <c r="C259" s="50" t="s">
+      <c r="C259" s="51" t="s">
         <v>184</v>
       </c>
-      <c r="D259" s="51"/>
-      <c r="E259" s="51"/>
-      <c r="F259" s="51"/>
-      <c r="G259" s="51"/>
-      <c r="H259" s="52"/>
+      <c r="D259" s="52"/>
+      <c r="E259" s="52"/>
+      <c r="F259" s="52"/>
+      <c r="G259" s="52"/>
+      <c r="H259" s="53"/>
     </row>
     <row r="260" ht="18" customHeight="1" spans="1:8">
       <c r="A260" s="70" t="s">
         <v>185</v>
       </c>
       <c r="B260" s="75"/>
-      <c r="C260" s="50" t="s">
+      <c r="C260" s="51" t="s">
         <v>186</v>
       </c>
-      <c r="D260" s="51"/>
-      <c r="E260" s="51"/>
-      <c r="F260" s="51"/>
-      <c r="G260" s="51"/>
-      <c r="H260" s="52"/>
+      <c r="D260" s="52"/>
+      <c r="E260" s="52"/>
+      <c r="F260" s="52"/>
+      <c r="G260" s="52"/>
+      <c r="H260" s="53"/>
     </row>
     <row r="261" ht="18" customHeight="1" spans="1:8">
       <c r="A261" s="70" t="s">
         <v>187</v>
       </c>
       <c r="B261" s="75"/>
-      <c r="C261" s="50" t="s">
+      <c r="C261" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="D261" s="51"/>
-      <c r="E261" s="51"/>
-      <c r="F261" s="51"/>
-      <c r="G261" s="51"/>
-      <c r="H261" s="52"/>
+      <c r="D261" s="52"/>
+      <c r="E261" s="52"/>
+      <c r="F261" s="52"/>
+      <c r="G261" s="52"/>
+      <c r="H261" s="53"/>
     </row>
     <row r="262" ht="18" customHeight="1" spans="1:8">
       <c r="A262" s="70" t="s">
@@ -5835,232 +5871,232 @@
       <c r="H263" s="81"/>
     </row>
     <row r="264" ht="18" customHeight="1" spans="3:8">
-      <c r="C264" s="53"/>
-      <c r="D264" s="53"/>
-      <c r="E264" s="53"/>
-      <c r="F264" s="53"/>
-      <c r="G264" s="53"/>
-      <c r="H264" s="53"/>
+      <c r="C264" s="54"/>
+      <c r="D264" s="54"/>
+      <c r="E264" s="54"/>
+      <c r="F264" s="54"/>
+      <c r="G264" s="54"/>
+      <c r="H264" s="54"/>
     </row>
     <row r="265" ht="18" customHeight="1" spans="1:8">
-      <c r="A265" s="27" t="s">
+      <c r="A265" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="B265" s="27"/>
-      <c r="C265" s="29"/>
-      <c r="D265" s="29"/>
-      <c r="E265" s="29"/>
-      <c r="F265" s="29"/>
-      <c r="G265" s="29"/>
-      <c r="H265" s="29"/>
+      <c r="B265" s="28"/>
+      <c r="C265" s="30"/>
+      <c r="D265" s="30"/>
+      <c r="E265" s="30"/>
+      <c r="F265" s="30"/>
+      <c r="G265" s="30"/>
+      <c r="H265" s="30"/>
     </row>
     <row r="266" ht="18" customHeight="1" spans="1:8">
-      <c r="A266" s="27"/>
-      <c r="B266" s="27"/>
-      <c r="C266" s="29"/>
-      <c r="D266" s="29"/>
-      <c r="E266" s="29"/>
-      <c r="F266" s="29"/>
-      <c r="G266" s="29"/>
-      <c r="H266" s="29"/>
+      <c r="A266" s="28"/>
+      <c r="B266" s="28"/>
+      <c r="C266" s="30"/>
+      <c r="D266" s="30"/>
+      <c r="E266" s="30"/>
+      <c r="F266" s="30"/>
+      <c r="G266" s="30"/>
+      <c r="H266" s="30"/>
     </row>
     <row r="267" ht="18" customHeight="1" spans="1:8">
       <c r="A267" s="70" t="s">
         <v>183</v>
       </c>
       <c r="B267" s="75"/>
-      <c r="C267" s="50" t="s">
+      <c r="C267" s="51" t="s">
         <v>192</v>
       </c>
-      <c r="D267" s="51"/>
-      <c r="E267" s="51"/>
-      <c r="F267" s="51"/>
-      <c r="G267" s="51"/>
-      <c r="H267" s="52"/>
+      <c r="D267" s="52"/>
+      <c r="E267" s="52"/>
+      <c r="F267" s="52"/>
+      <c r="G267" s="52"/>
+      <c r="H267" s="53"/>
     </row>
     <row r="268" ht="18" customHeight="1" spans="1:8">
       <c r="A268" s="70" t="s">
         <v>185</v>
       </c>
       <c r="B268" s="75"/>
-      <c r="C268" s="50" t="s">
+      <c r="C268" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="D268" s="51"/>
-      <c r="E268" s="51"/>
-      <c r="F268" s="51"/>
-      <c r="G268" s="51"/>
-      <c r="H268" s="52"/>
+      <c r="D268" s="52"/>
+      <c r="E268" s="52"/>
+      <c r="F268" s="52"/>
+      <c r="G268" s="52"/>
+      <c r="H268" s="53"/>
     </row>
     <row r="269" ht="18" customHeight="1" spans="1:8">
       <c r="A269" s="70" t="s">
         <v>187</v>
       </c>
       <c r="B269" s="75"/>
-      <c r="C269" s="50" t="s">
+      <c r="C269" s="51" t="s">
         <v>194</v>
       </c>
-      <c r="D269" s="51"/>
-      <c r="E269" s="51"/>
-      <c r="F269" s="51"/>
-      <c r="G269" s="51"/>
-      <c r="H269" s="52"/>
+      <c r="D269" s="52"/>
+      <c r="E269" s="52"/>
+      <c r="F269" s="52"/>
+      <c r="G269" s="52"/>
+      <c r="H269" s="53"/>
     </row>
     <row r="270" ht="18" customHeight="1" spans="1:8">
       <c r="A270" s="70" t="s">
         <v>188</v>
       </c>
       <c r="B270" s="75"/>
-      <c r="C270" s="50" t="s">
+      <c r="C270" s="51" t="s">
         <v>195</v>
       </c>
-      <c r="D270" s="51"/>
-      <c r="E270" s="51"/>
-      <c r="F270" s="51"/>
-      <c r="G270" s="51"/>
-      <c r="H270" s="52"/>
+      <c r="D270" s="52"/>
+      <c r="E270" s="52"/>
+      <c r="F270" s="52"/>
+      <c r="G270" s="52"/>
+      <c r="H270" s="53"/>
     </row>
     <row r="271" ht="18" customHeight="1" spans="1:8">
       <c r="A271" s="70" t="s">
         <v>190</v>
       </c>
       <c r="B271" s="75"/>
-      <c r="C271" s="50" t="s">
+      <c r="C271" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="D271" s="51"/>
-      <c r="E271" s="51"/>
-      <c r="F271" s="51"/>
-      <c r="G271" s="51"/>
-      <c r="H271" s="52"/>
+      <c r="D271" s="52"/>
+      <c r="E271" s="52"/>
+      <c r="F271" s="52"/>
+      <c r="G271" s="52"/>
+      <c r="H271" s="53"/>
     </row>
     <row r="272" ht="18" customHeight="1" spans="3:8">
-      <c r="C272" s="53"/>
-      <c r="D272" s="53"/>
-      <c r="E272" s="53"/>
-      <c r="F272" s="53"/>
-      <c r="G272" s="53"/>
-      <c r="H272" s="53"/>
+      <c r="C272" s="54"/>
+      <c r="D272" s="54"/>
+      <c r="E272" s="54"/>
+      <c r="F272" s="54"/>
+      <c r="G272" s="54"/>
+      <c r="H272" s="54"/>
     </row>
     <row r="273" ht="18" customHeight="1" spans="1:8">
-      <c r="A273" s="27" t="s">
+      <c r="A273" s="28" t="s">
         <v>197</v>
       </c>
-      <c r="B273" s="27"/>
-      <c r="C273" s="29"/>
-      <c r="D273" s="29"/>
-      <c r="E273" s="29"/>
-      <c r="F273" s="29"/>
-      <c r="G273" s="29"/>
-      <c r="H273" s="29"/>
+      <c r="B273" s="28"/>
+      <c r="C273" s="30"/>
+      <c r="D273" s="30"/>
+      <c r="E273" s="30"/>
+      <c r="F273" s="30"/>
+      <c r="G273" s="30"/>
+      <c r="H273" s="30"/>
     </row>
     <row r="274" ht="18" customHeight="1" spans="1:8">
-      <c r="A274" s="27"/>
-      <c r="B274" s="27"/>
-      <c r="C274" s="29"/>
-      <c r="D274" s="29"/>
-      <c r="E274" s="29"/>
-      <c r="F274" s="29"/>
-      <c r="G274" s="29"/>
-      <c r="H274" s="29"/>
+      <c r="A274" s="28"/>
+      <c r="B274" s="28"/>
+      <c r="C274" s="30"/>
+      <c r="D274" s="30"/>
+      <c r="E274" s="30"/>
+      <c r="F274" s="30"/>
+      <c r="G274" s="30"/>
+      <c r="H274" s="30"/>
     </row>
     <row r="275" ht="18" customHeight="1" spans="1:8">
       <c r="A275" s="70" t="s">
         <v>183</v>
       </c>
       <c r="B275" s="75"/>
-      <c r="C275" s="50" t="s">
+      <c r="C275" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="D275" s="51"/>
-      <c r="E275" s="51"/>
-      <c r="F275" s="51"/>
-      <c r="G275" s="51"/>
-      <c r="H275" s="52"/>
+      <c r="D275" s="52"/>
+      <c r="E275" s="52"/>
+      <c r="F275" s="52"/>
+      <c r="G275" s="52"/>
+      <c r="H275" s="53"/>
     </row>
     <row r="276" ht="18" customHeight="1" spans="1:8">
       <c r="A276" s="70" t="s">
         <v>185</v>
       </c>
       <c r="B276" s="75"/>
-      <c r="C276" s="50" t="s">
+      <c r="C276" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="D276" s="51"/>
-      <c r="E276" s="51"/>
-      <c r="F276" s="51"/>
-      <c r="G276" s="51"/>
-      <c r="H276" s="52"/>
+      <c r="D276" s="52"/>
+      <c r="E276" s="52"/>
+      <c r="F276" s="52"/>
+      <c r="G276" s="52"/>
+      <c r="H276" s="53"/>
     </row>
     <row r="277" ht="18" customHeight="1" spans="1:8">
       <c r="A277" s="70" t="s">
         <v>187</v>
       </c>
       <c r="B277" s="75"/>
-      <c r="C277" s="50" t="s">
+      <c r="C277" s="51" t="s">
         <v>200</v>
       </c>
-      <c r="D277" s="51"/>
-      <c r="E277" s="51"/>
-      <c r="F277" s="51"/>
-      <c r="G277" s="51"/>
-      <c r="H277" s="52"/>
+      <c r="D277" s="52"/>
+      <c r="E277" s="52"/>
+      <c r="F277" s="52"/>
+      <c r="G277" s="52"/>
+      <c r="H277" s="53"/>
     </row>
     <row r="278" ht="18" customHeight="1" spans="1:8">
       <c r="A278" s="70" t="s">
         <v>188</v>
       </c>
       <c r="B278" s="75"/>
-      <c r="C278" s="50" t="s">
+      <c r="C278" s="51" t="s">
         <v>201</v>
       </c>
-      <c r="D278" s="51"/>
-      <c r="E278" s="51"/>
-      <c r="F278" s="51"/>
-      <c r="G278" s="51"/>
-      <c r="H278" s="52"/>
+      <c r="D278" s="52"/>
+      <c r="E278" s="52"/>
+      <c r="F278" s="52"/>
+      <c r="G278" s="52"/>
+      <c r="H278" s="53"/>
     </row>
     <row r="279" ht="18" customHeight="1" spans="1:8">
       <c r="A279" s="70" t="s">
         <v>190</v>
       </c>
       <c r="B279" s="75"/>
-      <c r="C279" s="50" t="s">
+      <c r="C279" s="51" t="s">
         <v>202</v>
       </c>
-      <c r="D279" s="51"/>
-      <c r="E279" s="51"/>
-      <c r="F279" s="51"/>
-      <c r="G279" s="51"/>
-      <c r="H279" s="52"/>
+      <c r="D279" s="52"/>
+      <c r="E279" s="52"/>
+      <c r="F279" s="52"/>
+      <c r="G279" s="52"/>
+      <c r="H279" s="53"/>
     </row>
     <row r="280" ht="18" customHeight="1" spans="1:8">
       <c r="A280" s="70" t="s">
         <v>203</v>
       </c>
       <c r="B280" s="75"/>
-      <c r="C280" s="50" t="s">
+      <c r="C280" s="51" t="s">
         <v>204</v>
       </c>
-      <c r="D280" s="51"/>
-      <c r="E280" s="51"/>
-      <c r="F280" s="51"/>
-      <c r="G280" s="51"/>
-      <c r="H280" s="52"/>
+      <c r="D280" s="52"/>
+      <c r="E280" s="52"/>
+      <c r="F280" s="52"/>
+      <c r="G280" s="52"/>
+      <c r="H280" s="53"/>
     </row>
     <row r="281" ht="18" customHeight="1" spans="1:8">
       <c r="A281" s="70" t="s">
         <v>205</v>
       </c>
       <c r="B281" s="75"/>
-      <c r="C281" s="50" t="s">
+      <c r="C281" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="D281" s="51"/>
-      <c r="E281" s="51"/>
-      <c r="F281" s="51"/>
-      <c r="G281" s="51"/>
-      <c r="H281" s="52"/>
+      <c r="D281" s="52"/>
+      <c r="E281" s="52"/>
+      <c r="F281" s="52"/>
+      <c r="G281" s="52"/>
+      <c r="H281" s="53"/>
     </row>
     <row r="282" ht="18" customHeight="1"/>
     <row r="283" ht="18" customHeight="1"/>
@@ -6069,66 +6105,66 @@
     <row r="286" ht="18" customHeight="1"/>
     <row r="287" ht="18" customHeight="1"/>
     <row r="288" ht="67" customHeight="1" spans="1:8">
-      <c r="A288" s="3">
+      <c r="A288" s="4">
         <v>2018</v>
       </c>
-      <c r="B288" s="3"/>
-      <c r="C288" s="3"/>
-      <c r="D288" s="3"/>
-      <c r="E288" s="3"/>
-      <c r="F288" s="3"/>
-      <c r="G288" s="3"/>
-      <c r="H288" s="3"/>
+      <c r="B288" s="4"/>
+      <c r="C288" s="4"/>
+      <c r="D288" s="4"/>
+      <c r="E288" s="4"/>
+      <c r="F288" s="4"/>
+      <c r="G288" s="4"/>
+      <c r="H288" s="4"/>
     </row>
     <row r="289" ht="18" customHeight="1" spans="1:8">
-      <c r="A289" s="4" t="s">
+      <c r="A289" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B289" s="4"/>
-      <c r="C289" s="5" t="s">
+      <c r="B289" s="5"/>
+      <c r="C289" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="D289" s="5"/>
-      <c r="E289" s="5"/>
-      <c r="F289" s="5"/>
-      <c r="G289" s="5"/>
-      <c r="H289" s="5"/>
+      <c r="D289" s="6"/>
+      <c r="E289" s="6"/>
+      <c r="F289" s="6"/>
+      <c r="G289" s="6"/>
+      <c r="H289" s="6"/>
     </row>
     <row r="290" ht="18" customHeight="1" spans="1:8">
-      <c r="A290" s="4"/>
-      <c r="B290" s="4"/>
-      <c r="C290" s="6" t="s">
+      <c r="A290" s="5"/>
+      <c r="B290" s="5"/>
+      <c r="C290" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="D290" s="6"/>
-      <c r="E290" s="6"/>
-      <c r="F290" s="6"/>
-      <c r="G290" s="6"/>
-      <c r="H290" s="6"/>
+      <c r="D290" s="7"/>
+      <c r="E290" s="7"/>
+      <c r="F290" s="7"/>
+      <c r="G290" s="7"/>
+      <c r="H290" s="7"/>
     </row>
     <row r="291" ht="18" customHeight="1" spans="1:8">
-      <c r="A291" s="4"/>
-      <c r="B291" s="4"/>
-      <c r="C291" s="6" t="s">
+      <c r="A291" s="5"/>
+      <c r="B291" s="5"/>
+      <c r="C291" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D291" s="6"/>
-      <c r="E291" s="6"/>
-      <c r="F291" s="6"/>
-      <c r="G291" s="6"/>
-      <c r="H291" s="6"/>
+      <c r="D291" s="7"/>
+      <c r="E291" s="7"/>
+      <c r="F291" s="7"/>
+      <c r="G291" s="7"/>
+      <c r="H291" s="7"/>
     </row>
     <row r="292" ht="18" customHeight="1" spans="1:8">
-      <c r="A292" s="4"/>
-      <c r="B292" s="4"/>
-      <c r="C292" s="7" t="s">
+      <c r="A292" s="5"/>
+      <c r="B292" s="5"/>
+      <c r="C292" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D292" s="7"/>
-      <c r="E292" s="7"/>
-      <c r="F292" s="7"/>
-      <c r="G292" s="7"/>
-      <c r="H292" s="7"/>
+      <c r="D292" s="8"/>
+      <c r="E292" s="8"/>
+      <c r="F292" s="8"/>
+      <c r="G292" s="8"/>
+      <c r="H292" s="8"/>
     </row>
     <row r="293" ht="18" customHeight="1" spans="1:8">
       <c r="A293" s="82" t="s">
@@ -6173,541 +6209,541 @@
       <c r="H296" s="82"/>
     </row>
     <row r="297" ht="18" customHeight="1" spans="1:8">
-      <c r="A297" s="12" t="s">
+      <c r="A297" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B297" s="13"/>
+      <c r="B297" s="14"/>
       <c r="C297" s="83" t="s">
         <v>210</v>
       </c>
-      <c r="D297" s="15"/>
-      <c r="E297" s="15"/>
-      <c r="F297" s="15"/>
-      <c r="G297" s="15"/>
-      <c r="H297" s="16"/>
+      <c r="D297" s="16"/>
+      <c r="E297" s="16"/>
+      <c r="F297" s="16"/>
+      <c r="G297" s="16"/>
+      <c r="H297" s="17"/>
     </row>
     <row r="298" ht="18" customHeight="1" spans="1:8">
-      <c r="A298" s="17"/>
-      <c r="B298" s="18"/>
-      <c r="C298" s="19"/>
-      <c r="D298" s="20"/>
-      <c r="E298" s="20"/>
-      <c r="F298" s="20"/>
-      <c r="G298" s="20"/>
-      <c r="H298" s="21"/>
+      <c r="A298" s="18"/>
+      <c r="B298" s="19"/>
+      <c r="C298" s="20"/>
+      <c r="D298" s="21"/>
+      <c r="E298" s="21"/>
+      <c r="F298" s="21"/>
+      <c r="G298" s="21"/>
+      <c r="H298" s="22"/>
     </row>
     <row r="299" ht="18" customHeight="1" spans="1:8">
-      <c r="A299" s="22"/>
-      <c r="B299" s="23"/>
-      <c r="C299" s="24"/>
-      <c r="D299" s="25"/>
-      <c r="E299" s="25"/>
-      <c r="F299" s="25"/>
-      <c r="G299" s="25"/>
-      <c r="H299" s="26"/>
+      <c r="A299" s="23"/>
+      <c r="B299" s="24"/>
+      <c r="C299" s="25"/>
+      <c r="D299" s="26"/>
+      <c r="E299" s="26"/>
+      <c r="F299" s="26"/>
+      <c r="G299" s="26"/>
+      <c r="H299" s="27"/>
     </row>
     <row r="300" ht="18" customHeight="1" spans="1:8">
-      <c r="A300" s="17" t="s">
+      <c r="A300" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B300" s="18"/>
-      <c r="C300" s="19"/>
-      <c r="D300" s="20"/>
-      <c r="E300" s="20"/>
-      <c r="F300" s="20"/>
-      <c r="G300" s="20"/>
-      <c r="H300" s="21"/>
+      <c r="B300" s="19"/>
+      <c r="C300" s="20"/>
+      <c r="D300" s="21"/>
+      <c r="E300" s="21"/>
+      <c r="F300" s="21"/>
+      <c r="G300" s="21"/>
+      <c r="H300" s="22"/>
     </row>
     <row r="301" ht="18" customHeight="1" spans="1:8">
-      <c r="A301" s="22"/>
-      <c r="B301" s="23"/>
-      <c r="C301" s="24"/>
-      <c r="D301" s="25"/>
-      <c r="E301" s="25"/>
-      <c r="F301" s="25"/>
-      <c r="G301" s="25"/>
-      <c r="H301" s="26"/>
+      <c r="A301" s="23"/>
+      <c r="B301" s="24"/>
+      <c r="C301" s="25"/>
+      <c r="D301" s="26"/>
+      <c r="E301" s="26"/>
+      <c r="F301" s="26"/>
+      <c r="G301" s="26"/>
+      <c r="H301" s="27"/>
     </row>
     <row r="302" ht="18" customHeight="1" spans="1:8">
       <c r="A302" s="70" t="s">
         <v>13</v>
       </c>
       <c r="B302" s="75"/>
-      <c r="C302" s="50" t="s">
+      <c r="C302" s="51" t="s">
         <v>211</v>
       </c>
-      <c r="D302" s="51"/>
-      <c r="E302" s="51"/>
-      <c r="F302" s="51"/>
-      <c r="G302" s="51"/>
-      <c r="H302" s="52"/>
+      <c r="D302" s="52"/>
+      <c r="E302" s="52"/>
+      <c r="F302" s="52"/>
+      <c r="G302" s="52"/>
+      <c r="H302" s="53"/>
     </row>
     <row r="303" ht="18" customHeight="1" spans="1:8">
       <c r="A303" s="70" t="s">
         <v>22</v>
       </c>
       <c r="B303" s="75"/>
-      <c r="C303" s="50" t="s">
+      <c r="C303" s="51" t="s">
         <v>212</v>
       </c>
-      <c r="D303" s="51"/>
-      <c r="E303" s="51"/>
-      <c r="F303" s="51"/>
-      <c r="G303" s="51"/>
-      <c r="H303" s="52"/>
+      <c r="D303" s="52"/>
+      <c r="E303" s="52"/>
+      <c r="F303" s="52"/>
+      <c r="G303" s="52"/>
+      <c r="H303" s="53"/>
     </row>
     <row r="304" ht="18" customHeight="1" spans="1:8">
       <c r="A304" s="70" t="s">
         <v>28</v>
       </c>
       <c r="B304" s="75"/>
-      <c r="C304" s="50"/>
-      <c r="D304" s="51"/>
-      <c r="E304" s="51"/>
-      <c r="F304" s="51"/>
-      <c r="G304" s="51"/>
-      <c r="H304" s="52"/>
+      <c r="C304" s="51"/>
+      <c r="D304" s="52"/>
+      <c r="E304" s="52"/>
+      <c r="F304" s="52"/>
+      <c r="G304" s="52"/>
+      <c r="H304" s="53"/>
     </row>
     <row r="305" ht="18" customHeight="1" spans="1:8">
       <c r="A305" s="70" t="s">
         <v>35</v>
       </c>
       <c r="B305" s="75"/>
-      <c r="C305" s="50"/>
-      <c r="D305" s="51"/>
-      <c r="E305" s="51"/>
-      <c r="F305" s="51"/>
-      <c r="G305" s="51"/>
-      <c r="H305" s="52"/>
+      <c r="C305" s="51"/>
+      <c r="D305" s="52"/>
+      <c r="E305" s="52"/>
+      <c r="F305" s="52"/>
+      <c r="G305" s="52"/>
+      <c r="H305" s="53"/>
     </row>
     <row r="306" ht="18" customHeight="1" spans="1:14">
       <c r="A306" s="70" t="s">
         <v>42</v>
       </c>
       <c r="B306" s="75"/>
-      <c r="C306" s="50"/>
-      <c r="D306" s="51"/>
-      <c r="E306" s="51"/>
-      <c r="F306" s="51"/>
-      <c r="G306" s="51"/>
-      <c r="H306" s="52"/>
-      <c r="I306" s="55" t="s">
+      <c r="C306" s="51"/>
+      <c r="D306" s="52"/>
+      <c r="E306" s="52"/>
+      <c r="F306" s="52"/>
+      <c r="G306" s="52"/>
+      <c r="H306" s="53"/>
+      <c r="I306" s="56" t="s">
         <v>213</v>
       </c>
-      <c r="J306" s="55"/>
-      <c r="K306" s="55"/>
-      <c r="L306" s="55"/>
-      <c r="M306" s="55"/>
-      <c r="N306" s="55"/>
+      <c r="J306" s="56"/>
+      <c r="K306" s="56"/>
+      <c r="L306" s="56"/>
+      <c r="M306" s="56"/>
+      <c r="N306" s="56"/>
     </row>
     <row r="307" ht="18" customHeight="1" spans="1:8">
       <c r="A307" s="70" t="s">
         <v>48</v>
       </c>
       <c r="B307" s="75"/>
-      <c r="C307" s="50"/>
-      <c r="D307" s="51"/>
-      <c r="E307" s="51"/>
-      <c r="F307" s="51"/>
-      <c r="G307" s="51"/>
-      <c r="H307" s="52"/>
+      <c r="C307" s="51"/>
+      <c r="D307" s="52"/>
+      <c r="E307" s="52"/>
+      <c r="F307" s="52"/>
+      <c r="G307" s="52"/>
+      <c r="H307" s="53"/>
     </row>
     <row r="308" ht="18" customHeight="1" spans="1:14">
       <c r="A308" s="70" t="s">
         <v>214</v>
       </c>
       <c r="B308" s="75"/>
-      <c r="C308" s="50"/>
-      <c r="D308" s="51"/>
-      <c r="E308" s="51"/>
-      <c r="F308" s="51"/>
-      <c r="G308" s="51"/>
-      <c r="H308" s="52"/>
-      <c r="I308" s="55" t="s">
+      <c r="C308" s="51"/>
+      <c r="D308" s="52"/>
+      <c r="E308" s="52"/>
+      <c r="F308" s="52"/>
+      <c r="G308" s="52"/>
+      <c r="H308" s="53"/>
+      <c r="I308" s="56" t="s">
         <v>215</v>
       </c>
-      <c r="J308" s="55"/>
-      <c r="K308" s="55"/>
-      <c r="L308" s="55"/>
-      <c r="M308" s="55"/>
-      <c r="N308" s="55"/>
+      <c r="J308" s="56"/>
+      <c r="K308" s="56"/>
+      <c r="L308" s="56"/>
+      <c r="M308" s="56"/>
+      <c r="N308" s="56"/>
     </row>
     <row r="309" ht="18" customHeight="1"/>
     <row r="310" ht="18" customHeight="1" spans="1:8">
-      <c r="A310" s="17" t="s">
+      <c r="A310" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B310" s="18"/>
-      <c r="C310" s="19"/>
-      <c r="D310" s="20"/>
-      <c r="E310" s="20"/>
-      <c r="F310" s="20"/>
-      <c r="G310" s="20"/>
-      <c r="H310" s="21"/>
+      <c r="B310" s="19"/>
+      <c r="C310" s="20"/>
+      <c r="D310" s="21"/>
+      <c r="E310" s="21"/>
+      <c r="F310" s="21"/>
+      <c r="G310" s="21"/>
+      <c r="H310" s="22"/>
     </row>
     <row r="311" ht="18" customHeight="1" spans="1:8">
-      <c r="A311" s="22"/>
-      <c r="B311" s="23"/>
-      <c r="C311" s="24"/>
-      <c r="D311" s="25"/>
-      <c r="E311" s="25"/>
-      <c r="F311" s="25"/>
-      <c r="G311" s="25"/>
-      <c r="H311" s="26"/>
+      <c r="A311" s="23"/>
+      <c r="B311" s="24"/>
+      <c r="C311" s="25"/>
+      <c r="D311" s="26"/>
+      <c r="E311" s="26"/>
+      <c r="F311" s="26"/>
+      <c r="G311" s="26"/>
+      <c r="H311" s="27"/>
     </row>
     <row r="312" ht="18" customHeight="1" spans="1:8">
       <c r="A312" s="70" t="s">
         <v>57</v>
       </c>
       <c r="B312" s="75"/>
-      <c r="C312" s="50"/>
-      <c r="D312" s="51"/>
-      <c r="E312" s="51"/>
-      <c r="F312" s="51"/>
-      <c r="G312" s="51"/>
-      <c r="H312" s="52"/>
+      <c r="C312" s="51"/>
+      <c r="D312" s="52"/>
+      <c r="E312" s="52"/>
+      <c r="F312" s="52"/>
+      <c r="G312" s="52"/>
+      <c r="H312" s="53"/>
     </row>
     <row r="313" ht="18" customHeight="1" spans="1:8">
       <c r="A313" s="70" t="s">
         <v>63</v>
       </c>
       <c r="B313" s="75"/>
-      <c r="C313" s="50"/>
-      <c r="D313" s="51"/>
-      <c r="E313" s="51"/>
-      <c r="F313" s="51"/>
-      <c r="G313" s="51"/>
-      <c r="H313" s="52"/>
+      <c r="C313" s="51"/>
+      <c r="D313" s="52"/>
+      <c r="E313" s="52"/>
+      <c r="F313" s="52"/>
+      <c r="G313" s="52"/>
+      <c r="H313" s="53"/>
     </row>
     <row r="314" ht="18" customHeight="1" spans="1:8">
       <c r="A314" s="70" t="s">
         <v>67</v>
       </c>
       <c r="B314" s="75"/>
-      <c r="C314" s="50" t="s">
+      <c r="C314" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="D314" s="51"/>
-      <c r="E314" s="51"/>
-      <c r="F314" s="51"/>
-      <c r="G314" s="51"/>
-      <c r="H314" s="52"/>
+      <c r="D314" s="52"/>
+      <c r="E314" s="52"/>
+      <c r="F314" s="52"/>
+      <c r="G314" s="52"/>
+      <c r="H314" s="53"/>
     </row>
     <row r="315" ht="18" customHeight="1" spans="1:8">
       <c r="A315" s="70" t="s">
         <v>72</v>
       </c>
       <c r="B315" s="75"/>
-      <c r="C315" s="50" t="s">
+      <c r="C315" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="D315" s="51"/>
-      <c r="E315" s="51"/>
-      <c r="F315" s="51"/>
-      <c r="G315" s="51"/>
-      <c r="H315" s="52"/>
+      <c r="D315" s="52"/>
+      <c r="E315" s="52"/>
+      <c r="F315" s="52"/>
+      <c r="G315" s="52"/>
+      <c r="H315" s="53"/>
     </row>
     <row r="316" ht="18" customHeight="1" spans="1:8">
       <c r="A316" s="70" t="s">
         <v>75</v>
       </c>
       <c r="B316" s="75"/>
-      <c r="C316" s="50" t="s">
+      <c r="C316" s="51" t="s">
         <v>218</v>
       </c>
-      <c r="D316" s="51"/>
-      <c r="E316" s="51"/>
-      <c r="F316" s="51"/>
-      <c r="G316" s="51"/>
-      <c r="H316" s="52"/>
+      <c r="D316" s="52"/>
+      <c r="E316" s="52"/>
+      <c r="F316" s="52"/>
+      <c r="G316" s="52"/>
+      <c r="H316" s="53"/>
     </row>
     <row r="317" ht="18" customHeight="1" spans="1:8">
       <c r="A317" s="70" t="s">
         <v>77</v>
       </c>
       <c r="B317" s="75"/>
-      <c r="C317" s="50" t="s">
+      <c r="C317" s="51" t="s">
         <v>219</v>
       </c>
-      <c r="D317" s="51"/>
-      <c r="E317" s="51"/>
-      <c r="F317" s="51"/>
-      <c r="G317" s="51"/>
-      <c r="H317" s="52"/>
+      <c r="D317" s="52"/>
+      <c r="E317" s="52"/>
+      <c r="F317" s="52"/>
+      <c r="G317" s="52"/>
+      <c r="H317" s="53"/>
     </row>
     <row r="318" ht="18" customHeight="1" spans="1:8">
       <c r="A318" s="70" t="s">
         <v>220</v>
       </c>
       <c r="B318" s="75"/>
-      <c r="C318" s="50" t="s">
+      <c r="C318" s="51" t="s">
         <v>221</v>
       </c>
-      <c r="D318" s="51"/>
-      <c r="E318" s="51"/>
-      <c r="F318" s="51"/>
-      <c r="G318" s="51"/>
-      <c r="H318" s="52"/>
+      <c r="D318" s="52"/>
+      <c r="E318" s="52"/>
+      <c r="F318" s="52"/>
+      <c r="G318" s="52"/>
+      <c r="H318" s="53"/>
     </row>
     <row r="319" ht="18" customHeight="1"/>
     <row r="320" ht="18" customHeight="1" spans="1:8">
-      <c r="A320" s="17" t="s">
+      <c r="A320" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B320" s="18"/>
-      <c r="C320" s="19"/>
-      <c r="D320" s="20"/>
-      <c r="E320" s="20"/>
-      <c r="F320" s="20"/>
-      <c r="G320" s="20"/>
-      <c r="H320" s="21"/>
+      <c r="B320" s="19"/>
+      <c r="C320" s="20"/>
+      <c r="D320" s="21"/>
+      <c r="E320" s="21"/>
+      <c r="F320" s="21"/>
+      <c r="G320" s="21"/>
+      <c r="H320" s="22"/>
     </row>
     <row r="321" ht="18" customHeight="1" spans="1:8">
-      <c r="A321" s="22"/>
-      <c r="B321" s="23"/>
-      <c r="C321" s="24"/>
-      <c r="D321" s="25"/>
-      <c r="E321" s="25"/>
-      <c r="F321" s="25"/>
-      <c r="G321" s="25"/>
-      <c r="H321" s="26"/>
+      <c r="A321" s="23"/>
+      <c r="B321" s="24"/>
+      <c r="C321" s="25"/>
+      <c r="D321" s="26"/>
+      <c r="E321" s="26"/>
+      <c r="F321" s="26"/>
+      <c r="G321" s="26"/>
+      <c r="H321" s="27"/>
     </row>
     <row r="322" ht="18" customHeight="1" spans="1:14">
       <c r="A322" s="70" t="s">
         <v>83</v>
       </c>
       <c r="B322" s="75"/>
-      <c r="C322" s="50" t="s">
+      <c r="C322" s="51" t="s">
         <v>222</v>
       </c>
-      <c r="D322" s="51"/>
-      <c r="E322" s="51"/>
-      <c r="F322" s="51"/>
-      <c r="G322" s="51"/>
-      <c r="H322" s="52"/>
-      <c r="I322" s="55" t="s">
+      <c r="D322" s="52"/>
+      <c r="E322" s="52"/>
+      <c r="F322" s="52"/>
+      <c r="G322" s="52"/>
+      <c r="H322" s="53"/>
+      <c r="I322" s="56" t="s">
         <v>223</v>
       </c>
-      <c r="J322" s="55"/>
-      <c r="K322" s="55"/>
-      <c r="L322" s="55"/>
-      <c r="M322" s="55"/>
-      <c r="N322" s="55"/>
+      <c r="J322" s="56"/>
+      <c r="K322" s="56"/>
+      <c r="L322" s="56"/>
+      <c r="M322" s="56"/>
+      <c r="N322" s="56"/>
     </row>
     <row r="323" ht="18" customHeight="1" spans="1:14">
       <c r="A323" s="70" t="s">
         <v>88</v>
       </c>
       <c r="B323" s="75"/>
-      <c r="C323" s="50"/>
-      <c r="D323" s="51"/>
-      <c r="E323" s="51"/>
-      <c r="F323" s="51"/>
-      <c r="G323" s="51"/>
-      <c r="H323" s="52"/>
-      <c r="I323" s="55" t="s">
+      <c r="C323" s="51"/>
+      <c r="D323" s="52"/>
+      <c r="E323" s="52"/>
+      <c r="F323" s="52"/>
+      <c r="G323" s="52"/>
+      <c r="H323" s="53"/>
+      <c r="I323" s="56" t="s">
         <v>213</v>
       </c>
-      <c r="J323" s="55"/>
-      <c r="K323" s="55"/>
-      <c r="L323" s="55"/>
-      <c r="M323" s="55"/>
-      <c r="N323" s="55"/>
+      <c r="J323" s="56"/>
+      <c r="K323" s="56"/>
+      <c r="L323" s="56"/>
+      <c r="M323" s="56"/>
+      <c r="N323" s="56"/>
     </row>
     <row r="324" ht="18" customHeight="1" spans="1:8">
       <c r="A324" s="70" t="s">
         <v>91</v>
       </c>
       <c r="B324" s="75"/>
-      <c r="C324" s="50" t="s">
+      <c r="C324" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="D324" s="51"/>
-      <c r="E324" s="51"/>
-      <c r="F324" s="51"/>
-      <c r="G324" s="51"/>
-      <c r="H324" s="52"/>
+      <c r="D324" s="52"/>
+      <c r="E324" s="52"/>
+      <c r="F324" s="52"/>
+      <c r="G324" s="52"/>
+      <c r="H324" s="53"/>
     </row>
     <row r="325" ht="18" customHeight="1" spans="1:8">
       <c r="A325" s="70" t="s">
         <v>97</v>
       </c>
       <c r="B325" s="75"/>
-      <c r="C325" s="50" t="s">
+      <c r="C325" s="51" t="s">
         <v>225</v>
       </c>
-      <c r="D325" s="51"/>
-      <c r="E325" s="51"/>
-      <c r="F325" s="51"/>
-      <c r="G325" s="51"/>
-      <c r="H325" s="52"/>
+      <c r="D325" s="52"/>
+      <c r="E325" s="52"/>
+      <c r="F325" s="52"/>
+      <c r="G325" s="52"/>
+      <c r="H325" s="53"/>
     </row>
     <row r="326" ht="18" customHeight="1" spans="1:8">
       <c r="A326" s="70" t="s">
         <v>101</v>
       </c>
       <c r="B326" s="75"/>
-      <c r="C326" s="50" t="s">
+      <c r="C326" s="51" t="s">
         <v>226</v>
       </c>
-      <c r="D326" s="51"/>
-      <c r="E326" s="51"/>
-      <c r="F326" s="51"/>
-      <c r="G326" s="51"/>
-      <c r="H326" s="52"/>
+      <c r="D326" s="52"/>
+      <c r="E326" s="52"/>
+      <c r="F326" s="52"/>
+      <c r="G326" s="52"/>
+      <c r="H326" s="53"/>
     </row>
     <row r="327" ht="18" customHeight="1" spans="1:8">
       <c r="A327" s="70" t="s">
         <v>106</v>
       </c>
       <c r="B327" s="75"/>
-      <c r="C327" s="50" t="s">
+      <c r="C327" s="51" t="s">
         <v>225</v>
       </c>
-      <c r="D327" s="51"/>
-      <c r="E327" s="51"/>
-      <c r="F327" s="51"/>
-      <c r="G327" s="51"/>
-      <c r="H327" s="52"/>
+      <c r="D327" s="52"/>
+      <c r="E327" s="52"/>
+      <c r="F327" s="52"/>
+      <c r="G327" s="52"/>
+      <c r="H327" s="53"/>
     </row>
     <row r="328" ht="18" customHeight="1" spans="1:8">
       <c r="A328" s="70" t="s">
         <v>227</v>
       </c>
       <c r="B328" s="75"/>
-      <c r="C328" s="50" t="s">
+      <c r="C328" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="D328" s="51"/>
-      <c r="E328" s="51"/>
-      <c r="F328" s="51"/>
-      <c r="G328" s="51"/>
-      <c r="H328" s="52"/>
+      <c r="D328" s="52"/>
+      <c r="E328" s="52"/>
+      <c r="F328" s="52"/>
+      <c r="G328" s="52"/>
+      <c r="H328" s="53"/>
     </row>
     <row r="329" ht="18" customHeight="1"/>
     <row r="330" ht="18" customHeight="1" spans="1:8">
-      <c r="A330" s="17" t="s">
+      <c r="A330" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="B330" s="18"/>
-      <c r="C330" s="19"/>
-      <c r="D330" s="20"/>
-      <c r="E330" s="20"/>
-      <c r="F330" s="20"/>
-      <c r="G330" s="20"/>
-      <c r="H330" s="21"/>
+      <c r="B330" s="19"/>
+      <c r="C330" s="20"/>
+      <c r="D330" s="21"/>
+      <c r="E330" s="21"/>
+      <c r="F330" s="21"/>
+      <c r="G330" s="21"/>
+      <c r="H330" s="22"/>
     </row>
     <row r="331" ht="18" customHeight="1" spans="1:8">
-      <c r="A331" s="22"/>
-      <c r="B331" s="23"/>
-      <c r="C331" s="24"/>
-      <c r="D331" s="25"/>
-      <c r="E331" s="25"/>
-      <c r="F331" s="25"/>
-      <c r="G331" s="25"/>
-      <c r="H331" s="26"/>
+      <c r="A331" s="23"/>
+      <c r="B331" s="24"/>
+      <c r="C331" s="25"/>
+      <c r="D331" s="26"/>
+      <c r="E331" s="26"/>
+      <c r="F331" s="26"/>
+      <c r="G331" s="26"/>
+      <c r="H331" s="27"/>
     </row>
     <row r="332" ht="18" customHeight="1" spans="1:8">
       <c r="A332" s="70" t="s">
         <v>113</v>
       </c>
       <c r="B332" s="75"/>
-      <c r="C332" s="50"/>
-      <c r="D332" s="51"/>
-      <c r="E332" s="51"/>
-      <c r="F332" s="51"/>
-      <c r="G332" s="51"/>
-      <c r="H332" s="52"/>
+      <c r="C332" s="51"/>
+      <c r="D332" s="52"/>
+      <c r="E332" s="52"/>
+      <c r="F332" s="52"/>
+      <c r="G332" s="52"/>
+      <c r="H332" s="53"/>
     </row>
     <row r="333" ht="18" customHeight="1" spans="1:8">
       <c r="A333" s="70" t="s">
         <v>116</v>
       </c>
       <c r="B333" s="75"/>
-      <c r="C333" s="50"/>
-      <c r="D333" s="51"/>
-      <c r="E333" s="51"/>
-      <c r="F333" s="51"/>
-      <c r="G333" s="51"/>
-      <c r="H333" s="52"/>
+      <c r="C333" s="51"/>
+      <c r="D333" s="52"/>
+      <c r="E333" s="52"/>
+      <c r="F333" s="52"/>
+      <c r="G333" s="52"/>
+      <c r="H333" s="53"/>
     </row>
     <row r="334" ht="18" customHeight="1" spans="1:8">
       <c r="A334" s="70" t="s">
         <v>121</v>
       </c>
       <c r="B334" s="75"/>
-      <c r="C334" s="50"/>
-      <c r="D334" s="51"/>
-      <c r="E334" s="51"/>
-      <c r="F334" s="51"/>
-      <c r="G334" s="51"/>
-      <c r="H334" s="52"/>
+      <c r="C334" s="51"/>
+      <c r="D334" s="52"/>
+      <c r="E334" s="52"/>
+      <c r="F334" s="52"/>
+      <c r="G334" s="52"/>
+      <c r="H334" s="53"/>
     </row>
     <row r="335" ht="18" customHeight="1" spans="1:8">
       <c r="A335" s="70" t="s">
         <v>127</v>
       </c>
       <c r="B335" s="75"/>
-      <c r="C335" s="50"/>
-      <c r="D335" s="51"/>
-      <c r="E335" s="51"/>
-      <c r="F335" s="51"/>
-      <c r="G335" s="51"/>
-      <c r="H335" s="52"/>
+      <c r="C335" s="51"/>
+      <c r="D335" s="52"/>
+      <c r="E335" s="52"/>
+      <c r="F335" s="52"/>
+      <c r="G335" s="52"/>
+      <c r="H335" s="53"/>
     </row>
     <row r="336" ht="18" customHeight="1" spans="1:8">
       <c r="A336" s="70" t="s">
         <v>131</v>
       </c>
       <c r="B336" s="75"/>
-      <c r="C336" s="50"/>
-      <c r="D336" s="51"/>
-      <c r="E336" s="51"/>
-      <c r="F336" s="51"/>
-      <c r="G336" s="51"/>
-      <c r="H336" s="52"/>
+      <c r="C336" s="51"/>
+      <c r="D336" s="52"/>
+      <c r="E336" s="52"/>
+      <c r="F336" s="52"/>
+      <c r="G336" s="52"/>
+      <c r="H336" s="53"/>
     </row>
     <row r="337" ht="18" customHeight="1" spans="1:8">
       <c r="A337" s="70" t="s">
         <v>133</v>
       </c>
       <c r="B337" s="75"/>
-      <c r="C337" s="50" t="s">
+      <c r="C337" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="D337" s="51"/>
-      <c r="E337" s="51"/>
-      <c r="F337" s="51"/>
-      <c r="G337" s="51"/>
-      <c r="H337" s="52"/>
+      <c r="D337" s="52"/>
+      <c r="E337" s="52"/>
+      <c r="F337" s="52"/>
+      <c r="G337" s="52"/>
+      <c r="H337" s="53"/>
     </row>
     <row r="338" ht="18" customHeight="1" spans="1:8">
       <c r="A338" s="70" t="s">
         <v>230</v>
       </c>
       <c r="B338" s="75"/>
-      <c r="C338" s="50"/>
-      <c r="D338" s="51"/>
-      <c r="E338" s="51"/>
-      <c r="F338" s="51"/>
-      <c r="G338" s="51"/>
-      <c r="H338" s="52"/>
+      <c r="C338" s="51"/>
+      <c r="D338" s="52"/>
+      <c r="E338" s="52"/>
+      <c r="F338" s="52"/>
+      <c r="G338" s="52"/>
+      <c r="H338" s="53"/>
     </row>
     <row r="339" ht="18" customHeight="1"/>
     <row r="340" ht="18" customHeight="1"/>
     <row r="341" ht="18" customHeight="1" spans="1:15">
-      <c r="A341" s="12" t="s">
+      <c r="A341" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B341" s="13"/>
+      <c r="B341" s="14"/>
       <c r="C341" s="83" t="s">
         <v>210</v>
       </c>
-      <c r="D341" s="15"/>
-      <c r="E341" s="15"/>
-      <c r="F341" s="15"/>
-      <c r="G341" s="15"/>
-      <c r="H341" s="16"/>
+      <c r="D341" s="16"/>
+      <c r="E341" s="16"/>
+      <c r="F341" s="16"/>
+      <c r="G341" s="16"/>
+      <c r="H341" s="17"/>
       <c r="I341" s="89" t="s">
         <v>231</v>
       </c>
@@ -6719,14 +6755,14 @@
       <c r="O341" s="89"/>
     </row>
     <row r="342" ht="18" customHeight="1" spans="1:15">
-      <c r="A342" s="17"/>
-      <c r="B342" s="18"/>
-      <c r="C342" s="19"/>
-      <c r="D342" s="20"/>
-      <c r="E342" s="20"/>
-      <c r="F342" s="20"/>
-      <c r="G342" s="20"/>
-      <c r="H342" s="21"/>
+      <c r="A342" s="18"/>
+      <c r="B342" s="19"/>
+      <c r="C342" s="20"/>
+      <c r="D342" s="21"/>
+      <c r="E342" s="21"/>
+      <c r="F342" s="21"/>
+      <c r="G342" s="21"/>
+      <c r="H342" s="22"/>
       <c r="I342" s="89"/>
       <c r="J342" s="89"/>
       <c r="K342" s="89"/>
@@ -6736,14 +6772,14 @@
       <c r="O342" s="89"/>
     </row>
     <row r="343" ht="18" customHeight="1" spans="1:15">
-      <c r="A343" s="22"/>
-      <c r="B343" s="23"/>
-      <c r="C343" s="24"/>
-      <c r="D343" s="25"/>
-      <c r="E343" s="25"/>
-      <c r="F343" s="25"/>
-      <c r="G343" s="25"/>
-      <c r="H343" s="26"/>
+      <c r="A343" s="23"/>
+      <c r="B343" s="24"/>
+      <c r="C343" s="25"/>
+      <c r="D343" s="26"/>
+      <c r="E343" s="26"/>
+      <c r="F343" s="26"/>
+      <c r="G343" s="26"/>
+      <c r="H343" s="27"/>
       <c r="I343" s="89"/>
       <c r="J343" s="89"/>
       <c r="K343" s="89"/>
@@ -6753,159 +6789,159 @@
       <c r="O343" s="89"/>
     </row>
     <row r="344" ht="18" customHeight="1" spans="1:8">
-      <c r="A344" s="17" t="s">
+      <c r="A344" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="B344" s="18"/>
-      <c r="C344" s="19"/>
-      <c r="D344" s="20"/>
-      <c r="E344" s="20"/>
-      <c r="F344" s="20"/>
-      <c r="G344" s="20"/>
-      <c r="H344" s="21"/>
+      <c r="B344" s="19"/>
+      <c r="C344" s="20"/>
+      <c r="D344" s="21"/>
+      <c r="E344" s="21"/>
+      <c r="F344" s="21"/>
+      <c r="G344" s="21"/>
+      <c r="H344" s="22"/>
     </row>
     <row r="345" ht="18" customHeight="1" spans="1:8">
-      <c r="A345" s="22"/>
-      <c r="B345" s="23"/>
-      <c r="C345" s="24"/>
-      <c r="D345" s="25"/>
-      <c r="E345" s="25"/>
-      <c r="F345" s="25"/>
-      <c r="G345" s="25"/>
-      <c r="H345" s="26"/>
+      <c r="A345" s="23"/>
+      <c r="B345" s="24"/>
+      <c r="C345" s="25"/>
+      <c r="D345" s="26"/>
+      <c r="E345" s="26"/>
+      <c r="F345" s="26"/>
+      <c r="G345" s="26"/>
+      <c r="H345" s="27"/>
     </row>
     <row r="346" ht="18" customHeight="1" spans="1:8">
       <c r="A346" s="70" t="s">
         <v>139</v>
       </c>
       <c r="B346" s="75"/>
-      <c r="C346" s="55"/>
-      <c r="D346" s="55"/>
-      <c r="E346" s="55"/>
-      <c r="F346" s="55"/>
-      <c r="G346" s="55"/>
-      <c r="H346" s="55"/>
+      <c r="C346" s="56"/>
+      <c r="D346" s="56"/>
+      <c r="E346" s="56"/>
+      <c r="F346" s="56"/>
+      <c r="G346" s="56"/>
+      <c r="H346" s="56"/>
     </row>
     <row r="347" ht="18" customHeight="1" spans="1:8">
       <c r="A347" s="70" t="s">
         <v>143</v>
       </c>
       <c r="B347" s="75"/>
-      <c r="C347" s="50" t="s">
+      <c r="C347" s="51" t="s">
         <v>232</v>
       </c>
-      <c r="D347" s="51"/>
-      <c r="E347" s="51"/>
-      <c r="F347" s="51"/>
-      <c r="G347" s="51"/>
-      <c r="H347" s="52"/>
+      <c r="D347" s="52"/>
+      <c r="E347" s="52"/>
+      <c r="F347" s="52"/>
+      <c r="G347" s="52"/>
+      <c r="H347" s="53"/>
     </row>
     <row r="348" ht="18" customHeight="1" spans="1:8">
       <c r="A348" s="70" t="s">
         <v>147</v>
       </c>
       <c r="B348" s="75"/>
-      <c r="C348" s="50" t="s">
+      <c r="C348" s="51" t="s">
         <v>225</v>
       </c>
-      <c r="D348" s="51"/>
-      <c r="E348" s="51"/>
-      <c r="F348" s="51"/>
-      <c r="G348" s="51"/>
-      <c r="H348" s="52"/>
+      <c r="D348" s="52"/>
+      <c r="E348" s="52"/>
+      <c r="F348" s="52"/>
+      <c r="G348" s="52"/>
+      <c r="H348" s="53"/>
     </row>
     <row r="349" ht="18" customHeight="1" spans="1:14">
       <c r="A349" s="70" t="s">
         <v>233</v>
       </c>
       <c r="B349" s="75"/>
-      <c r="C349" s="50" t="s">
+      <c r="C349" s="51" t="s">
         <v>234</v>
       </c>
-      <c r="D349" s="51"/>
-      <c r="E349" s="51"/>
-      <c r="F349" s="51"/>
-      <c r="G349" s="51"/>
-      <c r="H349" s="52"/>
-      <c r="I349" s="53" t="s">
+      <c r="D349" s="52"/>
+      <c r="E349" s="52"/>
+      <c r="F349" s="52"/>
+      <c r="G349" s="52"/>
+      <c r="H349" s="53"/>
+      <c r="I349" s="54" t="s">
         <v>235</v>
       </c>
-      <c r="J349" s="53"/>
-      <c r="K349" s="53"/>
-      <c r="L349" s="53"/>
-      <c r="M349" s="53"/>
-      <c r="N349" s="53"/>
+      <c r="J349" s="54"/>
+      <c r="K349" s="54"/>
+      <c r="L349" s="54"/>
+      <c r="M349" s="54"/>
+      <c r="N349" s="54"/>
     </row>
     <row r="350" ht="18" customHeight="1" spans="1:8">
       <c r="A350" s="70" t="s">
         <v>236</v>
       </c>
       <c r="B350" s="75"/>
-      <c r="C350" s="50"/>
-      <c r="D350" s="51"/>
-      <c r="E350" s="51"/>
-      <c r="F350" s="51"/>
-      <c r="G350" s="51"/>
-      <c r="H350" s="52"/>
+      <c r="C350" s="51"/>
+      <c r="D350" s="52"/>
+      <c r="E350" s="52"/>
+      <c r="F350" s="52"/>
+      <c r="G350" s="52"/>
+      <c r="H350" s="53"/>
     </row>
     <row r="351" ht="18" customHeight="1" spans="1:8">
       <c r="A351" s="70" t="s">
         <v>237</v>
       </c>
       <c r="B351" s="75"/>
-      <c r="C351" s="50" t="s">
+      <c r="C351" s="51" t="s">
         <v>238</v>
       </c>
-      <c r="D351" s="51"/>
-      <c r="E351" s="51"/>
-      <c r="F351" s="51"/>
-      <c r="G351" s="51"/>
-      <c r="H351" s="52"/>
+      <c r="D351" s="52"/>
+      <c r="E351" s="52"/>
+      <c r="F351" s="52"/>
+      <c r="G351" s="52"/>
+      <c r="H351" s="53"/>
     </row>
     <row r="352" ht="18" customHeight="1" spans="1:14">
       <c r="A352" s="70" t="s">
         <v>239</v>
       </c>
       <c r="B352" s="75"/>
-      <c r="C352" s="50" t="s">
+      <c r="C352" s="51" t="s">
         <v>240</v>
       </c>
-      <c r="D352" s="51"/>
-      <c r="E352" s="51"/>
-      <c r="F352" s="51"/>
-      <c r="G352" s="51"/>
-      <c r="H352" s="52"/>
-      <c r="I352" s="55" t="s">
+      <c r="D352" s="52"/>
+      <c r="E352" s="52"/>
+      <c r="F352" s="52"/>
+      <c r="G352" s="52"/>
+      <c r="H352" s="53"/>
+      <c r="I352" s="56" t="s">
         <v>241</v>
       </c>
-      <c r="J352" s="55"/>
-      <c r="K352" s="55"/>
-      <c r="L352" s="55"/>
-      <c r="M352" s="55"/>
-      <c r="N352" s="55"/>
+      <c r="J352" s="56"/>
+      <c r="K352" s="56"/>
+      <c r="L352" s="56"/>
+      <c r="M352" s="56"/>
+      <c r="N352" s="56"/>
     </row>
     <row r="353" ht="18" customHeight="1"/>
     <row r="354" ht="18" customHeight="1" spans="1:8">
-      <c r="A354" s="17" t="s">
+      <c r="A354" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="B354" s="18"/>
-      <c r="C354" s="19"/>
-      <c r="D354" s="20"/>
-      <c r="E354" s="20"/>
-      <c r="F354" s="20"/>
-      <c r="G354" s="20"/>
-      <c r="H354" s="21"/>
+      <c r="B354" s="19"/>
+      <c r="C354" s="20"/>
+      <c r="D354" s="21"/>
+      <c r="E354" s="21"/>
+      <c r="F354" s="21"/>
+      <c r="G354" s="21"/>
+      <c r="H354" s="22"/>
     </row>
     <row r="355" ht="18" customHeight="1" spans="1:8">
-      <c r="A355" s="22"/>
-      <c r="B355" s="23"/>
-      <c r="C355" s="24"/>
-      <c r="D355" s="25"/>
-      <c r="E355" s="25"/>
-      <c r="F355" s="25"/>
-      <c r="G355" s="25"/>
-      <c r="H355" s="26"/>
+      <c r="A355" s="23"/>
+      <c r="B355" s="24"/>
+      <c r="C355" s="25"/>
+      <c r="D355" s="26"/>
+      <c r="E355" s="26"/>
+      <c r="F355" s="26"/>
+      <c r="G355" s="26"/>
+      <c r="H355" s="27"/>
     </row>
     <row r="356" ht="18" customHeight="1" spans="1:8">
       <c r="A356" s="70" t="s">
@@ -6926,7 +6962,7 @@
         <v>243</v>
       </c>
       <c r="B357" s="75"/>
-      <c r="C357" s="52" t="s">
+      <c r="C357" s="53" t="s">
         <v>244</v>
       </c>
       <c r="D357" s="86"/>
@@ -6940,7 +6976,7 @@
         <v>245</v>
       </c>
       <c r="B358" s="75"/>
-      <c r="C358" s="52" t="s">
+      <c r="C358" s="53" t="s">
         <v>246</v>
       </c>
       <c r="D358" s="86"/>
@@ -6954,7 +6990,7 @@
         <v>247</v>
       </c>
       <c r="B359" s="75"/>
-      <c r="C359" s="52" t="s">
+      <c r="C359" s="53" t="s">
         <v>248</v>
       </c>
       <c r="D359" s="86"/>
@@ -6968,47 +7004,47 @@
         <v>249</v>
       </c>
       <c r="B360" s="75"/>
-      <c r="C360" s="52"/>
+      <c r="C360" s="53"/>
       <c r="D360" s="86"/>
       <c r="E360" s="86"/>
       <c r="F360" s="86"/>
       <c r="G360" s="86"/>
       <c r="H360" s="86"/>
-      <c r="I360" s="53" t="s">
+      <c r="I360" s="54" t="s">
         <v>250</v>
       </c>
-      <c r="J360" s="53"/>
-      <c r="K360" s="53"/>
-      <c r="L360" s="53"/>
-      <c r="M360" s="53"/>
-      <c r="N360" s="53"/>
+      <c r="J360" s="54"/>
+      <c r="K360" s="54"/>
+      <c r="L360" s="54"/>
+      <c r="M360" s="54"/>
+      <c r="N360" s="54"/>
     </row>
     <row r="361" ht="18" customHeight="1" spans="1:14">
       <c r="A361" s="70" t="s">
         <v>251</v>
       </c>
       <c r="B361" s="75"/>
-      <c r="C361" s="52"/>
+      <c r="C361" s="53"/>
       <c r="D361" s="86"/>
       <c r="E361" s="86"/>
       <c r="F361" s="86"/>
       <c r="G361" s="86"/>
       <c r="H361" s="86"/>
-      <c r="I361" s="53" t="s">
+      <c r="I361" s="54" t="s">
         <v>250</v>
       </c>
-      <c r="J361" s="53"/>
-      <c r="K361" s="53"/>
-      <c r="L361" s="53"/>
-      <c r="M361" s="53"/>
-      <c r="N361" s="53"/>
+      <c r="J361" s="54"/>
+      <c r="K361" s="54"/>
+      <c r="L361" s="54"/>
+      <c r="M361" s="54"/>
+      <c r="N361" s="54"/>
     </row>
     <row r="362" ht="18" customHeight="1" spans="1:8">
       <c r="A362" s="70" t="s">
         <v>252</v>
       </c>
       <c r="B362" s="75"/>
-      <c r="C362" s="52" t="s">
+      <c r="C362" s="53" t="s">
         <v>253</v>
       </c>
       <c r="D362" s="86"/>
@@ -7019,26 +7055,26 @@
     </row>
     <row r="363" ht="18" customHeight="1"/>
     <row r="364" ht="18" customHeight="1" spans="1:8">
-      <c r="A364" s="17" t="s">
+      <c r="A364" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="B364" s="18"/>
-      <c r="C364" s="19"/>
-      <c r="D364" s="20"/>
-      <c r="E364" s="20"/>
-      <c r="F364" s="20"/>
-      <c r="G364" s="20"/>
-      <c r="H364" s="21"/>
+      <c r="B364" s="19"/>
+      <c r="C364" s="20"/>
+      <c r="D364" s="21"/>
+      <c r="E364" s="21"/>
+      <c r="F364" s="21"/>
+      <c r="G364" s="21"/>
+      <c r="H364" s="22"/>
     </row>
     <row r="365" ht="18" customHeight="1" spans="1:8">
-      <c r="A365" s="22"/>
-      <c r="B365" s="23"/>
-      <c r="C365" s="24"/>
-      <c r="D365" s="25"/>
-      <c r="E365" s="25"/>
-      <c r="F365" s="25"/>
-      <c r="G365" s="25"/>
-      <c r="H365" s="26"/>
+      <c r="A365" s="23"/>
+      <c r="B365" s="24"/>
+      <c r="C365" s="25"/>
+      <c r="D365" s="26"/>
+      <c r="E365" s="26"/>
+      <c r="F365" s="26"/>
+      <c r="G365" s="26"/>
+      <c r="H365" s="27"/>
     </row>
     <row r="366" ht="18" customHeight="1" spans="1:13">
       <c r="A366" s="70" t="s">
@@ -7053,20 +7089,20 @@
       <c r="F366" s="85"/>
       <c r="G366" s="85"/>
       <c r="H366" s="85"/>
-      <c r="I366" s="65" t="s">
+      <c r="I366" s="66" t="s">
         <v>257</v>
       </c>
-      <c r="J366" s="64"/>
-      <c r="K366" s="64"/>
-      <c r="L366" s="64"/>
-      <c r="M366" s="64"/>
+      <c r="J366" s="65"/>
+      <c r="K366" s="65"/>
+      <c r="L366" s="65"/>
+      <c r="M366" s="65"/>
     </row>
     <row r="367" ht="18" customHeight="1" spans="1:8">
       <c r="A367" s="70" t="s">
         <v>258</v>
       </c>
       <c r="B367" s="75"/>
-      <c r="C367" s="52" t="s">
+      <c r="C367" s="53" t="s">
         <v>259</v>
       </c>
       <c r="D367" s="86"/>
@@ -7091,26 +7127,26 @@
     </row>
     <row r="369" ht="18" customHeight="1"/>
     <row r="370" ht="18" customHeight="1" spans="1:8">
-      <c r="A370" s="17" t="s">
+      <c r="A370" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="B370" s="18"/>
-      <c r="C370" s="19"/>
-      <c r="D370" s="20"/>
-      <c r="E370" s="20"/>
-      <c r="F370" s="20"/>
-      <c r="G370" s="20"/>
-      <c r="H370" s="21"/>
+      <c r="B370" s="19"/>
+      <c r="C370" s="20"/>
+      <c r="D370" s="21"/>
+      <c r="E370" s="21"/>
+      <c r="F370" s="21"/>
+      <c r="G370" s="21"/>
+      <c r="H370" s="22"/>
     </row>
     <row r="371" ht="18" customHeight="1" spans="1:8">
-      <c r="A371" s="22"/>
-      <c r="B371" s="23"/>
-      <c r="C371" s="24"/>
-      <c r="D371" s="25"/>
-      <c r="E371" s="25"/>
-      <c r="F371" s="25"/>
-      <c r="G371" s="25"/>
-      <c r="H371" s="26"/>
+      <c r="A371" s="23"/>
+      <c r="B371" s="24"/>
+      <c r="C371" s="25"/>
+      <c r="D371" s="26"/>
+      <c r="E371" s="26"/>
+      <c r="F371" s="26"/>
+      <c r="G371" s="26"/>
+      <c r="H371" s="27"/>
     </row>
     <row r="372" ht="18" customHeight="1" spans="1:8">
       <c r="A372" s="70" t="s">
@@ -7131,7 +7167,7 @@
         <v>264</v>
       </c>
       <c r="B373" s="75"/>
-      <c r="C373" s="52" t="s">
+      <c r="C373" s="53" t="s">
         <v>265</v>
       </c>
       <c r="D373" s="86"/>
@@ -7157,28 +7193,28 @@
     <row r="375" ht="18" customHeight="1"/>
     <row r="376" ht="18" customHeight="1"/>
     <row r="377" ht="18" customHeight="1" spans="1:8">
-      <c r="A377" s="17" t="s">
+      <c r="A377" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="B377" s="18"/>
-      <c r="C377" s="19" t="s">
+      <c r="B377" s="19"/>
+      <c r="C377" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="D377" s="20"/>
-      <c r="E377" s="20"/>
-      <c r="F377" s="20"/>
-      <c r="G377" s="20"/>
-      <c r="H377" s="21"/>
+      <c r="D377" s="21"/>
+      <c r="E377" s="21"/>
+      <c r="F377" s="21"/>
+      <c r="G377" s="21"/>
+      <c r="H377" s="22"/>
     </row>
     <row r="378" ht="18" customHeight="1" spans="1:8">
-      <c r="A378" s="22"/>
-      <c r="B378" s="23"/>
-      <c r="C378" s="24"/>
-      <c r="D378" s="25"/>
-      <c r="E378" s="25"/>
-      <c r="F378" s="25"/>
-      <c r="G378" s="25"/>
-      <c r="H378" s="26"/>
+      <c r="A378" s="23"/>
+      <c r="B378" s="24"/>
+      <c r="C378" s="25"/>
+      <c r="D378" s="26"/>
+      <c r="E378" s="26"/>
+      <c r="F378" s="26"/>
+      <c r="G378" s="26"/>
+      <c r="H378" s="27"/>
     </row>
     <row r="379" ht="18" customHeight="1" spans="1:8">
       <c r="A379" s="87" t="s">
@@ -7199,7 +7235,7 @@
         <v>272</v>
       </c>
       <c r="B380" s="88"/>
-      <c r="C380" s="52"/>
+      <c r="C380" s="53"/>
       <c r="D380" s="86"/>
       <c r="E380" s="86"/>
       <c r="F380" s="86"/>
@@ -7225,7 +7261,7 @@
         <v>275</v>
       </c>
       <c r="B382" s="88"/>
-      <c r="C382" s="52"/>
+      <c r="C382" s="53"/>
       <c r="D382" s="86"/>
       <c r="E382" s="86"/>
       <c r="F382" s="86"/>
@@ -7234,32 +7270,32 @@
     </row>
     <row r="383" ht="18" customHeight="1"/>
     <row r="384" ht="18" customHeight="1" spans="1:8">
-      <c r="A384" s="27" t="s">
+      <c r="A384" s="28" t="s">
         <v>268</v>
       </c>
-      <c r="B384" s="27"/>
-      <c r="C384" s="29"/>
-      <c r="D384" s="29"/>
-      <c r="E384" s="29"/>
-      <c r="F384" s="29"/>
-      <c r="G384" s="29"/>
-      <c r="H384" s="29"/>
+      <c r="B384" s="28"/>
+      <c r="C384" s="30"/>
+      <c r="D384" s="30"/>
+      <c r="E384" s="30"/>
+      <c r="F384" s="30"/>
+      <c r="G384" s="30"/>
+      <c r="H384" s="30"/>
     </row>
     <row r="385" ht="18" customHeight="1" spans="1:8">
-      <c r="A385" s="27"/>
-      <c r="B385" s="27"/>
-      <c r="C385" s="29"/>
-      <c r="D385" s="29"/>
-      <c r="E385" s="29"/>
-      <c r="F385" s="29"/>
-      <c r="G385" s="29"/>
-      <c r="H385" s="29"/>
+      <c r="A385" s="28"/>
+      <c r="B385" s="28"/>
+      <c r="C385" s="30"/>
+      <c r="D385" s="30"/>
+      <c r="E385" s="30"/>
+      <c r="F385" s="30"/>
+      <c r="G385" s="30"/>
+      <c r="H385" s="30"/>
     </row>
     <row r="386" ht="18" customHeight="1" spans="1:8">
-      <c r="A386" s="29" t="s">
+      <c r="A386" s="30" t="s">
         <v>276</v>
       </c>
-      <c r="B386" s="29"/>
+      <c r="B386" s="30"/>
       <c r="C386" s="86" t="s">
         <v>277</v>
       </c>
@@ -7270,10 +7306,10 @@
       <c r="H386" s="86"/>
     </row>
     <row r="387" ht="18" customHeight="1" spans="1:8">
-      <c r="A387" s="29" t="s">
+      <c r="A387" s="30" t="s">
         <v>278</v>
       </c>
-      <c r="B387" s="29"/>
+      <c r="B387" s="30"/>
       <c r="C387" s="86" t="s">
         <v>225</v>
       </c>
@@ -7284,10 +7320,10 @@
       <c r="H387" s="86"/>
     </row>
     <row r="388" ht="18" customHeight="1" spans="1:8">
-      <c r="A388" s="29" t="s">
+      <c r="A388" s="30" t="s">
         <v>279</v>
       </c>
-      <c r="B388" s="29"/>
+      <c r="B388" s="30"/>
       <c r="C388" s="86" t="s">
         <v>280</v>
       </c>
@@ -7298,10 +7334,10 @@
       <c r="H388" s="86"/>
     </row>
     <row r="389" ht="18" customHeight="1" spans="1:8">
-      <c r="A389" s="29" t="s">
+      <c r="A389" s="30" t="s">
         <v>281</v>
       </c>
-      <c r="B389" s="29"/>
+      <c r="B389" s="30"/>
       <c r="C389" s="86" t="s">
         <v>282</v>
       </c>
@@ -7312,10 +7348,10 @@
       <c r="H389" s="86"/>
     </row>
     <row r="390" ht="18" customHeight="1" spans="1:9">
-      <c r="A390" s="29" t="s">
+      <c r="A390" s="30" t="s">
         <v>283</v>
       </c>
-      <c r="B390" s="29"/>
+      <c r="B390" s="30"/>
       <c r="C390" s="86"/>
       <c r="D390" s="86"/>
       <c r="E390" s="86"/>
@@ -7327,10 +7363,10 @@
       </c>
     </row>
     <row r="391" ht="18" customHeight="1" spans="1:8">
-      <c r="A391" s="29" t="s">
+      <c r="A391" s="30" t="s">
         <v>285</v>
       </c>
-      <c r="B391" s="29"/>
+      <c r="B391" s="30"/>
       <c r="C391" s="86" t="s">
         <v>286</v>
       </c>
@@ -7341,10 +7377,10 @@
       <c r="H391" s="86"/>
     </row>
     <row r="392" ht="18" customHeight="1" spans="1:8">
-      <c r="A392" s="29" t="s">
+      <c r="A392" s="30" t="s">
         <v>287</v>
       </c>
-      <c r="B392" s="29"/>
+      <c r="B392" s="30"/>
       <c r="C392" s="86" t="s">
         <v>288</v>
       </c>
@@ -7356,32 +7392,32 @@
     </row>
     <row r="393" ht="18" customHeight="1"/>
     <row r="394" spans="1:8">
-      <c r="A394" s="27" t="s">
+      <c r="A394" s="28" t="s">
         <v>268</v>
       </c>
-      <c r="B394" s="27"/>
-      <c r="C394" s="29"/>
-      <c r="D394" s="29"/>
-      <c r="E394" s="29"/>
-      <c r="F394" s="29"/>
-      <c r="G394" s="29"/>
-      <c r="H394" s="29"/>
+      <c r="B394" s="28"/>
+      <c r="C394" s="30"/>
+      <c r="D394" s="30"/>
+      <c r="E394" s="30"/>
+      <c r="F394" s="30"/>
+      <c r="G394" s="30"/>
+      <c r="H394" s="30"/>
     </row>
     <row r="395" spans="1:8">
-      <c r="A395" s="27"/>
-      <c r="B395" s="27"/>
-      <c r="C395" s="29"/>
-      <c r="D395" s="29"/>
-      <c r="E395" s="29"/>
-      <c r="F395" s="29"/>
-      <c r="G395" s="29"/>
-      <c r="H395" s="29"/>
+      <c r="A395" s="28"/>
+      <c r="B395" s="28"/>
+      <c r="C395" s="30"/>
+      <c r="D395" s="30"/>
+      <c r="E395" s="30"/>
+      <c r="F395" s="30"/>
+      <c r="G395" s="30"/>
+      <c r="H395" s="30"/>
     </row>
     <row r="396" ht="15.7" spans="1:8">
-      <c r="A396" s="29" t="s">
+      <c r="A396" s="30" t="s">
         <v>289</v>
       </c>
-      <c r="B396" s="29"/>
+      <c r="B396" s="30"/>
       <c r="C396" s="86" t="s">
         <v>290</v>
       </c>
@@ -7392,10 +7428,10 @@
       <c r="H396" s="86"/>
     </row>
     <row r="397" ht="15.7" spans="1:8">
-      <c r="A397" s="29" t="s">
+      <c r="A397" s="30" t="s">
         <v>291</v>
       </c>
-      <c r="B397" s="29"/>
+      <c r="B397" s="30"/>
       <c r="C397" s="86" t="s">
         <v>292</v>
       </c>
@@ -7406,10 +7442,10 @@
       <c r="H397" s="86"/>
     </row>
     <row r="398" ht="15.7" spans="1:9">
-      <c r="A398" s="29" t="s">
+      <c r="A398" s="30" t="s">
         <v>293</v>
       </c>
-      <c r="B398" s="29"/>
+      <c r="B398" s="30"/>
       <c r="C398" s="86" t="s">
         <v>225</v>
       </c>
@@ -7423,10 +7459,10 @@
       </c>
     </row>
     <row r="399" ht="15.7" spans="1:13">
-      <c r="A399" s="29" t="s">
+      <c r="A399" s="30" t="s">
         <v>294</v>
       </c>
-      <c r="B399" s="29"/>
+      <c r="B399" s="30"/>
       <c r="C399" s="86" t="s">
         <v>295</v>
       </c>
@@ -7435,19 +7471,19 @@
       <c r="F399" s="86"/>
       <c r="G399" s="86"/>
       <c r="H399" s="86"/>
-      <c r="I399" s="20" t="s">
+      <c r="I399" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="J399" s="20"/>
-      <c r="K399" s="20"/>
-      <c r="L399" s="20"/>
-      <c r="M399" s="20"/>
+      <c r="J399" s="21"/>
+      <c r="K399" s="21"/>
+      <c r="L399" s="21"/>
+      <c r="M399" s="21"/>
     </row>
     <row r="400" ht="15.7" spans="1:8">
-      <c r="A400" s="29" t="s">
+      <c r="A400" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="B400" s="29"/>
+      <c r="B400" s="30"/>
       <c r="C400" s="86" t="s">
         <v>298</v>
       </c>
@@ -7458,29 +7494,29 @@
       <c r="H400" s="86"/>
     </row>
     <row r="401" ht="15.7" spans="1:13">
-      <c r="A401" s="29" t="s">
+      <c r="A401" s="30" t="s">
         <v>299</v>
       </c>
-      <c r="B401" s="29"/>
+      <c r="B401" s="30"/>
       <c r="C401" s="86"/>
       <c r="D401" s="86"/>
       <c r="E401" s="86"/>
       <c r="F401" s="86"/>
       <c r="G401" s="86"/>
       <c r="H401" s="86"/>
-      <c r="I401" s="55" t="s">
+      <c r="I401" s="56" t="s">
         <v>300</v>
       </c>
-      <c r="J401" s="55"/>
-      <c r="K401" s="55"/>
-      <c r="L401" s="55"/>
-      <c r="M401" s="55"/>
+      <c r="J401" s="56"/>
+      <c r="K401" s="56"/>
+      <c r="L401" s="56"/>
+      <c r="M401" s="56"/>
     </row>
     <row r="402" ht="15.7" spans="1:8">
-      <c r="A402" s="29" t="s">
+      <c r="A402" s="30" t="s">
         <v>301</v>
       </c>
-      <c r="B402" s="29"/>
+      <c r="B402" s="30"/>
       <c r="C402" s="86" t="s">
         <v>302</v>
       </c>
@@ -7491,32 +7527,32 @@
       <c r="H402" s="86"/>
     </row>
     <row r="404" spans="1:8">
-      <c r="A404" s="27" t="s">
+      <c r="A404" s="28" t="s">
         <v>268</v>
       </c>
-      <c r="B404" s="27"/>
-      <c r="C404" s="29"/>
-      <c r="D404" s="29"/>
-      <c r="E404" s="29"/>
-      <c r="F404" s="29"/>
-      <c r="G404" s="29"/>
-      <c r="H404" s="29"/>
+      <c r="B404" s="28"/>
+      <c r="C404" s="30"/>
+      <c r="D404" s="30"/>
+      <c r="E404" s="30"/>
+      <c r="F404" s="30"/>
+      <c r="G404" s="30"/>
+      <c r="H404" s="30"/>
     </row>
     <row r="405" spans="1:8">
-      <c r="A405" s="27"/>
-      <c r="B405" s="27"/>
-      <c r="C405" s="29"/>
-      <c r="D405" s="29"/>
-      <c r="E405" s="29"/>
-      <c r="F405" s="29"/>
-      <c r="G405" s="29"/>
-      <c r="H405" s="29"/>
+      <c r="A405" s="28"/>
+      <c r="B405" s="28"/>
+      <c r="C405" s="30"/>
+      <c r="D405" s="30"/>
+      <c r="E405" s="30"/>
+      <c r="F405" s="30"/>
+      <c r="G405" s="30"/>
+      <c r="H405" s="30"/>
     </row>
     <row r="406" ht="15.7" spans="1:8">
-      <c r="A406" s="29" t="s">
+      <c r="A406" s="30" t="s">
         <v>303</v>
       </c>
-      <c r="B406" s="29"/>
+      <c r="B406" s="30"/>
       <c r="C406" s="86" t="s">
         <v>304</v>
       </c>
@@ -7527,10 +7563,10 @@
       <c r="H406" s="86"/>
     </row>
     <row r="407" ht="15.7" spans="1:8">
-      <c r="A407" s="29" t="s">
+      <c r="A407" s="30" t="s">
         <v>305</v>
       </c>
-      <c r="B407" s="29"/>
+      <c r="B407" s="30"/>
       <c r="C407" s="86" t="s">
         <v>306</v>
       </c>
@@ -7541,10 +7577,10 @@
       <c r="H407" s="86"/>
     </row>
     <row r="408" ht="15.7" spans="1:8">
-      <c r="A408" s="29" t="s">
+      <c r="A408" s="30" t="s">
         <v>307</v>
       </c>
-      <c r="B408" s="29"/>
+      <c r="B408" s="30"/>
       <c r="C408" s="86" t="s">
         <v>308</v>
       </c>
@@ -7555,10 +7591,10 @@
       <c r="H408" s="86"/>
     </row>
     <row r="409" ht="15.7" spans="1:8">
-      <c r="A409" s="29" t="s">
+      <c r="A409" s="30" t="s">
         <v>309</v>
       </c>
-      <c r="B409" s="29"/>
+      <c r="B409" s="30"/>
       <c r="C409" s="86" t="s">
         <v>310</v>
       </c>
@@ -7569,70 +7605,70 @@
       <c r="H409" s="86"/>
     </row>
     <row r="410" ht="15.7" spans="1:8">
-      <c r="A410" s="29" t="s">
+      <c r="A410" s="30" t="s">
         <v>255</v>
       </c>
-      <c r="B410" s="29"/>
+      <c r="B410" s="30"/>
       <c r="C410" s="90" t="s">
         <v>311</v>
       </c>
-      <c r="D410" s="57"/>
-      <c r="E410" s="57"/>
-      <c r="F410" s="57"/>
-      <c r="G410" s="57"/>
-      <c r="H410" s="58"/>
+      <c r="D410" s="58"/>
+      <c r="E410" s="58"/>
+      <c r="F410" s="58"/>
+      <c r="G410" s="58"/>
+      <c r="H410" s="59"/>
     </row>
     <row r="411" ht="15.7" spans="1:8">
-      <c r="A411" s="29" t="s">
+      <c r="A411" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="B411" s="29"/>
-      <c r="C411" s="59"/>
-      <c r="D411" s="55"/>
-      <c r="E411" s="55"/>
-      <c r="F411" s="55"/>
-      <c r="G411" s="55"/>
-      <c r="H411" s="60"/>
+      <c r="B411" s="30"/>
+      <c r="C411" s="60"/>
+      <c r="D411" s="56"/>
+      <c r="E411" s="56"/>
+      <c r="F411" s="56"/>
+      <c r="G411" s="56"/>
+      <c r="H411" s="61"/>
     </row>
     <row r="412" ht="15.7" spans="1:8">
-      <c r="A412" s="29" t="s">
+      <c r="A412" s="30" t="s">
         <v>260</v>
       </c>
-      <c r="B412" s="29"/>
-      <c r="C412" s="61"/>
-      <c r="D412" s="62"/>
-      <c r="E412" s="62"/>
-      <c r="F412" s="62"/>
-      <c r="G412" s="62"/>
-      <c r="H412" s="63"/>
+      <c r="B412" s="30"/>
+      <c r="C412" s="62"/>
+      <c r="D412" s="63"/>
+      <c r="E412" s="63"/>
+      <c r="F412" s="63"/>
+      <c r="G412" s="63"/>
+      <c r="H412" s="64"/>
     </row>
     <row r="414" spans="1:8">
-      <c r="A414" s="27" t="s">
+      <c r="A414" s="28" t="s">
         <v>268</v>
       </c>
-      <c r="B414" s="27"/>
-      <c r="C414" s="29"/>
-      <c r="D414" s="29"/>
-      <c r="E414" s="29"/>
-      <c r="F414" s="29"/>
-      <c r="G414" s="29"/>
-      <c r="H414" s="29"/>
+      <c r="B414" s="28"/>
+      <c r="C414" s="30"/>
+      <c r="D414" s="30"/>
+      <c r="E414" s="30"/>
+      <c r="F414" s="30"/>
+      <c r="G414" s="30"/>
+      <c r="H414" s="30"/>
     </row>
     <row r="415" spans="1:8">
-      <c r="A415" s="27"/>
-      <c r="B415" s="27"/>
-      <c r="C415" s="29"/>
-      <c r="D415" s="29"/>
-      <c r="E415" s="29"/>
-      <c r="F415" s="29"/>
-      <c r="G415" s="29"/>
-      <c r="H415" s="29"/>
+      <c r="A415" s="28"/>
+      <c r="B415" s="28"/>
+      <c r="C415" s="30"/>
+      <c r="D415" s="30"/>
+      <c r="E415" s="30"/>
+      <c r="F415" s="30"/>
+      <c r="G415" s="30"/>
+      <c r="H415" s="30"/>
     </row>
     <row r="416" ht="15.7" spans="1:8">
-      <c r="A416" s="29" t="s">
+      <c r="A416" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="B416" s="29"/>
+      <c r="B416" s="30"/>
       <c r="C416" s="86" t="s">
         <v>312</v>
       </c>
@@ -7643,10 +7679,10 @@
       <c r="H416" s="86"/>
     </row>
     <row r="417" ht="15.7" spans="1:8">
-      <c r="A417" s="29" t="s">
+      <c r="A417" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="B417" s="29"/>
+      <c r="B417" s="30"/>
       <c r="C417" s="86" t="s">
         <v>313</v>
       </c>
@@ -7657,10 +7693,10 @@
       <c r="H417" s="86"/>
     </row>
     <row r="418" ht="15.7" spans="1:13">
-      <c r="A418" s="29" t="s">
+      <c r="A418" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="B418" s="29"/>
+      <c r="B418" s="30"/>
       <c r="C418" s="86" t="s">
         <v>314</v>
       </c>
@@ -7669,19 +7705,19 @@
       <c r="F418" s="86"/>
       <c r="G418" s="86"/>
       <c r="H418" s="86"/>
-      <c r="I418" s="55" t="s">
+      <c r="I418" s="56" t="s">
         <v>315</v>
       </c>
-      <c r="J418" s="55"/>
-      <c r="K418" s="55"/>
-      <c r="L418" s="55"/>
-      <c r="M418" s="55"/>
+      <c r="J418" s="56"/>
+      <c r="K418" s="56"/>
+      <c r="L418" s="56"/>
+      <c r="M418" s="56"/>
     </row>
     <row r="419" ht="15.7" spans="1:8">
-      <c r="A419" s="29" t="s">
+      <c r="A419" s="30" t="s">
         <v>316</v>
       </c>
-      <c r="B419" s="29"/>
+      <c r="B419" s="30"/>
       <c r="C419" s="86" t="s">
         <v>317</v>
       </c>
@@ -7692,10 +7728,10 @@
       <c r="H419" s="86"/>
     </row>
     <row r="420" ht="15.7" spans="1:8">
-      <c r="A420" s="29" t="s">
+      <c r="A420" s="30" t="s">
         <v>318</v>
       </c>
-      <c r="B420" s="29"/>
+      <c r="B420" s="30"/>
       <c r="C420" s="86" t="s">
         <v>319</v>
       </c>
@@ -7706,10 +7742,10 @@
       <c r="H420" s="86"/>
     </row>
     <row r="421" ht="15.7" spans="1:13">
-      <c r="A421" s="29" t="s">
+      <c r="A421" s="30" t="s">
         <v>320</v>
       </c>
-      <c r="B421" s="29"/>
+      <c r="B421" s="30"/>
       <c r="C421" s="86"/>
       <c r="D421" s="86"/>
       <c r="E421" s="86"/>
@@ -7725,32 +7761,32 @@
       <c r="M421" s="92"/>
     </row>
     <row r="423" spans="1:8">
-      <c r="A423" s="27" t="s">
+      <c r="A423" s="28" t="s">
         <v>322</v>
       </c>
-      <c r="B423" s="27"/>
-      <c r="C423" s="29"/>
-      <c r="D423" s="29"/>
-      <c r="E423" s="29"/>
-      <c r="F423" s="29"/>
-      <c r="G423" s="29"/>
-      <c r="H423" s="29"/>
+      <c r="B423" s="28"/>
+      <c r="C423" s="30"/>
+      <c r="D423" s="30"/>
+      <c r="E423" s="30"/>
+      <c r="F423" s="30"/>
+      <c r="G423" s="30"/>
+      <c r="H423" s="30"/>
     </row>
     <row r="424" spans="1:8">
-      <c r="A424" s="27"/>
-      <c r="B424" s="27"/>
-      <c r="C424" s="29"/>
-      <c r="D424" s="29"/>
-      <c r="E424" s="29"/>
-      <c r="F424" s="29"/>
-      <c r="G424" s="29"/>
-      <c r="H424" s="29"/>
+      <c r="A424" s="28"/>
+      <c r="B424" s="28"/>
+      <c r="C424" s="30"/>
+      <c r="D424" s="30"/>
+      <c r="E424" s="30"/>
+      <c r="F424" s="30"/>
+      <c r="G424" s="30"/>
+      <c r="H424" s="30"/>
     </row>
     <row r="425" ht="15.7" spans="1:8">
-      <c r="A425" s="29" t="s">
+      <c r="A425" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="B425" s="29"/>
+      <c r="B425" s="30"/>
       <c r="C425" s="86" t="s">
         <v>324</v>
       </c>
@@ -7761,32 +7797,32 @@
       <c r="H425" s="86"/>
     </row>
     <row r="428" spans="1:8">
-      <c r="A428" s="27" t="s">
+      <c r="A428" s="28" t="s">
         <v>322</v>
       </c>
-      <c r="B428" s="27"/>
-      <c r="C428" s="29"/>
-      <c r="D428" s="29"/>
-      <c r="E428" s="29"/>
-      <c r="F428" s="29"/>
-      <c r="G428" s="29"/>
-      <c r="H428" s="29"/>
+      <c r="B428" s="28"/>
+      <c r="C428" s="30"/>
+      <c r="D428" s="30"/>
+      <c r="E428" s="30"/>
+      <c r="F428" s="30"/>
+      <c r="G428" s="30"/>
+      <c r="H428" s="30"/>
     </row>
     <row r="429" spans="1:8">
-      <c r="A429" s="27"/>
-      <c r="B429" s="27"/>
-      <c r="C429" s="29"/>
-      <c r="D429" s="29"/>
-      <c r="E429" s="29"/>
-      <c r="F429" s="29"/>
-      <c r="G429" s="29"/>
-      <c r="H429" s="29"/>
+      <c r="A429" s="28"/>
+      <c r="B429" s="28"/>
+      <c r="C429" s="30"/>
+      <c r="D429" s="30"/>
+      <c r="E429" s="30"/>
+      <c r="F429" s="30"/>
+      <c r="G429" s="30"/>
+      <c r="H429" s="30"/>
     </row>
     <row r="430" ht="15.7" spans="1:8">
-      <c r="A430" s="29" t="s">
+      <c r="A430" s="30" t="s">
         <v>325</v>
       </c>
-      <c r="B430" s="29"/>
+      <c r="B430" s="30"/>
       <c r="C430" s="86" t="s">
         <v>326</v>
       </c>
@@ -7797,10 +7833,10 @@
       <c r="H430" s="86"/>
     </row>
     <row r="431" ht="15.7" spans="1:8">
-      <c r="A431" s="29" t="s">
+      <c r="A431" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="B431" s="29"/>
+      <c r="B431" s="30"/>
       <c r="C431" s="86" t="s">
         <v>328</v>
       </c>
@@ -7811,10 +7847,10 @@
       <c r="H431" s="86"/>
     </row>
     <row r="432" ht="15.7" spans="1:8">
-      <c r="A432" s="29" t="s">
+      <c r="A432" s="30" t="s">
         <v>329</v>
       </c>
-      <c r="B432" s="29"/>
+      <c r="B432" s="30"/>
       <c r="C432" s="86" t="s">
         <v>330</v>
       </c>
@@ -7825,10 +7861,10 @@
       <c r="H432" s="86"/>
     </row>
     <row r="433" ht="15.7" spans="1:8">
-      <c r="A433" s="29" t="s">
+      <c r="A433" s="30" t="s">
         <v>331</v>
       </c>
-      <c r="B433" s="29"/>
+      <c r="B433" s="30"/>
       <c r="C433" s="86" t="s">
         <v>332</v>
       </c>
@@ -7839,10 +7875,10 @@
       <c r="H433" s="86"/>
     </row>
     <row r="434" ht="15.7" spans="1:8">
-      <c r="A434" s="29" t="s">
+      <c r="A434" s="30" t="s">
         <v>333</v>
       </c>
-      <c r="B434" s="29"/>
+      <c r="B434" s="30"/>
       <c r="C434" s="86"/>
       <c r="D434" s="86"/>
       <c r="E434" s="86"/>
@@ -7851,10 +7887,10 @@
       <c r="H434" s="86"/>
     </row>
     <row r="435" ht="15.7" spans="1:8">
-      <c r="A435" s="29" t="s">
+      <c r="A435" s="30" t="s">
         <v>334</v>
       </c>
-      <c r="B435" s="29"/>
+      <c r="B435" s="30"/>
       <c r="C435" s="86" t="s">
         <v>335</v>
       </c>
@@ -7865,10 +7901,10 @@
       <c r="H435" s="86"/>
     </row>
     <row r="436" ht="15.7" spans="1:8">
-      <c r="A436" s="29" t="s">
+      <c r="A436" s="30" t="s">
         <v>336</v>
       </c>
-      <c r="B436" s="29"/>
+      <c r="B436" s="30"/>
       <c r="C436" s="86" t="s">
         <v>337</v>
       </c>
@@ -7879,52 +7915,52 @@
       <c r="H436" s="86"/>
     </row>
     <row r="438" spans="1:8">
-      <c r="A438" s="27" t="s">
+      <c r="A438" s="28" t="s">
         <v>322</v>
       </c>
-      <c r="B438" s="27"/>
-      <c r="C438" s="29"/>
-      <c r="D438" s="29"/>
-      <c r="E438" s="29"/>
-      <c r="F438" s="29"/>
-      <c r="G438" s="29"/>
-      <c r="H438" s="29"/>
+      <c r="B438" s="28"/>
+      <c r="C438" s="30"/>
+      <c r="D438" s="30"/>
+      <c r="E438" s="30"/>
+      <c r="F438" s="30"/>
+      <c r="G438" s="30"/>
+      <c r="H438" s="30"/>
     </row>
     <row r="439" spans="1:8">
-      <c r="A439" s="27"/>
-      <c r="B439" s="27"/>
-      <c r="C439" s="29"/>
-      <c r="D439" s="29"/>
-      <c r="E439" s="29"/>
-      <c r="F439" s="29"/>
-      <c r="G439" s="29"/>
-      <c r="H439" s="29"/>
+      <c r="A439" s="28"/>
+      <c r="B439" s="28"/>
+      <c r="C439" s="30"/>
+      <c r="D439" s="30"/>
+      <c r="E439" s="30"/>
+      <c r="F439" s="30"/>
+      <c r="G439" s="30"/>
+      <c r="H439" s="30"/>
     </row>
     <row r="440" ht="15.7" spans="1:14">
-      <c r="A440" s="29" t="s">
+      <c r="A440" s="30" t="s">
         <v>338</v>
       </c>
-      <c r="B440" s="29"/>
+      <c r="B440" s="30"/>
       <c r="C440" s="86"/>
       <c r="D440" s="86"/>
       <c r="E440" s="86"/>
       <c r="F440" s="86"/>
       <c r="G440" s="86"/>
       <c r="H440" s="86"/>
-      <c r="I440" s="68" t="s">
+      <c r="I440" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="J440" s="68"/>
-      <c r="K440" s="68"/>
-      <c r="L440" s="68"/>
-      <c r="M440" s="68"/>
-      <c r="N440" s="68"/>
+      <c r="J440" s="1"/>
+      <c r="K440" s="1"/>
+      <c r="L440" s="1"/>
+      <c r="M440" s="1"/>
+      <c r="N440" s="1"/>
     </row>
     <row r="441" ht="15.7" spans="1:8">
-      <c r="A441" s="29" t="s">
+      <c r="A441" s="30" t="s">
         <v>340</v>
       </c>
-      <c r="B441" s="29"/>
+      <c r="B441" s="30"/>
       <c r="C441" s="86" t="s">
         <v>341</v>
       </c>
@@ -7935,94 +7971,94 @@
       <c r="H441" s="86"/>
     </row>
     <row r="442" ht="15.7" spans="1:8">
-      <c r="A442" s="29" t="s">
+      <c r="A442" s="30" t="s">
         <v>342</v>
       </c>
-      <c r="B442" s="29"/>
+      <c r="B442" s="30"/>
       <c r="C442" s="91" t="s">
         <v>100</v>
       </c>
-      <c r="D442" s="67"/>
-      <c r="E442" s="67"/>
-      <c r="F442" s="67"/>
-      <c r="G442" s="67"/>
-      <c r="H442" s="13"/>
+      <c r="D442" s="68"/>
+      <c r="E442" s="68"/>
+      <c r="F442" s="68"/>
+      <c r="G442" s="68"/>
+      <c r="H442" s="14"/>
     </row>
     <row r="443" ht="15.7" spans="1:8">
-      <c r="A443" s="29" t="s">
+      <c r="A443" s="30" t="s">
         <v>343</v>
       </c>
-      <c r="B443" s="29"/>
-      <c r="C443" s="17"/>
-      <c r="D443" s="68"/>
-      <c r="E443" s="68"/>
-      <c r="F443" s="68"/>
-      <c r="G443" s="68"/>
-      <c r="H443" s="18"/>
+      <c r="B443" s="30"/>
+      <c r="C443" s="18"/>
+      <c r="D443" s="1"/>
+      <c r="E443" s="1"/>
+      <c r="F443" s="1"/>
+      <c r="G443" s="1"/>
+      <c r="H443" s="19"/>
     </row>
     <row r="444" ht="15.7" spans="1:8">
-      <c r="A444" s="29" t="s">
+      <c r="A444" s="30" t="s">
         <v>344</v>
       </c>
-      <c r="B444" s="29"/>
-      <c r="C444" s="17"/>
-      <c r="D444" s="68"/>
-      <c r="E444" s="68"/>
-      <c r="F444" s="68"/>
-      <c r="G444" s="68"/>
-      <c r="H444" s="18"/>
+      <c r="B444" s="30"/>
+      <c r="C444" s="18"/>
+      <c r="D444" s="1"/>
+      <c r="E444" s="1"/>
+      <c r="F444" s="1"/>
+      <c r="G444" s="1"/>
+      <c r="H444" s="19"/>
     </row>
     <row r="445" ht="15.7" spans="1:8">
-      <c r="A445" s="29" t="s">
+      <c r="A445" s="30" t="s">
         <v>345</v>
       </c>
-      <c r="B445" s="29"/>
-      <c r="C445" s="17"/>
-      <c r="D445" s="68"/>
-      <c r="E445" s="68"/>
-      <c r="F445" s="68"/>
-      <c r="G445" s="68"/>
-      <c r="H445" s="18"/>
+      <c r="B445" s="30"/>
+      <c r="C445" s="18"/>
+      <c r="D445" s="1"/>
+      <c r="E445" s="1"/>
+      <c r="F445" s="1"/>
+      <c r="G445" s="1"/>
+      <c r="H445" s="19"/>
     </row>
     <row r="446" ht="15.7" spans="1:8">
-      <c r="A446" s="29" t="s">
+      <c r="A446" s="30" t="s">
         <v>346</v>
       </c>
-      <c r="B446" s="29"/>
-      <c r="C446" s="22"/>
+      <c r="B446" s="30"/>
+      <c r="C446" s="23"/>
       <c r="D446" s="69"/>
       <c r="E446" s="69"/>
       <c r="F446" s="69"/>
       <c r="G446" s="69"/>
-      <c r="H446" s="23"/>
+      <c r="H446" s="24"/>
     </row>
     <row r="448" spans="1:8">
-      <c r="A448" s="27" t="s">
+      <c r="A448" s="28" t="s">
         <v>322</v>
       </c>
-      <c r="B448" s="27"/>
-      <c r="C448" s="29"/>
-      <c r="D448" s="29"/>
-      <c r="E448" s="29"/>
-      <c r="F448" s="29"/>
-      <c r="G448" s="29"/>
-      <c r="H448" s="29"/>
+      <c r="B448" s="28"/>
+      <c r="C448" s="30"/>
+      <c r="D448" s="30"/>
+      <c r="E448" s="30"/>
+      <c r="F448" s="30"/>
+      <c r="G448" s="30"/>
+      <c r="H448" s="30"/>
     </row>
     <row r="449" spans="1:8">
-      <c r="A449" s="27"/>
-      <c r="B449" s="27"/>
-      <c r="C449" s="29"/>
-      <c r="D449" s="29"/>
-      <c r="E449" s="29"/>
-      <c r="F449" s="29"/>
-      <c r="G449" s="29"/>
-      <c r="H449" s="29"/>
+      <c r="A449" s="28"/>
+      <c r="B449" s="28"/>
+      <c r="C449" s="30"/>
+      <c r="D449" s="30"/>
+      <c r="E449" s="30"/>
+      <c r="F449" s="30"/>
+      <c r="G449" s="30"/>
+      <c r="H449" s="30"/>
     </row>
     <row r="450" ht="15.7" spans="1:8">
-      <c r="A450" s="29" t="s">
+      <c r="A450" s="30" t="s">
         <v>347</v>
       </c>
-      <c r="B450" s="29"/>
+      <c r="B450" s="30"/>
       <c r="C450" s="93" t="s">
         <v>100</v>
       </c>
@@ -8033,10 +8069,10 @@
       <c r="H450" s="95"/>
     </row>
     <row r="451" ht="15.7" spans="1:8">
-      <c r="A451" s="29" t="s">
+      <c r="A451" s="30" t="s">
         <v>348</v>
       </c>
-      <c r="B451" s="29"/>
+      <c r="B451" s="30"/>
       <c r="C451" s="96"/>
       <c r="D451" s="97"/>
       <c r="E451" s="97"/>
@@ -8045,10 +8081,10 @@
       <c r="H451" s="98"/>
     </row>
     <row r="452" ht="15.7" spans="1:8">
-      <c r="A452" s="29" t="s">
+      <c r="A452" s="30" t="s">
         <v>349</v>
       </c>
-      <c r="B452" s="29"/>
+      <c r="B452" s="30"/>
       <c r="C452" s="96"/>
       <c r="D452" s="97"/>
       <c r="E452" s="97"/>
@@ -8057,10 +8093,10 @@
       <c r="H452" s="98"/>
     </row>
     <row r="453" ht="15.7" spans="1:8">
-      <c r="A453" s="29" t="s">
+      <c r="A453" s="30" t="s">
         <v>350</v>
       </c>
-      <c r="B453" s="29"/>
+      <c r="B453" s="30"/>
       <c r="C453" s="96"/>
       <c r="D453" s="97"/>
       <c r="E453" s="97"/>
@@ -8069,10 +8105,10 @@
       <c r="H453" s="98"/>
     </row>
     <row r="454" ht="15.7" spans="1:8">
-      <c r="A454" s="29" t="s">
+      <c r="A454" s="30" t="s">
         <v>351</v>
       </c>
-      <c r="B454" s="29"/>
+      <c r="B454" s="30"/>
       <c r="C454" s="96"/>
       <c r="D454" s="97"/>
       <c r="E454" s="97"/>
@@ -8081,10 +8117,10 @@
       <c r="H454" s="98"/>
     </row>
     <row r="455" ht="15.7" spans="1:8">
-      <c r="A455" s="29" t="s">
+      <c r="A455" s="30" t="s">
         <v>352</v>
       </c>
-      <c r="B455" s="29"/>
+      <c r="B455" s="30"/>
       <c r="C455" s="96"/>
       <c r="D455" s="97"/>
       <c r="E455" s="97"/>
@@ -8093,10 +8129,10 @@
       <c r="H455" s="98"/>
     </row>
     <row r="456" ht="15.7" spans="1:8">
-      <c r="A456" s="29" t="s">
+      <c r="A456" s="30" t="s">
         <v>353</v>
       </c>
-      <c r="B456" s="29"/>
+      <c r="B456" s="30"/>
       <c r="C456" s="99" t="s">
         <v>354</v>
       </c>
@@ -8107,32 +8143,32 @@
       <c r="H456" s="101"/>
     </row>
     <row r="458" spans="1:8">
-      <c r="A458" s="27" t="s">
+      <c r="A458" s="28" t="s">
         <v>322</v>
       </c>
-      <c r="B458" s="27"/>
-      <c r="C458" s="12"/>
-      <c r="D458" s="67"/>
-      <c r="E458" s="67"/>
-      <c r="F458" s="67"/>
-      <c r="G458" s="67"/>
-      <c r="H458" s="13"/>
+      <c r="B458" s="28"/>
+      <c r="C458" s="13"/>
+      <c r="D458" s="68"/>
+      <c r="E458" s="68"/>
+      <c r="F458" s="68"/>
+      <c r="G458" s="68"/>
+      <c r="H458" s="14"/>
     </row>
     <row r="459" spans="1:8">
-      <c r="A459" s="27"/>
-      <c r="B459" s="27"/>
-      <c r="C459" s="22"/>
+      <c r="A459" s="28"/>
+      <c r="B459" s="28"/>
+      <c r="C459" s="23"/>
       <c r="D459" s="69"/>
       <c r="E459" s="69"/>
       <c r="F459" s="69"/>
       <c r="G459" s="69"/>
-      <c r="H459" s="23"/>
+      <c r="H459" s="24"/>
     </row>
     <row r="460" ht="15.7" spans="1:8">
-      <c r="A460" s="29" t="s">
+      <c r="A460" s="30" t="s">
         <v>347</v>
       </c>
-      <c r="B460" s="29"/>
+      <c r="B460" s="30"/>
       <c r="C460" s="99" t="s">
         <v>355</v>
       </c>
@@ -8143,10 +8179,10 @@
       <c r="H460" s="101"/>
     </row>
     <row r="461" ht="15.7" spans="1:8">
-      <c r="A461" s="29" t="s">
+      <c r="A461" s="30" t="s">
         <v>348</v>
       </c>
-      <c r="B461" s="29"/>
+      <c r="B461" s="30"/>
       <c r="C461" s="99" t="s">
         <v>356</v>
       </c>
@@ -8157,10 +8193,10 @@
       <c r="H461" s="101"/>
     </row>
     <row r="462" ht="15.7" spans="1:8">
-      <c r="A462" s="29" t="s">
+      <c r="A462" s="30" t="s">
         <v>349</v>
       </c>
-      <c r="B462" s="29"/>
+      <c r="B462" s="30"/>
       <c r="C462" s="99"/>
       <c r="D462" s="100"/>
       <c r="E462" s="100"/>
@@ -8169,10 +8205,10 @@
       <c r="H462" s="101"/>
     </row>
     <row r="463" ht="15.7" spans="1:8">
-      <c r="A463" s="29" t="s">
+      <c r="A463" s="30" t="s">
         <v>350</v>
       </c>
-      <c r="B463" s="29"/>
+      <c r="B463" s="30"/>
       <c r="C463" s="99" t="s">
         <v>357</v>
       </c>
@@ -8183,10 +8219,10 @@
       <c r="H463" s="101"/>
     </row>
     <row r="464" ht="15.7" spans="1:8">
-      <c r="A464" s="29" t="s">
+      <c r="A464" s="30" t="s">
         <v>351</v>
       </c>
-      <c r="B464" s="29"/>
+      <c r="B464" s="30"/>
       <c r="C464" s="99" t="s">
         <v>358</v>
       </c>
@@ -8197,10 +8233,10 @@
       <c r="H464" s="101"/>
     </row>
     <row r="465" ht="15.7" spans="1:8">
-      <c r="A465" s="29" t="s">
+      <c r="A465" s="30" t="s">
         <v>352</v>
       </c>
-      <c r="B465" s="29"/>
+      <c r="B465" s="30"/>
       <c r="C465" s="99"/>
       <c r="D465" s="100"/>
       <c r="E465" s="100"/>
@@ -8209,10 +8245,10 @@
       <c r="H465" s="101"/>
     </row>
     <row r="466" ht="15.7" spans="1:8">
-      <c r="A466" s="29" t="s">
+      <c r="A466" s="30" t="s">
         <v>353</v>
       </c>
-      <c r="B466" s="29"/>
+      <c r="B466" s="30"/>
       <c r="C466" s="99"/>
       <c r="D466" s="100"/>
       <c r="E466" s="100"/>
@@ -8273,32 +8309,32 @@
       <c r="H472" s="102"/>
     </row>
     <row r="474" spans="1:8">
-      <c r="A474" s="27" t="s">
+      <c r="A474" s="28" t="s">
         <v>360</v>
       </c>
-      <c r="B474" s="27"/>
-      <c r="C474" s="12"/>
-      <c r="D474" s="67"/>
-      <c r="E474" s="67"/>
-      <c r="F474" s="67"/>
-      <c r="G474" s="67"/>
-      <c r="H474" s="13"/>
+      <c r="B474" s="28"/>
+      <c r="C474" s="13"/>
+      <c r="D474" s="68"/>
+      <c r="E474" s="68"/>
+      <c r="F474" s="68"/>
+      <c r="G474" s="68"/>
+      <c r="H474" s="14"/>
     </row>
     <row r="475" spans="1:8">
-      <c r="A475" s="27"/>
-      <c r="B475" s="27"/>
-      <c r="C475" s="22"/>
+      <c r="A475" s="28"/>
+      <c r="B475" s="28"/>
+      <c r="C475" s="23"/>
       <c r="D475" s="69"/>
       <c r="E475" s="69"/>
       <c r="F475" s="69"/>
       <c r="G475" s="69"/>
-      <c r="H475" s="23"/>
+      <c r="H475" s="24"/>
     </row>
     <row r="476" ht="15.7" spans="1:8">
-      <c r="A476" s="29" t="s">
+      <c r="A476" s="30" t="s">
         <v>361</v>
       </c>
-      <c r="B476" s="29"/>
+      <c r="B476" s="30"/>
       <c r="C476" s="103" t="s">
         <v>362</v>
       </c>
@@ -8319,10 +8355,10 @@
       <c r="H477" s="105"/>
     </row>
     <row r="478" ht="15.7" spans="1:8">
-      <c r="A478" s="29" t="s">
+      <c r="A478" s="30" t="s">
         <v>363</v>
       </c>
-      <c r="B478" s="29"/>
+      <c r="B478" s="30"/>
       <c r="C478" s="103" t="s">
         <v>364</v>
       </c>
@@ -8333,10 +8369,10 @@
       <c r="H478" s="103"/>
     </row>
     <row r="479" ht="15.7" spans="1:14">
-      <c r="A479" s="29" t="s">
+      <c r="A479" s="30" t="s">
         <v>365</v>
       </c>
-      <c r="B479" s="29"/>
+      <c r="B479" s="30"/>
       <c r="C479" s="103" t="s">
         <v>366</v>
       </c>
@@ -8345,20 +8381,20 @@
       <c r="F479" s="103"/>
       <c r="G479" s="103"/>
       <c r="H479" s="103"/>
-      <c r="I479" s="55" t="s">
+      <c r="I479" s="56" t="s">
         <v>367</v>
       </c>
-      <c r="J479" s="55"/>
-      <c r="K479" s="55"/>
-      <c r="L479" s="55"/>
-      <c r="M479" s="55"/>
-      <c r="N479" s="55"/>
+      <c r="J479" s="56"/>
+      <c r="K479" s="56"/>
+      <c r="L479" s="56"/>
+      <c r="M479" s="56"/>
+      <c r="N479" s="56"/>
     </row>
     <row r="480" ht="15.7" spans="1:8">
-      <c r="A480" s="29" t="s">
+      <c r="A480" s="30" t="s">
         <v>368</v>
       </c>
-      <c r="B480" s="29"/>
+      <c r="B480" s="30"/>
       <c r="C480" s="103" t="s">
         <v>369</v>
       </c>
@@ -8369,10 +8405,10 @@
       <c r="H480" s="103"/>
     </row>
     <row r="481" ht="15.7" spans="1:8">
-      <c r="A481" s="29" t="s">
+      <c r="A481" s="30" t="s">
         <v>370</v>
       </c>
-      <c r="B481" s="29"/>
+      <c r="B481" s="30"/>
       <c r="C481" s="103" t="s">
         <v>371</v>
       </c>
@@ -8383,145 +8419,206 @@
       <c r="H481" s="103"/>
     </row>
     <row r="482" ht="15.7" spans="1:8">
-      <c r="A482" s="29" t="s">
+      <c r="A482" s="30" t="s">
         <v>372</v>
       </c>
-      <c r="B482" s="29"/>
-      <c r="C482" s="105"/>
-      <c r="D482" s="105"/>
-      <c r="E482" s="105"/>
-      <c r="F482" s="105"/>
-      <c r="G482" s="105"/>
-      <c r="H482" s="105"/>
-    </row>
-    <row r="483" ht="15.7" spans="1:2">
-      <c r="A483" s="29" t="s">
+      <c r="B482" s="30"/>
+      <c r="C482" s="103" t="s">
         <v>373</v>
       </c>
-      <c r="B483" s="29"/>
-    </row>
-    <row r="484" ht="15.7" spans="1:2">
-      <c r="A484" s="29" t="s">
+      <c r="D482" s="103"/>
+      <c r="E482" s="103"/>
+      <c r="F482" s="103"/>
+      <c r="G482" s="103"/>
+      <c r="H482" s="103"/>
+    </row>
+    <row r="483" ht="15.7" spans="1:8">
+      <c r="A483" s="30" t="s">
         <v>374</v>
       </c>
-      <c r="B484" s="29"/>
-    </row>
-    <row r="485" ht="15.7" spans="1:2">
-      <c r="A485" s="29" t="s">
+      <c r="B483" s="30"/>
+      <c r="C483" s="103" t="s">
         <v>375</v>
       </c>
-      <c r="B485" s="29"/>
-    </row>
-    <row r="486" ht="15.7" spans="1:2">
-      <c r="A486" s="29" t="s">
+      <c r="D483" s="103"/>
+      <c r="E483" s="103"/>
+      <c r="F483" s="103"/>
+      <c r="G483" s="103"/>
+      <c r="H483" s="103"/>
+    </row>
+    <row r="484" ht="15.7" spans="1:8">
+      <c r="A484" s="106" t="s">
         <v>376</v>
       </c>
-      <c r="B486" s="29"/>
-    </row>
-    <row r="487" ht="15.7" spans="1:2">
-      <c r="A487" s="29" t="s">
+      <c r="B484" s="106"/>
+      <c r="C484" s="103" t="s">
         <v>377</v>
       </c>
-      <c r="B487" s="29"/>
-    </row>
-    <row r="488" ht="15.7" spans="1:2">
-      <c r="A488" s="29" t="s">
+      <c r="D484" s="103"/>
+      <c r="E484" s="103"/>
+      <c r="F484" s="103"/>
+      <c r="G484" s="103"/>
+      <c r="H484" s="103"/>
+    </row>
+    <row r="485" s="1" customFormat="1" ht="15.7" spans="1:1">
+      <c r="A485" s="18"/>
+    </row>
+    <row r="486" ht="15.7" spans="1:8">
+      <c r="A486" s="30" t="s">
         <v>378</v>
       </c>
-      <c r="B488" s="29"/>
-    </row>
-    <row r="489" ht="15.7" spans="1:2">
-      <c r="A489" s="29" t="s">
+      <c r="B486" s="30"/>
+      <c r="C486" s="103" t="s">
         <v>379</v>
       </c>
-      <c r="B489" s="29"/>
+      <c r="D486" s="103"/>
+      <c r="E486" s="103"/>
+      <c r="F486" s="103"/>
+      <c r="G486" s="103"/>
+      <c r="H486" s="103"/>
+    </row>
+    <row r="487" ht="15.7" spans="1:8">
+      <c r="A487" s="30" t="s">
+        <v>380</v>
+      </c>
+      <c r="B487" s="30"/>
+      <c r="C487" s="103" t="s">
+        <v>381</v>
+      </c>
+      <c r="D487" s="103"/>
+      <c r="E487" s="103"/>
+      <c r="F487" s="103"/>
+      <c r="G487" s="103"/>
+      <c r="H487" s="103"/>
+    </row>
+    <row r="488" ht="15.7" spans="1:14">
+      <c r="A488" s="30" t="s">
+        <v>382</v>
+      </c>
+      <c r="B488" s="30"/>
+      <c r="C488" s="107" t="s">
+        <v>383</v>
+      </c>
+      <c r="D488" s="103"/>
+      <c r="E488" s="103"/>
+      <c r="F488" s="103"/>
+      <c r="G488" s="103"/>
+      <c r="H488" s="103"/>
+      <c r="I488" s="56" t="s">
+        <v>384</v>
+      </c>
+      <c r="J488" s="56"/>
+      <c r="K488" s="56"/>
+      <c r="L488" s="56"/>
+      <c r="M488" s="56"/>
+      <c r="N488" s="56"/>
+    </row>
+    <row r="489" ht="15.7" spans="1:8">
+      <c r="A489" s="30" t="s">
+        <v>385</v>
+      </c>
+      <c r="B489" s="30"/>
+      <c r="C489" s="103" t="s">
+        <v>386</v>
+      </c>
+      <c r="D489" s="103"/>
+      <c r="E489" s="103"/>
+      <c r="F489" s="103"/>
+      <c r="G489" s="103"/>
+      <c r="H489" s="103"/>
     </row>
     <row r="490" ht="15.7" spans="1:2">
-      <c r="A490" s="29" t="s">
-        <v>380</v>
-      </c>
-      <c r="B490" s="29"/>
+      <c r="A490" s="30" t="s">
+        <v>387</v>
+      </c>
+      <c r="B490" s="30"/>
     </row>
     <row r="491" ht="15.7" spans="1:2">
-      <c r="A491" s="29" t="s">
-        <v>381</v>
-      </c>
-      <c r="B491" s="29"/>
+      <c r="A491" s="30" t="s">
+        <v>388</v>
+      </c>
+      <c r="B491" s="30"/>
     </row>
     <row r="492" ht="15.7" spans="1:2">
-      <c r="A492" s="29" t="s">
-        <v>382</v>
-      </c>
-      <c r="B492" s="29"/>
+      <c r="A492" s="30" t="s">
+        <v>389</v>
+      </c>
+      <c r="B492" s="30"/>
     </row>
     <row r="493" ht="15.7" spans="1:2">
-      <c r="A493" s="29" t="s">
-        <v>383</v>
-      </c>
-      <c r="B493" s="29"/>
+      <c r="A493" s="30" t="s">
+        <v>390</v>
+      </c>
+      <c r="B493" s="30"/>
     </row>
     <row r="494" ht="15.7" spans="1:2">
-      <c r="A494" s="29" t="s">
-        <v>384</v>
-      </c>
-      <c r="B494" s="29"/>
+      <c r="A494" s="30" t="s">
+        <v>391</v>
+      </c>
+      <c r="B494" s="30"/>
     </row>
     <row r="495" ht="15.7" spans="1:2">
-      <c r="A495" s="29" t="s">
-        <v>385</v>
-      </c>
-      <c r="B495" s="29"/>
+      <c r="A495" s="30" t="s">
+        <v>392</v>
+      </c>
+      <c r="B495" s="30"/>
     </row>
     <row r="496" ht="15.7" spans="1:2">
-      <c r="A496" s="29" t="s">
-        <v>386</v>
-      </c>
-      <c r="B496" s="29"/>
+      <c r="A496" s="30" t="s">
+        <v>393</v>
+      </c>
+      <c r="B496" s="30"/>
     </row>
     <row r="497" ht="15.7" spans="1:2">
-      <c r="A497" s="29" t="s">
-        <v>387</v>
-      </c>
-      <c r="B497" s="29"/>
+      <c r="A497" s="30" t="s">
+        <v>394</v>
+      </c>
+      <c r="B497" s="30"/>
     </row>
     <row r="498" ht="15.7" spans="1:2">
-      <c r="A498" s="29" t="s">
-        <v>388</v>
-      </c>
-      <c r="B498" s="29"/>
+      <c r="A498" s="30" t="s">
+        <v>395</v>
+      </c>
+      <c r="B498" s="30"/>
     </row>
     <row r="499" ht="15.7" spans="1:2">
-      <c r="A499" s="29" t="s">
-        <v>389</v>
-      </c>
-      <c r="B499" s="29"/>
+      <c r="A499" s="30" t="s">
+        <v>396</v>
+      </c>
+      <c r="B499" s="30"/>
     </row>
     <row r="500" ht="15.7" spans="1:2">
-      <c r="A500" s="29" t="s">
-        <v>390</v>
-      </c>
-      <c r="B500" s="29"/>
+      <c r="A500" s="30" t="s">
+        <v>397</v>
+      </c>
+      <c r="B500" s="30"/>
     </row>
     <row r="501" ht="15.7" spans="1:2">
-      <c r="A501" s="29" t="s">
-        <v>391</v>
-      </c>
-      <c r="B501" s="29"/>
+      <c r="A501" s="30" t="s">
+        <v>398</v>
+      </c>
+      <c r="B501" s="30"/>
     </row>
     <row r="502" ht="15.7" spans="1:2">
-      <c r="A502" s="29" t="s">
-        <v>392</v>
-      </c>
-      <c r="B502" s="29"/>
+      <c r="A502" s="30" t="s">
+        <v>399</v>
+      </c>
+      <c r="B502" s="30"/>
     </row>
     <row r="503" ht="15.7" spans="1:2">
-      <c r="A503" s="29" t="s">
-        <v>393</v>
-      </c>
-      <c r="B503" s="29"/>
+      <c r="A503" s="30" t="s">
+        <v>400</v>
+      </c>
+      <c r="B503" s="30"/>
+    </row>
+    <row r="504" ht="15.7" spans="1:2">
+      <c r="A504" s="30" t="s">
+        <v>401</v>
+      </c>
+      <c r="B504" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="593">
+  <mergeCells count="601">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="C3:H3"/>
@@ -8947,12 +9044,19 @@
     <mergeCell ref="A482:B482"/>
     <mergeCell ref="C482:H482"/>
     <mergeCell ref="A483:B483"/>
+    <mergeCell ref="C483:H483"/>
     <mergeCell ref="A484:B484"/>
-    <mergeCell ref="A485:B485"/>
+    <mergeCell ref="C484:H484"/>
+    <mergeCell ref="A485:XFD485"/>
     <mergeCell ref="A486:B486"/>
+    <mergeCell ref="C486:H486"/>
     <mergeCell ref="A487:B487"/>
+    <mergeCell ref="C487:H487"/>
     <mergeCell ref="A488:B488"/>
+    <mergeCell ref="C488:H488"/>
+    <mergeCell ref="I488:N488"/>
     <mergeCell ref="A489:B489"/>
+    <mergeCell ref="C489:H489"/>
     <mergeCell ref="A490:B490"/>
     <mergeCell ref="A491:B491"/>
     <mergeCell ref="A492:B492"/>
@@ -8967,6 +9071,7 @@
     <mergeCell ref="A501:B501"/>
     <mergeCell ref="A502:B502"/>
     <mergeCell ref="A503:B503"/>
+    <mergeCell ref="A504:B504"/>
     <mergeCell ref="I62:I65"/>
     <mergeCell ref="I67:I70"/>
     <mergeCell ref="I72:I75"/>

--- a/day day up.xlsx
+++ b/day day up.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409">
   <si>
     <t>// 公历日期只做参考，按照自己的循环走</t>
   </si>
@@ -1200,16 +1200,37 @@
     <t>15号</t>
   </si>
   <si>
+    <t>写了连着两周的混，我他妈真的。。。</t>
+  </si>
+  <si>
     <t>16号</t>
   </si>
   <si>
+    <t>万历十五年29E；椭圆机45分钟；</t>
+  </si>
+  <si>
+    <t>今年，第一次哭吧，没和爸妈吵架，说出眼馋别人的那一刻，自己忍不住了</t>
+  </si>
+  <si>
     <t>17号</t>
   </si>
   <si>
+    <t>归零</t>
+  </si>
+  <si>
+    <t>人真有趣，明明自己的处境没有丝毫变化，内心却走过了数个春香秋冬</t>
+  </si>
+  <si>
     <t>18号</t>
   </si>
   <si>
+    <t>万历十五年39S；椭圆机45分钟；</t>
+  </si>
+  <si>
     <t>19号</t>
+  </si>
+  <si>
+    <t>今天想不明白，以后也不会想的明白</t>
   </si>
   <si>
     <t>20号</t>
@@ -1247,11 +1268,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="000000"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -1358,11 +1379,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1370,6 +1390,14 @@
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1381,7 +1409,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1402,16 +1446,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1441,7 +1493,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1455,16 +1507,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1473,30 +1518,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1522,7 +1543,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1534,73 +1705,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1612,97 +1723,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1861,6 +1882,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1890,32 +1937,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1966,10 +1987,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1978,137 +1999,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2432,6 +2453,9 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2781,10 +2805,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD504"/>
+  <dimension ref="A1:XFD505"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A472" workbookViewId="0">
-      <selection activeCell="C476" sqref="C476:H476"/>
+    <sheetView tabSelected="1" topLeftCell="A466" workbookViewId="0">
+      <selection activeCell="C486" sqref="C486:H486"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -8527,98 +8551,163 @@
       <c r="G489" s="103"/>
       <c r="H489" s="103"/>
     </row>
-    <row r="490" ht="15.7" spans="1:2">
+    <row r="490" ht="15.7" spans="1:8">
       <c r="A490" s="30" t="s">
         <v>387</v>
       </c>
       <c r="B490" s="30"/>
-    </row>
-    <row r="491" ht="15.7" spans="1:2">
+      <c r="C490" s="103" t="s">
+        <v>388</v>
+      </c>
+      <c r="D490" s="103"/>
+      <c r="E490" s="103"/>
+      <c r="F490" s="103"/>
+      <c r="G490" s="103"/>
+      <c r="H490" s="103"/>
+    </row>
+    <row r="491" ht="15.7" spans="1:14">
       <c r="A491" s="30" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B491" s="30"/>
-    </row>
-    <row r="492" ht="15.7" spans="1:2">
+      <c r="C491" s="103" t="s">
+        <v>390</v>
+      </c>
+      <c r="D491" s="103"/>
+      <c r="E491" s="103"/>
+      <c r="F491" s="103"/>
+      <c r="G491" s="103"/>
+      <c r="H491" s="103"/>
+      <c r="I491" s="56" t="s">
+        <v>391</v>
+      </c>
+      <c r="J491" s="56"/>
+      <c r="K491" s="56"/>
+      <c r="L491" s="56"/>
+      <c r="M491" s="56"/>
+      <c r="N491" s="56"/>
+    </row>
+    <row r="492" ht="15.7" spans="1:14">
       <c r="A492" s="30" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B492" s="30"/>
-    </row>
-    <row r="493" ht="15.7" spans="1:2">
-      <c r="A493" s="30" t="s">
-        <v>390</v>
-      </c>
-      <c r="B493" s="30"/>
-    </row>
-    <row r="494" ht="15.7" spans="1:2">
+      <c r="C492" s="103" t="s">
+        <v>393</v>
+      </c>
+      <c r="D492" s="103"/>
+      <c r="E492" s="103"/>
+      <c r="F492" s="103"/>
+      <c r="G492" s="103"/>
+      <c r="H492" s="103"/>
+      <c r="I492" s="56" t="s">
+        <v>394</v>
+      </c>
+      <c r="J492" s="56"/>
+      <c r="K492" s="56"/>
+      <c r="L492" s="56"/>
+      <c r="M492" s="56"/>
+      <c r="N492" s="56"/>
+    </row>
+    <row r="493" s="1" customFormat="1" ht="15.7" spans="1:1">
+      <c r="A493" s="18"/>
+    </row>
+    <row r="494" ht="15.7" spans="1:8">
       <c r="A494" s="30" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B494" s="30"/>
-    </row>
-    <row r="495" ht="15.7" spans="1:2">
+      <c r="C494" s="103" t="s">
+        <v>396</v>
+      </c>
+      <c r="D494" s="103"/>
+      <c r="E494" s="103"/>
+      <c r="F494" s="103"/>
+      <c r="G494" s="103"/>
+      <c r="H494" s="103"/>
+    </row>
+    <row r="495" ht="15.7" spans="1:14">
       <c r="A495" s="30" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="B495" s="30"/>
+      <c r="C495" s="103"/>
+      <c r="D495" s="103"/>
+      <c r="E495" s="103"/>
+      <c r="F495" s="103"/>
+      <c r="G495" s="103"/>
+      <c r="H495" s="103"/>
+      <c r="I495" s="108" t="s">
+        <v>398</v>
+      </c>
+      <c r="J495" s="108"/>
+      <c r="K495" s="108"/>
+      <c r="L495" s="108"/>
+      <c r="M495" s="108"/>
+      <c r="N495" s="108"/>
     </row>
     <row r="496" ht="15.7" spans="1:2">
       <c r="A496" s="30" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="B496" s="30"/>
     </row>
     <row r="497" ht="15.7" spans="1:2">
       <c r="A497" s="30" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="B497" s="30"/>
     </row>
     <row r="498" ht="15.7" spans="1:2">
       <c r="A498" s="30" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="B498" s="30"/>
     </row>
     <row r="499" ht="15.7" spans="1:2">
       <c r="A499" s="30" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="B499" s="30"/>
     </row>
     <row r="500" ht="15.7" spans="1:2">
       <c r="A500" s="30" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="B500" s="30"/>
     </row>
     <row r="501" ht="15.7" spans="1:2">
       <c r="A501" s="30" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="B501" s="30"/>
     </row>
     <row r="502" ht="15.7" spans="1:2">
       <c r="A502" s="30" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="B502" s="30"/>
     </row>
     <row r="503" ht="15.7" spans="1:2">
       <c r="A503" s="30" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="B503" s="30"/>
     </row>
     <row r="504" ht="15.7" spans="1:2">
       <c r="A504" s="30" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B504" s="30"/>
     </row>
+    <row r="505" ht="15.7" spans="1:2">
+      <c r="A505" s="30" t="s">
+        <v>408</v>
+      </c>
+      <c r="B505" s="30"/>
+    </row>
   </sheetData>
-  <mergeCells count="601">
+  <mergeCells count="610">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="C3:H3"/>
@@ -9058,11 +9147,19 @@
     <mergeCell ref="A489:B489"/>
     <mergeCell ref="C489:H489"/>
     <mergeCell ref="A490:B490"/>
+    <mergeCell ref="C490:H490"/>
     <mergeCell ref="A491:B491"/>
+    <mergeCell ref="C491:H491"/>
+    <mergeCell ref="I491:N491"/>
     <mergeCell ref="A492:B492"/>
-    <mergeCell ref="A493:B493"/>
+    <mergeCell ref="C492:H492"/>
+    <mergeCell ref="I492:N492"/>
+    <mergeCell ref="A493:XFD493"/>
     <mergeCell ref="A494:B494"/>
+    <mergeCell ref="C494:H494"/>
     <mergeCell ref="A495:B495"/>
+    <mergeCell ref="C495:H495"/>
+    <mergeCell ref="I495:N495"/>
     <mergeCell ref="A496:B496"/>
     <mergeCell ref="A497:B497"/>
     <mergeCell ref="A498:B498"/>
@@ -9072,6 +9169,7 @@
     <mergeCell ref="A502:B502"/>
     <mergeCell ref="A503:B503"/>
     <mergeCell ref="A504:B504"/>
+    <mergeCell ref="A505:B505"/>
     <mergeCell ref="I62:I65"/>
     <mergeCell ref="I67:I70"/>
     <mergeCell ref="I72:I75"/>

--- a/day day up.xlsx
+++ b/day day up.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445">
   <si>
     <t>// 公历日期只做参考，按照自己的循环走</t>
   </si>
@@ -1113,144 +1113,162 @@
     <t>练琴1h</t>
   </si>
   <si>
+    <t>5月断档</t>
+  </si>
+  <si>
+    <t>六月</t>
+  </si>
+  <si>
+    <t>3号-周日</t>
+  </si>
+  <si>
+    <t>上午，混日子；下午，练琴（混）；晚上，万历十五年5S（混）</t>
+  </si>
+  <si>
+    <t>4号-周一</t>
+  </si>
+  <si>
+    <t>上午，可以；下午，最后1小时有点混；晚上，唉，也就那样吧</t>
+  </si>
+  <si>
+    <t>5号</t>
+  </si>
+  <si>
+    <t>上午&amp;下午，算不上混，可也不知道在干嘛；晚上，妥妥的混</t>
+  </si>
+  <si>
+    <t>差点忘掉记这个东西</t>
+  </si>
+  <si>
+    <t>6号</t>
+  </si>
+  <si>
+    <t>妥妥的混</t>
+  </si>
+  <si>
+    <t>7号</t>
+  </si>
+  <si>
+    <t>上午，混；我呵呵哟</t>
+  </si>
+  <si>
+    <t>8号</t>
+  </si>
+  <si>
+    <t>丧得厉害</t>
+  </si>
+  <si>
+    <t>9号</t>
+  </si>
+  <si>
+    <t>万历十五年13S；星星鹿一页；丧！</t>
+  </si>
+  <si>
+    <t>10号</t>
+  </si>
+  <si>
+    <t>万历十五年20E；混加丧！</t>
+  </si>
+  <si>
+    <t>11号</t>
+  </si>
+  <si>
+    <t>上班混一天了</t>
+  </si>
+  <si>
+    <t>12号</t>
+  </si>
+  <si>
+    <t>我已经烦到不想记这个了</t>
+  </si>
+  <si>
+    <t>13号</t>
+  </si>
+  <si>
+    <t>缺</t>
+  </si>
+  <si>
+    <t>已经忘掉记这个了</t>
+  </si>
+  <si>
+    <t>14号</t>
+  </si>
+  <si>
+    <t>准备好下午混混了</t>
+  </si>
+  <si>
+    <t>15号</t>
+  </si>
+  <si>
+    <t>写了连着两周的混，我他妈真的。。。</t>
+  </si>
+  <si>
+    <t>16号</t>
+  </si>
+  <si>
+    <t>万历十五年29E；椭圆机45分钟；</t>
+  </si>
+  <si>
+    <t>今年，第一次哭吧，没和爸妈吵架，说出眼馋别人的那一刻，自己忍不住了</t>
+  </si>
+  <si>
+    <t>17号</t>
+  </si>
+  <si>
+    <t>归零</t>
+  </si>
+  <si>
+    <t>人真有趣，明明自己的处境没有丝毫变化，内心却走过了数个春香秋冬</t>
+  </si>
+  <si>
+    <t>18号</t>
+  </si>
+  <si>
+    <t>万历十五年39S；椭圆机45分钟；</t>
+  </si>
+  <si>
+    <t>19号</t>
+  </si>
+  <si>
+    <t>今天想不明白，以后也不会想的明白</t>
+  </si>
+  <si>
+    <t>20号</t>
+  </si>
+  <si>
+    <t>今天为何莫名其妙的开心，明明一个问题都没想明白</t>
+  </si>
+  <si>
+    <t>21号</t>
+  </si>
+  <si>
+    <t>这一天竟然连书都没看</t>
+  </si>
+  <si>
+    <t>22号</t>
+  </si>
+  <si>
+    <t>星星鹿</t>
+  </si>
+  <si>
+    <t>我他妈就是方鸿渐哦</t>
+  </si>
+  <si>
+    <t>23号</t>
+  </si>
+  <si>
+    <t>万历十五年50E；</t>
+  </si>
+  <si>
+    <t>24号</t>
+  </si>
+  <si>
+    <t>25号</t>
+  </si>
+  <si>
     <t>断档</t>
   </si>
   <si>
-    <t>六月</t>
-  </si>
-  <si>
-    <t>3号-周日</t>
-  </si>
-  <si>
-    <t>上午，混日子；下午，练琴（混）；晚上，万历十五年5S（混）</t>
-  </si>
-  <si>
-    <t>4号-周一</t>
-  </si>
-  <si>
-    <t>上午，可以；下午，最后1小时有点混；晚上，唉，也就那样吧</t>
-  </si>
-  <si>
-    <t>5号</t>
-  </si>
-  <si>
-    <t>上午&amp;下午，算不上混，可也不知道在干嘛；晚上，妥妥的混</t>
-  </si>
-  <si>
-    <t>差点忘掉记这个东西</t>
-  </si>
-  <si>
-    <t>6号</t>
-  </si>
-  <si>
-    <t>妥妥的混</t>
-  </si>
-  <si>
-    <t>7号</t>
-  </si>
-  <si>
-    <t>上午，混；我呵呵哟</t>
-  </si>
-  <si>
-    <t>8号</t>
-  </si>
-  <si>
-    <t>丧得厉害</t>
-  </si>
-  <si>
-    <t>9号</t>
-  </si>
-  <si>
-    <t>万历十五年13S；星星鹿一页；丧！</t>
-  </si>
-  <si>
-    <t>10号</t>
-  </si>
-  <si>
-    <t>万历十五年20E；混加丧！</t>
-  </si>
-  <si>
-    <t>11号</t>
-  </si>
-  <si>
-    <t>上班混一天了</t>
-  </si>
-  <si>
-    <t>12号</t>
-  </si>
-  <si>
-    <t>我已经烦到不想记这个了</t>
-  </si>
-  <si>
-    <t>13号</t>
-  </si>
-  <si>
-    <t>缺</t>
-  </si>
-  <si>
-    <t>已经忘掉记这个了</t>
-  </si>
-  <si>
-    <t>14号</t>
-  </si>
-  <si>
-    <t>准备好下午混混了</t>
-  </si>
-  <si>
-    <t>15号</t>
-  </si>
-  <si>
-    <t>写了连着两周的混，我他妈真的。。。</t>
-  </si>
-  <si>
-    <t>16号</t>
-  </si>
-  <si>
-    <t>万历十五年29E；椭圆机45分钟；</t>
-  </si>
-  <si>
-    <t>今年，第一次哭吧，没和爸妈吵架，说出眼馋别人的那一刻，自己忍不住了</t>
-  </si>
-  <si>
-    <t>17号</t>
-  </si>
-  <si>
-    <t>归零</t>
-  </si>
-  <si>
-    <t>人真有趣，明明自己的处境没有丝毫变化，内心却走过了数个春香秋冬</t>
-  </si>
-  <si>
-    <t>18号</t>
-  </si>
-  <si>
-    <t>万历十五年39S；椭圆机45分钟；</t>
-  </si>
-  <si>
-    <t>19号</t>
-  </si>
-  <si>
-    <t>今天想不明白，以后也不会想的明白</t>
-  </si>
-  <si>
-    <t>20号</t>
-  </si>
-  <si>
-    <t>21号</t>
-  </si>
-  <si>
-    <t>22号</t>
-  </si>
-  <si>
-    <t>23号</t>
-  </si>
-  <si>
-    <t>24号</t>
-  </si>
-  <si>
-    <t>25号</t>
-  </si>
-  <si>
     <t>26号</t>
   </si>
   <si>
@@ -1261,6 +1279,96 @@
   </si>
   <si>
     <t>29号</t>
+  </si>
+  <si>
+    <t>30号</t>
+  </si>
+  <si>
+    <t>七月</t>
+  </si>
+  <si>
+    <t>1号-周日</t>
+  </si>
+  <si>
+    <t>万历十五年59S；thinking in java 21.2.4;</t>
+  </si>
+  <si>
+    <t>并不是写了东西就能证明今天很有意义了</t>
+  </si>
+  <si>
+    <t>2号-周一</t>
+  </si>
+  <si>
+    <t>白天工作也就那样吧；康复15组；thinking in java 21.2.8;</t>
+  </si>
+  <si>
+    <t>&lt;-- 说不开心是不可能的</t>
+  </si>
+  <si>
+    <t>3号-周二</t>
+  </si>
+  <si>
+    <t>thinking in java 21.2.9</t>
+  </si>
+  <si>
+    <t>4号-</t>
+  </si>
+  <si>
+    <t>我父母很懂事，我24岁的时候，就知道问我要钱了</t>
+  </si>
+  <si>
+    <t>5号-</t>
+  </si>
+  <si>
+    <t>6号-</t>
+  </si>
+  <si>
+    <t>7号-</t>
+  </si>
+  <si>
+    <t>8号-</t>
+  </si>
+  <si>
+    <t>9号-</t>
+  </si>
+  <si>
+    <t>10号-</t>
+  </si>
+  <si>
+    <t>11号-周三</t>
+  </si>
+  <si>
+    <t>吉他1h</t>
+  </si>
+  <si>
+    <t>残喘前行</t>
+  </si>
+  <si>
+    <t>12号-周四</t>
+  </si>
+  <si>
+    <t>平板支撑3组；万历15年62E；</t>
+  </si>
+  <si>
+    <t>挣扎前行</t>
+  </si>
+  <si>
+    <t>13号-周一</t>
+  </si>
+  <si>
+    <t>下午的时间又被浪费掉了；吉他1.5h</t>
+  </si>
+  <si>
+    <t>匍匐前行</t>
+  </si>
+  <si>
+    <t>14号-周一</t>
+  </si>
+  <si>
+    <t>15号-周一</t>
+  </si>
+  <si>
+    <t>16号-周一</t>
   </si>
 </sst>
 </file>
@@ -1268,13 +1376,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="000000"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1379,6 +1487,27 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="26"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1395,6 +1524,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1402,22 +1539,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1432,14 +1554,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1454,16 +1584,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1492,21 +1621,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1515,9 +1629,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1549,7 +1663,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1561,13 +1735,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1585,7 +1807,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1597,138 +1831,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1883,17 +1997,15 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1908,11 +2020,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1942,6 +2060,39 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1955,30 +2106,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1987,10 +2114,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1999,137 +2126,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2453,6 +2580,21 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2805,10 +2947,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD505"/>
+  <dimension ref="A1:XFD528"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A466" workbookViewId="0">
-      <selection activeCell="C486" sqref="C486:H486"/>
+    <sheetView tabSelected="1" topLeftCell="A506" workbookViewId="0">
+      <selection activeCell="I525" sqref="I525:N525"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -8637,77 +8779,436 @@
       <c r="F495" s="103"/>
       <c r="G495" s="103"/>
       <c r="H495" s="103"/>
-      <c r="I495" s="108" t="s">
+      <c r="I495" s="56" t="s">
         <v>398</v>
       </c>
-      <c r="J495" s="108"/>
-      <c r="K495" s="108"/>
-      <c r="L495" s="108"/>
-      <c r="M495" s="108"/>
-      <c r="N495" s="108"/>
-    </row>
-    <row r="496" ht="15.7" spans="1:2">
+      <c r="J495" s="56"/>
+      <c r="K495" s="56"/>
+      <c r="L495" s="56"/>
+      <c r="M495" s="56"/>
+      <c r="N495" s="56"/>
+    </row>
+    <row r="496" ht="15.7" spans="1:14">
       <c r="A496" s="30" t="s">
         <v>399</v>
       </c>
       <c r="B496" s="30"/>
-    </row>
-    <row r="497" ht="15.7" spans="1:2">
+      <c r="C496" s="103"/>
+      <c r="D496" s="103"/>
+      <c r="E496" s="103"/>
+      <c r="F496" s="103"/>
+      <c r="G496" s="103"/>
+      <c r="H496" s="103"/>
+      <c r="I496" s="56" t="s">
+        <v>400</v>
+      </c>
+      <c r="J496" s="56"/>
+      <c r="K496" s="56"/>
+      <c r="L496" s="56"/>
+      <c r="M496" s="56"/>
+      <c r="N496" s="56"/>
+    </row>
+    <row r="497" ht="15.7" spans="1:14">
       <c r="A497" s="30" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B497" s="30"/>
-    </row>
-    <row r="498" ht="15.7" spans="1:2">
+      <c r="C497" s="107" t="s">
+        <v>383</v>
+      </c>
+      <c r="D497" s="103"/>
+      <c r="E497" s="103"/>
+      <c r="F497" s="103"/>
+      <c r="G497" s="103"/>
+      <c r="H497" s="103"/>
+      <c r="I497" s="56" t="s">
+        <v>402</v>
+      </c>
+      <c r="J497" s="56"/>
+      <c r="K497" s="56"/>
+      <c r="L497" s="56"/>
+      <c r="M497" s="56"/>
+      <c r="N497" s="56"/>
+    </row>
+    <row r="498" ht="15.7" spans="1:14">
       <c r="A498" s="30" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B498" s="30"/>
-    </row>
-    <row r="499" ht="15.7" spans="1:2">
+      <c r="C498" s="103" t="s">
+        <v>404</v>
+      </c>
+      <c r="D498" s="103"/>
+      <c r="E498" s="103"/>
+      <c r="F498" s="103"/>
+      <c r="G498" s="103"/>
+      <c r="H498" s="103"/>
+      <c r="I498" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="J498" s="56"/>
+      <c r="K498" s="56"/>
+      <c r="L498" s="56"/>
+      <c r="M498" s="56"/>
+      <c r="N498" s="56"/>
+    </row>
+    <row r="499" ht="15.7" spans="1:8">
       <c r="A499" s="30" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B499" s="30"/>
+      <c r="C499" s="103" t="s">
+        <v>407</v>
+      </c>
+      <c r="D499" s="103"/>
+      <c r="E499" s="103"/>
+      <c r="F499" s="103"/>
+      <c r="G499" s="103"/>
+      <c r="H499" s="103"/>
     </row>
     <row r="500" ht="15.7" spans="1:2">
-      <c r="A500" s="30" t="s">
-        <v>403</v>
-      </c>
-      <c r="B500" s="30"/>
-    </row>
-    <row r="501" ht="15.7" spans="1:2">
-      <c r="A501" s="30" t="s">
-        <v>404</v>
-      </c>
-      <c r="B501" s="30"/>
-    </row>
-    <row r="502" ht="15.7" spans="1:2">
-      <c r="A502" s="30" t="s">
-        <v>405</v>
-      </c>
-      <c r="B502" s="30"/>
-    </row>
-    <row r="503" ht="15.7" spans="1:2">
+      <c r="A500" s="108" t="s">
+        <v>408</v>
+      </c>
+      <c r="B500" s="108"/>
+    </row>
+    <row r="501" s="1" customFormat="1" ht="15.7" spans="1:1">
+      <c r="A501" s="18"/>
+    </row>
+    <row r="502" ht="15.7" spans="1:8">
+      <c r="A502" s="106" t="s">
+        <v>409</v>
+      </c>
+      <c r="B502" s="106"/>
+      <c r="C502" s="109" t="s">
+        <v>410</v>
+      </c>
+      <c r="D502" s="56"/>
+      <c r="E502" s="56"/>
+      <c r="F502" s="56"/>
+      <c r="G502" s="56"/>
+      <c r="H502" s="56"/>
+    </row>
+    <row r="503" ht="15.7" spans="1:8">
       <c r="A503" s="30" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="B503" s="30"/>
-    </row>
-    <row r="504" ht="15.7" spans="1:2">
+      <c r="C503" s="56"/>
+      <c r="D503" s="56"/>
+      <c r="E503" s="56"/>
+      <c r="F503" s="56"/>
+      <c r="G503" s="56"/>
+      <c r="H503" s="56"/>
+    </row>
+    <row r="504" ht="15.7" spans="1:8">
       <c r="A504" s="30" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="B504" s="30"/>
-    </row>
-    <row r="505" ht="15.7" spans="1:2">
+      <c r="C504" s="56"/>
+      <c r="D504" s="56"/>
+      <c r="E504" s="56"/>
+      <c r="F504" s="56"/>
+      <c r="G504" s="56"/>
+      <c r="H504" s="56"/>
+    </row>
+    <row r="505" ht="15.7" spans="1:8">
       <c r="A505" s="30" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="B505" s="30"/>
+      <c r="C505" s="56"/>
+      <c r="D505" s="56"/>
+      <c r="E505" s="56"/>
+      <c r="F505" s="56"/>
+      <c r="G505" s="56"/>
+      <c r="H505" s="56"/>
+    </row>
+    <row r="506" ht="15.7" spans="1:8">
+      <c r="A506" s="30" t="s">
+        <v>414</v>
+      </c>
+      <c r="B506" s="30"/>
+      <c r="C506" s="56"/>
+      <c r="D506" s="56"/>
+      <c r="E506" s="56"/>
+      <c r="F506" s="56"/>
+      <c r="G506" s="56"/>
+      <c r="H506" s="56"/>
+    </row>
+    <row r="507" ht="15.7" spans="1:8">
+      <c r="A507" s="30" t="s">
+        <v>415</v>
+      </c>
+      <c r="B507" s="30"/>
+      <c r="C507" s="56"/>
+      <c r="D507" s="56"/>
+      <c r="E507" s="56"/>
+      <c r="F507" s="56"/>
+      <c r="G507" s="56"/>
+      <c r="H507" s="56"/>
+    </row>
+    <row r="511" spans="1:8">
+      <c r="A511" s="28" t="s">
+        <v>416</v>
+      </c>
+      <c r="B511" s="28"/>
+      <c r="C511" s="13"/>
+      <c r="D511" s="68"/>
+      <c r="E511" s="68"/>
+      <c r="F511" s="68"/>
+      <c r="G511" s="68"/>
+      <c r="H511" s="14"/>
+    </row>
+    <row r="512" spans="1:8">
+      <c r="A512" s="28"/>
+      <c r="B512" s="28"/>
+      <c r="C512" s="23"/>
+      <c r="D512" s="69"/>
+      <c r="E512" s="69"/>
+      <c r="F512" s="69"/>
+      <c r="G512" s="69"/>
+      <c r="H512" s="24"/>
+    </row>
+    <row r="513" ht="15.7" spans="1:14">
+      <c r="A513" s="30" t="s">
+        <v>417</v>
+      </c>
+      <c r="B513" s="30"/>
+      <c r="C513" s="103" t="s">
+        <v>418</v>
+      </c>
+      <c r="D513" s="103"/>
+      <c r="E513" s="103"/>
+      <c r="F513" s="103"/>
+      <c r="G513" s="103"/>
+      <c r="H513" s="103"/>
+      <c r="I513" s="56" t="s">
+        <v>419</v>
+      </c>
+      <c r="J513" s="56"/>
+      <c r="K513" s="56"/>
+      <c r="L513" s="56"/>
+      <c r="M513" s="56"/>
+      <c r="N513" s="56"/>
+    </row>
+    <row r="514" ht="15.7" spans="1:14">
+      <c r="A514" s="30" t="s">
+        <v>420</v>
+      </c>
+      <c r="B514" s="30"/>
+      <c r="C514" s="103" t="s">
+        <v>421</v>
+      </c>
+      <c r="D514" s="103"/>
+      <c r="E514" s="103"/>
+      <c r="F514" s="103"/>
+      <c r="G514" s="103"/>
+      <c r="H514" s="103"/>
+      <c r="I514" s="56" t="s">
+        <v>422</v>
+      </c>
+      <c r="J514" s="56"/>
+      <c r="K514" s="56"/>
+      <c r="L514" s="56"/>
+      <c r="M514" s="56"/>
+      <c r="N514" s="56"/>
+    </row>
+    <row r="515" ht="15.7" spans="1:8">
+      <c r="A515" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="B515" s="30"/>
+      <c r="C515" s="103" t="s">
+        <v>424</v>
+      </c>
+      <c r="D515" s="103"/>
+      <c r="E515" s="103"/>
+      <c r="F515" s="103"/>
+      <c r="G515" s="103"/>
+      <c r="H515" s="103"/>
+    </row>
+    <row r="516" ht="15.7" spans="1:14">
+      <c r="A516" s="30" t="s">
+        <v>425</v>
+      </c>
+      <c r="B516" s="87"/>
+      <c r="C516" s="110" t="s">
+        <v>410</v>
+      </c>
+      <c r="D516" s="111"/>
+      <c r="E516" s="111"/>
+      <c r="F516" s="111"/>
+      <c r="G516" s="111"/>
+      <c r="H516" s="111"/>
+      <c r="I516" s="56" t="s">
+        <v>426</v>
+      </c>
+      <c r="J516" s="56"/>
+      <c r="K516" s="56"/>
+      <c r="L516" s="56"/>
+      <c r="M516" s="56"/>
+      <c r="N516" s="56"/>
+    </row>
+    <row r="517" ht="15.7" spans="1:8">
+      <c r="A517" s="30" t="s">
+        <v>427</v>
+      </c>
+      <c r="B517" s="87"/>
+      <c r="C517" s="112"/>
+      <c r="D517" s="112"/>
+      <c r="E517" s="112"/>
+      <c r="F517" s="112"/>
+      <c r="G517" s="112"/>
+      <c r="H517" s="112"/>
+    </row>
+    <row r="518" ht="15.7" spans="1:8">
+      <c r="A518" s="30" t="s">
+        <v>428</v>
+      </c>
+      <c r="B518" s="87"/>
+      <c r="C518" s="112"/>
+      <c r="D518" s="112"/>
+      <c r="E518" s="112"/>
+      <c r="F518" s="112"/>
+      <c r="G518" s="112"/>
+      <c r="H518" s="112"/>
+    </row>
+    <row r="519" ht="15.7" spans="1:8">
+      <c r="A519" s="30" t="s">
+        <v>429</v>
+      </c>
+      <c r="B519" s="87"/>
+      <c r="C519" s="112"/>
+      <c r="D519" s="112"/>
+      <c r="E519" s="112"/>
+      <c r="F519" s="112"/>
+      <c r="G519" s="112"/>
+      <c r="H519" s="112"/>
+    </row>
+    <row r="520" ht="15.7" spans="1:8">
+      <c r="A520" s="30" t="s">
+        <v>430</v>
+      </c>
+      <c r="B520" s="87"/>
+      <c r="C520" s="112"/>
+      <c r="D520" s="112"/>
+      <c r="E520" s="112"/>
+      <c r="F520" s="112"/>
+      <c r="G520" s="112"/>
+      <c r="H520" s="112"/>
+    </row>
+    <row r="521" ht="15.7" spans="1:8">
+      <c r="A521" s="30" t="s">
+        <v>431</v>
+      </c>
+      <c r="B521" s="87"/>
+      <c r="C521" s="112"/>
+      <c r="D521" s="112"/>
+      <c r="E521" s="112"/>
+      <c r="F521" s="112"/>
+      <c r="G521" s="112"/>
+      <c r="H521" s="112"/>
+    </row>
+    <row r="522" ht="15.7" spans="1:8">
+      <c r="A522" s="30" t="s">
+        <v>432</v>
+      </c>
+      <c r="B522" s="87"/>
+      <c r="C522" s="112"/>
+      <c r="D522" s="112"/>
+      <c r="E522" s="112"/>
+      <c r="F522" s="112"/>
+      <c r="G522" s="112"/>
+      <c r="H522" s="112"/>
+    </row>
+    <row r="523" ht="15.7" spans="1:14">
+      <c r="A523" s="30" t="s">
+        <v>433</v>
+      </c>
+      <c r="B523" s="30"/>
+      <c r="C523" s="103" t="s">
+        <v>434</v>
+      </c>
+      <c r="D523" s="103"/>
+      <c r="E523" s="103"/>
+      <c r="F523" s="103"/>
+      <c r="G523" s="103"/>
+      <c r="H523" s="103"/>
+      <c r="I523" s="56" t="s">
+        <v>435</v>
+      </c>
+      <c r="J523" s="56"/>
+      <c r="K523" s="56"/>
+      <c r="L523" s="56"/>
+      <c r="M523" s="56"/>
+      <c r="N523" s="56"/>
+    </row>
+    <row r="524" ht="15.7" spans="1:14">
+      <c r="A524" s="30" t="s">
+        <v>436</v>
+      </c>
+      <c r="B524" s="30"/>
+      <c r="C524" s="103" t="s">
+        <v>437</v>
+      </c>
+      <c r="D524" s="103"/>
+      <c r="E524" s="103"/>
+      <c r="F524" s="103"/>
+      <c r="G524" s="103"/>
+      <c r="H524" s="103"/>
+      <c r="I524" s="56" t="s">
+        <v>438</v>
+      </c>
+      <c r="J524" s="56"/>
+      <c r="K524" s="56"/>
+      <c r="L524" s="56"/>
+      <c r="M524" s="56"/>
+      <c r="N524" s="56"/>
+    </row>
+    <row r="525" ht="15.7" spans="1:14">
+      <c r="A525" s="30" t="s">
+        <v>439</v>
+      </c>
+      <c r="B525" s="30"/>
+      <c r="C525" s="103" t="s">
+        <v>440</v>
+      </c>
+      <c r="D525" s="103"/>
+      <c r="E525" s="103"/>
+      <c r="F525" s="103"/>
+      <c r="G525" s="103"/>
+      <c r="H525" s="103"/>
+      <c r="I525" s="113" t="s">
+        <v>441</v>
+      </c>
+      <c r="J525" s="113"/>
+      <c r="K525" s="113"/>
+      <c r="L525" s="113"/>
+      <c r="M525" s="113"/>
+      <c r="N525" s="113"/>
+    </row>
+    <row r="526" ht="15.7" spans="1:2">
+      <c r="A526" s="30" t="s">
+        <v>442</v>
+      </c>
+      <c r="B526" s="30"/>
+    </row>
+    <row r="527" ht="15.7" spans="1:2">
+      <c r="A527" s="30" t="s">
+        <v>443</v>
+      </c>
+      <c r="B527" s="30"/>
+    </row>
+    <row r="528" ht="15.7" spans="1:2">
+      <c r="A528" s="30" t="s">
+        <v>444</v>
+      </c>
+      <c r="B528" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="610">
+  <mergeCells count="651">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="C3:H3"/>
@@ -9161,15 +9662,52 @@
     <mergeCell ref="C495:H495"/>
     <mergeCell ref="I495:N495"/>
     <mergeCell ref="A496:B496"/>
+    <mergeCell ref="C496:H496"/>
+    <mergeCell ref="I496:N496"/>
     <mergeCell ref="A497:B497"/>
+    <mergeCell ref="C497:H497"/>
+    <mergeCell ref="I497:N497"/>
     <mergeCell ref="A498:B498"/>
+    <mergeCell ref="C498:H498"/>
+    <mergeCell ref="I498:N498"/>
     <mergeCell ref="A499:B499"/>
+    <mergeCell ref="C499:H499"/>
     <mergeCell ref="A500:B500"/>
-    <mergeCell ref="A501:B501"/>
+    <mergeCell ref="A501:XFD501"/>
     <mergeCell ref="A502:B502"/>
     <mergeCell ref="A503:B503"/>
     <mergeCell ref="A504:B504"/>
     <mergeCell ref="A505:B505"/>
+    <mergeCell ref="A506:B506"/>
+    <mergeCell ref="A507:B507"/>
+    <mergeCell ref="A513:B513"/>
+    <mergeCell ref="C513:H513"/>
+    <mergeCell ref="I513:N513"/>
+    <mergeCell ref="A514:B514"/>
+    <mergeCell ref="C514:H514"/>
+    <mergeCell ref="I514:N514"/>
+    <mergeCell ref="A515:B515"/>
+    <mergeCell ref="C515:H515"/>
+    <mergeCell ref="A516:B516"/>
+    <mergeCell ref="I516:N516"/>
+    <mergeCell ref="A517:B517"/>
+    <mergeCell ref="A518:B518"/>
+    <mergeCell ref="A519:B519"/>
+    <mergeCell ref="A520:B520"/>
+    <mergeCell ref="A521:B521"/>
+    <mergeCell ref="A522:B522"/>
+    <mergeCell ref="A523:B523"/>
+    <mergeCell ref="C523:H523"/>
+    <mergeCell ref="I523:N523"/>
+    <mergeCell ref="A524:B524"/>
+    <mergeCell ref="C524:H524"/>
+    <mergeCell ref="I524:N524"/>
+    <mergeCell ref="A525:B525"/>
+    <mergeCell ref="C525:H525"/>
+    <mergeCell ref="I525:N525"/>
+    <mergeCell ref="A526:B526"/>
+    <mergeCell ref="A527:B527"/>
+    <mergeCell ref="A528:B528"/>
     <mergeCell ref="I62:I65"/>
     <mergeCell ref="I67:I70"/>
     <mergeCell ref="I72:I75"/>
@@ -9318,6 +9856,10 @@
     <mergeCell ref="A468:H472"/>
     <mergeCell ref="A474:B475"/>
     <mergeCell ref="C474:H475"/>
+    <mergeCell ref="C502:H507"/>
+    <mergeCell ref="A511:B512"/>
+    <mergeCell ref="C511:H512"/>
+    <mergeCell ref="C516:H522"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/day day up.xlsx
+++ b/day day up.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23136" windowHeight="10043"/>
+    <workbookView windowWidth="14049" windowHeight="6849" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476">
   <si>
     <t>// 公历日期只做参考，按照自己的循环走</t>
   </si>
@@ -1353,7 +1353,7 @@
     <t>挣扎前行</t>
   </si>
   <si>
-    <t>13号-周一</t>
+    <t>13号-周五</t>
   </si>
   <si>
     <t>下午的时间又被浪费掉了；吉他1.5h</t>
@@ -1362,13 +1362,106 @@
     <t>匍匐前行</t>
   </si>
   <si>
-    <t>14号-周一</t>
-  </si>
-  <si>
-    <t>15号-周一</t>
+    <t>14号-周六</t>
+  </si>
+  <si>
+    <t>声乐课</t>
+  </si>
+  <si>
+    <t>15号-周日</t>
+  </si>
+  <si>
+    <t>啧，在家加班；吉他3h</t>
   </si>
   <si>
     <t>16号-周一</t>
+  </si>
+  <si>
+    <t>椭圆机30min</t>
+  </si>
+  <si>
+    <t>17号-</t>
+  </si>
+  <si>
+    <t>18号-</t>
+  </si>
+  <si>
+    <t>19号-</t>
+  </si>
+  <si>
+    <t>20号-</t>
+  </si>
+  <si>
+    <t>21号-</t>
+  </si>
+  <si>
+    <t>吉他3h</t>
+  </si>
+  <si>
+    <t>极其失败的第一次演出</t>
+  </si>
+  <si>
+    <t>22号-周日</t>
+  </si>
+  <si>
+    <t>我在浪费时间</t>
+  </si>
+  <si>
+    <t>23号-周一</t>
+  </si>
+  <si>
+    <t>这班上的没意思；Insanity Max 30；康复10组</t>
+  </si>
+  <si>
+    <t>这日子过的没意思</t>
+  </si>
+  <si>
+    <t>24号-周二</t>
+  </si>
+  <si>
+    <t>这班上的没意思；健身房</t>
+  </si>
+  <si>
+    <t>差点脑子一热买课了</t>
+  </si>
+  <si>
+    <t>25号-周三</t>
+  </si>
+  <si>
+    <t>这班上的没意思；练琴30min</t>
+  </si>
+  <si>
+    <t>感觉学会了掼蛋</t>
+  </si>
+  <si>
+    <t>26号-周四</t>
+  </si>
+  <si>
+    <t>什么都没干，浪费时间的感觉尤其明显</t>
+  </si>
+  <si>
+    <t>27号-周五</t>
+  </si>
+  <si>
+    <t>有事干，但我不做；</t>
+  </si>
+  <si>
+    <t>只是用眼睛扫来扫去很没意思，脑子始终不动，这一身的精力需要发泄</t>
+  </si>
+  <si>
+    <t>28号-周六</t>
+  </si>
+  <si>
+    <t>；练腿；声乐课</t>
+  </si>
+  <si>
+    <t>唱歌唱得意犹未尽</t>
+  </si>
+  <si>
+    <t>银魂：82</t>
+  </si>
+  <si>
+    <t>我是歌手：S1，20130118</t>
   </si>
 </sst>
 </file>
@@ -1376,13 +1469,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="000000"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1493,8 +1586,37 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="22"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1507,14 +1629,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -1522,39 +1636,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1585,12 +1668,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1598,24 +1690,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1632,6 +1708,30 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1657,7 +1757,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1675,13 +1895,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1693,151 +1937,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2011,26 +2111,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2040,6 +2123,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2074,20 +2166,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2114,10 +2214,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2126,133 +2226,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2260,6 +2360,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2425,9 +2528,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2596,7 +2696,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2947,10 +3047,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD528"/>
+  <dimension ref="A1:XFD542"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A506" workbookViewId="0">
-      <selection activeCell="I525" sqref="I525:N525"/>
+    <sheetView topLeftCell="A520" workbookViewId="0">
+      <selection activeCell="I542" sqref="I542:N542"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -2959,1133 +3059,1133 @@
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" ht="43" customHeight="1" spans="1:8">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>2017</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" ht="25" customHeight="1" spans="1:8">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:8">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="7" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:8">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="7" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" ht="25" customHeight="1" spans="1:8">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="8" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:8">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
     </row>
     <row r="8" ht="25" customHeight="1" spans="1:8">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
     </row>
     <row r="9" ht="25" customHeight="1" spans="1:8">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
     </row>
     <row r="10" ht="25" customHeight="1" spans="1:8">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
     </row>
     <row r="11" ht="25" customHeight="1" spans="1:8">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
     </row>
     <row r="12" ht="25" customHeight="1" spans="1:8">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
     </row>
     <row r="14" ht="14.4" customHeight="1"/>
     <row r="15" ht="18" customHeight="1" spans="1:8">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12" t="s">
+      <c r="B15" s="12"/>
+      <c r="C15" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:8">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
     </row>
     <row r="17" ht="18" customHeight="1" spans="1:8">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" ht="18" customHeight="1" spans="1:8">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
     </row>
     <row r="19" ht="18" customHeight="1" spans="1:15">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="15" t="s">
+      <c r="B19" s="15"/>
+      <c r="C19" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="17"/>
-      <c r="J19" s="42" t="s">
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="18"/>
+      <c r="J19" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="45"/>
     </row>
     <row r="20" ht="18" customHeight="1" spans="1:15">
-      <c r="A20" s="18"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="22"/>
-      <c r="J20" s="45"/>
-      <c r="O20" s="46"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="23"/>
+      <c r="J20" s="46"/>
+      <c r="O20" s="47"/>
     </row>
     <row r="21" ht="18" customHeight="1" spans="1:15">
-      <c r="A21" s="23"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="27"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="49"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="28"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="50"/>
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:15">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20" t="s">
+      <c r="B22" s="20"/>
+      <c r="C22" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="22"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="50"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="23"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:8">
-      <c r="A23" s="23"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="27"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="28"/>
     </row>
     <row r="24" ht="18" customHeight="1" spans="1:8">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="29" t="s">
+      <c r="B24" s="29"/>
+      <c r="C24" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="D24" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:8">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="29" t="s">
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
     </row>
     <row r="26" ht="18" customHeight="1" spans="1:8">
-      <c r="A26" s="28"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="29" t="s">
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
     </row>
     <row r="27" ht="18" customHeight="1" spans="1:8">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="29" t="s">
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:8">
-      <c r="A28" s="31"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
     </row>
     <row r="29" ht="18" customHeight="1" spans="1:8">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="29" t="s">
+      <c r="B29" s="29"/>
+      <c r="C29" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
     </row>
     <row r="30" ht="18" customHeight="1" spans="1:15">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="29" t="s">
+      <c r="A30" s="29"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="J30" s="51" t="s">
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="J30" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="K30" s="52"/>
-      <c r="L30" s="52"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="53"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="54"/>
     </row>
     <row r="31" ht="18" customHeight="1" spans="1:8">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="29" t="s">
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
     </row>
     <row r="32" ht="18" customHeight="1" spans="1:8">
-      <c r="A32" s="28"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="29" t="s">
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="30" t="s">
+      <c r="D32" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
     </row>
     <row r="33" ht="18" customHeight="1"/>
     <row r="34" ht="18" customHeight="1" spans="1:15">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="29" t="s">
+      <c r="B34" s="29"/>
+      <c r="C34" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="30" t="s">
+      <c r="D34" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="J34" s="54" t="s">
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="J34" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="K34" s="54"/>
-      <c r="L34" s="54"/>
-      <c r="M34" s="54"/>
-      <c r="N34" s="54"/>
-      <c r="O34" s="54"/>
+      <c r="K34" s="55"/>
+      <c r="L34" s="55"/>
+      <c r="M34" s="55"/>
+      <c r="N34" s="55"/>
+      <c r="O34" s="55"/>
     </row>
     <row r="35" ht="18" customHeight="1" spans="1:15">
-      <c r="A35" s="28"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="29" t="s">
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="30" t="s">
+      <c r="D35" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="J35" s="54" t="s">
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="J35" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="K35" s="54"/>
-      <c r="L35" s="54"/>
-      <c r="M35" s="54"/>
-      <c r="N35" s="54"/>
-      <c r="O35" s="54"/>
+      <c r="K35" s="55"/>
+      <c r="L35" s="55"/>
+      <c r="M35" s="55"/>
+      <c r="N35" s="55"/>
+      <c r="O35" s="55"/>
     </row>
     <row r="36" ht="18" customHeight="1" spans="1:8">
-      <c r="A36" s="28"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="29" t="s">
+      <c r="A36" s="29"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="30" t="s">
+      <c r="D36" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
     </row>
     <row r="37" ht="18" customHeight="1" spans="1:8">
-      <c r="A37" s="28"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="29" t="s">
+      <c r="A37" s="29"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="30" t="s">
+      <c r="D37" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
     </row>
     <row r="38" ht="18" customHeight="1"/>
     <row r="39" ht="18" customHeight="1" spans="1:8">
-      <c r="A39" s="28" t="s">
+      <c r="A39" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="28"/>
-      <c r="C39" s="29" t="s">
+      <c r="B39" s="29"/>
+      <c r="C39" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="30" t="s">
+      <c r="D39" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
     </row>
     <row r="40" ht="18" customHeight="1" spans="1:11">
-      <c r="A40" s="28"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="29" t="s">
+      <c r="A40" s="29"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="30" t="s">
+      <c r="D40" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="J40" s="55" t="s">
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="J40" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="K40" s="21"/>
+      <c r="K40" s="22"/>
     </row>
     <row r="41" ht="18" customHeight="1" spans="1:8">
-      <c r="A41" s="28"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="29" t="s">
+      <c r="A41" s="29"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="30" t="s">
+      <c r="D41" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
     </row>
     <row r="42" ht="18" customHeight="1" spans="1:14">
-      <c r="A42" s="28"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="29" t="s">
+      <c r="A42" s="29"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="30" t="s">
+      <c r="D42" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="54" t="s">
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="J42" s="54"/>
-      <c r="K42" s="54"/>
-      <c r="L42" s="54"/>
-      <c r="M42" s="54"/>
-      <c r="N42" s="54"/>
+      <c r="J42" s="55"/>
+      <c r="K42" s="55"/>
+      <c r="L42" s="55"/>
+      <c r="M42" s="55"/>
+      <c r="N42" s="55"/>
     </row>
     <row r="43" ht="18" customHeight="1"/>
     <row r="44" ht="18" customHeight="1" spans="1:8">
-      <c r="A44" s="28" t="s">
+      <c r="A44" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="28"/>
-      <c r="C44" s="29" t="s">
+      <c r="B44" s="29"/>
+      <c r="C44" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D44" s="30" t="s">
+      <c r="D44" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
     </row>
     <row r="45" ht="18" customHeight="1" spans="1:15">
-      <c r="A45" s="28"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="29" t="s">
+      <c r="A45" s="29"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="30" t="s">
+      <c r="D45" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="J45" s="54" t="s">
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="J45" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="K45" s="54"/>
-      <c r="L45" s="54"/>
-      <c r="M45" s="54"/>
-      <c r="N45" s="54"/>
-      <c r="O45" s="54"/>
+      <c r="K45" s="55"/>
+      <c r="L45" s="55"/>
+      <c r="M45" s="55"/>
+      <c r="N45" s="55"/>
+      <c r="O45" s="55"/>
     </row>
     <row r="46" ht="18" customHeight="1" spans="1:8">
-      <c r="A46" s="28"/>
-      <c r="B46" s="28"/>
-      <c r="C46" s="29" t="s">
+      <c r="A46" s="29"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D46" s="30" t="s">
+      <c r="D46" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
     </row>
     <row r="47" ht="18" customHeight="1" spans="1:8">
-      <c r="A47" s="28"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="29" t="s">
+      <c r="A47" s="29"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D47" s="30" t="s">
+      <c r="D47" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
     </row>
     <row r="48" ht="18" customHeight="1"/>
     <row r="49" ht="18" customHeight="1" spans="1:8">
-      <c r="A49" s="28" t="s">
+      <c r="A49" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="28"/>
-      <c r="C49" s="29" t="s">
+      <c r="B49" s="29"/>
+      <c r="C49" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="30" t="s">
+      <c r="D49" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
     </row>
     <row r="50" ht="18" customHeight="1" spans="1:11">
-      <c r="A50" s="28"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="29" t="s">
+      <c r="A50" s="29"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D50" s="30" t="s">
+      <c r="D50" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
-      <c r="J50" s="55" t="s">
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="J50" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="K50" s="21"/>
+      <c r="K50" s="22"/>
     </row>
     <row r="51" ht="18" customHeight="1" spans="1:8">
-      <c r="A51" s="28"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="29" t="s">
+      <c r="A51" s="29"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D51" s="30" t="s">
+      <c r="D51" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="30"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
     </row>
     <row r="52" ht="18" customHeight="1" spans="1:8">
-      <c r="A52" s="28"/>
-      <c r="B52" s="28"/>
-      <c r="C52" s="29" t="s">
+      <c r="A52" s="29"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="30"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
     </row>
     <row r="53" ht="18" customHeight="1"/>
     <row r="54" ht="18" customHeight="1" spans="1:8">
-      <c r="A54" s="28" t="s">
+      <c r="A54" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="28"/>
-      <c r="C54" s="33" t="s">
+      <c r="B54" s="29"/>
+      <c r="C54" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="35"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="36"/>
     </row>
     <row r="55" ht="18" customHeight="1" spans="1:8">
-      <c r="A55" s="28"/>
-      <c r="B55" s="28"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="37"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="37"/>
-      <c r="H55" s="38"/>
+      <c r="A55" s="29"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="39"/>
     </row>
     <row r="56" ht="18" customHeight="1" spans="1:8">
-      <c r="A56" s="28"/>
-      <c r="B56" s="28"/>
-      <c r="C56" s="36"/>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="38"/>
+      <c r="A56" s="29"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="39"/>
     </row>
     <row r="57" ht="18" customHeight="1" spans="1:8">
-      <c r="A57" s="28"/>
-      <c r="B57" s="28"/>
-      <c r="C57" s="39"/>
-      <c r="D57" s="40"/>
-      <c r="E57" s="40"/>
-      <c r="F57" s="40"/>
-      <c r="G57" s="40"/>
-      <c r="H57" s="41"/>
+      <c r="A57" s="29"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="42"/>
     </row>
     <row r="58" ht="18" customHeight="1"/>
     <row r="59" ht="18" customHeight="1"/>
     <row r="60" ht="18" customHeight="1" spans="1:8">
-      <c r="A60" s="28" t="s">
+      <c r="A60" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="B60" s="28"/>
-      <c r="C60" s="30" t="s">
+      <c r="B60" s="29"/>
+      <c r="C60" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="D60" s="30"/>
-      <c r="E60" s="30"/>
-      <c r="F60" s="30"/>
-      <c r="G60" s="30"/>
-      <c r="H60" s="30"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
     </row>
     <row r="61" ht="18" customHeight="1" spans="1:8">
-      <c r="A61" s="28"/>
-      <c r="B61" s="28"/>
-      <c r="C61" s="30"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="30"/>
+      <c r="A61" s="29"/>
+      <c r="B61" s="29"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
     </row>
     <row r="62" ht="18" customHeight="1" spans="1:9">
-      <c r="A62" s="28" t="s">
+      <c r="A62" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="B62" s="28"/>
-      <c r="C62" s="29" t="s">
+      <c r="B62" s="29"/>
+      <c r="C62" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D62" s="30" t="s">
+      <c r="D62" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="E62" s="30"/>
-      <c r="F62" s="30"/>
-      <c r="G62" s="30"/>
-      <c r="H62" s="30"/>
-      <c r="I62" s="56" t="s">
+      <c r="E62" s="31"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="63" ht="18" customHeight="1" spans="1:9">
-      <c r="A63" s="28"/>
-      <c r="B63" s="28"/>
-      <c r="C63" s="29" t="s">
+      <c r="A63" s="29"/>
+      <c r="B63" s="29"/>
+      <c r="C63" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D63" s="30" t="s">
+      <c r="D63" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="E63" s="30"/>
-      <c r="F63" s="30"/>
-      <c r="G63" s="30"/>
-      <c r="H63" s="30"/>
-      <c r="I63" s="56"/>
+      <c r="E63" s="31"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="31"/>
+      <c r="I63" s="1"/>
     </row>
     <row r="64" ht="18" customHeight="1" spans="1:9">
-      <c r="A64" s="28"/>
-      <c r="B64" s="28"/>
-      <c r="C64" s="29" t="s">
+      <c r="A64" s="29"/>
+      <c r="B64" s="29"/>
+      <c r="C64" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D64" s="30" t="s">
+      <c r="D64" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="E64" s="30"/>
-      <c r="F64" s="30"/>
-      <c r="G64" s="30"/>
-      <c r="H64" s="30"/>
-      <c r="I64" s="56"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="1"/>
     </row>
     <row r="65" ht="18" customHeight="1" spans="1:9">
-      <c r="A65" s="28"/>
-      <c r="B65" s="28"/>
-      <c r="C65" s="29" t="s">
+      <c r="A65" s="29"/>
+      <c r="B65" s="29"/>
+      <c r="C65" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D65" s="30" t="s">
+      <c r="D65" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="E65" s="30"/>
-      <c r="F65" s="30"/>
-      <c r="G65" s="30"/>
-      <c r="H65" s="30"/>
-      <c r="I65" s="56"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="1"/>
     </row>
     <row r="66" ht="18" customHeight="1"/>
     <row r="67" ht="18" customHeight="1" spans="1:9">
-      <c r="A67" s="28" t="s">
+      <c r="A67" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="B67" s="28"/>
-      <c r="C67" s="29" t="s">
+      <c r="B67" s="29"/>
+      <c r="C67" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D67" s="30" t="s">
+      <c r="D67" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="E67" s="30"/>
-      <c r="F67" s="30"/>
-      <c r="G67" s="30"/>
-      <c r="H67" s="30"/>
-      <c r="I67" s="56" t="s">
+      <c r="E67" s="31"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="68" ht="18" customHeight="1" spans="1:9">
-      <c r="A68" s="28"/>
-      <c r="B68" s="28"/>
-      <c r="C68" s="29" t="s">
+      <c r="A68" s="29"/>
+      <c r="B68" s="29"/>
+      <c r="C68" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D68" s="30" t="s">
+      <c r="D68" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="E68" s="30"/>
-      <c r="F68" s="30"/>
-      <c r="G68" s="30"/>
-      <c r="H68" s="30"/>
-      <c r="I68" s="56"/>
+      <c r="E68" s="31"/>
+      <c r="F68" s="31"/>
+      <c r="G68" s="31"/>
+      <c r="H68" s="31"/>
+      <c r="I68" s="1"/>
     </row>
     <row r="69" ht="18" customHeight="1" spans="1:9">
-      <c r="A69" s="28"/>
-      <c r="B69" s="28"/>
-      <c r="C69" s="29" t="s">
+      <c r="A69" s="29"/>
+      <c r="B69" s="29"/>
+      <c r="C69" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D69" s="30" t="s">
+      <c r="D69" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="E69" s="30"/>
-      <c r="F69" s="30"/>
-      <c r="G69" s="30"/>
-      <c r="H69" s="30"/>
-      <c r="I69" s="56"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="1"/>
     </row>
     <row r="70" ht="18" customHeight="1" spans="1:9">
-      <c r="A70" s="28"/>
-      <c r="B70" s="28"/>
-      <c r="C70" s="29" t="s">
+      <c r="A70" s="29"/>
+      <c r="B70" s="29"/>
+      <c r="C70" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D70" s="30" t="s">
+      <c r="D70" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="E70" s="30"/>
-      <c r="F70" s="30"/>
-      <c r="G70" s="30"/>
-      <c r="H70" s="30"/>
-      <c r="I70" s="56"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="1"/>
     </row>
     <row r="71" ht="18" customHeight="1"/>
     <row r="72" ht="18" customHeight="1" spans="1:9">
-      <c r="A72" s="28" t="s">
+      <c r="A72" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="B72" s="28"/>
-      <c r="C72" s="29" t="s">
+      <c r="B72" s="29"/>
+      <c r="C72" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D72" s="30" t="s">
+      <c r="D72" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="E72" s="30"/>
-      <c r="F72" s="30"/>
-      <c r="G72" s="30"/>
-      <c r="H72" s="30"/>
-      <c r="I72" s="56" t="s">
+      <c r="E72" s="31"/>
+      <c r="F72" s="31"/>
+      <c r="G72" s="31"/>
+      <c r="H72" s="31"/>
+      <c r="I72" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="73" ht="18" customHeight="1" spans="1:14">
-      <c r="A73" s="28"/>
-      <c r="B73" s="28"/>
-      <c r="C73" s="29" t="s">
+      <c r="A73" s="29"/>
+      <c r="B73" s="29"/>
+      <c r="C73" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D73" s="30" t="s">
+      <c r="D73" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="E73" s="30"/>
-      <c r="F73" s="30"/>
-      <c r="G73" s="30"/>
-      <c r="H73" s="30"/>
-      <c r="I73" s="56"/>
-      <c r="J73" s="54" t="s">
+      <c r="E73" s="31"/>
+      <c r="F73" s="31"/>
+      <c r="G73" s="31"/>
+      <c r="H73" s="31"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="K73" s="54"/>
-      <c r="L73" s="54"/>
-      <c r="M73" s="54"/>
-      <c r="N73" s="54"/>
+      <c r="K73" s="55"/>
+      <c r="L73" s="55"/>
+      <c r="M73" s="55"/>
+      <c r="N73" s="55"/>
     </row>
     <row r="74" ht="18" customHeight="1" spans="1:9">
-      <c r="A74" s="28"/>
-      <c r="B74" s="28"/>
-      <c r="C74" s="29" t="s">
+      <c r="A74" s="29"/>
+      <c r="B74" s="29"/>
+      <c r="C74" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D74" s="30" t="s">
+      <c r="D74" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="E74" s="30"/>
-      <c r="F74" s="30"/>
-      <c r="G74" s="30"/>
-      <c r="H74" s="30"/>
-      <c r="I74" s="56"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="1"/>
     </row>
     <row r="75" ht="18" customHeight="1" spans="1:9">
-      <c r="A75" s="28"/>
-      <c r="B75" s="28"/>
-      <c r="C75" s="29" t="s">
+      <c r="A75" s="29"/>
+      <c r="B75" s="29"/>
+      <c r="C75" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D75" s="30" t="s">
+      <c r="D75" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="E75" s="30"/>
-      <c r="F75" s="30"/>
-      <c r="G75" s="30"/>
-      <c r="H75" s="30"/>
-      <c r="I75" s="56"/>
+      <c r="E75" s="31"/>
+      <c r="F75" s="31"/>
+      <c r="G75" s="31"/>
+      <c r="H75" s="31"/>
+      <c r="I75" s="1"/>
     </row>
     <row r="76" ht="18" customHeight="1"/>
     <row r="77" ht="18" customHeight="1" spans="1:9">
-      <c r="A77" s="28" t="s">
+      <c r="A77" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="B77" s="28"/>
-      <c r="C77" s="29" t="s">
+      <c r="B77" s="29"/>
+      <c r="C77" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D77" s="30" t="s">
+      <c r="D77" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="E77" s="30"/>
-      <c r="F77" s="30"/>
-      <c r="G77" s="30"/>
-      <c r="H77" s="30"/>
+      <c r="E77" s="31"/>
+      <c r="F77" s="31"/>
+      <c r="G77" s="31"/>
+      <c r="H77" s="31"/>
       <c r="I77" s="65" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="78" ht="18" customHeight="1" spans="1:9">
-      <c r="A78" s="28"/>
-      <c r="B78" s="28"/>
-      <c r="C78" s="29" t="s">
+      <c r="A78" s="29"/>
+      <c r="B78" s="29"/>
+      <c r="C78" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D78" s="30" t="s">
+      <c r="D78" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="E78" s="30"/>
-      <c r="F78" s="30"/>
-      <c r="G78" s="30"/>
-      <c r="H78" s="30"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="31"/>
       <c r="I78" s="65"/>
     </row>
     <row r="79" ht="18" customHeight="1" spans="1:9">
-      <c r="A79" s="28"/>
-      <c r="B79" s="28"/>
-      <c r="C79" s="29" t="s">
+      <c r="A79" s="29"/>
+      <c r="B79" s="29"/>
+      <c r="C79" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D79" s="30"/>
-      <c r="E79" s="30"/>
-      <c r="F79" s="30"/>
-      <c r="G79" s="30"/>
-      <c r="H79" s="30"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="31"/>
+      <c r="G79" s="31"/>
+      <c r="H79" s="31"/>
       <c r="I79" s="65"/>
     </row>
     <row r="80" ht="18" customHeight="1" spans="1:9">
-      <c r="A80" s="28"/>
-      <c r="B80" s="28"/>
-      <c r="C80" s="29" t="s">
+      <c r="A80" s="29"/>
+      <c r="B80" s="29"/>
+      <c r="C80" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D80" s="30"/>
-      <c r="E80" s="30"/>
-      <c r="F80" s="30"/>
-      <c r="G80" s="30"/>
-      <c r="H80" s="30"/>
+      <c r="D80" s="31"/>
+      <c r="E80" s="31"/>
+      <c r="F80" s="31"/>
+      <c r="G80" s="31"/>
+      <c r="H80" s="31"/>
       <c r="I80" s="65"/>
     </row>
     <row r="81" ht="18" customHeight="1"/>
     <row r="82" ht="18" customHeight="1" spans="1:9">
-      <c r="A82" s="28" t="s">
+      <c r="A82" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="B82" s="28"/>
-      <c r="C82" s="29" t="s">
+      <c r="B82" s="29"/>
+      <c r="C82" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D82" s="30" t="s">
+      <c r="D82" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="E82" s="30"/>
-      <c r="F82" s="30"/>
-      <c r="G82" s="30"/>
-      <c r="H82" s="30"/>
+      <c r="E82" s="31"/>
+      <c r="F82" s="31"/>
+      <c r="G82" s="31"/>
+      <c r="H82" s="31"/>
       <c r="I82" s="65" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="83" ht="18" customHeight="1" spans="1:9">
-      <c r="A83" s="28"/>
-      <c r="B83" s="28"/>
-      <c r="C83" s="29" t="s">
+      <c r="A83" s="29"/>
+      <c r="B83" s="29"/>
+      <c r="C83" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D83" s="30" t="s">
+      <c r="D83" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="E83" s="30"/>
-      <c r="F83" s="30"/>
-      <c r="G83" s="30"/>
-      <c r="H83" s="30"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="31"/>
+      <c r="G83" s="31"/>
+      <c r="H83" s="31"/>
       <c r="I83" s="65"/>
     </row>
     <row r="84" ht="18" customHeight="1" spans="1:9">
-      <c r="A84" s="28"/>
-      <c r="B84" s="28"/>
-      <c r="C84" s="29" t="s">
+      <c r="A84" s="29"/>
+      <c r="B84" s="29"/>
+      <c r="C84" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D84" s="30"/>
-      <c r="E84" s="30"/>
-      <c r="F84" s="30"/>
-      <c r="G84" s="30"/>
-      <c r="H84" s="30"/>
+      <c r="D84" s="31"/>
+      <c r="E84" s="31"/>
+      <c r="F84" s="31"/>
+      <c r="G84" s="31"/>
+      <c r="H84" s="31"/>
       <c r="I84" s="65"/>
     </row>
     <row r="85" ht="18" customHeight="1" spans="1:9">
-      <c r="A85" s="28"/>
-      <c r="B85" s="28"/>
-      <c r="C85" s="29" t="s">
+      <c r="A85" s="29"/>
+      <c r="B85" s="29"/>
+      <c r="C85" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D85" s="30"/>
-      <c r="E85" s="30"/>
-      <c r="F85" s="30"/>
-      <c r="G85" s="30"/>
-      <c r="H85" s="30"/>
+      <c r="D85" s="31"/>
+      <c r="E85" s="31"/>
+      <c r="F85" s="31"/>
+      <c r="G85" s="31"/>
+      <c r="H85" s="31"/>
       <c r="I85" s="65"/>
     </row>
     <row r="86" ht="18" customHeight="1"/>
     <row r="87" ht="18" customHeight="1" spans="1:9">
-      <c r="A87" s="28" t="s">
+      <c r="A87" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="B87" s="28"/>
-      <c r="C87" s="29" t="s">
+      <c r="B87" s="29"/>
+      <c r="C87" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D87" s="30"/>
-      <c r="E87" s="30"/>
-      <c r="F87" s="30"/>
-      <c r="G87" s="30"/>
-      <c r="H87" s="30"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="31"/>
+      <c r="G87" s="31"/>
+      <c r="H87" s="31"/>
       <c r="I87" s="65" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="88" ht="18" customHeight="1" spans="1:9">
-      <c r="A88" s="28"/>
-      <c r="B88" s="28"/>
-      <c r="C88" s="29" t="s">
+      <c r="A88" s="29"/>
+      <c r="B88" s="29"/>
+      <c r="C88" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D88" s="30" t="s">
+      <c r="D88" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="E88" s="30"/>
-      <c r="F88" s="30"/>
-      <c r="G88" s="30"/>
-      <c r="H88" s="30"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="31"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="31"/>
       <c r="I88" s="65"/>
     </row>
     <row r="89" ht="18" customHeight="1" spans="1:9">
-      <c r="A89" s="28"/>
-      <c r="B89" s="28"/>
-      <c r="C89" s="29" t="s">
+      <c r="A89" s="29"/>
+      <c r="B89" s="29"/>
+      <c r="C89" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D89" s="30" t="s">
+      <c r="D89" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="E89" s="30"/>
-      <c r="F89" s="30"/>
-      <c r="G89" s="30"/>
-      <c r="H89" s="30"/>
+      <c r="E89" s="31"/>
+      <c r="F89" s="31"/>
+      <c r="G89" s="31"/>
+      <c r="H89" s="31"/>
       <c r="I89" s="65"/>
     </row>
     <row r="90" ht="18" customHeight="1" spans="1:9">
-      <c r="A90" s="28"/>
-      <c r="B90" s="28"/>
-      <c r="C90" s="29" t="s">
+      <c r="A90" s="29"/>
+      <c r="B90" s="29"/>
+      <c r="C90" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D90" s="30"/>
-      <c r="E90" s="30"/>
-      <c r="F90" s="30"/>
-      <c r="G90" s="30"/>
-      <c r="H90" s="30"/>
+      <c r="D90" s="31"/>
+      <c r="E90" s="31"/>
+      <c r="F90" s="31"/>
+      <c r="G90" s="31"/>
+      <c r="H90" s="31"/>
       <c r="I90" s="65"/>
     </row>
     <row r="91" ht="18" customHeight="1"/>
     <row r="92" ht="18" customHeight="1" spans="1:9">
-      <c r="A92" s="28" t="s">
+      <c r="A92" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="B92" s="28"/>
+      <c r="B92" s="29"/>
       <c r="C92" s="57" t="s">
         <v>80</v>
       </c>
@@ -4099,30 +4199,30 @@
       </c>
     </row>
     <row r="93" ht="18" customHeight="1" spans="1:9">
-      <c r="A93" s="28"/>
-      <c r="B93" s="28"/>
+      <c r="A93" s="29"/>
+      <c r="B93" s="29"/>
       <c r="C93" s="60"/>
-      <c r="D93" s="56"/>
-      <c r="E93" s="56"/>
-      <c r="F93" s="56"/>
-      <c r="G93" s="56"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
       <c r="H93" s="61"/>
       <c r="I93" s="66"/>
     </row>
     <row r="94" ht="18" customHeight="1" spans="1:9">
-      <c r="A94" s="28"/>
-      <c r="B94" s="28"/>
+      <c r="A94" s="29"/>
+      <c r="B94" s="29"/>
       <c r="C94" s="60"/>
-      <c r="D94" s="56"/>
-      <c r="E94" s="56"/>
-      <c r="F94" s="56"/>
-      <c r="G94" s="56"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
       <c r="H94" s="61"/>
       <c r="I94" s="66"/>
     </row>
     <row r="95" ht="18" customHeight="1" spans="1:9">
-      <c r="A95" s="28"/>
-      <c r="B95" s="28"/>
+      <c r="A95" s="29"/>
+      <c r="B95" s="29"/>
       <c r="C95" s="62"/>
       <c r="D95" s="63"/>
       <c r="E95" s="63"/>
@@ -4134,132 +4234,132 @@
     <row r="96" ht="18" customHeight="1"/>
     <row r="97" ht="18" customHeight="1"/>
     <row r="98" ht="18" customHeight="1" spans="1:8">
-      <c r="A98" s="28" t="s">
+      <c r="A98" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="B98" s="28"/>
-      <c r="C98" s="30" t="s">
+      <c r="B98" s="29"/>
+      <c r="C98" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="D98" s="30"/>
-      <c r="E98" s="30"/>
-      <c r="F98" s="30"/>
-      <c r="G98" s="30"/>
-      <c r="H98" s="30"/>
+      <c r="D98" s="31"/>
+      <c r="E98" s="31"/>
+      <c r="F98" s="31"/>
+      <c r="G98" s="31"/>
+      <c r="H98" s="31"/>
     </row>
     <row r="99" ht="18" customHeight="1" spans="1:8">
-      <c r="A99" s="28"/>
-      <c r="B99" s="28"/>
-      <c r="C99" s="30"/>
-      <c r="D99" s="30"/>
-      <c r="E99" s="30"/>
-      <c r="F99" s="30"/>
-      <c r="G99" s="30"/>
-      <c r="H99" s="30"/>
+      <c r="A99" s="29"/>
+      <c r="B99" s="29"/>
+      <c r="C99" s="31"/>
+      <c r="D99" s="31"/>
+      <c r="E99" s="31"/>
+      <c r="F99" s="31"/>
+      <c r="G99" s="31"/>
+      <c r="H99" s="31"/>
     </row>
     <row r="100" ht="18" customHeight="1" spans="1:9">
-      <c r="A100" s="28" t="s">
+      <c r="A100" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="B100" s="28"/>
-      <c r="C100" s="29" t="s">
+      <c r="B100" s="29"/>
+      <c r="C100" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D100" s="30" t="s">
+      <c r="D100" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="E100" s="30"/>
-      <c r="F100" s="30"/>
-      <c r="G100" s="30"/>
-      <c r="H100" s="30"/>
-      <c r="I100" s="56" t="s">
+      <c r="E100" s="31"/>
+      <c r="F100" s="31"/>
+      <c r="G100" s="31"/>
+      <c r="H100" s="31"/>
+      <c r="I100" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="101" ht="18" customHeight="1" spans="1:16">
-      <c r="A101" s="28"/>
-      <c r="B101" s="28"/>
-      <c r="C101" s="29" t="s">
+      <c r="A101" s="29"/>
+      <c r="B101" s="29"/>
+      <c r="C101" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D101" s="30" t="s">
+      <c r="D101" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="E101" s="30"/>
-      <c r="F101" s="30"/>
-      <c r="G101" s="30"/>
-      <c r="H101" s="30"/>
-      <c r="I101" s="56"/>
-      <c r="K101" s="54" t="s">
+      <c r="E101" s="31"/>
+      <c r="F101" s="31"/>
+      <c r="G101" s="31"/>
+      <c r="H101" s="31"/>
+      <c r="I101" s="1"/>
+      <c r="K101" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="L101" s="54"/>
-      <c r="M101" s="54"/>
-      <c r="N101" s="54"/>
-      <c r="O101" s="54"/>
-      <c r="P101" s="54"/>
+      <c r="L101" s="55"/>
+      <c r="M101" s="55"/>
+      <c r="N101" s="55"/>
+      <c r="O101" s="55"/>
+      <c r="P101" s="55"/>
     </row>
     <row r="102" ht="18" customHeight="1" spans="1:9">
-      <c r="A102" s="28"/>
-      <c r="B102" s="28"/>
-      <c r="C102" s="29" t="s">
+      <c r="A102" s="29"/>
+      <c r="B102" s="29"/>
+      <c r="C102" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D102" s="30" t="s">
+      <c r="D102" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="E102" s="30"/>
-      <c r="F102" s="30"/>
-      <c r="G102" s="30"/>
-      <c r="H102" s="30"/>
-      <c r="I102" s="56"/>
+      <c r="E102" s="31"/>
+      <c r="F102" s="31"/>
+      <c r="G102" s="31"/>
+      <c r="H102" s="31"/>
+      <c r="I102" s="1"/>
     </row>
     <row r="103" ht="18" customHeight="1" spans="1:9">
-      <c r="A103" s="28"/>
-      <c r="B103" s="28"/>
-      <c r="C103" s="29" t="s">
+      <c r="A103" s="29"/>
+      <c r="B103" s="29"/>
+      <c r="C103" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D103" s="30" t="s">
+      <c r="D103" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="E103" s="30"/>
-      <c r="F103" s="30"/>
-      <c r="G103" s="30"/>
-      <c r="H103" s="30"/>
-      <c r="I103" s="56"/>
+      <c r="E103" s="31"/>
+      <c r="F103" s="31"/>
+      <c r="G103" s="31"/>
+      <c r="H103" s="31"/>
+      <c r="I103" s="1"/>
     </row>
     <row r="104" ht="18" customHeight="1"/>
     <row r="105" ht="18" customHeight="1" spans="1:9">
-      <c r="A105" s="28" t="s">
+      <c r="A105" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="B105" s="28"/>
-      <c r="C105" s="29" t="s">
+      <c r="B105" s="29"/>
+      <c r="C105" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D105" s="30" t="s">
+      <c r="D105" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="E105" s="30"/>
-      <c r="F105" s="30"/>
-      <c r="G105" s="30"/>
-      <c r="H105" s="30"/>
+      <c r="E105" s="31"/>
+      <c r="F105" s="31"/>
+      <c r="G105" s="31"/>
+      <c r="H105" s="31"/>
       <c r="I105" s="66" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="106" ht="18" customHeight="1" spans="1:16">
-      <c r="A106" s="28"/>
-      <c r="B106" s="28"/>
-      <c r="C106" s="29" t="s">
+      <c r="A106" s="29"/>
+      <c r="B106" s="29"/>
+      <c r="C106" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D106" s="30"/>
-      <c r="E106" s="30"/>
-      <c r="F106" s="30"/>
-      <c r="G106" s="30"/>
-      <c r="H106" s="30"/>
+      <c r="D106" s="31"/>
+      <c r="E106" s="31"/>
+      <c r="F106" s="31"/>
+      <c r="G106" s="31"/>
+      <c r="H106" s="31"/>
       <c r="I106" s="66"/>
       <c r="K106" s="67" t="s">
         <v>90</v>
@@ -4271,64 +4371,64 @@
       <c r="P106" s="67"/>
     </row>
     <row r="107" ht="18" customHeight="1" spans="1:9">
-      <c r="A107" s="28"/>
-      <c r="B107" s="28"/>
-      <c r="C107" s="29" t="s">
+      <c r="A107" s="29"/>
+      <c r="B107" s="29"/>
+      <c r="C107" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D107" s="30"/>
-      <c r="E107" s="30"/>
-      <c r="F107" s="30"/>
-      <c r="G107" s="30"/>
-      <c r="H107" s="30"/>
+      <c r="D107" s="31"/>
+      <c r="E107" s="31"/>
+      <c r="F107" s="31"/>
+      <c r="G107" s="31"/>
+      <c r="H107" s="31"/>
       <c r="I107" s="66"/>
     </row>
     <row r="108" ht="18" customHeight="1" spans="1:9">
-      <c r="A108" s="28"/>
-      <c r="B108" s="28"/>
-      <c r="C108" s="29" t="s">
+      <c r="A108" s="29"/>
+      <c r="B108" s="29"/>
+      <c r="C108" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D108" s="30"/>
-      <c r="E108" s="30"/>
-      <c r="F108" s="30"/>
-      <c r="G108" s="30"/>
-      <c r="H108" s="30"/>
+      <c r="D108" s="31"/>
+      <c r="E108" s="31"/>
+      <c r="F108" s="31"/>
+      <c r="G108" s="31"/>
+      <c r="H108" s="31"/>
       <c r="I108" s="66"/>
     </row>
     <row r="109" ht="18" customHeight="1"/>
     <row r="110" ht="18" customHeight="1" spans="1:9">
-      <c r="A110" s="28" t="s">
+      <c r="A110" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="B110" s="28"/>
-      <c r="C110" s="29" t="s">
+      <c r="B110" s="29"/>
+      <c r="C110" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D110" s="30" t="s">
+      <c r="D110" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="E110" s="30"/>
-      <c r="F110" s="30"/>
-      <c r="G110" s="30"/>
-      <c r="H110" s="30"/>
+      <c r="E110" s="31"/>
+      <c r="F110" s="31"/>
+      <c r="G110" s="31"/>
+      <c r="H110" s="31"/>
       <c r="I110" s="65" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="111" ht="18" customHeight="1" spans="1:16">
-      <c r="A111" s="28"/>
-      <c r="B111" s="28"/>
-      <c r="C111" s="29" t="s">
+      <c r="A111" s="29"/>
+      <c r="B111" s="29"/>
+      <c r="C111" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D111" s="30" t="s">
+      <c r="D111" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="E111" s="30"/>
-      <c r="F111" s="30"/>
-      <c r="G111" s="30"/>
-      <c r="H111" s="30"/>
+      <c r="E111" s="31"/>
+      <c r="F111" s="31"/>
+      <c r="G111" s="31"/>
+      <c r="H111" s="31"/>
       <c r="I111" s="65"/>
       <c r="K111" s="67" t="s">
         <v>94</v>
@@ -4340,236 +4440,236 @@
       <c r="P111" s="67"/>
     </row>
     <row r="112" ht="18" customHeight="1" spans="1:9">
-      <c r="A112" s="28"/>
-      <c r="B112" s="28"/>
-      <c r="C112" s="29" t="s">
+      <c r="A112" s="29"/>
+      <c r="B112" s="29"/>
+      <c r="C112" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D112" s="30" t="s">
+      <c r="D112" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="E112" s="30"/>
-      <c r="F112" s="30"/>
-      <c r="G112" s="30"/>
-      <c r="H112" s="30"/>
+      <c r="E112" s="31"/>
+      <c r="F112" s="31"/>
+      <c r="G112" s="31"/>
+      <c r="H112" s="31"/>
       <c r="I112" s="65"/>
     </row>
     <row r="113" ht="18" customHeight="1" spans="1:9">
-      <c r="A113" s="28"/>
-      <c r="B113" s="28"/>
-      <c r="C113" s="29" t="s">
+      <c r="A113" s="29"/>
+      <c r="B113" s="29"/>
+      <c r="C113" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D113" s="30" t="s">
+      <c r="D113" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="E113" s="30"/>
-      <c r="F113" s="30"/>
-      <c r="G113" s="30"/>
-      <c r="H113" s="30"/>
+      <c r="E113" s="31"/>
+      <c r="F113" s="31"/>
+      <c r="G113" s="31"/>
+      <c r="H113" s="31"/>
       <c r="I113" s="65"/>
     </row>
     <row r="114" ht="18" customHeight="1"/>
     <row r="115" ht="18" customHeight="1" spans="1:9">
-      <c r="A115" s="28" t="s">
+      <c r="A115" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="B115" s="28"/>
-      <c r="C115" s="29" t="s">
+      <c r="B115" s="29"/>
+      <c r="C115" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D115" s="30" t="s">
+      <c r="D115" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="E115" s="30"/>
-      <c r="F115" s="30"/>
-      <c r="G115" s="30"/>
-      <c r="H115" s="30"/>
+      <c r="E115" s="31"/>
+      <c r="F115" s="31"/>
+      <c r="G115" s="31"/>
+      <c r="H115" s="31"/>
       <c r="I115" s="66" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="116" ht="18" customHeight="1" spans="1:16">
-      <c r="A116" s="28"/>
-      <c r="B116" s="28"/>
-      <c r="C116" s="29" t="s">
+      <c r="A116" s="29"/>
+      <c r="B116" s="29"/>
+      <c r="C116" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D116" s="30" t="s">
+      <c r="D116" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="E116" s="30"/>
-      <c r="F116" s="30"/>
-      <c r="G116" s="30"/>
-      <c r="H116" s="30"/>
+      <c r="E116" s="31"/>
+      <c r="F116" s="31"/>
+      <c r="G116" s="31"/>
+      <c r="H116" s="31"/>
       <c r="I116" s="66"/>
-      <c r="K116" s="54" t="s">
+      <c r="K116" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="L116" s="54"/>
-      <c r="M116" s="54"/>
-      <c r="N116" s="54"/>
-      <c r="O116" s="54"/>
-      <c r="P116" s="54"/>
+      <c r="L116" s="55"/>
+      <c r="M116" s="55"/>
+      <c r="N116" s="55"/>
+      <c r="O116" s="55"/>
+      <c r="P116" s="55"/>
     </row>
     <row r="117" ht="18" customHeight="1" spans="1:9">
-      <c r="A117" s="28"/>
-      <c r="B117" s="28"/>
-      <c r="C117" s="29" t="s">
+      <c r="A117" s="29"/>
+      <c r="B117" s="29"/>
+      <c r="C117" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D117" s="30"/>
-      <c r="E117" s="30"/>
-      <c r="F117" s="30"/>
-      <c r="G117" s="30"/>
-      <c r="H117" s="30"/>
+      <c r="D117" s="31"/>
+      <c r="E117" s="31"/>
+      <c r="F117" s="31"/>
+      <c r="G117" s="31"/>
+      <c r="H117" s="31"/>
       <c r="I117" s="66"/>
     </row>
     <row r="118" ht="18" customHeight="1" spans="1:9">
-      <c r="A118" s="28"/>
-      <c r="B118" s="28"/>
-      <c r="C118" s="29" t="s">
+      <c r="A118" s="29"/>
+      <c r="B118" s="29"/>
+      <c r="C118" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D118" s="30"/>
-      <c r="E118" s="30"/>
-      <c r="F118" s="30"/>
-      <c r="G118" s="30"/>
-      <c r="H118" s="30"/>
+      <c r="D118" s="31"/>
+      <c r="E118" s="31"/>
+      <c r="F118" s="31"/>
+      <c r="G118" s="31"/>
+      <c r="H118" s="31"/>
       <c r="I118" s="66"/>
     </row>
     <row r="119" ht="18" customHeight="1"/>
     <row r="120" ht="18" customHeight="1" spans="1:9">
-      <c r="A120" s="28" t="s">
+      <c r="A120" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="B120" s="28"/>
-      <c r="C120" s="29" t="s">
+      <c r="B120" s="29"/>
+      <c r="C120" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D120" s="30" t="s">
+      <c r="D120" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="E120" s="30"/>
-      <c r="F120" s="30"/>
-      <c r="G120" s="30"/>
-      <c r="H120" s="30"/>
+      <c r="E120" s="31"/>
+      <c r="F120" s="31"/>
+      <c r="G120" s="31"/>
+      <c r="H120" s="31"/>
       <c r="I120" s="66"/>
     </row>
     <row r="121" ht="18" customHeight="1" spans="1:9">
-      <c r="A121" s="28"/>
-      <c r="B121" s="28"/>
-      <c r="C121" s="29" t="s">
+      <c r="A121" s="29"/>
+      <c r="B121" s="29"/>
+      <c r="C121" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D121" s="30" t="s">
+      <c r="D121" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="E121" s="30"/>
-      <c r="F121" s="30"/>
-      <c r="G121" s="30"/>
-      <c r="H121" s="30"/>
+      <c r="E121" s="31"/>
+      <c r="F121" s="31"/>
+      <c r="G121" s="31"/>
+      <c r="H121" s="31"/>
       <c r="I121" s="66"/>
     </row>
     <row r="122" ht="18" customHeight="1" spans="1:9">
-      <c r="A122" s="28"/>
-      <c r="B122" s="28"/>
-      <c r="C122" s="29" t="s">
+      <c r="A122" s="29"/>
+      <c r="B122" s="29"/>
+      <c r="C122" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D122" s="30" t="s">
+      <c r="D122" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="E122" s="30"/>
-      <c r="F122" s="30"/>
-      <c r="G122" s="30"/>
-      <c r="H122" s="30"/>
+      <c r="E122" s="31"/>
+      <c r="F122" s="31"/>
+      <c r="G122" s="31"/>
+      <c r="H122" s="31"/>
       <c r="I122" s="66"/>
     </row>
     <row r="123" ht="18" customHeight="1" spans="1:9">
-      <c r="A123" s="28"/>
-      <c r="B123" s="28"/>
-      <c r="C123" s="29" t="s">
+      <c r="A123" s="29"/>
+      <c r="B123" s="29"/>
+      <c r="C123" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D123" s="30" t="s">
+      <c r="D123" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="E123" s="30"/>
-      <c r="F123" s="30"/>
-      <c r="G123" s="30"/>
-      <c r="H123" s="30"/>
+      <c r="E123" s="31"/>
+      <c r="F123" s="31"/>
+      <c r="G123" s="31"/>
+      <c r="H123" s="31"/>
       <c r="I123" s="66"/>
     </row>
     <row r="124" ht="18" customHeight="1"/>
     <row r="125" ht="18" customHeight="1" spans="1:9">
-      <c r="A125" s="28" t="s">
+      <c r="A125" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="B125" s="28"/>
-      <c r="C125" s="29" t="s">
+      <c r="B125" s="29"/>
+      <c r="C125" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D125" s="30"/>
-      <c r="E125" s="30"/>
-      <c r="F125" s="30"/>
-      <c r="G125" s="30"/>
-      <c r="H125" s="30"/>
-      <c r="I125" s="56" t="s">
+      <c r="D125" s="31"/>
+      <c r="E125" s="31"/>
+      <c r="F125" s="31"/>
+      <c r="G125" s="31"/>
+      <c r="H125" s="31"/>
+      <c r="I125" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="126" ht="18" customHeight="1" spans="1:9">
-      <c r="A126" s="28"/>
-      <c r="B126" s="28"/>
-      <c r="C126" s="29" t="s">
+      <c r="A126" s="29"/>
+      <c r="B126" s="29"/>
+      <c r="C126" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D126" s="30" t="s">
+      <c r="D126" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="E126" s="30"/>
-      <c r="F126" s="30"/>
-      <c r="G126" s="30"/>
-      <c r="H126" s="30"/>
-      <c r="I126" s="56"/>
+      <c r="E126" s="31"/>
+      <c r="F126" s="31"/>
+      <c r="G126" s="31"/>
+      <c r="H126" s="31"/>
+      <c r="I126" s="1"/>
     </row>
     <row r="127" ht="18" customHeight="1" spans="1:9">
-      <c r="A127" s="28"/>
-      <c r="B127" s="28"/>
-      <c r="C127" s="29" t="s">
+      <c r="A127" s="29"/>
+      <c r="B127" s="29"/>
+      <c r="C127" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D127" s="30" t="s">
+      <c r="D127" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="E127" s="30"/>
-      <c r="F127" s="30"/>
-      <c r="G127" s="30"/>
-      <c r="H127" s="30"/>
-      <c r="I127" s="56"/>
+      <c r="E127" s="31"/>
+      <c r="F127" s="31"/>
+      <c r="G127" s="31"/>
+      <c r="H127" s="31"/>
+      <c r="I127" s="1"/>
     </row>
     <row r="128" ht="18" customHeight="1" spans="1:9">
-      <c r="A128" s="28"/>
-      <c r="B128" s="28"/>
-      <c r="C128" s="29" t="s">
+      <c r="A128" s="29"/>
+      <c r="B128" s="29"/>
+      <c r="C128" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D128" s="30" t="s">
+      <c r="D128" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="E128" s="30"/>
-      <c r="F128" s="30"/>
-      <c r="G128" s="30"/>
-      <c r="H128" s="30"/>
-      <c r="I128" s="56"/>
+      <c r="E128" s="31"/>
+      <c r="F128" s="31"/>
+      <c r="G128" s="31"/>
+      <c r="H128" s="31"/>
+      <c r="I128" s="1"/>
     </row>
     <row r="129" ht="18" customHeight="1"/>
     <row r="130" ht="18" customHeight="1" spans="1:9">
-      <c r="A130" s="28" t="s">
+      <c r="A130" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="B130" s="28"/>
+      <c r="B130" s="29"/>
       <c r="C130" s="57" t="s">
         <v>111</v>
       </c>
@@ -4583,30 +4683,30 @@
       </c>
     </row>
     <row r="131" ht="18" customHeight="1" spans="1:9">
-      <c r="A131" s="28"/>
-      <c r="B131" s="28"/>
+      <c r="A131" s="29"/>
+      <c r="B131" s="29"/>
       <c r="C131" s="60"/>
-      <c r="D131" s="56"/>
-      <c r="E131" s="56"/>
-      <c r="F131" s="56"/>
-      <c r="G131" s="56"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1"/>
+      <c r="G131" s="1"/>
       <c r="H131" s="61"/>
       <c r="I131" s="66"/>
     </row>
     <row r="132" ht="18" customHeight="1" spans="1:9">
-      <c r="A132" s="28"/>
-      <c r="B132" s="28"/>
+      <c r="A132" s="29"/>
+      <c r="B132" s="29"/>
       <c r="C132" s="60"/>
-      <c r="D132" s="56"/>
-      <c r="E132" s="56"/>
-      <c r="F132" s="56"/>
-      <c r="G132" s="56"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
+      <c r="G132" s="1"/>
       <c r="H132" s="61"/>
       <c r="I132" s="66"/>
     </row>
     <row r="133" ht="18" customHeight="1" spans="1:9">
-      <c r="A133" s="28"/>
-      <c r="B133" s="28"/>
+      <c r="A133" s="29"/>
+      <c r="B133" s="29"/>
       <c r="C133" s="62"/>
       <c r="D133" s="63"/>
       <c r="E133" s="63"/>
@@ -4618,700 +4718,700 @@
     <row r="134" ht="18" customHeight="1"/>
     <row r="135" ht="18" customHeight="1"/>
     <row r="136" ht="18" customHeight="1" spans="1:8">
-      <c r="A136" s="28" t="s">
+      <c r="A136" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="B136" s="28"/>
-      <c r="C136" s="30"/>
-      <c r="D136" s="30"/>
-      <c r="E136" s="30"/>
-      <c r="F136" s="30"/>
-      <c r="G136" s="30"/>
-      <c r="H136" s="30"/>
+      <c r="B136" s="29"/>
+      <c r="C136" s="31"/>
+      <c r="D136" s="31"/>
+      <c r="E136" s="31"/>
+      <c r="F136" s="31"/>
+      <c r="G136" s="31"/>
+      <c r="H136" s="31"/>
     </row>
     <row r="137" ht="18" customHeight="1" spans="1:8">
-      <c r="A137" s="28"/>
-      <c r="B137" s="28"/>
-      <c r="C137" s="30"/>
-      <c r="D137" s="30"/>
-      <c r="E137" s="30"/>
-      <c r="F137" s="30"/>
-      <c r="G137" s="30"/>
-      <c r="H137" s="30"/>
+      <c r="A137" s="29"/>
+      <c r="B137" s="29"/>
+      <c r="C137" s="31"/>
+      <c r="D137" s="31"/>
+      <c r="E137" s="31"/>
+      <c r="F137" s="31"/>
+      <c r="G137" s="31"/>
+      <c r="H137" s="31"/>
     </row>
     <row r="138" ht="18" customHeight="1" spans="1:16">
-      <c r="A138" s="28" t="s">
+      <c r="A138" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="B138" s="28"/>
-      <c r="C138" s="29" t="s">
+      <c r="B138" s="29"/>
+      <c r="C138" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D138" s="30" t="s">
+      <c r="D138" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="E138" s="30"/>
-      <c r="F138" s="30"/>
-      <c r="G138" s="30"/>
-      <c r="H138" s="30"/>
+      <c r="E138" s="31"/>
+      <c r="F138" s="31"/>
+      <c r="G138" s="31"/>
+      <c r="H138" s="31"/>
       <c r="I138" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="K138" s="56" t="s">
+      <c r="K138" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L138" s="56"/>
-      <c r="M138" s="56"/>
-      <c r="N138" s="56"/>
-      <c r="O138" s="56"/>
-      <c r="P138" s="56"/>
+      <c r="L138" s="1"/>
+      <c r="M138" s="1"/>
+      <c r="N138" s="1"/>
+      <c r="O138" s="1"/>
+      <c r="P138" s="1"/>
     </row>
     <row r="139" ht="18" customHeight="1" spans="1:9">
-      <c r="A139" s="28"/>
-      <c r="B139" s="28"/>
-      <c r="C139" s="29" t="s">
+      <c r="A139" s="29"/>
+      <c r="B139" s="29"/>
+      <c r="C139" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D139" s="30"/>
-      <c r="E139" s="30"/>
-      <c r="F139" s="30"/>
-      <c r="G139" s="30"/>
-      <c r="H139" s="30"/>
-      <c r="I139" s="56"/>
+      <c r="D139" s="31"/>
+      <c r="E139" s="31"/>
+      <c r="F139" s="31"/>
+      <c r="G139" s="31"/>
+      <c r="H139" s="31"/>
+      <c r="I139" s="1"/>
     </row>
     <row r="140" ht="18" customHeight="1" spans="1:9">
-      <c r="A140" s="28"/>
-      <c r="B140" s="28"/>
-      <c r="C140" s="29" t="s">
+      <c r="A140" s="29"/>
+      <c r="B140" s="29"/>
+      <c r="C140" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D140" s="30"/>
-      <c r="E140" s="30"/>
-      <c r="F140" s="30"/>
-      <c r="G140" s="30"/>
-      <c r="H140" s="30"/>
-      <c r="I140" s="56"/>
+      <c r="D140" s="31"/>
+      <c r="E140" s="31"/>
+      <c r="F140" s="31"/>
+      <c r="G140" s="31"/>
+      <c r="H140" s="31"/>
+      <c r="I140" s="1"/>
     </row>
     <row r="141" ht="18" customHeight="1" spans="1:9">
-      <c r="A141" s="28"/>
-      <c r="B141" s="28"/>
-      <c r="C141" s="29" t="s">
+      <c r="A141" s="29"/>
+      <c r="B141" s="29"/>
+      <c r="C141" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D141" s="30"/>
-      <c r="E141" s="30"/>
-      <c r="F141" s="30"/>
-      <c r="G141" s="30"/>
-      <c r="H141" s="30"/>
-      <c r="I141" s="56"/>
+      <c r="D141" s="31"/>
+      <c r="E141" s="31"/>
+      <c r="F141" s="31"/>
+      <c r="G141" s="31"/>
+      <c r="H141" s="31"/>
+      <c r="I141" s="1"/>
     </row>
     <row r="142" ht="18" customHeight="1"/>
     <row r="143" ht="18" customHeight="1" spans="1:16">
-      <c r="A143" s="28" t="s">
+      <c r="A143" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="B143" s="28"/>
-      <c r="C143" s="29" t="s">
+      <c r="B143" s="29"/>
+      <c r="C143" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D143" s="30" t="s">
+      <c r="D143" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="E143" s="30"/>
-      <c r="F143" s="30"/>
-      <c r="G143" s="30"/>
-      <c r="H143" s="30"/>
-      <c r="J143" s="54" t="s">
+      <c r="E143" s="31"/>
+      <c r="F143" s="31"/>
+      <c r="G143" s="31"/>
+      <c r="H143" s="31"/>
+      <c r="J143" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="K143" s="54"/>
-      <c r="L143" s="54"/>
-      <c r="M143" s="54"/>
-      <c r="N143" s="54"/>
-      <c r="O143" s="54"/>
-      <c r="P143" s="54"/>
+      <c r="K143" s="55"/>
+      <c r="L143" s="55"/>
+      <c r="M143" s="55"/>
+      <c r="N143" s="55"/>
+      <c r="O143" s="55"/>
+      <c r="P143" s="55"/>
     </row>
     <row r="144" ht="18" customHeight="1" spans="1:8">
-      <c r="A144" s="28"/>
-      <c r="B144" s="28"/>
-      <c r="C144" s="29" t="s">
+      <c r="A144" s="29"/>
+      <c r="B144" s="29"/>
+      <c r="C144" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D144" s="30" t="s">
+      <c r="D144" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="E144" s="30"/>
-      <c r="F144" s="30"/>
-      <c r="G144" s="30"/>
-      <c r="H144" s="30"/>
+      <c r="E144" s="31"/>
+      <c r="F144" s="31"/>
+      <c r="G144" s="31"/>
+      <c r="H144" s="31"/>
     </row>
     <row r="145" ht="18" customHeight="1" spans="1:8">
-      <c r="A145" s="28"/>
-      <c r="B145" s="28"/>
-      <c r="C145" s="29" t="s">
+      <c r="A145" s="29"/>
+      <c r="B145" s="29"/>
+      <c r="C145" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D145" s="30" t="s">
+      <c r="D145" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="E145" s="30"/>
-      <c r="F145" s="30"/>
-      <c r="G145" s="30"/>
-      <c r="H145" s="30"/>
+      <c r="E145" s="31"/>
+      <c r="F145" s="31"/>
+      <c r="G145" s="31"/>
+      <c r="H145" s="31"/>
     </row>
     <row r="146" ht="18" customHeight="1" spans="1:8">
-      <c r="A146" s="28"/>
-      <c r="B146" s="28"/>
-      <c r="C146" s="29" t="s">
+      <c r="A146" s="29"/>
+      <c r="B146" s="29"/>
+      <c r="C146" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D146" s="30" t="s">
+      <c r="D146" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="E146" s="30"/>
-      <c r="F146" s="30"/>
-      <c r="G146" s="30"/>
-      <c r="H146" s="30"/>
+      <c r="E146" s="31"/>
+      <c r="F146" s="31"/>
+      <c r="G146" s="31"/>
+      <c r="H146" s="31"/>
     </row>
     <row r="147" ht="18" customHeight="1"/>
     <row r="148" ht="18" customHeight="1" spans="1:16">
-      <c r="A148" s="28" t="s">
+      <c r="A148" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="B148" s="28"/>
-      <c r="C148" s="29" t="s">
+      <c r="B148" s="29"/>
+      <c r="C148" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D148" s="30" t="s">
+      <c r="D148" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="E148" s="30"/>
-      <c r="F148" s="30"/>
-      <c r="G148" s="30"/>
-      <c r="H148" s="30"/>
-      <c r="K148" s="54" t="s">
+      <c r="E148" s="31"/>
+      <c r="F148" s="31"/>
+      <c r="G148" s="31"/>
+      <c r="H148" s="31"/>
+      <c r="K148" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="L148" s="54"/>
-      <c r="M148" s="54"/>
-      <c r="N148" s="54"/>
-      <c r="O148" s="54"/>
-      <c r="P148" s="54"/>
+      <c r="L148" s="55"/>
+      <c r="M148" s="55"/>
+      <c r="N148" s="55"/>
+      <c r="O148" s="55"/>
+      <c r="P148" s="55"/>
     </row>
     <row r="149" ht="18" customHeight="1" spans="1:8">
-      <c r="A149" s="28"/>
-      <c r="B149" s="28"/>
-      <c r="C149" s="29" t="s">
+      <c r="A149" s="29"/>
+      <c r="B149" s="29"/>
+      <c r="C149" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D149" s="30" t="s">
+      <c r="D149" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="E149" s="30"/>
-      <c r="F149" s="30"/>
-      <c r="G149" s="30"/>
-      <c r="H149" s="30"/>
+      <c r="E149" s="31"/>
+      <c r="F149" s="31"/>
+      <c r="G149" s="31"/>
+      <c r="H149" s="31"/>
     </row>
     <row r="150" ht="18" customHeight="1" spans="1:8">
-      <c r="A150" s="28"/>
-      <c r="B150" s="28"/>
-      <c r="C150" s="29" t="s">
+      <c r="A150" s="29"/>
+      <c r="B150" s="29"/>
+      <c r="C150" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D150" s="30" t="s">
+      <c r="D150" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="E150" s="30"/>
-      <c r="F150" s="30"/>
-      <c r="G150" s="30"/>
-      <c r="H150" s="30"/>
+      <c r="E150" s="31"/>
+      <c r="F150" s="31"/>
+      <c r="G150" s="31"/>
+      <c r="H150" s="31"/>
     </row>
     <row r="151" ht="18" customHeight="1" spans="1:8">
-      <c r="A151" s="28"/>
-      <c r="B151" s="28"/>
-      <c r="C151" s="29" t="s">
+      <c r="A151" s="29"/>
+      <c r="B151" s="29"/>
+      <c r="C151" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D151" s="30" t="s">
+      <c r="D151" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="E151" s="30"/>
-      <c r="F151" s="30"/>
-      <c r="G151" s="30"/>
-      <c r="H151" s="30"/>
+      <c r="E151" s="31"/>
+      <c r="F151" s="31"/>
+      <c r="G151" s="31"/>
+      <c r="H151" s="31"/>
     </row>
     <row r="152" ht="18" customHeight="1"/>
     <row r="153" ht="18" customHeight="1" spans="1:9">
-      <c r="A153" s="28" t="s">
+      <c r="A153" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="B153" s="28"/>
-      <c r="C153" s="29" t="s">
+      <c r="B153" s="29"/>
+      <c r="C153" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D153" s="30" t="s">
+      <c r="D153" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="E153" s="30"/>
-      <c r="F153" s="30"/>
-      <c r="G153" s="30"/>
-      <c r="H153" s="30"/>
-      <c r="I153" s="56" t="s">
+      <c r="E153" s="31"/>
+      <c r="F153" s="31"/>
+      <c r="G153" s="31"/>
+      <c r="H153" s="31"/>
+      <c r="I153" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="154" ht="18" customHeight="1" spans="1:9">
-      <c r="A154" s="28"/>
-      <c r="B154" s="28"/>
-      <c r="C154" s="29" t="s">
+      <c r="A154" s="29"/>
+      <c r="B154" s="29"/>
+      <c r="C154" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D154" s="30" t="s">
+      <c r="D154" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="E154" s="30"/>
-      <c r="F154" s="30"/>
-      <c r="G154" s="30"/>
-      <c r="H154" s="30"/>
-      <c r="I154" s="56"/>
+      <c r="E154" s="31"/>
+      <c r="F154" s="31"/>
+      <c r="G154" s="31"/>
+      <c r="H154" s="31"/>
+      <c r="I154" s="1"/>
     </row>
     <row r="155" ht="18" customHeight="1" spans="1:9">
-      <c r="A155" s="28"/>
-      <c r="B155" s="28"/>
-      <c r="C155" s="29" t="s">
+      <c r="A155" s="29"/>
+      <c r="B155" s="29"/>
+      <c r="C155" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D155" s="30"/>
-      <c r="E155" s="30"/>
-      <c r="F155" s="30"/>
-      <c r="G155" s="30"/>
-      <c r="H155" s="30"/>
-      <c r="I155" s="56"/>
+      <c r="D155" s="31"/>
+      <c r="E155" s="31"/>
+      <c r="F155" s="31"/>
+      <c r="G155" s="31"/>
+      <c r="H155" s="31"/>
+      <c r="I155" s="1"/>
     </row>
     <row r="156" ht="18" customHeight="1" spans="1:9">
-      <c r="A156" s="28"/>
-      <c r="B156" s="28"/>
-      <c r="C156" s="29" t="s">
+      <c r="A156" s="29"/>
+      <c r="B156" s="29"/>
+      <c r="C156" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D156" s="30" t="s">
+      <c r="D156" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="E156" s="30"/>
-      <c r="F156" s="30"/>
-      <c r="G156" s="30"/>
-      <c r="H156" s="30"/>
-      <c r="I156" s="56"/>
+      <c r="E156" s="31"/>
+      <c r="F156" s="31"/>
+      <c r="G156" s="31"/>
+      <c r="H156" s="31"/>
+      <c r="I156" s="1"/>
     </row>
     <row r="157" ht="18" customHeight="1"/>
     <row r="158" ht="18" customHeight="1" spans="1:8">
-      <c r="A158" s="28" t="s">
+      <c r="A158" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="B158" s="28"/>
-      <c r="C158" s="29" t="s">
+      <c r="B158" s="29"/>
+      <c r="C158" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D158" s="30" t="s">
+      <c r="D158" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E158" s="30"/>
-      <c r="F158" s="30"/>
-      <c r="G158" s="30"/>
-      <c r="H158" s="30"/>
+      <c r="E158" s="31"/>
+      <c r="F158" s="31"/>
+      <c r="G158" s="31"/>
+      <c r="H158" s="31"/>
     </row>
     <row r="159" ht="18" customHeight="1" spans="1:8">
-      <c r="A159" s="28"/>
-      <c r="B159" s="28"/>
-      <c r="C159" s="29" t="s">
+      <c r="A159" s="29"/>
+      <c r="B159" s="29"/>
+      <c r="C159" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D159" s="30"/>
-      <c r="E159" s="30"/>
-      <c r="F159" s="30"/>
-      <c r="G159" s="30"/>
-      <c r="H159" s="30"/>
+      <c r="D159" s="31"/>
+      <c r="E159" s="31"/>
+      <c r="F159" s="31"/>
+      <c r="G159" s="31"/>
+      <c r="H159" s="31"/>
     </row>
     <row r="160" ht="18" customHeight="1" spans="1:8">
-      <c r="A160" s="28"/>
-      <c r="B160" s="28"/>
-      <c r="C160" s="29" t="s">
+      <c r="A160" s="29"/>
+      <c r="B160" s="29"/>
+      <c r="C160" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D160" s="30"/>
-      <c r="E160" s="30"/>
-      <c r="F160" s="30"/>
-      <c r="G160" s="30"/>
-      <c r="H160" s="30"/>
+      <c r="D160" s="31"/>
+      <c r="E160" s="31"/>
+      <c r="F160" s="31"/>
+      <c r="G160" s="31"/>
+      <c r="H160" s="31"/>
     </row>
     <row r="161" ht="18" customHeight="1" spans="1:8">
-      <c r="A161" s="28"/>
-      <c r="B161" s="28"/>
-      <c r="C161" s="29" t="s">
+      <c r="A161" s="29"/>
+      <c r="B161" s="29"/>
+      <c r="C161" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D161" s="30"/>
-      <c r="E161" s="30"/>
-      <c r="F161" s="30"/>
-      <c r="G161" s="30"/>
-      <c r="H161" s="30"/>
+      <c r="D161" s="31"/>
+      <c r="E161" s="31"/>
+      <c r="F161" s="31"/>
+      <c r="G161" s="31"/>
+      <c r="H161" s="31"/>
     </row>
     <row r="162" ht="18" customHeight="1"/>
     <row r="163" ht="18" customHeight="1" spans="1:8">
-      <c r="A163" s="28" t="s">
+      <c r="A163" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="B163" s="28"/>
-      <c r="C163" s="29" t="s">
+      <c r="B163" s="29"/>
+      <c r="C163" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D163" s="30"/>
-      <c r="E163" s="30"/>
-      <c r="F163" s="30"/>
-      <c r="G163" s="30"/>
-      <c r="H163" s="30"/>
+      <c r="D163" s="31"/>
+      <c r="E163" s="31"/>
+      <c r="F163" s="31"/>
+      <c r="G163" s="31"/>
+      <c r="H163" s="31"/>
     </row>
     <row r="164" ht="18" customHeight="1" spans="1:8">
-      <c r="A164" s="28"/>
-      <c r="B164" s="28"/>
-      <c r="C164" s="29" t="s">
+      <c r="A164" s="29"/>
+      <c r="B164" s="29"/>
+      <c r="C164" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D164" s="30" t="s">
+      <c r="D164" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="E164" s="30"/>
-      <c r="F164" s="30"/>
-      <c r="G164" s="30"/>
-      <c r="H164" s="30"/>
+      <c r="E164" s="31"/>
+      <c r="F164" s="31"/>
+      <c r="G164" s="31"/>
+      <c r="H164" s="31"/>
     </row>
     <row r="165" ht="18" customHeight="1" spans="1:8">
-      <c r="A165" s="28"/>
-      <c r="B165" s="28"/>
-      <c r="C165" s="29" t="s">
+      <c r="A165" s="29"/>
+      <c r="B165" s="29"/>
+      <c r="C165" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D165" s="30"/>
-      <c r="E165" s="30"/>
-      <c r="F165" s="30"/>
-      <c r="G165" s="30"/>
-      <c r="H165" s="30"/>
+      <c r="D165" s="31"/>
+      <c r="E165" s="31"/>
+      <c r="F165" s="31"/>
+      <c r="G165" s="31"/>
+      <c r="H165" s="31"/>
     </row>
     <row r="166" ht="18" customHeight="1" spans="1:8">
-      <c r="A166" s="28"/>
-      <c r="B166" s="28"/>
-      <c r="C166" s="29" t="s">
+      <c r="A166" s="29"/>
+      <c r="B166" s="29"/>
+      <c r="C166" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D166" s="30"/>
-      <c r="E166" s="30"/>
-      <c r="F166" s="30"/>
-      <c r="G166" s="30"/>
-      <c r="H166" s="30"/>
+      <c r="D166" s="31"/>
+      <c r="E166" s="31"/>
+      <c r="F166" s="31"/>
+      <c r="G166" s="31"/>
+      <c r="H166" s="31"/>
     </row>
     <row r="167" ht="18" customHeight="1"/>
     <row r="168" ht="18" customHeight="1" spans="1:8">
-      <c r="A168" s="28" t="s">
+      <c r="A168" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="B168" s="28"/>
-      <c r="C168" s="29" t="s">
+      <c r="B168" s="29"/>
+      <c r="C168" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D168" s="13"/>
+      <c r="D168" s="14"/>
       <c r="E168" s="68"/>
       <c r="F168" s="68"/>
       <c r="G168" s="68"/>
-      <c r="H168" s="14"/>
+      <c r="H168" s="15"/>
     </row>
     <row r="169" ht="18" customHeight="1" spans="1:8">
-      <c r="A169" s="28"/>
-      <c r="B169" s="28"/>
-      <c r="C169" s="29" t="s">
+      <c r="A169" s="29"/>
+      <c r="B169" s="29"/>
+      <c r="C169" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D169" s="18"/>
-      <c r="E169" s="1"/>
-      <c r="F169" s="1"/>
-      <c r="G169" s="1"/>
-      <c r="H169" s="19"/>
+      <c r="D169" s="19"/>
+      <c r="E169" s="2"/>
+      <c r="F169" s="2"/>
+      <c r="G169" s="2"/>
+      <c r="H169" s="20"/>
     </row>
     <row r="170" ht="18" customHeight="1" spans="1:8">
-      <c r="A170" s="28"/>
-      <c r="B170" s="28"/>
-      <c r="C170" s="29" t="s">
+      <c r="A170" s="29"/>
+      <c r="B170" s="29"/>
+      <c r="C170" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D170" s="18"/>
-      <c r="E170" s="1"/>
-      <c r="F170" s="1"/>
-      <c r="G170" s="1"/>
-      <c r="H170" s="19"/>
+      <c r="D170" s="19"/>
+      <c r="E170" s="2"/>
+      <c r="F170" s="2"/>
+      <c r="G170" s="2"/>
+      <c r="H170" s="20"/>
     </row>
     <row r="171" ht="18" customHeight="1" spans="1:8">
-      <c r="A171" s="28"/>
-      <c r="B171" s="28"/>
-      <c r="C171" s="29" t="s">
+      <c r="A171" s="29"/>
+      <c r="B171" s="29"/>
+      <c r="C171" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D171" s="23"/>
+      <c r="D171" s="24"/>
       <c r="E171" s="69"/>
       <c r="F171" s="69"/>
       <c r="G171" s="69"/>
-      <c r="H171" s="24"/>
+      <c r="H171" s="25"/>
     </row>
     <row r="172" ht="18" customHeight="1"/>
     <row r="173" ht="18" customHeight="1"/>
     <row r="174" ht="18" customHeight="1"/>
     <row r="175" ht="18" customHeight="1" spans="1:8">
-      <c r="A175" s="13" t="s">
+      <c r="A175" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B175" s="14"/>
-      <c r="C175" s="15"/>
-      <c r="D175" s="16"/>
-      <c r="E175" s="16"/>
-      <c r="F175" s="16"/>
-      <c r="G175" s="16"/>
-      <c r="H175" s="17"/>
+      <c r="B175" s="15"/>
+      <c r="C175" s="16"/>
+      <c r="D175" s="17"/>
+      <c r="E175" s="17"/>
+      <c r="F175" s="17"/>
+      <c r="G175" s="17"/>
+      <c r="H175" s="18"/>
     </row>
     <row r="176" ht="18" customHeight="1" spans="1:8">
-      <c r="A176" s="18"/>
-      <c r="B176" s="19"/>
-      <c r="C176" s="20"/>
-      <c r="D176" s="21"/>
-      <c r="E176" s="21"/>
-      <c r="F176" s="21"/>
-      <c r="G176" s="21"/>
-      <c r="H176" s="22"/>
+      <c r="A176" s="19"/>
+      <c r="B176" s="20"/>
+      <c r="C176" s="21"/>
+      <c r="D176" s="22"/>
+      <c r="E176" s="22"/>
+      <c r="F176" s="22"/>
+      <c r="G176" s="22"/>
+      <c r="H176" s="23"/>
     </row>
     <row r="177" ht="18" customHeight="1" spans="1:8">
-      <c r="A177" s="23"/>
-      <c r="B177" s="24"/>
-      <c r="C177" s="25"/>
-      <c r="D177" s="26"/>
-      <c r="E177" s="26"/>
-      <c r="F177" s="26"/>
-      <c r="G177" s="26"/>
-      <c r="H177" s="27"/>
+      <c r="A177" s="24"/>
+      <c r="B177" s="25"/>
+      <c r="C177" s="26"/>
+      <c r="D177" s="27"/>
+      <c r="E177" s="27"/>
+      <c r="F177" s="27"/>
+      <c r="G177" s="27"/>
+      <c r="H177" s="28"/>
     </row>
     <row r="178" ht="18" customHeight="1" spans="1:8">
-      <c r="A178" s="18" t="s">
+      <c r="A178" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="B178" s="19"/>
-      <c r="C178" s="20" t="s">
+      <c r="B178" s="20"/>
+      <c r="C178" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="D178" s="21"/>
-      <c r="E178" s="21"/>
-      <c r="F178" s="21"/>
-      <c r="G178" s="21"/>
-      <c r="H178" s="22"/>
+      <c r="D178" s="22"/>
+      <c r="E178" s="22"/>
+      <c r="F178" s="22"/>
+      <c r="G178" s="22"/>
+      <c r="H178" s="23"/>
     </row>
     <row r="179" ht="18" customHeight="1" spans="1:8">
-      <c r="A179" s="23"/>
-      <c r="B179" s="24"/>
-      <c r="C179" s="25"/>
-      <c r="D179" s="26"/>
-      <c r="E179" s="26"/>
-      <c r="F179" s="26"/>
-      <c r="G179" s="26"/>
-      <c r="H179" s="27"/>
+      <c r="A179" s="24"/>
+      <c r="B179" s="25"/>
+      <c r="C179" s="26"/>
+      <c r="D179" s="27"/>
+      <c r="E179" s="27"/>
+      <c r="F179" s="27"/>
+      <c r="G179" s="27"/>
+      <c r="H179" s="28"/>
     </row>
     <row r="180" ht="18" customHeight="1" spans="1:8">
-      <c r="A180" s="28" t="s">
+      <c r="A180" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="B180" s="28"/>
-      <c r="C180" s="29" t="s">
+      <c r="B180" s="29"/>
+      <c r="C180" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D180" s="30" t="s">
+      <c r="D180" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="E180" s="30"/>
-      <c r="F180" s="30"/>
-      <c r="G180" s="30"/>
-      <c r="H180" s="30"/>
+      <c r="E180" s="31"/>
+      <c r="F180" s="31"/>
+      <c r="G180" s="31"/>
+      <c r="H180" s="31"/>
     </row>
     <row r="181" ht="18" customHeight="1" spans="1:8">
-      <c r="A181" s="28"/>
-      <c r="B181" s="28"/>
-      <c r="C181" s="29" t="s">
+      <c r="A181" s="29"/>
+      <c r="B181" s="29"/>
+      <c r="C181" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D181" s="30" t="s">
+      <c r="D181" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="E181" s="30"/>
-      <c r="F181" s="30"/>
-      <c r="G181" s="30"/>
-      <c r="H181" s="30"/>
+      <c r="E181" s="31"/>
+      <c r="F181" s="31"/>
+      <c r="G181" s="31"/>
+      <c r="H181" s="31"/>
     </row>
     <row r="182" ht="18" customHeight="1" spans="1:8">
-      <c r="A182" s="28"/>
-      <c r="B182" s="28"/>
-      <c r="C182" s="29" t="s">
+      <c r="A182" s="29"/>
+      <c r="B182" s="29"/>
+      <c r="C182" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D182" s="30" t="s">
+      <c r="D182" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="E182" s="30"/>
-      <c r="F182" s="30"/>
-      <c r="G182" s="30"/>
-      <c r="H182" s="30"/>
+      <c r="E182" s="31"/>
+      <c r="F182" s="31"/>
+      <c r="G182" s="31"/>
+      <c r="H182" s="31"/>
     </row>
     <row r="183" ht="18" customHeight="1" spans="1:8">
-      <c r="A183" s="28"/>
-      <c r="B183" s="28"/>
-      <c r="C183" s="29" t="s">
+      <c r="A183" s="29"/>
+      <c r="B183" s="29"/>
+      <c r="C183" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D183" s="30" t="s">
+      <c r="D183" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="E183" s="30"/>
-      <c r="F183" s="30"/>
-      <c r="G183" s="30"/>
-      <c r="H183" s="30"/>
+      <c r="E183" s="31"/>
+      <c r="F183" s="31"/>
+      <c r="G183" s="31"/>
+      <c r="H183" s="31"/>
     </row>
     <row r="184" ht="18" customHeight="1"/>
     <row r="185" ht="18" customHeight="1" spans="1:8">
-      <c r="A185" s="28" t="s">
+      <c r="A185" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="B185" s="28"/>
-      <c r="C185" s="29" t="s">
+      <c r="B185" s="29"/>
+      <c r="C185" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D185" s="30" t="s">
+      <c r="D185" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="E185" s="30"/>
-      <c r="F185" s="30"/>
-      <c r="G185" s="30"/>
-      <c r="H185" s="30"/>
+      <c r="E185" s="31"/>
+      <c r="F185" s="31"/>
+      <c r="G185" s="31"/>
+      <c r="H185" s="31"/>
     </row>
     <row r="186" ht="18" customHeight="1" spans="1:8">
-      <c r="A186" s="28"/>
-      <c r="B186" s="28"/>
-      <c r="C186" s="29" t="s">
+      <c r="A186" s="29"/>
+      <c r="B186" s="29"/>
+      <c r="C186" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D186" s="30" t="s">
+      <c r="D186" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="E186" s="30"/>
-      <c r="F186" s="30"/>
-      <c r="G186" s="30"/>
-      <c r="H186" s="30"/>
+      <c r="E186" s="31"/>
+      <c r="F186" s="31"/>
+      <c r="G186" s="31"/>
+      <c r="H186" s="31"/>
     </row>
     <row r="187" ht="18" customHeight="1" spans="1:8">
-      <c r="A187" s="28"/>
-      <c r="B187" s="28"/>
-      <c r="C187" s="29" t="s">
+      <c r="A187" s="29"/>
+      <c r="B187" s="29"/>
+      <c r="C187" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D187" s="30" t="s">
+      <c r="D187" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="E187" s="30"/>
-      <c r="F187" s="30"/>
-      <c r="G187" s="30"/>
-      <c r="H187" s="30"/>
+      <c r="E187" s="31"/>
+      <c r="F187" s="31"/>
+      <c r="G187" s="31"/>
+      <c r="H187" s="31"/>
     </row>
     <row r="188" ht="18" customHeight="1" spans="1:8">
-      <c r="A188" s="28"/>
-      <c r="B188" s="28"/>
-      <c r="C188" s="29" t="s">
+      <c r="A188" s="29"/>
+      <c r="B188" s="29"/>
+      <c r="C188" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D188" s="30" t="s">
+      <c r="D188" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="E188" s="30"/>
-      <c r="F188" s="30"/>
-      <c r="G188" s="30"/>
-      <c r="H188" s="30"/>
+      <c r="E188" s="31"/>
+      <c r="F188" s="31"/>
+      <c r="G188" s="31"/>
+      <c r="H188" s="31"/>
     </row>
     <row r="189" ht="18" customHeight="1" spans="1:8">
       <c r="A189" s="70"/>
       <c r="B189" s="71"/>
-      <c r="C189" s="50"/>
-      <c r="D189" s="21"/>
-      <c r="E189" s="21"/>
-      <c r="F189" s="21"/>
-      <c r="G189" s="21"/>
-      <c r="H189" s="21"/>
+      <c r="C189" s="51"/>
+      <c r="D189" s="22"/>
+      <c r="E189" s="22"/>
+      <c r="F189" s="22"/>
+      <c r="G189" s="22"/>
+      <c r="H189" s="22"/>
     </row>
     <row r="190" ht="18" customHeight="1" spans="1:9">
-      <c r="A190" s="28" t="s">
+      <c r="A190" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="B190" s="28"/>
-      <c r="C190" s="29" t="s">
+      <c r="B190" s="29"/>
+      <c r="C190" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D190" s="30" t="s">
+      <c r="D190" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="E190" s="30"/>
-      <c r="F190" s="30"/>
-      <c r="G190" s="30"/>
-      <c r="H190" s="30"/>
-      <c r="I190" s="56" t="s">
+      <c r="E190" s="31"/>
+      <c r="F190" s="31"/>
+      <c r="G190" s="31"/>
+      <c r="H190" s="31"/>
+      <c r="I190" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="191" ht="18" customHeight="1" spans="1:9">
-      <c r="A191" s="28"/>
-      <c r="B191" s="28"/>
-      <c r="C191" s="29" t="s">
+      <c r="A191" s="29"/>
+      <c r="B191" s="29"/>
+      <c r="C191" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D191" s="30" t="s">
+      <c r="D191" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="E191" s="30"/>
-      <c r="F191" s="30"/>
-      <c r="G191" s="30"/>
-      <c r="H191" s="30"/>
-      <c r="I191" s="56"/>
+      <c r="E191" s="31"/>
+      <c r="F191" s="31"/>
+      <c r="G191" s="31"/>
+      <c r="H191" s="31"/>
+      <c r="I191" s="1"/>
     </row>
     <row r="192" ht="18" customHeight="1" spans="1:9">
-      <c r="A192" s="28"/>
-      <c r="B192" s="28"/>
-      <c r="C192" s="29" t="s">
+      <c r="A192" s="29"/>
+      <c r="B192" s="29"/>
+      <c r="C192" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D192" s="30"/>
-      <c r="E192" s="30"/>
-      <c r="F192" s="30"/>
-      <c r="G192" s="30"/>
-      <c r="H192" s="30"/>
-      <c r="I192" s="56"/>
+      <c r="D192" s="31"/>
+      <c r="E192" s="31"/>
+      <c r="F192" s="31"/>
+      <c r="G192" s="31"/>
+      <c r="H192" s="31"/>
+      <c r="I192" s="1"/>
     </row>
     <row r="193" ht="18" customHeight="1" spans="1:9">
-      <c r="A193" s="28"/>
-      <c r="B193" s="28"/>
-      <c r="C193" s="29" t="s">
+      <c r="A193" s="29"/>
+      <c r="B193" s="29"/>
+      <c r="C193" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D193" s="30"/>
-      <c r="E193" s="30"/>
-      <c r="F193" s="30"/>
-      <c r="G193" s="30"/>
-      <c r="H193" s="30"/>
-      <c r="I193" s="56"/>
+      <c r="D193" s="31"/>
+      <c r="E193" s="31"/>
+      <c r="F193" s="31"/>
+      <c r="G193" s="31"/>
+      <c r="H193" s="31"/>
+      <c r="I193" s="1"/>
     </row>
     <row r="194" ht="18" customHeight="1"/>
     <row r="195" ht="18" customHeight="1" spans="1:9">
-      <c r="A195" s="28" t="s">
+      <c r="A195" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="B195" s="28"/>
+      <c r="B195" s="29"/>
       <c r="C195" s="72" t="s">
         <v>151</v>
       </c>
@@ -5323,8 +5423,8 @@
       <c r="I195" s="73"/>
     </row>
     <row r="196" ht="18" customHeight="1" spans="1:9">
-      <c r="A196" s="28"/>
-      <c r="B196" s="28"/>
+      <c r="A196" s="29"/>
+      <c r="B196" s="29"/>
       <c r="C196" s="74"/>
       <c r="D196" s="73"/>
       <c r="E196" s="73"/>
@@ -5334,8 +5434,8 @@
       <c r="I196" s="73"/>
     </row>
     <row r="197" ht="18" customHeight="1" spans="1:9">
-      <c r="A197" s="28"/>
-      <c r="B197" s="28"/>
+      <c r="A197" s="29"/>
+      <c r="B197" s="29"/>
       <c r="C197" s="74"/>
       <c r="D197" s="73"/>
       <c r="E197" s="73"/>
@@ -5345,8 +5445,8 @@
       <c r="I197" s="73"/>
     </row>
     <row r="198" ht="18" customHeight="1" spans="1:9">
-      <c r="A198" s="28"/>
-      <c r="B198" s="28"/>
+      <c r="A198" s="29"/>
+      <c r="B198" s="29"/>
       <c r="C198" s="74"/>
       <c r="D198" s="73"/>
       <c r="E198" s="73"/>
@@ -5358,99 +5458,99 @@
     <row r="199" ht="18" customHeight="1"/>
     <row r="200" ht="18" customHeight="1"/>
     <row r="201" ht="18" customHeight="1" spans="1:8">
-      <c r="A201" s="28" t="s">
+      <c r="A201" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="B201" s="28"/>
-      <c r="C201" s="30" t="s">
+      <c r="B201" s="29"/>
+      <c r="C201" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="D201" s="30"/>
-      <c r="E201" s="30"/>
-      <c r="F201" s="30"/>
-      <c r="G201" s="30"/>
-      <c r="H201" s="30"/>
+      <c r="D201" s="31"/>
+      <c r="E201" s="31"/>
+      <c r="F201" s="31"/>
+      <c r="G201" s="31"/>
+      <c r="H201" s="31"/>
     </row>
     <row r="202" ht="18" customHeight="1" spans="1:8">
-      <c r="A202" s="28"/>
-      <c r="B202" s="28"/>
-      <c r="C202" s="30"/>
-      <c r="D202" s="30"/>
-      <c r="E202" s="30"/>
-      <c r="F202" s="30"/>
-      <c r="G202" s="30"/>
-      <c r="H202" s="30"/>
+      <c r="A202" s="29"/>
+      <c r="B202" s="29"/>
+      <c r="C202" s="31"/>
+      <c r="D202" s="31"/>
+      <c r="E202" s="31"/>
+      <c r="F202" s="31"/>
+      <c r="G202" s="31"/>
+      <c r="H202" s="31"/>
     </row>
     <row r="203" ht="18" customHeight="1" spans="1:8">
-      <c r="A203" s="28" t="s">
+      <c r="A203" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="B203" s="28"/>
-      <c r="C203" s="29" t="s">
+      <c r="B203" s="29"/>
+      <c r="C203" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D203" s="30" t="s">
+      <c r="D203" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="E203" s="30"/>
-      <c r="F203" s="30"/>
-      <c r="G203" s="30"/>
-      <c r="H203" s="30"/>
+      <c r="E203" s="31"/>
+      <c r="F203" s="31"/>
+      <c r="G203" s="31"/>
+      <c r="H203" s="31"/>
     </row>
     <row r="204" ht="18" customHeight="1" spans="1:15">
-      <c r="A204" s="28"/>
-      <c r="B204" s="28"/>
-      <c r="C204" s="29" t="s">
+      <c r="A204" s="29"/>
+      <c r="B204" s="29"/>
+      <c r="C204" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D204" s="30" t="s">
+      <c r="D204" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="E204" s="30"/>
-      <c r="F204" s="30"/>
-      <c r="G204" s="30"/>
-      <c r="H204" s="30"/>
-      <c r="J204" s="21" t="s">
+      <c r="E204" s="31"/>
+      <c r="F204" s="31"/>
+      <c r="G204" s="31"/>
+      <c r="H204" s="31"/>
+      <c r="J204" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="K204" s="21"/>
-      <c r="L204" s="21"/>
-      <c r="M204" s="21"/>
-      <c r="N204" s="21"/>
-      <c r="O204" s="21"/>
+      <c r="K204" s="22"/>
+      <c r="L204" s="22"/>
+      <c r="M204" s="22"/>
+      <c r="N204" s="22"/>
+      <c r="O204" s="22"/>
     </row>
     <row r="205" ht="18" customHeight="1" spans="1:8">
-      <c r="A205" s="28"/>
-      <c r="B205" s="28"/>
-      <c r="C205" s="29" t="s">
+      <c r="A205" s="29"/>
+      <c r="B205" s="29"/>
+      <c r="C205" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D205" s="30"/>
-      <c r="E205" s="30"/>
-      <c r="F205" s="30"/>
-      <c r="G205" s="30"/>
-      <c r="H205" s="30"/>
+      <c r="D205" s="31"/>
+      <c r="E205" s="31"/>
+      <c r="F205" s="31"/>
+      <c r="G205" s="31"/>
+      <c r="H205" s="31"/>
     </row>
     <row r="206" ht="18" customHeight="1" spans="1:8">
-      <c r="A206" s="28"/>
-      <c r="B206" s="28"/>
-      <c r="C206" s="29" t="s">
+      <c r="A206" s="29"/>
+      <c r="B206" s="29"/>
+      <c r="C206" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D206" s="30" t="s">
+      <c r="D206" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="E206" s="30"/>
-      <c r="F206" s="30"/>
-      <c r="G206" s="30"/>
-      <c r="H206" s="30"/>
+      <c r="E206" s="31"/>
+      <c r="F206" s="31"/>
+      <c r="G206" s="31"/>
+      <c r="H206" s="31"/>
     </row>
     <row r="207" ht="18" customHeight="1"/>
     <row r="208" ht="18" customHeight="1" spans="1:9">
-      <c r="A208" s="28" t="s">
+      <c r="A208" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="B208" s="28"/>
+      <c r="B208" s="29"/>
       <c r="C208" s="72" t="s">
         <v>151</v>
       </c>
@@ -5462,8 +5562,8 @@
       <c r="I208" s="73"/>
     </row>
     <row r="209" ht="18" customHeight="1" spans="1:9">
-      <c r="A209" s="28"/>
-      <c r="B209" s="28"/>
+      <c r="A209" s="29"/>
+      <c r="B209" s="29"/>
       <c r="C209" s="74"/>
       <c r="D209" s="73"/>
       <c r="E209" s="73"/>
@@ -5473,8 +5573,8 @@
       <c r="I209" s="73"/>
     </row>
     <row r="210" ht="18" customHeight="1" spans="1:9">
-      <c r="A210" s="28"/>
-      <c r="B210" s="28"/>
+      <c r="A210" s="29"/>
+      <c r="B210" s="29"/>
       <c r="C210" s="74"/>
       <c r="D210" s="73"/>
       <c r="E210" s="73"/>
@@ -5484,8 +5584,8 @@
       <c r="I210" s="73"/>
     </row>
     <row r="211" ht="18" customHeight="1" spans="1:9">
-      <c r="A211" s="28"/>
-      <c r="B211" s="28"/>
+      <c r="A211" s="29"/>
+      <c r="B211" s="29"/>
       <c r="C211" s="74"/>
       <c r="D211" s="73"/>
       <c r="E211" s="73"/>
@@ -5497,146 +5597,146 @@
     <row r="212" ht="18" customHeight="1"/>
     <row r="213" ht="18" customHeight="1"/>
     <row r="214" ht="18" customHeight="1" spans="1:8">
-      <c r="A214" s="28" t="s">
+      <c r="A214" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="B214" s="28"/>
-      <c r="C214" s="30" t="s">
+      <c r="B214" s="29"/>
+      <c r="C214" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="D214" s="30"/>
-      <c r="E214" s="30"/>
-      <c r="F214" s="30"/>
-      <c r="G214" s="30"/>
-      <c r="H214" s="30"/>
+      <c r="D214" s="31"/>
+      <c r="E214" s="31"/>
+      <c r="F214" s="31"/>
+      <c r="G214" s="31"/>
+      <c r="H214" s="31"/>
     </row>
     <row r="215" ht="18" customHeight="1" spans="1:8">
-      <c r="A215" s="28"/>
-      <c r="B215" s="28"/>
-      <c r="C215" s="30"/>
-      <c r="D215" s="30"/>
-      <c r="E215" s="30"/>
-      <c r="F215" s="30"/>
-      <c r="G215" s="30"/>
-      <c r="H215" s="30"/>
+      <c r="A215" s="29"/>
+      <c r="B215" s="29"/>
+      <c r="C215" s="31"/>
+      <c r="D215" s="31"/>
+      <c r="E215" s="31"/>
+      <c r="F215" s="31"/>
+      <c r="G215" s="31"/>
+      <c r="H215" s="31"/>
     </row>
     <row r="216" ht="18" customHeight="1" spans="1:8">
-      <c r="A216" s="28" t="s">
+      <c r="A216" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="B216" s="28"/>
-      <c r="C216" s="29" t="s">
+      <c r="B216" s="29"/>
+      <c r="C216" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D216" s="30" t="s">
+      <c r="D216" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="E216" s="30"/>
-      <c r="F216" s="30"/>
-      <c r="G216" s="30"/>
-      <c r="H216" s="30"/>
+      <c r="E216" s="31"/>
+      <c r="F216" s="31"/>
+      <c r="G216" s="31"/>
+      <c r="H216" s="31"/>
     </row>
     <row r="217" ht="18" customHeight="1" spans="1:8">
-      <c r="A217" s="28"/>
-      <c r="B217" s="28"/>
-      <c r="C217" s="29" t="s">
+      <c r="A217" s="29"/>
+      <c r="B217" s="29"/>
+      <c r="C217" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D217" s="30" t="s">
+      <c r="D217" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="E217" s="30"/>
-      <c r="F217" s="30"/>
-      <c r="G217" s="30"/>
-      <c r="H217" s="30"/>
+      <c r="E217" s="31"/>
+      <c r="F217" s="31"/>
+      <c r="G217" s="31"/>
+      <c r="H217" s="31"/>
     </row>
     <row r="218" ht="18" customHeight="1" spans="1:8">
-      <c r="A218" s="28"/>
-      <c r="B218" s="28"/>
-      <c r="C218" s="29" t="s">
+      <c r="A218" s="29"/>
+      <c r="B218" s="29"/>
+      <c r="C218" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D218" s="30"/>
-      <c r="E218" s="30"/>
-      <c r="F218" s="30"/>
-      <c r="G218" s="30"/>
-      <c r="H218" s="30"/>
+      <c r="D218" s="31"/>
+      <c r="E218" s="31"/>
+      <c r="F218" s="31"/>
+      <c r="G218" s="31"/>
+      <c r="H218" s="31"/>
     </row>
     <row r="219" ht="18" customHeight="1" spans="1:8">
-      <c r="A219" s="28"/>
-      <c r="B219" s="28"/>
-      <c r="C219" s="29" t="s">
+      <c r="A219" s="29"/>
+      <c r="B219" s="29"/>
+      <c r="C219" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D219" s="30" t="s">
+      <c r="D219" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="E219" s="30"/>
-      <c r="F219" s="30"/>
-      <c r="G219" s="30"/>
-      <c r="H219" s="30"/>
+      <c r="E219" s="31"/>
+      <c r="F219" s="31"/>
+      <c r="G219" s="31"/>
+      <c r="H219" s="31"/>
     </row>
     <row r="220" ht="18" customHeight="1"/>
     <row r="221" ht="18" customHeight="1" spans="1:8">
-      <c r="A221" s="28" t="s">
+      <c r="A221" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="B221" s="28"/>
-      <c r="C221" s="29" t="s">
+      <c r="B221" s="29"/>
+      <c r="C221" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D221" s="30" t="s">
+      <c r="D221" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="E221" s="30"/>
-      <c r="F221" s="30"/>
-      <c r="G221" s="30"/>
-      <c r="H221" s="30"/>
+      <c r="E221" s="31"/>
+      <c r="F221" s="31"/>
+      <c r="G221" s="31"/>
+      <c r="H221" s="31"/>
     </row>
     <row r="222" ht="18" customHeight="1" spans="1:8">
-      <c r="A222" s="28"/>
-      <c r="B222" s="28"/>
-      <c r="C222" s="29" t="s">
+      <c r="A222" s="29"/>
+      <c r="B222" s="29"/>
+      <c r="C222" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D222" s="30" t="s">
+      <c r="D222" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="E222" s="30"/>
-      <c r="F222" s="30"/>
-      <c r="G222" s="30"/>
-      <c r="H222" s="30"/>
+      <c r="E222" s="31"/>
+      <c r="F222" s="31"/>
+      <c r="G222" s="31"/>
+      <c r="H222" s="31"/>
     </row>
     <row r="223" ht="18" customHeight="1" spans="1:8">
-      <c r="A223" s="28"/>
-      <c r="B223" s="28"/>
-      <c r="C223" s="29" t="s">
+      <c r="A223" s="29"/>
+      <c r="B223" s="29"/>
+      <c r="C223" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D223" s="30"/>
-      <c r="E223" s="30"/>
-      <c r="F223" s="30"/>
-      <c r="G223" s="30"/>
-      <c r="H223" s="30"/>
+      <c r="D223" s="31"/>
+      <c r="E223" s="31"/>
+      <c r="F223" s="31"/>
+      <c r="G223" s="31"/>
+      <c r="H223" s="31"/>
     </row>
     <row r="224" ht="18" customHeight="1" spans="1:8">
-      <c r="A224" s="28"/>
-      <c r="B224" s="28"/>
-      <c r="C224" s="29" t="s">
+      <c r="A224" s="29"/>
+      <c r="B224" s="29"/>
+      <c r="C224" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D224" s="30"/>
-      <c r="E224" s="30"/>
-      <c r="F224" s="30"/>
-      <c r="G224" s="30"/>
-      <c r="H224" s="30"/>
+      <c r="D224" s="31"/>
+      <c r="E224" s="31"/>
+      <c r="F224" s="31"/>
+      <c r="G224" s="31"/>
+      <c r="H224" s="31"/>
     </row>
     <row r="225" ht="18" customHeight="1"/>
     <row r="226" ht="18" customHeight="1" spans="1:9">
-      <c r="A226" s="28" t="s">
+      <c r="A226" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="B226" s="28"/>
+      <c r="B226" s="29"/>
       <c r="C226" s="72" t="s">
         <v>151</v>
       </c>
@@ -5648,8 +5748,8 @@
       <c r="I226" s="73"/>
     </row>
     <row r="227" ht="18" customHeight="1" spans="1:9">
-      <c r="A227" s="28"/>
-      <c r="B227" s="28"/>
+      <c r="A227" s="29"/>
+      <c r="B227" s="29"/>
       <c r="C227" s="74"/>
       <c r="D227" s="73"/>
       <c r="E227" s="73"/>
@@ -5659,8 +5759,8 @@
       <c r="I227" s="73"/>
     </row>
     <row r="228" ht="18" customHeight="1" spans="1:9">
-      <c r="A228" s="28"/>
-      <c r="B228" s="28"/>
+      <c r="A228" s="29"/>
+      <c r="B228" s="29"/>
       <c r="C228" s="74"/>
       <c r="D228" s="73"/>
       <c r="E228" s="73"/>
@@ -5670,8 +5770,8 @@
       <c r="I228" s="73"/>
     </row>
     <row r="229" ht="18" customHeight="1" spans="1:9">
-      <c r="A229" s="28"/>
-      <c r="B229" s="28"/>
+      <c r="A229" s="29"/>
+      <c r="B229" s="29"/>
       <c r="C229" s="74"/>
       <c r="D229" s="73"/>
       <c r="E229" s="73"/>
@@ -5683,91 +5783,91 @@
     <row r="230" ht="18" customHeight="1"/>
     <row r="231" ht="18" customHeight="1"/>
     <row r="232" ht="18" customHeight="1" spans="1:8">
-      <c r="A232" s="28" t="s">
+      <c r="A232" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="B232" s="28"/>
-      <c r="C232" s="30" t="s">
+      <c r="B232" s="29"/>
+      <c r="C232" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="D232" s="30"/>
-      <c r="E232" s="30"/>
-      <c r="F232" s="30"/>
-      <c r="G232" s="30"/>
-      <c r="H232" s="30"/>
+      <c r="D232" s="31"/>
+      <c r="E232" s="31"/>
+      <c r="F232" s="31"/>
+      <c r="G232" s="31"/>
+      <c r="H232" s="31"/>
     </row>
     <row r="233" ht="18" customHeight="1" spans="1:8">
-      <c r="A233" s="28"/>
-      <c r="B233" s="28"/>
-      <c r="C233" s="30"/>
-      <c r="D233" s="30"/>
-      <c r="E233" s="30"/>
-      <c r="F233" s="30"/>
-      <c r="G233" s="30"/>
-      <c r="H233" s="30"/>
+      <c r="A233" s="29"/>
+      <c r="B233" s="29"/>
+      <c r="C233" s="31"/>
+      <c r="D233" s="31"/>
+      <c r="E233" s="31"/>
+      <c r="F233" s="31"/>
+      <c r="G233" s="31"/>
+      <c r="H233" s="31"/>
     </row>
     <row r="234" ht="18" customHeight="1" spans="1:8">
-      <c r="A234" s="28" t="s">
+      <c r="A234" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="B234" s="28"/>
-      <c r="C234" s="29" t="s">
+      <c r="B234" s="29"/>
+      <c r="C234" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D234" s="30" t="s">
+      <c r="D234" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="E234" s="30"/>
-      <c r="F234" s="30"/>
-      <c r="G234" s="30"/>
-      <c r="H234" s="30"/>
+      <c r="E234" s="31"/>
+      <c r="F234" s="31"/>
+      <c r="G234" s="31"/>
+      <c r="H234" s="31"/>
     </row>
     <row r="235" ht="18" customHeight="1" spans="1:8">
-      <c r="A235" s="28"/>
-      <c r="B235" s="28"/>
-      <c r="C235" s="29" t="s">
+      <c r="A235" s="29"/>
+      <c r="B235" s="29"/>
+      <c r="C235" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D235" s="30" t="s">
+      <c r="D235" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="E235" s="30"/>
-      <c r="F235" s="30"/>
-      <c r="G235" s="30"/>
-      <c r="H235" s="30"/>
+      <c r="E235" s="31"/>
+      <c r="F235" s="31"/>
+      <c r="G235" s="31"/>
+      <c r="H235" s="31"/>
     </row>
     <row r="236" ht="18" customHeight="1" spans="1:8">
-      <c r="A236" s="28"/>
-      <c r="B236" s="28"/>
-      <c r="C236" s="29" t="s">
+      <c r="A236" s="29"/>
+      <c r="B236" s="29"/>
+      <c r="C236" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D236" s="30"/>
-      <c r="E236" s="30"/>
-      <c r="F236" s="30"/>
-      <c r="G236" s="30"/>
-      <c r="H236" s="30"/>
+      <c r="D236" s="31"/>
+      <c r="E236" s="31"/>
+      <c r="F236" s="31"/>
+      <c r="G236" s="31"/>
+      <c r="H236" s="31"/>
     </row>
     <row r="237" ht="18" customHeight="1" spans="1:8">
-      <c r="A237" s="28"/>
-      <c r="B237" s="28"/>
-      <c r="C237" s="29" t="s">
+      <c r="A237" s="29"/>
+      <c r="B237" s="29"/>
+      <c r="C237" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D237" s="30" t="s">
+      <c r="D237" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="E237" s="30"/>
-      <c r="F237" s="30"/>
-      <c r="G237" s="30"/>
-      <c r="H237" s="30"/>
+      <c r="E237" s="31"/>
+      <c r="F237" s="31"/>
+      <c r="G237" s="31"/>
+      <c r="H237" s="31"/>
     </row>
     <row r="238" ht="18" customHeight="1"/>
     <row r="239" ht="18" customHeight="1" spans="1:9">
-      <c r="A239" s="28" t="s">
+      <c r="A239" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="B239" s="28"/>
+      <c r="B239" s="29"/>
       <c r="C239" s="72" t="s">
         <v>151</v>
       </c>
@@ -5779,8 +5879,8 @@
       <c r="I239" s="73"/>
     </row>
     <row r="240" ht="18" customHeight="1" spans="1:9">
-      <c r="A240" s="28"/>
-      <c r="B240" s="28"/>
+      <c r="A240" s="29"/>
+      <c r="B240" s="29"/>
       <c r="C240" s="74"/>
       <c r="D240" s="73"/>
       <c r="E240" s="73"/>
@@ -5790,8 +5890,8 @@
       <c r="I240" s="73"/>
     </row>
     <row r="241" ht="18" customHeight="1" spans="1:9">
-      <c r="A241" s="28"/>
-      <c r="B241" s="28"/>
+      <c r="A241" s="29"/>
+      <c r="B241" s="29"/>
       <c r="C241" s="74"/>
       <c r="D241" s="73"/>
       <c r="E241" s="73"/>
@@ -5801,8 +5901,8 @@
       <c r="I241" s="73"/>
     </row>
     <row r="242" ht="18" customHeight="1" spans="1:9">
-      <c r="A242" s="28"/>
-      <c r="B242" s="28"/>
+      <c r="A242" s="29"/>
+      <c r="B242" s="29"/>
       <c r="C242" s="74"/>
       <c r="D242" s="73"/>
       <c r="E242" s="73"/>
@@ -5815,200 +5915,200 @@
     <row r="244" ht="18" customHeight="1"/>
     <row r="245" ht="18" customHeight="1"/>
     <row r="246" ht="18" customHeight="1" spans="1:8">
-      <c r="A246" s="13" t="s">
+      <c r="A246" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="B246" s="14"/>
-      <c r="C246" s="15"/>
-      <c r="D246" s="16"/>
-      <c r="E246" s="16"/>
-      <c r="F246" s="16"/>
-      <c r="G246" s="16"/>
-      <c r="H246" s="17"/>
+      <c r="B246" s="15"/>
+      <c r="C246" s="16"/>
+      <c r="D246" s="17"/>
+      <c r="E246" s="17"/>
+      <c r="F246" s="17"/>
+      <c r="G246" s="17"/>
+      <c r="H246" s="18"/>
     </row>
     <row r="247" ht="18" customHeight="1" spans="1:8">
-      <c r="A247" s="18"/>
-      <c r="B247" s="19"/>
-      <c r="C247" s="20"/>
-      <c r="D247" s="21"/>
-      <c r="E247" s="21"/>
-      <c r="F247" s="21"/>
-      <c r="G247" s="21"/>
-      <c r="H247" s="22"/>
+      <c r="A247" s="19"/>
+      <c r="B247" s="20"/>
+      <c r="C247" s="21"/>
+      <c r="D247" s="22"/>
+      <c r="E247" s="22"/>
+      <c r="F247" s="22"/>
+      <c r="G247" s="22"/>
+      <c r="H247" s="23"/>
     </row>
     <row r="248" ht="18" customHeight="1" spans="1:8">
-      <c r="A248" s="23"/>
-      <c r="B248" s="24"/>
-      <c r="C248" s="25"/>
-      <c r="D248" s="26"/>
-      <c r="E248" s="26"/>
-      <c r="F248" s="26"/>
-      <c r="G248" s="26"/>
-      <c r="H248" s="27"/>
+      <c r="A248" s="24"/>
+      <c r="B248" s="25"/>
+      <c r="C248" s="26"/>
+      <c r="D248" s="27"/>
+      <c r="E248" s="27"/>
+      <c r="F248" s="27"/>
+      <c r="G248" s="27"/>
+      <c r="H248" s="28"/>
     </row>
     <row r="249" ht="18" customHeight="1" spans="1:8">
-      <c r="A249" s="18" t="s">
+      <c r="A249" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="B249" s="19"/>
-      <c r="C249" s="20"/>
-      <c r="D249" s="21"/>
-      <c r="E249" s="21"/>
-      <c r="F249" s="21"/>
-      <c r="G249" s="21"/>
-      <c r="H249" s="22"/>
+      <c r="B249" s="20"/>
+      <c r="C249" s="21"/>
+      <c r="D249" s="22"/>
+      <c r="E249" s="22"/>
+      <c r="F249" s="22"/>
+      <c r="G249" s="22"/>
+      <c r="H249" s="23"/>
     </row>
     <row r="250" ht="18" customHeight="1" spans="1:8">
-      <c r="A250" s="23"/>
-      <c r="B250" s="24"/>
-      <c r="C250" s="25"/>
-      <c r="D250" s="26"/>
-      <c r="E250" s="26"/>
-      <c r="F250" s="26"/>
-      <c r="G250" s="26"/>
-      <c r="H250" s="27"/>
+      <c r="A250" s="24"/>
+      <c r="B250" s="25"/>
+      <c r="C250" s="26"/>
+      <c r="D250" s="27"/>
+      <c r="E250" s="27"/>
+      <c r="F250" s="27"/>
+      <c r="G250" s="27"/>
+      <c r="H250" s="28"/>
     </row>
     <row r="251" ht="18" customHeight="1" spans="1:8">
       <c r="A251" s="70" t="s">
         <v>172</v>
       </c>
       <c r="B251" s="75"/>
-      <c r="C251" s="51" t="s">
+      <c r="C251" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="D251" s="52"/>
-      <c r="E251" s="52"/>
-      <c r="F251" s="52"/>
-      <c r="G251" s="52"/>
-      <c r="H251" s="53"/>
+      <c r="D251" s="53"/>
+      <c r="E251" s="53"/>
+      <c r="F251" s="53"/>
+      <c r="G251" s="53"/>
+      <c r="H251" s="54"/>
     </row>
     <row r="252" ht="18" customHeight="1" spans="1:8">
       <c r="A252" s="70" t="s">
         <v>174</v>
       </c>
       <c r="B252" s="75"/>
-      <c r="C252" s="51" t="s">
+      <c r="C252" s="52" t="s">
         <v>175</v>
       </c>
-      <c r="D252" s="52"/>
-      <c r="E252" s="52"/>
-      <c r="F252" s="52"/>
-      <c r="G252" s="52"/>
-      <c r="H252" s="53"/>
+      <c r="D252" s="53"/>
+      <c r="E252" s="53"/>
+      <c r="F252" s="53"/>
+      <c r="G252" s="53"/>
+      <c r="H252" s="54"/>
     </row>
     <row r="253" ht="18" customHeight="1" spans="1:8">
       <c r="A253" s="70" t="s">
         <v>176</v>
       </c>
       <c r="B253" s="75"/>
-      <c r="C253" s="51" t="s">
+      <c r="C253" s="52" t="s">
         <v>177</v>
       </c>
-      <c r="D253" s="52"/>
-      <c r="E253" s="52"/>
-      <c r="F253" s="52"/>
-      <c r="G253" s="52"/>
-      <c r="H253" s="53"/>
+      <c r="D253" s="53"/>
+      <c r="E253" s="53"/>
+      <c r="F253" s="53"/>
+      <c r="G253" s="53"/>
+      <c r="H253" s="54"/>
     </row>
     <row r="254" ht="18" customHeight="1" spans="1:8">
       <c r="A254" s="70" t="s">
         <v>178</v>
       </c>
       <c r="B254" s="75"/>
-      <c r="C254" s="51" t="s">
+      <c r="C254" s="52" t="s">
         <v>179</v>
       </c>
-      <c r="D254" s="52"/>
-      <c r="E254" s="52"/>
-      <c r="F254" s="52"/>
-      <c r="G254" s="52"/>
-      <c r="H254" s="53"/>
+      <c r="D254" s="53"/>
+      <c r="E254" s="53"/>
+      <c r="F254" s="53"/>
+      <c r="G254" s="53"/>
+      <c r="H254" s="54"/>
     </row>
     <row r="255" ht="18" customHeight="1" spans="1:8">
       <c r="A255" s="70" t="s">
         <v>180</v>
       </c>
       <c r="B255" s="75"/>
-      <c r="C255" s="51" t="s">
+      <c r="C255" s="52" t="s">
         <v>181</v>
       </c>
-      <c r="D255" s="52"/>
-      <c r="E255" s="52"/>
-      <c r="F255" s="52"/>
-      <c r="G255" s="52"/>
-      <c r="H255" s="53"/>
+      <c r="D255" s="53"/>
+      <c r="E255" s="53"/>
+      <c r="F255" s="53"/>
+      <c r="G255" s="53"/>
+      <c r="H255" s="54"/>
     </row>
     <row r="256" ht="18" customHeight="1" spans="3:8">
-      <c r="C256" s="54"/>
-      <c r="D256" s="54"/>
-      <c r="E256" s="54"/>
-      <c r="F256" s="54"/>
-      <c r="G256" s="54"/>
-      <c r="H256" s="54"/>
+      <c r="C256" s="55"/>
+      <c r="D256" s="55"/>
+      <c r="E256" s="55"/>
+      <c r="F256" s="55"/>
+      <c r="G256" s="55"/>
+      <c r="H256" s="55"/>
     </row>
     <row r="257" ht="18" customHeight="1" spans="1:8">
-      <c r="A257" s="28" t="s">
+      <c r="A257" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="B257" s="28"/>
-      <c r="C257" s="30"/>
-      <c r="D257" s="30"/>
-      <c r="E257" s="30"/>
-      <c r="F257" s="30"/>
-      <c r="G257" s="30"/>
-      <c r="H257" s="30"/>
+      <c r="B257" s="29"/>
+      <c r="C257" s="31"/>
+      <c r="D257" s="31"/>
+      <c r="E257" s="31"/>
+      <c r="F257" s="31"/>
+      <c r="G257" s="31"/>
+      <c r="H257" s="31"/>
     </row>
     <row r="258" ht="18" customHeight="1" spans="1:8">
-      <c r="A258" s="28"/>
-      <c r="B258" s="28"/>
-      <c r="C258" s="30"/>
-      <c r="D258" s="30"/>
-      <c r="E258" s="30"/>
-      <c r="F258" s="30"/>
-      <c r="G258" s="30"/>
-      <c r="H258" s="30"/>
+      <c r="A258" s="29"/>
+      <c r="B258" s="29"/>
+      <c r="C258" s="31"/>
+      <c r="D258" s="31"/>
+      <c r="E258" s="31"/>
+      <c r="F258" s="31"/>
+      <c r="G258" s="31"/>
+      <c r="H258" s="31"/>
     </row>
     <row r="259" ht="18" customHeight="1" spans="1:8">
       <c r="A259" s="70" t="s">
         <v>183</v>
       </c>
       <c r="B259" s="75"/>
-      <c r="C259" s="51" t="s">
+      <c r="C259" s="52" t="s">
         <v>184</v>
       </c>
-      <c r="D259" s="52"/>
-      <c r="E259" s="52"/>
-      <c r="F259" s="52"/>
-      <c r="G259" s="52"/>
-      <c r="H259" s="53"/>
+      <c r="D259" s="53"/>
+      <c r="E259" s="53"/>
+      <c r="F259" s="53"/>
+      <c r="G259" s="53"/>
+      <c r="H259" s="54"/>
     </row>
     <row r="260" ht="18" customHeight="1" spans="1:8">
       <c r="A260" s="70" t="s">
         <v>185</v>
       </c>
       <c r="B260" s="75"/>
-      <c r="C260" s="51" t="s">
+      <c r="C260" s="52" t="s">
         <v>186</v>
       </c>
-      <c r="D260" s="52"/>
-      <c r="E260" s="52"/>
-      <c r="F260" s="52"/>
-      <c r="G260" s="52"/>
-      <c r="H260" s="53"/>
+      <c r="D260" s="53"/>
+      <c r="E260" s="53"/>
+      <c r="F260" s="53"/>
+      <c r="G260" s="53"/>
+      <c r="H260" s="54"/>
     </row>
     <row r="261" ht="18" customHeight="1" spans="1:8">
       <c r="A261" s="70" t="s">
         <v>187</v>
       </c>
       <c r="B261" s="75"/>
-      <c r="C261" s="51" t="s">
+      <c r="C261" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="D261" s="52"/>
-      <c r="E261" s="52"/>
-      <c r="F261" s="52"/>
-      <c r="G261" s="52"/>
-      <c r="H261" s="53"/>
+      <c r="D261" s="53"/>
+      <c r="E261" s="53"/>
+      <c r="F261" s="53"/>
+      <c r="G261" s="53"/>
+      <c r="H261" s="54"/>
     </row>
     <row r="262" ht="18" customHeight="1" spans="1:8">
       <c r="A262" s="70" t="s">
@@ -6037,232 +6137,232 @@
       <c r="H263" s="81"/>
     </row>
     <row r="264" ht="18" customHeight="1" spans="3:8">
-      <c r="C264" s="54"/>
-      <c r="D264" s="54"/>
-      <c r="E264" s="54"/>
-      <c r="F264" s="54"/>
-      <c r="G264" s="54"/>
-      <c r="H264" s="54"/>
+      <c r="C264" s="55"/>
+      <c r="D264" s="55"/>
+      <c r="E264" s="55"/>
+      <c r="F264" s="55"/>
+      <c r="G264" s="55"/>
+      <c r="H264" s="55"/>
     </row>
     <row r="265" ht="18" customHeight="1" spans="1:8">
-      <c r="A265" s="28" t="s">
+      <c r="A265" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="B265" s="28"/>
-      <c r="C265" s="30"/>
-      <c r="D265" s="30"/>
-      <c r="E265" s="30"/>
-      <c r="F265" s="30"/>
-      <c r="G265" s="30"/>
-      <c r="H265" s="30"/>
+      <c r="B265" s="29"/>
+      <c r="C265" s="31"/>
+      <c r="D265" s="31"/>
+      <c r="E265" s="31"/>
+      <c r="F265" s="31"/>
+      <c r="G265" s="31"/>
+      <c r="H265" s="31"/>
     </row>
     <row r="266" ht="18" customHeight="1" spans="1:8">
-      <c r="A266" s="28"/>
-      <c r="B266" s="28"/>
-      <c r="C266" s="30"/>
-      <c r="D266" s="30"/>
-      <c r="E266" s="30"/>
-      <c r="F266" s="30"/>
-      <c r="G266" s="30"/>
-      <c r="H266" s="30"/>
+      <c r="A266" s="29"/>
+      <c r="B266" s="29"/>
+      <c r="C266" s="31"/>
+      <c r="D266" s="31"/>
+      <c r="E266" s="31"/>
+      <c r="F266" s="31"/>
+      <c r="G266" s="31"/>
+      <c r="H266" s="31"/>
     </row>
     <row r="267" ht="18" customHeight="1" spans="1:8">
       <c r="A267" s="70" t="s">
         <v>183</v>
       </c>
       <c r="B267" s="75"/>
-      <c r="C267" s="51" t="s">
+      <c r="C267" s="52" t="s">
         <v>192</v>
       </c>
-      <c r="D267" s="52"/>
-      <c r="E267" s="52"/>
-      <c r="F267" s="52"/>
-      <c r="G267" s="52"/>
-      <c r="H267" s="53"/>
+      <c r="D267" s="53"/>
+      <c r="E267" s="53"/>
+      <c r="F267" s="53"/>
+      <c r="G267" s="53"/>
+      <c r="H267" s="54"/>
     </row>
     <row r="268" ht="18" customHeight="1" spans="1:8">
       <c r="A268" s="70" t="s">
         <v>185</v>
       </c>
       <c r="B268" s="75"/>
-      <c r="C268" s="51" t="s">
+      <c r="C268" s="52" t="s">
         <v>193</v>
       </c>
-      <c r="D268" s="52"/>
-      <c r="E268" s="52"/>
-      <c r="F268" s="52"/>
-      <c r="G268" s="52"/>
-      <c r="H268" s="53"/>
+      <c r="D268" s="53"/>
+      <c r="E268" s="53"/>
+      <c r="F268" s="53"/>
+      <c r="G268" s="53"/>
+      <c r="H268" s="54"/>
     </row>
     <row r="269" ht="18" customHeight="1" spans="1:8">
       <c r="A269" s="70" t="s">
         <v>187</v>
       </c>
       <c r="B269" s="75"/>
-      <c r="C269" s="51" t="s">
+      <c r="C269" s="52" t="s">
         <v>194</v>
       </c>
-      <c r="D269" s="52"/>
-      <c r="E269" s="52"/>
-      <c r="F269" s="52"/>
-      <c r="G269" s="52"/>
-      <c r="H269" s="53"/>
+      <c r="D269" s="53"/>
+      <c r="E269" s="53"/>
+      <c r="F269" s="53"/>
+      <c r="G269" s="53"/>
+      <c r="H269" s="54"/>
     </row>
     <row r="270" ht="18" customHeight="1" spans="1:8">
       <c r="A270" s="70" t="s">
         <v>188</v>
       </c>
       <c r="B270" s="75"/>
-      <c r="C270" s="51" t="s">
+      <c r="C270" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="D270" s="52"/>
-      <c r="E270" s="52"/>
-      <c r="F270" s="52"/>
-      <c r="G270" s="52"/>
-      <c r="H270" s="53"/>
+      <c r="D270" s="53"/>
+      <c r="E270" s="53"/>
+      <c r="F270" s="53"/>
+      <c r="G270" s="53"/>
+      <c r="H270" s="54"/>
     </row>
     <row r="271" ht="18" customHeight="1" spans="1:8">
       <c r="A271" s="70" t="s">
         <v>190</v>
       </c>
       <c r="B271" s="75"/>
-      <c r="C271" s="51" t="s">
+      <c r="C271" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="D271" s="52"/>
-      <c r="E271" s="52"/>
-      <c r="F271" s="52"/>
-      <c r="G271" s="52"/>
-      <c r="H271" s="53"/>
+      <c r="D271" s="53"/>
+      <c r="E271" s="53"/>
+      <c r="F271" s="53"/>
+      <c r="G271" s="53"/>
+      <c r="H271" s="54"/>
     </row>
     <row r="272" ht="18" customHeight="1" spans="3:8">
-      <c r="C272" s="54"/>
-      <c r="D272" s="54"/>
-      <c r="E272" s="54"/>
-      <c r="F272" s="54"/>
-      <c r="G272" s="54"/>
-      <c r="H272" s="54"/>
+      <c r="C272" s="55"/>
+      <c r="D272" s="55"/>
+      <c r="E272" s="55"/>
+      <c r="F272" s="55"/>
+      <c r="G272" s="55"/>
+      <c r="H272" s="55"/>
     </row>
     <row r="273" ht="18" customHeight="1" spans="1:8">
-      <c r="A273" s="28" t="s">
+      <c r="A273" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="B273" s="28"/>
-      <c r="C273" s="30"/>
-      <c r="D273" s="30"/>
-      <c r="E273" s="30"/>
-      <c r="F273" s="30"/>
-      <c r="G273" s="30"/>
-      <c r="H273" s="30"/>
+      <c r="B273" s="29"/>
+      <c r="C273" s="31"/>
+      <c r="D273" s="31"/>
+      <c r="E273" s="31"/>
+      <c r="F273" s="31"/>
+      <c r="G273" s="31"/>
+      <c r="H273" s="31"/>
     </row>
     <row r="274" ht="18" customHeight="1" spans="1:8">
-      <c r="A274" s="28"/>
-      <c r="B274" s="28"/>
-      <c r="C274" s="30"/>
-      <c r="D274" s="30"/>
-      <c r="E274" s="30"/>
-      <c r="F274" s="30"/>
-      <c r="G274" s="30"/>
-      <c r="H274" s="30"/>
+      <c r="A274" s="29"/>
+      <c r="B274" s="29"/>
+      <c r="C274" s="31"/>
+      <c r="D274" s="31"/>
+      <c r="E274" s="31"/>
+      <c r="F274" s="31"/>
+      <c r="G274" s="31"/>
+      <c r="H274" s="31"/>
     </row>
     <row r="275" ht="18" customHeight="1" spans="1:8">
       <c r="A275" s="70" t="s">
         <v>183</v>
       </c>
       <c r="B275" s="75"/>
-      <c r="C275" s="51" t="s">
+      <c r="C275" s="52" t="s">
         <v>198</v>
       </c>
-      <c r="D275" s="52"/>
-      <c r="E275" s="52"/>
-      <c r="F275" s="52"/>
-      <c r="G275" s="52"/>
-      <c r="H275" s="53"/>
+      <c r="D275" s="53"/>
+      <c r="E275" s="53"/>
+      <c r="F275" s="53"/>
+      <c r="G275" s="53"/>
+      <c r="H275" s="54"/>
     </row>
     <row r="276" ht="18" customHeight="1" spans="1:8">
       <c r="A276" s="70" t="s">
         <v>185</v>
       </c>
       <c r="B276" s="75"/>
-      <c r="C276" s="51" t="s">
+      <c r="C276" s="52" t="s">
         <v>199</v>
       </c>
-      <c r="D276" s="52"/>
-      <c r="E276" s="52"/>
-      <c r="F276" s="52"/>
-      <c r="G276" s="52"/>
-      <c r="H276" s="53"/>
+      <c r="D276" s="53"/>
+      <c r="E276" s="53"/>
+      <c r="F276" s="53"/>
+      <c r="G276" s="53"/>
+      <c r="H276" s="54"/>
     </row>
     <row r="277" ht="18" customHeight="1" spans="1:8">
       <c r="A277" s="70" t="s">
         <v>187</v>
       </c>
       <c r="B277" s="75"/>
-      <c r="C277" s="51" t="s">
+      <c r="C277" s="52" t="s">
         <v>200</v>
       </c>
-      <c r="D277" s="52"/>
-      <c r="E277" s="52"/>
-      <c r="F277" s="52"/>
-      <c r="G277" s="52"/>
-      <c r="H277" s="53"/>
+      <c r="D277" s="53"/>
+      <c r="E277" s="53"/>
+      <c r="F277" s="53"/>
+      <c r="G277" s="53"/>
+      <c r="H277" s="54"/>
     </row>
     <row r="278" ht="18" customHeight="1" spans="1:8">
       <c r="A278" s="70" t="s">
         <v>188</v>
       </c>
       <c r="B278" s="75"/>
-      <c r="C278" s="51" t="s">
+      <c r="C278" s="52" t="s">
         <v>201</v>
       </c>
-      <c r="D278" s="52"/>
-      <c r="E278" s="52"/>
-      <c r="F278" s="52"/>
-      <c r="G278" s="52"/>
-      <c r="H278" s="53"/>
+      <c r="D278" s="53"/>
+      <c r="E278" s="53"/>
+      <c r="F278" s="53"/>
+      <c r="G278" s="53"/>
+      <c r="H278" s="54"/>
     </row>
     <row r="279" ht="18" customHeight="1" spans="1:8">
       <c r="A279" s="70" t="s">
         <v>190</v>
       </c>
       <c r="B279" s="75"/>
-      <c r="C279" s="51" t="s">
+      <c r="C279" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="D279" s="52"/>
-      <c r="E279" s="52"/>
-      <c r="F279" s="52"/>
-      <c r="G279" s="52"/>
-      <c r="H279" s="53"/>
+      <c r="D279" s="53"/>
+      <c r="E279" s="53"/>
+      <c r="F279" s="53"/>
+      <c r="G279" s="53"/>
+      <c r="H279" s="54"/>
     </row>
     <row r="280" ht="18" customHeight="1" spans="1:8">
       <c r="A280" s="70" t="s">
         <v>203</v>
       </c>
       <c r="B280" s="75"/>
-      <c r="C280" s="51" t="s">
+      <c r="C280" s="52" t="s">
         <v>204</v>
       </c>
-      <c r="D280" s="52"/>
-      <c r="E280" s="52"/>
-      <c r="F280" s="52"/>
-      <c r="G280" s="52"/>
-      <c r="H280" s="53"/>
+      <c r="D280" s="53"/>
+      <c r="E280" s="53"/>
+      <c r="F280" s="53"/>
+      <c r="G280" s="53"/>
+      <c r="H280" s="54"/>
     </row>
     <row r="281" ht="18" customHeight="1" spans="1:8">
       <c r="A281" s="70" t="s">
         <v>205</v>
       </c>
       <c r="B281" s="75"/>
-      <c r="C281" s="51" t="s">
+      <c r="C281" s="52" t="s">
         <v>206</v>
       </c>
-      <c r="D281" s="52"/>
-      <c r="E281" s="52"/>
-      <c r="F281" s="52"/>
-      <c r="G281" s="52"/>
-      <c r="H281" s="53"/>
+      <c r="D281" s="53"/>
+      <c r="E281" s="53"/>
+      <c r="F281" s="53"/>
+      <c r="G281" s="53"/>
+      <c r="H281" s="54"/>
     </row>
     <row r="282" ht="18" customHeight="1"/>
     <row r="283" ht="18" customHeight="1"/>
@@ -6271,66 +6371,66 @@
     <row r="286" ht="18" customHeight="1"/>
     <row r="287" ht="18" customHeight="1"/>
     <row r="288" ht="67" customHeight="1" spans="1:8">
-      <c r="A288" s="4">
+      <c r="A288" s="5">
         <v>2018</v>
       </c>
-      <c r="B288" s="4"/>
-      <c r="C288" s="4"/>
-      <c r="D288" s="4"/>
-      <c r="E288" s="4"/>
-      <c r="F288" s="4"/>
-      <c r="G288" s="4"/>
-      <c r="H288" s="4"/>
+      <c r="B288" s="5"/>
+      <c r="C288" s="5"/>
+      <c r="D288" s="5"/>
+      <c r="E288" s="5"/>
+      <c r="F288" s="5"/>
+      <c r="G288" s="5"/>
+      <c r="H288" s="5"/>
     </row>
     <row r="289" ht="18" customHeight="1" spans="1:8">
-      <c r="A289" s="5" t="s">
+      <c r="A289" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B289" s="5"/>
-      <c r="C289" s="6" t="s">
+      <c r="B289" s="6"/>
+      <c r="C289" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="D289" s="6"/>
-      <c r="E289" s="6"/>
-      <c r="F289" s="6"/>
-      <c r="G289" s="6"/>
-      <c r="H289" s="6"/>
+      <c r="D289" s="7"/>
+      <c r="E289" s="7"/>
+      <c r="F289" s="7"/>
+      <c r="G289" s="7"/>
+      <c r="H289" s="7"/>
     </row>
     <row r="290" ht="18" customHeight="1" spans="1:8">
-      <c r="A290" s="5"/>
-      <c r="B290" s="5"/>
-      <c r="C290" s="7" t="s">
+      <c r="A290" s="6"/>
+      <c r="B290" s="6"/>
+      <c r="C290" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="D290" s="7"/>
-      <c r="E290" s="7"/>
-      <c r="F290" s="7"/>
-      <c r="G290" s="7"/>
-      <c r="H290" s="7"/>
+      <c r="D290" s="8"/>
+      <c r="E290" s="8"/>
+      <c r="F290" s="8"/>
+      <c r="G290" s="8"/>
+      <c r="H290" s="8"/>
     </row>
     <row r="291" ht="18" customHeight="1" spans="1:8">
-      <c r="A291" s="5"/>
-      <c r="B291" s="5"/>
-      <c r="C291" s="7" t="s">
+      <c r="A291" s="6"/>
+      <c r="B291" s="6"/>
+      <c r="C291" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D291" s="7"/>
-      <c r="E291" s="7"/>
-      <c r="F291" s="7"/>
-      <c r="G291" s="7"/>
-      <c r="H291" s="7"/>
+      <c r="D291" s="8"/>
+      <c r="E291" s="8"/>
+      <c r="F291" s="8"/>
+      <c r="G291" s="8"/>
+      <c r="H291" s="8"/>
     </row>
     <row r="292" ht="18" customHeight="1" spans="1:8">
-      <c r="A292" s="5"/>
-      <c r="B292" s="5"/>
-      <c r="C292" s="8" t="s">
+      <c r="A292" s="6"/>
+      <c r="B292" s="6"/>
+      <c r="C292" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D292" s="8"/>
-      <c r="E292" s="8"/>
-      <c r="F292" s="8"/>
-      <c r="G292" s="8"/>
-      <c r="H292" s="8"/>
+      <c r="D292" s="9"/>
+      <c r="E292" s="9"/>
+      <c r="F292" s="9"/>
+      <c r="G292" s="9"/>
+      <c r="H292" s="9"/>
     </row>
     <row r="293" ht="18" customHeight="1" spans="1:8">
       <c r="A293" s="82" t="s">
@@ -6375,541 +6475,541 @@
       <c r="H296" s="82"/>
     </row>
     <row r="297" ht="18" customHeight="1" spans="1:8">
-      <c r="A297" s="13" t="s">
+      <c r="A297" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B297" s="14"/>
+      <c r="B297" s="15"/>
       <c r="C297" s="83" t="s">
         <v>210</v>
       </c>
-      <c r="D297" s="16"/>
-      <c r="E297" s="16"/>
-      <c r="F297" s="16"/>
-      <c r="G297" s="16"/>
-      <c r="H297" s="17"/>
+      <c r="D297" s="17"/>
+      <c r="E297" s="17"/>
+      <c r="F297" s="17"/>
+      <c r="G297" s="17"/>
+      <c r="H297" s="18"/>
     </row>
     <row r="298" ht="18" customHeight="1" spans="1:8">
-      <c r="A298" s="18"/>
-      <c r="B298" s="19"/>
-      <c r="C298" s="20"/>
-      <c r="D298" s="21"/>
-      <c r="E298" s="21"/>
-      <c r="F298" s="21"/>
-      <c r="G298" s="21"/>
-      <c r="H298" s="22"/>
+      <c r="A298" s="19"/>
+      <c r="B298" s="20"/>
+      <c r="C298" s="21"/>
+      <c r="D298" s="22"/>
+      <c r="E298" s="22"/>
+      <c r="F298" s="22"/>
+      <c r="G298" s="22"/>
+      <c r="H298" s="23"/>
     </row>
     <row r="299" ht="18" customHeight="1" spans="1:8">
-      <c r="A299" s="23"/>
-      <c r="B299" s="24"/>
-      <c r="C299" s="25"/>
-      <c r="D299" s="26"/>
-      <c r="E299" s="26"/>
-      <c r="F299" s="26"/>
-      <c r="G299" s="26"/>
-      <c r="H299" s="27"/>
+      <c r="A299" s="24"/>
+      <c r="B299" s="25"/>
+      <c r="C299" s="26"/>
+      <c r="D299" s="27"/>
+      <c r="E299" s="27"/>
+      <c r="F299" s="27"/>
+      <c r="G299" s="27"/>
+      <c r="H299" s="28"/>
     </row>
     <row r="300" ht="18" customHeight="1" spans="1:8">
-      <c r="A300" s="18" t="s">
+      <c r="A300" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B300" s="19"/>
-      <c r="C300" s="20"/>
-      <c r="D300" s="21"/>
-      <c r="E300" s="21"/>
-      <c r="F300" s="21"/>
-      <c r="G300" s="21"/>
-      <c r="H300" s="22"/>
+      <c r="B300" s="20"/>
+      <c r="C300" s="21"/>
+      <c r="D300" s="22"/>
+      <c r="E300" s="22"/>
+      <c r="F300" s="22"/>
+      <c r="G300" s="22"/>
+      <c r="H300" s="23"/>
     </row>
     <row r="301" ht="18" customHeight="1" spans="1:8">
-      <c r="A301" s="23"/>
-      <c r="B301" s="24"/>
-      <c r="C301" s="25"/>
-      <c r="D301" s="26"/>
-      <c r="E301" s="26"/>
-      <c r="F301" s="26"/>
-      <c r="G301" s="26"/>
-      <c r="H301" s="27"/>
+      <c r="A301" s="24"/>
+      <c r="B301" s="25"/>
+      <c r="C301" s="26"/>
+      <c r="D301" s="27"/>
+      <c r="E301" s="27"/>
+      <c r="F301" s="27"/>
+      <c r="G301" s="27"/>
+      <c r="H301" s="28"/>
     </row>
     <row r="302" ht="18" customHeight="1" spans="1:8">
       <c r="A302" s="70" t="s">
         <v>13</v>
       </c>
       <c r="B302" s="75"/>
-      <c r="C302" s="51" t="s">
+      <c r="C302" s="52" t="s">
         <v>211</v>
       </c>
-      <c r="D302" s="52"/>
-      <c r="E302" s="52"/>
-      <c r="F302" s="52"/>
-      <c r="G302" s="52"/>
-      <c r="H302" s="53"/>
+      <c r="D302" s="53"/>
+      <c r="E302" s="53"/>
+      <c r="F302" s="53"/>
+      <c r="G302" s="53"/>
+      <c r="H302" s="54"/>
     </row>
     <row r="303" ht="18" customHeight="1" spans="1:8">
       <c r="A303" s="70" t="s">
         <v>22</v>
       </c>
       <c r="B303" s="75"/>
-      <c r="C303" s="51" t="s">
+      <c r="C303" s="52" t="s">
         <v>212</v>
       </c>
-      <c r="D303" s="52"/>
-      <c r="E303" s="52"/>
-      <c r="F303" s="52"/>
-      <c r="G303" s="52"/>
-      <c r="H303" s="53"/>
+      <c r="D303" s="53"/>
+      <c r="E303" s="53"/>
+      <c r="F303" s="53"/>
+      <c r="G303" s="53"/>
+      <c r="H303" s="54"/>
     </row>
     <row r="304" ht="18" customHeight="1" spans="1:8">
       <c r="A304" s="70" t="s">
         <v>28</v>
       </c>
       <c r="B304" s="75"/>
-      <c r="C304" s="51"/>
-      <c r="D304" s="52"/>
-      <c r="E304" s="52"/>
-      <c r="F304" s="52"/>
-      <c r="G304" s="52"/>
-      <c r="H304" s="53"/>
+      <c r="C304" s="52"/>
+      <c r="D304" s="53"/>
+      <c r="E304" s="53"/>
+      <c r="F304" s="53"/>
+      <c r="G304" s="53"/>
+      <c r="H304" s="54"/>
     </row>
     <row r="305" ht="18" customHeight="1" spans="1:8">
       <c r="A305" s="70" t="s">
         <v>35</v>
       </c>
       <c r="B305" s="75"/>
-      <c r="C305" s="51"/>
-      <c r="D305" s="52"/>
-      <c r="E305" s="52"/>
-      <c r="F305" s="52"/>
-      <c r="G305" s="52"/>
-      <c r="H305" s="53"/>
+      <c r="C305" s="52"/>
+      <c r="D305" s="53"/>
+      <c r="E305" s="53"/>
+      <c r="F305" s="53"/>
+      <c r="G305" s="53"/>
+      <c r="H305" s="54"/>
     </row>
     <row r="306" ht="18" customHeight="1" spans="1:14">
       <c r="A306" s="70" t="s">
         <v>42</v>
       </c>
       <c r="B306" s="75"/>
-      <c r="C306" s="51"/>
-      <c r="D306" s="52"/>
-      <c r="E306" s="52"/>
-      <c r="F306" s="52"/>
-      <c r="G306" s="52"/>
-      <c r="H306" s="53"/>
-      <c r="I306" s="56" t="s">
+      <c r="C306" s="52"/>
+      <c r="D306" s="53"/>
+      <c r="E306" s="53"/>
+      <c r="F306" s="53"/>
+      <c r="G306" s="53"/>
+      <c r="H306" s="54"/>
+      <c r="I306" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="J306" s="56"/>
-      <c r="K306" s="56"/>
-      <c r="L306" s="56"/>
-      <c r="M306" s="56"/>
-      <c r="N306" s="56"/>
+      <c r="J306" s="1"/>
+      <c r="K306" s="1"/>
+      <c r="L306" s="1"/>
+      <c r="M306" s="1"/>
+      <c r="N306" s="1"/>
     </row>
     <row r="307" ht="18" customHeight="1" spans="1:8">
       <c r="A307" s="70" t="s">
         <v>48</v>
       </c>
       <c r="B307" s="75"/>
-      <c r="C307" s="51"/>
-      <c r="D307" s="52"/>
-      <c r="E307" s="52"/>
-      <c r="F307" s="52"/>
-      <c r="G307" s="52"/>
-      <c r="H307" s="53"/>
+      <c r="C307" s="52"/>
+      <c r="D307" s="53"/>
+      <c r="E307" s="53"/>
+      <c r="F307" s="53"/>
+      <c r="G307" s="53"/>
+      <c r="H307" s="54"/>
     </row>
     <row r="308" ht="18" customHeight="1" spans="1:14">
       <c r="A308" s="70" t="s">
         <v>214</v>
       </c>
       <c r="B308" s="75"/>
-      <c r="C308" s="51"/>
-      <c r="D308" s="52"/>
-      <c r="E308" s="52"/>
-      <c r="F308" s="52"/>
-      <c r="G308" s="52"/>
-      <c r="H308" s="53"/>
-      <c r="I308" s="56" t="s">
+      <c r="C308" s="52"/>
+      <c r="D308" s="53"/>
+      <c r="E308" s="53"/>
+      <c r="F308" s="53"/>
+      <c r="G308" s="53"/>
+      <c r="H308" s="54"/>
+      <c r="I308" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="J308" s="56"/>
-      <c r="K308" s="56"/>
-      <c r="L308" s="56"/>
-      <c r="M308" s="56"/>
-      <c r="N308" s="56"/>
+      <c r="J308" s="1"/>
+      <c r="K308" s="1"/>
+      <c r="L308" s="1"/>
+      <c r="M308" s="1"/>
+      <c r="N308" s="1"/>
     </row>
     <row r="309" ht="18" customHeight="1"/>
     <row r="310" ht="18" customHeight="1" spans="1:8">
-      <c r="A310" s="18" t="s">
+      <c r="A310" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B310" s="19"/>
-      <c r="C310" s="20"/>
-      <c r="D310" s="21"/>
-      <c r="E310" s="21"/>
-      <c r="F310" s="21"/>
-      <c r="G310" s="21"/>
-      <c r="H310" s="22"/>
+      <c r="B310" s="20"/>
+      <c r="C310" s="21"/>
+      <c r="D310" s="22"/>
+      <c r="E310" s="22"/>
+      <c r="F310" s="22"/>
+      <c r="G310" s="22"/>
+      <c r="H310" s="23"/>
     </row>
     <row r="311" ht="18" customHeight="1" spans="1:8">
-      <c r="A311" s="23"/>
-      <c r="B311" s="24"/>
-      <c r="C311" s="25"/>
-      <c r="D311" s="26"/>
-      <c r="E311" s="26"/>
-      <c r="F311" s="26"/>
-      <c r="G311" s="26"/>
-      <c r="H311" s="27"/>
+      <c r="A311" s="24"/>
+      <c r="B311" s="25"/>
+      <c r="C311" s="26"/>
+      <c r="D311" s="27"/>
+      <c r="E311" s="27"/>
+      <c r="F311" s="27"/>
+      <c r="G311" s="27"/>
+      <c r="H311" s="28"/>
     </row>
     <row r="312" ht="18" customHeight="1" spans="1:8">
       <c r="A312" s="70" t="s">
         <v>57</v>
       </c>
       <c r="B312" s="75"/>
-      <c r="C312" s="51"/>
-      <c r="D312" s="52"/>
-      <c r="E312" s="52"/>
-      <c r="F312" s="52"/>
-      <c r="G312" s="52"/>
-      <c r="H312" s="53"/>
+      <c r="C312" s="52"/>
+      <c r="D312" s="53"/>
+      <c r="E312" s="53"/>
+      <c r="F312" s="53"/>
+      <c r="G312" s="53"/>
+      <c r="H312" s="54"/>
     </row>
     <row r="313" ht="18" customHeight="1" spans="1:8">
       <c r="A313" s="70" t="s">
         <v>63</v>
       </c>
       <c r="B313" s="75"/>
-      <c r="C313" s="51"/>
-      <c r="D313" s="52"/>
-      <c r="E313" s="52"/>
-      <c r="F313" s="52"/>
-      <c r="G313" s="52"/>
-      <c r="H313" s="53"/>
+      <c r="C313" s="52"/>
+      <c r="D313" s="53"/>
+      <c r="E313" s="53"/>
+      <c r="F313" s="53"/>
+      <c r="G313" s="53"/>
+      <c r="H313" s="54"/>
     </row>
     <row r="314" ht="18" customHeight="1" spans="1:8">
       <c r="A314" s="70" t="s">
         <v>67</v>
       </c>
       <c r="B314" s="75"/>
-      <c r="C314" s="51" t="s">
+      <c r="C314" s="52" t="s">
         <v>216</v>
       </c>
-      <c r="D314" s="52"/>
-      <c r="E314" s="52"/>
-      <c r="F314" s="52"/>
-      <c r="G314" s="52"/>
-      <c r="H314" s="53"/>
+      <c r="D314" s="53"/>
+      <c r="E314" s="53"/>
+      <c r="F314" s="53"/>
+      <c r="G314" s="53"/>
+      <c r="H314" s="54"/>
     </row>
     <row r="315" ht="18" customHeight="1" spans="1:8">
       <c r="A315" s="70" t="s">
         <v>72</v>
       </c>
       <c r="B315" s="75"/>
-      <c r="C315" s="51" t="s">
+      <c r="C315" s="52" t="s">
         <v>217</v>
       </c>
-      <c r="D315" s="52"/>
-      <c r="E315" s="52"/>
-      <c r="F315" s="52"/>
-      <c r="G315" s="52"/>
-      <c r="H315" s="53"/>
+      <c r="D315" s="53"/>
+      <c r="E315" s="53"/>
+      <c r="F315" s="53"/>
+      <c r="G315" s="53"/>
+      <c r="H315" s="54"/>
     </row>
     <row r="316" ht="18" customHeight="1" spans="1:8">
       <c r="A316" s="70" t="s">
         <v>75</v>
       </c>
       <c r="B316" s="75"/>
-      <c r="C316" s="51" t="s">
+      <c r="C316" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="D316" s="52"/>
-      <c r="E316" s="52"/>
-      <c r="F316" s="52"/>
-      <c r="G316" s="52"/>
-      <c r="H316" s="53"/>
+      <c r="D316" s="53"/>
+      <c r="E316" s="53"/>
+      <c r="F316" s="53"/>
+      <c r="G316" s="53"/>
+      <c r="H316" s="54"/>
     </row>
     <row r="317" ht="18" customHeight="1" spans="1:8">
       <c r="A317" s="70" t="s">
         <v>77</v>
       </c>
       <c r="B317" s="75"/>
-      <c r="C317" s="51" t="s">
+      <c r="C317" s="52" t="s">
         <v>219</v>
       </c>
-      <c r="D317" s="52"/>
-      <c r="E317" s="52"/>
-      <c r="F317" s="52"/>
-      <c r="G317" s="52"/>
-      <c r="H317" s="53"/>
+      <c r="D317" s="53"/>
+      <c r="E317" s="53"/>
+      <c r="F317" s="53"/>
+      <c r="G317" s="53"/>
+      <c r="H317" s="54"/>
     </row>
     <row r="318" ht="18" customHeight="1" spans="1:8">
       <c r="A318" s="70" t="s">
         <v>220</v>
       </c>
       <c r="B318" s="75"/>
-      <c r="C318" s="51" t="s">
+      <c r="C318" s="52" t="s">
         <v>221</v>
       </c>
-      <c r="D318" s="52"/>
-      <c r="E318" s="52"/>
-      <c r="F318" s="52"/>
-      <c r="G318" s="52"/>
-      <c r="H318" s="53"/>
+      <c r="D318" s="53"/>
+      <c r="E318" s="53"/>
+      <c r="F318" s="53"/>
+      <c r="G318" s="53"/>
+      <c r="H318" s="54"/>
     </row>
     <row r="319" ht="18" customHeight="1"/>
     <row r="320" ht="18" customHeight="1" spans="1:8">
-      <c r="A320" s="18" t="s">
+      <c r="A320" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="B320" s="19"/>
-      <c r="C320" s="20"/>
-      <c r="D320" s="21"/>
-      <c r="E320" s="21"/>
-      <c r="F320" s="21"/>
-      <c r="G320" s="21"/>
-      <c r="H320" s="22"/>
+      <c r="B320" s="20"/>
+      <c r="C320" s="21"/>
+      <c r="D320" s="22"/>
+      <c r="E320" s="22"/>
+      <c r="F320" s="22"/>
+      <c r="G320" s="22"/>
+      <c r="H320" s="23"/>
     </row>
     <row r="321" ht="18" customHeight="1" spans="1:8">
-      <c r="A321" s="23"/>
-      <c r="B321" s="24"/>
-      <c r="C321" s="25"/>
-      <c r="D321" s="26"/>
-      <c r="E321" s="26"/>
-      <c r="F321" s="26"/>
-      <c r="G321" s="26"/>
-      <c r="H321" s="27"/>
+      <c r="A321" s="24"/>
+      <c r="B321" s="25"/>
+      <c r="C321" s="26"/>
+      <c r="D321" s="27"/>
+      <c r="E321" s="27"/>
+      <c r="F321" s="27"/>
+      <c r="G321" s="27"/>
+      <c r="H321" s="28"/>
     </row>
     <row r="322" ht="18" customHeight="1" spans="1:14">
       <c r="A322" s="70" t="s">
         <v>83</v>
       </c>
       <c r="B322" s="75"/>
-      <c r="C322" s="51" t="s">
+      <c r="C322" s="52" t="s">
         <v>222</v>
       </c>
-      <c r="D322" s="52"/>
-      <c r="E322" s="52"/>
-      <c r="F322" s="52"/>
-      <c r="G322" s="52"/>
-      <c r="H322" s="53"/>
-      <c r="I322" s="56" t="s">
+      <c r="D322" s="53"/>
+      <c r="E322" s="53"/>
+      <c r="F322" s="53"/>
+      <c r="G322" s="53"/>
+      <c r="H322" s="54"/>
+      <c r="I322" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="J322" s="56"/>
-      <c r="K322" s="56"/>
-      <c r="L322" s="56"/>
-      <c r="M322" s="56"/>
-      <c r="N322" s="56"/>
+      <c r="J322" s="1"/>
+      <c r="K322" s="1"/>
+      <c r="L322" s="1"/>
+      <c r="M322" s="1"/>
+      <c r="N322" s="1"/>
     </row>
     <row r="323" ht="18" customHeight="1" spans="1:14">
       <c r="A323" s="70" t="s">
         <v>88</v>
       </c>
       <c r="B323" s="75"/>
-      <c r="C323" s="51"/>
-      <c r="D323" s="52"/>
-      <c r="E323" s="52"/>
-      <c r="F323" s="52"/>
-      <c r="G323" s="52"/>
-      <c r="H323" s="53"/>
-      <c r="I323" s="56" t="s">
+      <c r="C323" s="52"/>
+      <c r="D323" s="53"/>
+      <c r="E323" s="53"/>
+      <c r="F323" s="53"/>
+      <c r="G323" s="53"/>
+      <c r="H323" s="54"/>
+      <c r="I323" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="J323" s="56"/>
-      <c r="K323" s="56"/>
-      <c r="L323" s="56"/>
-      <c r="M323" s="56"/>
-      <c r="N323" s="56"/>
+      <c r="J323" s="1"/>
+      <c r="K323" s="1"/>
+      <c r="L323" s="1"/>
+      <c r="M323" s="1"/>
+      <c r="N323" s="1"/>
     </row>
     <row r="324" ht="18" customHeight="1" spans="1:8">
       <c r="A324" s="70" t="s">
         <v>91</v>
       </c>
       <c r="B324" s="75"/>
-      <c r="C324" s="51" t="s">
+      <c r="C324" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="D324" s="52"/>
-      <c r="E324" s="52"/>
-      <c r="F324" s="52"/>
-      <c r="G324" s="52"/>
-      <c r="H324" s="53"/>
+      <c r="D324" s="53"/>
+      <c r="E324" s="53"/>
+      <c r="F324" s="53"/>
+      <c r="G324" s="53"/>
+      <c r="H324" s="54"/>
     </row>
     <row r="325" ht="18" customHeight="1" spans="1:8">
       <c r="A325" s="70" t="s">
         <v>97</v>
       </c>
       <c r="B325" s="75"/>
-      <c r="C325" s="51" t="s">
+      <c r="C325" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="D325" s="52"/>
-      <c r="E325" s="52"/>
-      <c r="F325" s="52"/>
-      <c r="G325" s="52"/>
-      <c r="H325" s="53"/>
+      <c r="D325" s="53"/>
+      <c r="E325" s="53"/>
+      <c r="F325" s="53"/>
+      <c r="G325" s="53"/>
+      <c r="H325" s="54"/>
     </row>
     <row r="326" ht="18" customHeight="1" spans="1:8">
       <c r="A326" s="70" t="s">
         <v>101</v>
       </c>
       <c r="B326" s="75"/>
-      <c r="C326" s="51" t="s">
+      <c r="C326" s="52" t="s">
         <v>226</v>
       </c>
-      <c r="D326" s="52"/>
-      <c r="E326" s="52"/>
-      <c r="F326" s="52"/>
-      <c r="G326" s="52"/>
-      <c r="H326" s="53"/>
+      <c r="D326" s="53"/>
+      <c r="E326" s="53"/>
+      <c r="F326" s="53"/>
+      <c r="G326" s="53"/>
+      <c r="H326" s="54"/>
     </row>
     <row r="327" ht="18" customHeight="1" spans="1:8">
       <c r="A327" s="70" t="s">
         <v>106</v>
       </c>
       <c r="B327" s="75"/>
-      <c r="C327" s="51" t="s">
+      <c r="C327" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="D327" s="52"/>
-      <c r="E327" s="52"/>
-      <c r="F327" s="52"/>
-      <c r="G327" s="52"/>
-      <c r="H327" s="53"/>
+      <c r="D327" s="53"/>
+      <c r="E327" s="53"/>
+      <c r="F327" s="53"/>
+      <c r="G327" s="53"/>
+      <c r="H327" s="54"/>
     </row>
     <row r="328" ht="18" customHeight="1" spans="1:8">
       <c r="A328" s="70" t="s">
         <v>227</v>
       </c>
       <c r="B328" s="75"/>
-      <c r="C328" s="51" t="s">
+      <c r="C328" s="52" t="s">
         <v>228</v>
       </c>
-      <c r="D328" s="52"/>
-      <c r="E328" s="52"/>
-      <c r="F328" s="52"/>
-      <c r="G328" s="52"/>
-      <c r="H328" s="53"/>
+      <c r="D328" s="53"/>
+      <c r="E328" s="53"/>
+      <c r="F328" s="53"/>
+      <c r="G328" s="53"/>
+      <c r="H328" s="54"/>
     </row>
     <row r="329" ht="18" customHeight="1"/>
     <row r="330" ht="18" customHeight="1" spans="1:8">
-      <c r="A330" s="18" t="s">
+      <c r="A330" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="B330" s="19"/>
-      <c r="C330" s="20"/>
-      <c r="D330" s="21"/>
-      <c r="E330" s="21"/>
-      <c r="F330" s="21"/>
-      <c r="G330" s="21"/>
-      <c r="H330" s="22"/>
+      <c r="B330" s="20"/>
+      <c r="C330" s="21"/>
+      <c r="D330" s="22"/>
+      <c r="E330" s="22"/>
+      <c r="F330" s="22"/>
+      <c r="G330" s="22"/>
+      <c r="H330" s="23"/>
     </row>
     <row r="331" ht="18" customHeight="1" spans="1:8">
-      <c r="A331" s="23"/>
-      <c r="B331" s="24"/>
-      <c r="C331" s="25"/>
-      <c r="D331" s="26"/>
-      <c r="E331" s="26"/>
-      <c r="F331" s="26"/>
-      <c r="G331" s="26"/>
-      <c r="H331" s="27"/>
+      <c r="A331" s="24"/>
+      <c r="B331" s="25"/>
+      <c r="C331" s="26"/>
+      <c r="D331" s="27"/>
+      <c r="E331" s="27"/>
+      <c r="F331" s="27"/>
+      <c r="G331" s="27"/>
+      <c r="H331" s="28"/>
     </row>
     <row r="332" ht="18" customHeight="1" spans="1:8">
       <c r="A332" s="70" t="s">
         <v>113</v>
       </c>
       <c r="B332" s="75"/>
-      <c r="C332" s="51"/>
-      <c r="D332" s="52"/>
-      <c r="E332" s="52"/>
-      <c r="F332" s="52"/>
-      <c r="G332" s="52"/>
-      <c r="H332" s="53"/>
+      <c r="C332" s="52"/>
+      <c r="D332" s="53"/>
+      <c r="E332" s="53"/>
+      <c r="F332" s="53"/>
+      <c r="G332" s="53"/>
+      <c r="H332" s="54"/>
     </row>
     <row r="333" ht="18" customHeight="1" spans="1:8">
       <c r="A333" s="70" t="s">
         <v>116</v>
       </c>
       <c r="B333" s="75"/>
-      <c r="C333" s="51"/>
-      <c r="D333" s="52"/>
-      <c r="E333" s="52"/>
-      <c r="F333" s="52"/>
-      <c r="G333" s="52"/>
-      <c r="H333" s="53"/>
+      <c r="C333" s="52"/>
+      <c r="D333" s="53"/>
+      <c r="E333" s="53"/>
+      <c r="F333" s="53"/>
+      <c r="G333" s="53"/>
+      <c r="H333" s="54"/>
     </row>
     <row r="334" ht="18" customHeight="1" spans="1:8">
       <c r="A334" s="70" t="s">
         <v>121</v>
       </c>
       <c r="B334" s="75"/>
-      <c r="C334" s="51"/>
-      <c r="D334" s="52"/>
-      <c r="E334" s="52"/>
-      <c r="F334" s="52"/>
-      <c r="G334" s="52"/>
-      <c r="H334" s="53"/>
+      <c r="C334" s="52"/>
+      <c r="D334" s="53"/>
+      <c r="E334" s="53"/>
+      <c r="F334" s="53"/>
+      <c r="G334" s="53"/>
+      <c r="H334" s="54"/>
     </row>
     <row r="335" ht="18" customHeight="1" spans="1:8">
       <c r="A335" s="70" t="s">
         <v>127</v>
       </c>
       <c r="B335" s="75"/>
-      <c r="C335" s="51"/>
-      <c r="D335" s="52"/>
-      <c r="E335" s="52"/>
-      <c r="F335" s="52"/>
-      <c r="G335" s="52"/>
-      <c r="H335" s="53"/>
+      <c r="C335" s="52"/>
+      <c r="D335" s="53"/>
+      <c r="E335" s="53"/>
+      <c r="F335" s="53"/>
+      <c r="G335" s="53"/>
+      <c r="H335" s="54"/>
     </row>
     <row r="336" ht="18" customHeight="1" spans="1:8">
       <c r="A336" s="70" t="s">
         <v>131</v>
       </c>
       <c r="B336" s="75"/>
-      <c r="C336" s="51"/>
-      <c r="D336" s="52"/>
-      <c r="E336" s="52"/>
-      <c r="F336" s="52"/>
-      <c r="G336" s="52"/>
-      <c r="H336" s="53"/>
+      <c r="C336" s="52"/>
+      <c r="D336" s="53"/>
+      <c r="E336" s="53"/>
+      <c r="F336" s="53"/>
+      <c r="G336" s="53"/>
+      <c r="H336" s="54"/>
     </row>
     <row r="337" ht="18" customHeight="1" spans="1:8">
       <c r="A337" s="70" t="s">
         <v>133</v>
       </c>
       <c r="B337" s="75"/>
-      <c r="C337" s="51" t="s">
+      <c r="C337" s="52" t="s">
         <v>229</v>
       </c>
-      <c r="D337" s="52"/>
-      <c r="E337" s="52"/>
-      <c r="F337" s="52"/>
-      <c r="G337" s="52"/>
-      <c r="H337" s="53"/>
+      <c r="D337" s="53"/>
+      <c r="E337" s="53"/>
+      <c r="F337" s="53"/>
+      <c r="G337" s="53"/>
+      <c r="H337" s="54"/>
     </row>
     <row r="338" ht="18" customHeight="1" spans="1:8">
       <c r="A338" s="70" t="s">
         <v>230</v>
       </c>
       <c r="B338" s="75"/>
-      <c r="C338" s="51"/>
-      <c r="D338" s="52"/>
-      <c r="E338" s="52"/>
-      <c r="F338" s="52"/>
-      <c r="G338" s="52"/>
-      <c r="H338" s="53"/>
+      <c r="C338" s="52"/>
+      <c r="D338" s="53"/>
+      <c r="E338" s="53"/>
+      <c r="F338" s="53"/>
+      <c r="G338" s="53"/>
+      <c r="H338" s="54"/>
     </row>
     <row r="339" ht="18" customHeight="1"/>
     <row r="340" ht="18" customHeight="1"/>
     <row r="341" ht="18" customHeight="1" spans="1:15">
-      <c r="A341" s="13" t="s">
+      <c r="A341" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B341" s="14"/>
+      <c r="B341" s="15"/>
       <c r="C341" s="83" t="s">
         <v>210</v>
       </c>
-      <c r="D341" s="16"/>
-      <c r="E341" s="16"/>
-      <c r="F341" s="16"/>
-      <c r="G341" s="16"/>
-      <c r="H341" s="17"/>
+      <c r="D341" s="17"/>
+      <c r="E341" s="17"/>
+      <c r="F341" s="17"/>
+      <c r="G341" s="17"/>
+      <c r="H341" s="18"/>
       <c r="I341" s="89" t="s">
         <v>231</v>
       </c>
@@ -6921,14 +7021,14 @@
       <c r="O341" s="89"/>
     </row>
     <row r="342" ht="18" customHeight="1" spans="1:15">
-      <c r="A342" s="18"/>
-      <c r="B342" s="19"/>
-      <c r="C342" s="20"/>
-      <c r="D342" s="21"/>
-      <c r="E342" s="21"/>
-      <c r="F342" s="21"/>
-      <c r="G342" s="21"/>
-      <c r="H342" s="22"/>
+      <c r="A342" s="19"/>
+      <c r="B342" s="20"/>
+      <c r="C342" s="21"/>
+      <c r="D342" s="22"/>
+      <c r="E342" s="22"/>
+      <c r="F342" s="22"/>
+      <c r="G342" s="22"/>
+      <c r="H342" s="23"/>
       <c r="I342" s="89"/>
       <c r="J342" s="89"/>
       <c r="K342" s="89"/>
@@ -6938,14 +7038,14 @@
       <c r="O342" s="89"/>
     </row>
     <row r="343" ht="18" customHeight="1" spans="1:15">
-      <c r="A343" s="23"/>
-      <c r="B343" s="24"/>
-      <c r="C343" s="25"/>
-      <c r="D343" s="26"/>
-      <c r="E343" s="26"/>
-      <c r="F343" s="26"/>
-      <c r="G343" s="26"/>
-      <c r="H343" s="27"/>
+      <c r="A343" s="24"/>
+      <c r="B343" s="25"/>
+      <c r="C343" s="26"/>
+      <c r="D343" s="27"/>
+      <c r="E343" s="27"/>
+      <c r="F343" s="27"/>
+      <c r="G343" s="27"/>
+      <c r="H343" s="28"/>
       <c r="I343" s="89"/>
       <c r="J343" s="89"/>
       <c r="K343" s="89"/>
@@ -6955,159 +7055,159 @@
       <c r="O343" s="89"/>
     </row>
     <row r="344" ht="18" customHeight="1" spans="1:8">
-      <c r="A344" s="18" t="s">
+      <c r="A344" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="B344" s="19"/>
-      <c r="C344" s="20"/>
-      <c r="D344" s="21"/>
-      <c r="E344" s="21"/>
-      <c r="F344" s="21"/>
-      <c r="G344" s="21"/>
-      <c r="H344" s="22"/>
+      <c r="B344" s="20"/>
+      <c r="C344" s="21"/>
+      <c r="D344" s="22"/>
+      <c r="E344" s="22"/>
+      <c r="F344" s="22"/>
+      <c r="G344" s="22"/>
+      <c r="H344" s="23"/>
     </row>
     <row r="345" ht="18" customHeight="1" spans="1:8">
-      <c r="A345" s="23"/>
-      <c r="B345" s="24"/>
-      <c r="C345" s="25"/>
-      <c r="D345" s="26"/>
-      <c r="E345" s="26"/>
-      <c r="F345" s="26"/>
-      <c r="G345" s="26"/>
-      <c r="H345" s="27"/>
+      <c r="A345" s="24"/>
+      <c r="B345" s="25"/>
+      <c r="C345" s="26"/>
+      <c r="D345" s="27"/>
+      <c r="E345" s="27"/>
+      <c r="F345" s="27"/>
+      <c r="G345" s="27"/>
+      <c r="H345" s="28"/>
     </row>
     <row r="346" ht="18" customHeight="1" spans="1:8">
       <c r="A346" s="70" t="s">
         <v>139</v>
       </c>
       <c r="B346" s="75"/>
-      <c r="C346" s="56"/>
-      <c r="D346" s="56"/>
-      <c r="E346" s="56"/>
-      <c r="F346" s="56"/>
-      <c r="G346" s="56"/>
-      <c r="H346" s="56"/>
+      <c r="C346" s="1"/>
+      <c r="D346" s="1"/>
+      <c r="E346" s="1"/>
+      <c r="F346" s="1"/>
+      <c r="G346" s="1"/>
+      <c r="H346" s="1"/>
     </row>
     <row r="347" ht="18" customHeight="1" spans="1:8">
       <c r="A347" s="70" t="s">
         <v>143</v>
       </c>
       <c r="B347" s="75"/>
-      <c r="C347" s="51" t="s">
+      <c r="C347" s="52" t="s">
         <v>232</v>
       </c>
-      <c r="D347" s="52"/>
-      <c r="E347" s="52"/>
-      <c r="F347" s="52"/>
-      <c r="G347" s="52"/>
-      <c r="H347" s="53"/>
+      <c r="D347" s="53"/>
+      <c r="E347" s="53"/>
+      <c r="F347" s="53"/>
+      <c r="G347" s="53"/>
+      <c r="H347" s="54"/>
     </row>
     <row r="348" ht="18" customHeight="1" spans="1:8">
       <c r="A348" s="70" t="s">
         <v>147</v>
       </c>
       <c r="B348" s="75"/>
-      <c r="C348" s="51" t="s">
+      <c r="C348" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="D348" s="52"/>
-      <c r="E348" s="52"/>
-      <c r="F348" s="52"/>
-      <c r="G348" s="52"/>
-      <c r="H348" s="53"/>
+      <c r="D348" s="53"/>
+      <c r="E348" s="53"/>
+      <c r="F348" s="53"/>
+      <c r="G348" s="53"/>
+      <c r="H348" s="54"/>
     </row>
     <row r="349" ht="18" customHeight="1" spans="1:14">
       <c r="A349" s="70" t="s">
         <v>233</v>
       </c>
       <c r="B349" s="75"/>
-      <c r="C349" s="51" t="s">
+      <c r="C349" s="52" t="s">
         <v>234</v>
       </c>
-      <c r="D349" s="52"/>
-      <c r="E349" s="52"/>
-      <c r="F349" s="52"/>
-      <c r="G349" s="52"/>
-      <c r="H349" s="53"/>
-      <c r="I349" s="54" t="s">
+      <c r="D349" s="53"/>
+      <c r="E349" s="53"/>
+      <c r="F349" s="53"/>
+      <c r="G349" s="53"/>
+      <c r="H349" s="54"/>
+      <c r="I349" s="55" t="s">
         <v>235</v>
       </c>
-      <c r="J349" s="54"/>
-      <c r="K349" s="54"/>
-      <c r="L349" s="54"/>
-      <c r="M349" s="54"/>
-      <c r="N349" s="54"/>
+      <c r="J349" s="55"/>
+      <c r="K349" s="55"/>
+      <c r="L349" s="55"/>
+      <c r="M349" s="55"/>
+      <c r="N349" s="55"/>
     </row>
     <row r="350" ht="18" customHeight="1" spans="1:8">
       <c r="A350" s="70" t="s">
         <v>236</v>
       </c>
       <c r="B350" s="75"/>
-      <c r="C350" s="51"/>
-      <c r="D350" s="52"/>
-      <c r="E350" s="52"/>
-      <c r="F350" s="52"/>
-      <c r="G350" s="52"/>
-      <c r="H350" s="53"/>
+      <c r="C350" s="52"/>
+      <c r="D350" s="53"/>
+      <c r="E350" s="53"/>
+      <c r="F350" s="53"/>
+      <c r="G350" s="53"/>
+      <c r="H350" s="54"/>
     </row>
     <row r="351" ht="18" customHeight="1" spans="1:8">
       <c r="A351" s="70" t="s">
         <v>237</v>
       </c>
       <c r="B351" s="75"/>
-      <c r="C351" s="51" t="s">
+      <c r="C351" s="52" t="s">
         <v>238</v>
       </c>
-      <c r="D351" s="52"/>
-      <c r="E351" s="52"/>
-      <c r="F351" s="52"/>
-      <c r="G351" s="52"/>
-      <c r="H351" s="53"/>
+      <c r="D351" s="53"/>
+      <c r="E351" s="53"/>
+      <c r="F351" s="53"/>
+      <c r="G351" s="53"/>
+      <c r="H351" s="54"/>
     </row>
     <row r="352" ht="18" customHeight="1" spans="1:14">
       <c r="A352" s="70" t="s">
         <v>239</v>
       </c>
       <c r="B352" s="75"/>
-      <c r="C352" s="51" t="s">
+      <c r="C352" s="52" t="s">
         <v>240</v>
       </c>
-      <c r="D352" s="52"/>
-      <c r="E352" s="52"/>
-      <c r="F352" s="52"/>
-      <c r="G352" s="52"/>
-      <c r="H352" s="53"/>
-      <c r="I352" s="56" t="s">
+      <c r="D352" s="53"/>
+      <c r="E352" s="53"/>
+      <c r="F352" s="53"/>
+      <c r="G352" s="53"/>
+      <c r="H352" s="54"/>
+      <c r="I352" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="J352" s="56"/>
-      <c r="K352" s="56"/>
-      <c r="L352" s="56"/>
-      <c r="M352" s="56"/>
-      <c r="N352" s="56"/>
+      <c r="J352" s="1"/>
+      <c r="K352" s="1"/>
+      <c r="L352" s="1"/>
+      <c r="M352" s="1"/>
+      <c r="N352" s="1"/>
     </row>
     <row r="353" ht="18" customHeight="1"/>
     <row r="354" ht="18" customHeight="1" spans="1:8">
-      <c r="A354" s="18" t="s">
+      <c r="A354" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="B354" s="19"/>
-      <c r="C354" s="20"/>
-      <c r="D354" s="21"/>
-      <c r="E354" s="21"/>
-      <c r="F354" s="21"/>
-      <c r="G354" s="21"/>
-      <c r="H354" s="22"/>
+      <c r="B354" s="20"/>
+      <c r="C354" s="21"/>
+      <c r="D354" s="22"/>
+      <c r="E354" s="22"/>
+      <c r="F354" s="22"/>
+      <c r="G354" s="22"/>
+      <c r="H354" s="23"/>
     </row>
     <row r="355" ht="18" customHeight="1" spans="1:8">
-      <c r="A355" s="23"/>
-      <c r="B355" s="24"/>
-      <c r="C355" s="25"/>
-      <c r="D355" s="26"/>
-      <c r="E355" s="26"/>
-      <c r="F355" s="26"/>
-      <c r="G355" s="26"/>
-      <c r="H355" s="27"/>
+      <c r="A355" s="24"/>
+      <c r="B355" s="25"/>
+      <c r="C355" s="26"/>
+      <c r="D355" s="27"/>
+      <c r="E355" s="27"/>
+      <c r="F355" s="27"/>
+      <c r="G355" s="27"/>
+      <c r="H355" s="28"/>
     </row>
     <row r="356" ht="18" customHeight="1" spans="1:8">
       <c r="A356" s="70" t="s">
@@ -7128,7 +7228,7 @@
         <v>243</v>
       </c>
       <c r="B357" s="75"/>
-      <c r="C357" s="53" t="s">
+      <c r="C357" s="54" t="s">
         <v>244</v>
       </c>
       <c r="D357" s="86"/>
@@ -7142,7 +7242,7 @@
         <v>245</v>
       </c>
       <c r="B358" s="75"/>
-      <c r="C358" s="53" t="s">
+      <c r="C358" s="54" t="s">
         <v>246</v>
       </c>
       <c r="D358" s="86"/>
@@ -7156,7 +7256,7 @@
         <v>247</v>
       </c>
       <c r="B359" s="75"/>
-      <c r="C359" s="53" t="s">
+      <c r="C359" s="54" t="s">
         <v>248</v>
       </c>
       <c r="D359" s="86"/>
@@ -7170,47 +7270,47 @@
         <v>249</v>
       </c>
       <c r="B360" s="75"/>
-      <c r="C360" s="53"/>
+      <c r="C360" s="54"/>
       <c r="D360" s="86"/>
       <c r="E360" s="86"/>
       <c r="F360" s="86"/>
       <c r="G360" s="86"/>
       <c r="H360" s="86"/>
-      <c r="I360" s="54" t="s">
+      <c r="I360" s="55" t="s">
         <v>250</v>
       </c>
-      <c r="J360" s="54"/>
-      <c r="K360" s="54"/>
-      <c r="L360" s="54"/>
-      <c r="M360" s="54"/>
-      <c r="N360" s="54"/>
+      <c r="J360" s="55"/>
+      <c r="K360" s="55"/>
+      <c r="L360" s="55"/>
+      <c r="M360" s="55"/>
+      <c r="N360" s="55"/>
     </row>
     <row r="361" ht="18" customHeight="1" spans="1:14">
       <c r="A361" s="70" t="s">
         <v>251</v>
       </c>
       <c r="B361" s="75"/>
-      <c r="C361" s="53"/>
+      <c r="C361" s="54"/>
       <c r="D361" s="86"/>
       <c r="E361" s="86"/>
       <c r="F361" s="86"/>
       <c r="G361" s="86"/>
       <c r="H361" s="86"/>
-      <c r="I361" s="54" t="s">
+      <c r="I361" s="55" t="s">
         <v>250</v>
       </c>
-      <c r="J361" s="54"/>
-      <c r="K361" s="54"/>
-      <c r="L361" s="54"/>
-      <c r="M361" s="54"/>
-      <c r="N361" s="54"/>
+      <c r="J361" s="55"/>
+      <c r="K361" s="55"/>
+      <c r="L361" s="55"/>
+      <c r="M361" s="55"/>
+      <c r="N361" s="55"/>
     </row>
     <row r="362" ht="18" customHeight="1" spans="1:8">
       <c r="A362" s="70" t="s">
         <v>252</v>
       </c>
       <c r="B362" s="75"/>
-      <c r="C362" s="53" t="s">
+      <c r="C362" s="54" t="s">
         <v>253</v>
       </c>
       <c r="D362" s="86"/>
@@ -7221,26 +7321,26 @@
     </row>
     <row r="363" ht="18" customHeight="1"/>
     <row r="364" ht="18" customHeight="1" spans="1:8">
-      <c r="A364" s="18" t="s">
+      <c r="A364" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="B364" s="19"/>
-      <c r="C364" s="20"/>
-      <c r="D364" s="21"/>
-      <c r="E364" s="21"/>
-      <c r="F364" s="21"/>
-      <c r="G364" s="21"/>
-      <c r="H364" s="22"/>
+      <c r="B364" s="20"/>
+      <c r="C364" s="21"/>
+      <c r="D364" s="22"/>
+      <c r="E364" s="22"/>
+      <c r="F364" s="22"/>
+      <c r="G364" s="22"/>
+      <c r="H364" s="23"/>
     </row>
     <row r="365" ht="18" customHeight="1" spans="1:8">
-      <c r="A365" s="23"/>
-      <c r="B365" s="24"/>
-      <c r="C365" s="25"/>
-      <c r="D365" s="26"/>
-      <c r="E365" s="26"/>
-      <c r="F365" s="26"/>
-      <c r="G365" s="26"/>
-      <c r="H365" s="27"/>
+      <c r="A365" s="24"/>
+      <c r="B365" s="25"/>
+      <c r="C365" s="26"/>
+      <c r="D365" s="27"/>
+      <c r="E365" s="27"/>
+      <c r="F365" s="27"/>
+      <c r="G365" s="27"/>
+      <c r="H365" s="28"/>
     </row>
     <row r="366" ht="18" customHeight="1" spans="1:13">
       <c r="A366" s="70" t="s">
@@ -7268,7 +7368,7 @@
         <v>258</v>
       </c>
       <c r="B367" s="75"/>
-      <c r="C367" s="53" t="s">
+      <c r="C367" s="54" t="s">
         <v>259</v>
       </c>
       <c r="D367" s="86"/>
@@ -7293,26 +7393,26 @@
     </row>
     <row r="369" ht="18" customHeight="1"/>
     <row r="370" ht="18" customHeight="1" spans="1:8">
-      <c r="A370" s="18" t="s">
+      <c r="A370" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="B370" s="19"/>
-      <c r="C370" s="20"/>
-      <c r="D370" s="21"/>
-      <c r="E370" s="21"/>
-      <c r="F370" s="21"/>
-      <c r="G370" s="21"/>
-      <c r="H370" s="22"/>
+      <c r="B370" s="20"/>
+      <c r="C370" s="21"/>
+      <c r="D370" s="22"/>
+      <c r="E370" s="22"/>
+      <c r="F370" s="22"/>
+      <c r="G370" s="22"/>
+      <c r="H370" s="23"/>
     </row>
     <row r="371" ht="18" customHeight="1" spans="1:8">
-      <c r="A371" s="23"/>
-      <c r="B371" s="24"/>
-      <c r="C371" s="25"/>
-      <c r="D371" s="26"/>
-      <c r="E371" s="26"/>
-      <c r="F371" s="26"/>
-      <c r="G371" s="26"/>
-      <c r="H371" s="27"/>
+      <c r="A371" s="24"/>
+      <c r="B371" s="25"/>
+      <c r="C371" s="26"/>
+      <c r="D371" s="27"/>
+      <c r="E371" s="27"/>
+      <c r="F371" s="27"/>
+      <c r="G371" s="27"/>
+      <c r="H371" s="28"/>
     </row>
     <row r="372" ht="18" customHeight="1" spans="1:8">
       <c r="A372" s="70" t="s">
@@ -7333,7 +7433,7 @@
         <v>264</v>
       </c>
       <c r="B373" s="75"/>
-      <c r="C373" s="53" t="s">
+      <c r="C373" s="54" t="s">
         <v>265</v>
       </c>
       <c r="D373" s="86"/>
@@ -7359,28 +7459,28 @@
     <row r="375" ht="18" customHeight="1"/>
     <row r="376" ht="18" customHeight="1"/>
     <row r="377" ht="18" customHeight="1" spans="1:8">
-      <c r="A377" s="18" t="s">
+      <c r="A377" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="B377" s="19"/>
-      <c r="C377" s="20" t="s">
+      <c r="B377" s="20"/>
+      <c r="C377" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="D377" s="21"/>
-      <c r="E377" s="21"/>
-      <c r="F377" s="21"/>
-      <c r="G377" s="21"/>
-      <c r="H377" s="22"/>
+      <c r="D377" s="22"/>
+      <c r="E377" s="22"/>
+      <c r="F377" s="22"/>
+      <c r="G377" s="22"/>
+      <c r="H377" s="23"/>
     </row>
     <row r="378" ht="18" customHeight="1" spans="1:8">
-      <c r="A378" s="23"/>
-      <c r="B378" s="24"/>
-      <c r="C378" s="25"/>
-      <c r="D378" s="26"/>
-      <c r="E378" s="26"/>
-      <c r="F378" s="26"/>
-      <c r="G378" s="26"/>
-      <c r="H378" s="27"/>
+      <c r="A378" s="24"/>
+      <c r="B378" s="25"/>
+      <c r="C378" s="26"/>
+      <c r="D378" s="27"/>
+      <c r="E378" s="27"/>
+      <c r="F378" s="27"/>
+      <c r="G378" s="27"/>
+      <c r="H378" s="28"/>
     </row>
     <row r="379" ht="18" customHeight="1" spans="1:8">
       <c r="A379" s="87" t="s">
@@ -7401,7 +7501,7 @@
         <v>272</v>
       </c>
       <c r="B380" s="88"/>
-      <c r="C380" s="53"/>
+      <c r="C380" s="54"/>
       <c r="D380" s="86"/>
       <c r="E380" s="86"/>
       <c r="F380" s="86"/>
@@ -7427,7 +7527,7 @@
         <v>275</v>
       </c>
       <c r="B382" s="88"/>
-      <c r="C382" s="53"/>
+      <c r="C382" s="54"/>
       <c r="D382" s="86"/>
       <c r="E382" s="86"/>
       <c r="F382" s="86"/>
@@ -7436,32 +7536,32 @@
     </row>
     <row r="383" ht="18" customHeight="1"/>
     <row r="384" ht="18" customHeight="1" spans="1:8">
-      <c r="A384" s="28" t="s">
+      <c r="A384" s="29" t="s">
         <v>268</v>
       </c>
-      <c r="B384" s="28"/>
-      <c r="C384" s="30"/>
-      <c r="D384" s="30"/>
-      <c r="E384" s="30"/>
-      <c r="F384" s="30"/>
-      <c r="G384" s="30"/>
-      <c r="H384" s="30"/>
+      <c r="B384" s="29"/>
+      <c r="C384" s="31"/>
+      <c r="D384" s="31"/>
+      <c r="E384" s="31"/>
+      <c r="F384" s="31"/>
+      <c r="G384" s="31"/>
+      <c r="H384" s="31"/>
     </row>
     <row r="385" ht="18" customHeight="1" spans="1:8">
-      <c r="A385" s="28"/>
-      <c r="B385" s="28"/>
-      <c r="C385" s="30"/>
-      <c r="D385" s="30"/>
-      <c r="E385" s="30"/>
-      <c r="F385" s="30"/>
-      <c r="G385" s="30"/>
-      <c r="H385" s="30"/>
+      <c r="A385" s="29"/>
+      <c r="B385" s="29"/>
+      <c r="C385" s="31"/>
+      <c r="D385" s="31"/>
+      <c r="E385" s="31"/>
+      <c r="F385" s="31"/>
+      <c r="G385" s="31"/>
+      <c r="H385" s="31"/>
     </row>
     <row r="386" ht="18" customHeight="1" spans="1:8">
-      <c r="A386" s="30" t="s">
+      <c r="A386" s="31" t="s">
         <v>276</v>
       </c>
-      <c r="B386" s="30"/>
+      <c r="B386" s="31"/>
       <c r="C386" s="86" t="s">
         <v>277</v>
       </c>
@@ -7472,10 +7572,10 @@
       <c r="H386" s="86"/>
     </row>
     <row r="387" ht="18" customHeight="1" spans="1:8">
-      <c r="A387" s="30" t="s">
+      <c r="A387" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="B387" s="30"/>
+      <c r="B387" s="31"/>
       <c r="C387" s="86" t="s">
         <v>225</v>
       </c>
@@ -7486,10 +7586,10 @@
       <c r="H387" s="86"/>
     </row>
     <row r="388" ht="18" customHeight="1" spans="1:8">
-      <c r="A388" s="30" t="s">
+      <c r="A388" s="31" t="s">
         <v>279</v>
       </c>
-      <c r="B388" s="30"/>
+      <c r="B388" s="31"/>
       <c r="C388" s="86" t="s">
         <v>280</v>
       </c>
@@ -7500,10 +7600,10 @@
       <c r="H388" s="86"/>
     </row>
     <row r="389" ht="18" customHeight="1" spans="1:8">
-      <c r="A389" s="30" t="s">
+      <c r="A389" s="31" t="s">
         <v>281</v>
       </c>
-      <c r="B389" s="30"/>
+      <c r="B389" s="31"/>
       <c r="C389" s="86" t="s">
         <v>282</v>
       </c>
@@ -7514,10 +7614,10 @@
       <c r="H389" s="86"/>
     </row>
     <row r="390" ht="18" customHeight="1" spans="1:9">
-      <c r="A390" s="30" t="s">
+      <c r="A390" s="31" t="s">
         <v>283</v>
       </c>
-      <c r="B390" s="30"/>
+      <c r="B390" s="31"/>
       <c r="C390" s="86"/>
       <c r="D390" s="86"/>
       <c r="E390" s="86"/>
@@ -7529,10 +7629,10 @@
       </c>
     </row>
     <row r="391" ht="18" customHeight="1" spans="1:8">
-      <c r="A391" s="30" t="s">
+      <c r="A391" s="31" t="s">
         <v>285</v>
       </c>
-      <c r="B391" s="30"/>
+      <c r="B391" s="31"/>
       <c r="C391" s="86" t="s">
         <v>286</v>
       </c>
@@ -7543,10 +7643,10 @@
       <c r="H391" s="86"/>
     </row>
     <row r="392" ht="18" customHeight="1" spans="1:8">
-      <c r="A392" s="30" t="s">
+      <c r="A392" s="31" t="s">
         <v>287</v>
       </c>
-      <c r="B392" s="30"/>
+      <c r="B392" s="31"/>
       <c r="C392" s="86" t="s">
         <v>288</v>
       </c>
@@ -7558,32 +7658,32 @@
     </row>
     <row r="393" ht="18" customHeight="1"/>
     <row r="394" spans="1:8">
-      <c r="A394" s="28" t="s">
+      <c r="A394" s="29" t="s">
         <v>268</v>
       </c>
-      <c r="B394" s="28"/>
-      <c r="C394" s="30"/>
-      <c r="D394" s="30"/>
-      <c r="E394" s="30"/>
-      <c r="F394" s="30"/>
-      <c r="G394" s="30"/>
-      <c r="H394" s="30"/>
+      <c r="B394" s="29"/>
+      <c r="C394" s="31"/>
+      <c r="D394" s="31"/>
+      <c r="E394" s="31"/>
+      <c r="F394" s="31"/>
+      <c r="G394" s="31"/>
+      <c r="H394" s="31"/>
     </row>
     <row r="395" spans="1:8">
-      <c r="A395" s="28"/>
-      <c r="B395" s="28"/>
-      <c r="C395" s="30"/>
-      <c r="D395" s="30"/>
-      <c r="E395" s="30"/>
-      <c r="F395" s="30"/>
-      <c r="G395" s="30"/>
-      <c r="H395" s="30"/>
+      <c r="A395" s="29"/>
+      <c r="B395" s="29"/>
+      <c r="C395" s="31"/>
+      <c r="D395" s="31"/>
+      <c r="E395" s="31"/>
+      <c r="F395" s="31"/>
+      <c r="G395" s="31"/>
+      <c r="H395" s="31"/>
     </row>
     <row r="396" ht="15.7" spans="1:8">
-      <c r="A396" s="30" t="s">
+      <c r="A396" s="31" t="s">
         <v>289</v>
       </c>
-      <c r="B396" s="30"/>
+      <c r="B396" s="31"/>
       <c r="C396" s="86" t="s">
         <v>290</v>
       </c>
@@ -7594,10 +7694,10 @@
       <c r="H396" s="86"/>
     </row>
     <row r="397" ht="15.7" spans="1:8">
-      <c r="A397" s="30" t="s">
+      <c r="A397" s="31" t="s">
         <v>291</v>
       </c>
-      <c r="B397" s="30"/>
+      <c r="B397" s="31"/>
       <c r="C397" s="86" t="s">
         <v>292</v>
       </c>
@@ -7608,10 +7708,10 @@
       <c r="H397" s="86"/>
     </row>
     <row r="398" ht="15.7" spans="1:9">
-      <c r="A398" s="30" t="s">
+      <c r="A398" s="31" t="s">
         <v>293</v>
       </c>
-      <c r="B398" s="30"/>
+      <c r="B398" s="31"/>
       <c r="C398" s="86" t="s">
         <v>225</v>
       </c>
@@ -7625,10 +7725,10 @@
       </c>
     </row>
     <row r="399" ht="15.7" spans="1:13">
-      <c r="A399" s="30" t="s">
+      <c r="A399" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="B399" s="30"/>
+      <c r="B399" s="31"/>
       <c r="C399" s="86" t="s">
         <v>295</v>
       </c>
@@ -7637,19 +7737,19 @@
       <c r="F399" s="86"/>
       <c r="G399" s="86"/>
       <c r="H399" s="86"/>
-      <c r="I399" s="21" t="s">
+      <c r="I399" s="22" t="s">
         <v>296</v>
       </c>
-      <c r="J399" s="21"/>
-      <c r="K399" s="21"/>
-      <c r="L399" s="21"/>
-      <c r="M399" s="21"/>
+      <c r="J399" s="22"/>
+      <c r="K399" s="22"/>
+      <c r="L399" s="22"/>
+      <c r="M399" s="22"/>
     </row>
     <row r="400" ht="15.7" spans="1:8">
-      <c r="A400" s="30" t="s">
+      <c r="A400" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="B400" s="30"/>
+      <c r="B400" s="31"/>
       <c r="C400" s="86" t="s">
         <v>298</v>
       </c>
@@ -7660,29 +7760,29 @@
       <c r="H400" s="86"/>
     </row>
     <row r="401" ht="15.7" spans="1:13">
-      <c r="A401" s="30" t="s">
+      <c r="A401" s="31" t="s">
         <v>299</v>
       </c>
-      <c r="B401" s="30"/>
+      <c r="B401" s="31"/>
       <c r="C401" s="86"/>
       <c r="D401" s="86"/>
       <c r="E401" s="86"/>
       <c r="F401" s="86"/>
       <c r="G401" s="86"/>
       <c r="H401" s="86"/>
-      <c r="I401" s="56" t="s">
+      <c r="I401" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="J401" s="56"/>
-      <c r="K401" s="56"/>
-      <c r="L401" s="56"/>
-      <c r="M401" s="56"/>
+      <c r="J401" s="1"/>
+      <c r="K401" s="1"/>
+      <c r="L401" s="1"/>
+      <c r="M401" s="1"/>
     </row>
     <row r="402" ht="15.7" spans="1:8">
-      <c r="A402" s="30" t="s">
+      <c r="A402" s="31" t="s">
         <v>301</v>
       </c>
-      <c r="B402" s="30"/>
+      <c r="B402" s="31"/>
       <c r="C402" s="86" t="s">
         <v>302</v>
       </c>
@@ -7693,32 +7793,32 @@
       <c r="H402" s="86"/>
     </row>
     <row r="404" spans="1:8">
-      <c r="A404" s="28" t="s">
+      <c r="A404" s="29" t="s">
         <v>268</v>
       </c>
-      <c r="B404" s="28"/>
-      <c r="C404" s="30"/>
-      <c r="D404" s="30"/>
-      <c r="E404" s="30"/>
-      <c r="F404" s="30"/>
-      <c r="G404" s="30"/>
-      <c r="H404" s="30"/>
+      <c r="B404" s="29"/>
+      <c r="C404" s="31"/>
+      <c r="D404" s="31"/>
+      <c r="E404" s="31"/>
+      <c r="F404" s="31"/>
+      <c r="G404" s="31"/>
+      <c r="H404" s="31"/>
     </row>
     <row r="405" spans="1:8">
-      <c r="A405" s="28"/>
-      <c r="B405" s="28"/>
-      <c r="C405" s="30"/>
-      <c r="D405" s="30"/>
-      <c r="E405" s="30"/>
-      <c r="F405" s="30"/>
-      <c r="G405" s="30"/>
-      <c r="H405" s="30"/>
+      <c r="A405" s="29"/>
+      <c r="B405" s="29"/>
+      <c r="C405" s="31"/>
+      <c r="D405" s="31"/>
+      <c r="E405" s="31"/>
+      <c r="F405" s="31"/>
+      <c r="G405" s="31"/>
+      <c r="H405" s="31"/>
     </row>
     <row r="406" ht="15.7" spans="1:8">
-      <c r="A406" s="30" t="s">
+      <c r="A406" s="31" t="s">
         <v>303</v>
       </c>
-      <c r="B406" s="30"/>
+      <c r="B406" s="31"/>
       <c r="C406" s="86" t="s">
         <v>304</v>
       </c>
@@ -7729,10 +7829,10 @@
       <c r="H406" s="86"/>
     </row>
     <row r="407" ht="15.7" spans="1:8">
-      <c r="A407" s="30" t="s">
+      <c r="A407" s="31" t="s">
         <v>305</v>
       </c>
-      <c r="B407" s="30"/>
+      <c r="B407" s="31"/>
       <c r="C407" s="86" t="s">
         <v>306</v>
       </c>
@@ -7743,10 +7843,10 @@
       <c r="H407" s="86"/>
     </row>
     <row r="408" ht="15.7" spans="1:8">
-      <c r="A408" s="30" t="s">
+      <c r="A408" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="B408" s="30"/>
+      <c r="B408" s="31"/>
       <c r="C408" s="86" t="s">
         <v>308</v>
       </c>
@@ -7757,10 +7857,10 @@
       <c r="H408" s="86"/>
     </row>
     <row r="409" ht="15.7" spans="1:8">
-      <c r="A409" s="30" t="s">
+      <c r="A409" s="31" t="s">
         <v>309</v>
       </c>
-      <c r="B409" s="30"/>
+      <c r="B409" s="31"/>
       <c r="C409" s="86" t="s">
         <v>310</v>
       </c>
@@ -7771,10 +7871,10 @@
       <c r="H409" s="86"/>
     </row>
     <row r="410" ht="15.7" spans="1:8">
-      <c r="A410" s="30" t="s">
+      <c r="A410" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="B410" s="30"/>
+      <c r="B410" s="31"/>
       <c r="C410" s="90" t="s">
         <v>311</v>
       </c>
@@ -7785,22 +7885,22 @@
       <c r="H410" s="59"/>
     </row>
     <row r="411" ht="15.7" spans="1:8">
-      <c r="A411" s="30" t="s">
+      <c r="A411" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="B411" s="30"/>
+      <c r="B411" s="31"/>
       <c r="C411" s="60"/>
-      <c r="D411" s="56"/>
-      <c r="E411" s="56"/>
-      <c r="F411" s="56"/>
-      <c r="G411" s="56"/>
+      <c r="D411" s="1"/>
+      <c r="E411" s="1"/>
+      <c r="F411" s="1"/>
+      <c r="G411" s="1"/>
       <c r="H411" s="61"/>
     </row>
     <row r="412" ht="15.7" spans="1:8">
-      <c r="A412" s="30" t="s">
+      <c r="A412" s="31" t="s">
         <v>260</v>
       </c>
-      <c r="B412" s="30"/>
+      <c r="B412" s="31"/>
       <c r="C412" s="62"/>
       <c r="D412" s="63"/>
       <c r="E412" s="63"/>
@@ -7809,32 +7909,32 @@
       <c r="H412" s="64"/>
     </row>
     <row r="414" spans="1:8">
-      <c r="A414" s="28" t="s">
+      <c r="A414" s="29" t="s">
         <v>268</v>
       </c>
-      <c r="B414" s="28"/>
-      <c r="C414" s="30"/>
-      <c r="D414" s="30"/>
-      <c r="E414" s="30"/>
-      <c r="F414" s="30"/>
-      <c r="G414" s="30"/>
-      <c r="H414" s="30"/>
+      <c r="B414" s="29"/>
+      <c r="C414" s="31"/>
+      <c r="D414" s="31"/>
+      <c r="E414" s="31"/>
+      <c r="F414" s="31"/>
+      <c r="G414" s="31"/>
+      <c r="H414" s="31"/>
     </row>
     <row r="415" spans="1:8">
-      <c r="A415" s="28"/>
-      <c r="B415" s="28"/>
-      <c r="C415" s="30"/>
-      <c r="D415" s="30"/>
-      <c r="E415" s="30"/>
-      <c r="F415" s="30"/>
-      <c r="G415" s="30"/>
-      <c r="H415" s="30"/>
+      <c r="A415" s="29"/>
+      <c r="B415" s="29"/>
+      <c r="C415" s="31"/>
+      <c r="D415" s="31"/>
+      <c r="E415" s="31"/>
+      <c r="F415" s="31"/>
+      <c r="G415" s="31"/>
+      <c r="H415" s="31"/>
     </row>
     <row r="416" ht="15.7" spans="1:8">
-      <c r="A416" s="30" t="s">
+      <c r="A416" s="31" t="s">
         <v>262</v>
       </c>
-      <c r="B416" s="30"/>
+      <c r="B416" s="31"/>
       <c r="C416" s="86" t="s">
         <v>312</v>
       </c>
@@ -7845,10 +7945,10 @@
       <c r="H416" s="86"/>
     </row>
     <row r="417" ht="15.7" spans="1:8">
-      <c r="A417" s="30" t="s">
+      <c r="A417" s="31" t="s">
         <v>264</v>
       </c>
-      <c r="B417" s="30"/>
+      <c r="B417" s="31"/>
       <c r="C417" s="86" t="s">
         <v>313</v>
       </c>
@@ -7859,10 +7959,10 @@
       <c r="H417" s="86"/>
     </row>
     <row r="418" ht="15.7" spans="1:13">
-      <c r="A418" s="30" t="s">
+      <c r="A418" s="31" t="s">
         <v>266</v>
       </c>
-      <c r="B418" s="30"/>
+      <c r="B418" s="31"/>
       <c r="C418" s="86" t="s">
         <v>314</v>
       </c>
@@ -7871,19 +7971,19 @@
       <c r="F418" s="86"/>
       <c r="G418" s="86"/>
       <c r="H418" s="86"/>
-      <c r="I418" s="56" t="s">
+      <c r="I418" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="J418" s="56"/>
-      <c r="K418" s="56"/>
-      <c r="L418" s="56"/>
-      <c r="M418" s="56"/>
+      <c r="J418" s="1"/>
+      <c r="K418" s="1"/>
+      <c r="L418" s="1"/>
+      <c r="M418" s="1"/>
     </row>
     <row r="419" ht="15.7" spans="1:8">
-      <c r="A419" s="30" t="s">
+      <c r="A419" s="31" t="s">
         <v>316</v>
       </c>
-      <c r="B419" s="30"/>
+      <c r="B419" s="31"/>
       <c r="C419" s="86" t="s">
         <v>317</v>
       </c>
@@ -7894,10 +7994,10 @@
       <c r="H419" s="86"/>
     </row>
     <row r="420" ht="15.7" spans="1:8">
-      <c r="A420" s="30" t="s">
+      <c r="A420" s="31" t="s">
         <v>318</v>
       </c>
-      <c r="B420" s="30"/>
+      <c r="B420" s="31"/>
       <c r="C420" s="86" t="s">
         <v>319</v>
       </c>
@@ -7908,10 +8008,10 @@
       <c r="H420" s="86"/>
     </row>
     <row r="421" ht="15.7" spans="1:13">
-      <c r="A421" s="30" t="s">
+      <c r="A421" s="31" t="s">
         <v>320</v>
       </c>
-      <c r="B421" s="30"/>
+      <c r="B421" s="31"/>
       <c r="C421" s="86"/>
       <c r="D421" s="86"/>
       <c r="E421" s="86"/>
@@ -7927,32 +8027,32 @@
       <c r="M421" s="92"/>
     </row>
     <row r="423" spans="1:8">
-      <c r="A423" s="28" t="s">
+      <c r="A423" s="29" t="s">
         <v>322</v>
       </c>
-      <c r="B423" s="28"/>
-      <c r="C423" s="30"/>
-      <c r="D423" s="30"/>
-      <c r="E423" s="30"/>
-      <c r="F423" s="30"/>
-      <c r="G423" s="30"/>
-      <c r="H423" s="30"/>
+      <c r="B423" s="29"/>
+      <c r="C423" s="31"/>
+      <c r="D423" s="31"/>
+      <c r="E423" s="31"/>
+      <c r="F423" s="31"/>
+      <c r="G423" s="31"/>
+      <c r="H423" s="31"/>
     </row>
     <row r="424" spans="1:8">
-      <c r="A424" s="28"/>
-      <c r="B424" s="28"/>
-      <c r="C424" s="30"/>
-      <c r="D424" s="30"/>
-      <c r="E424" s="30"/>
-      <c r="F424" s="30"/>
-      <c r="G424" s="30"/>
-      <c r="H424" s="30"/>
+      <c r="A424" s="29"/>
+      <c r="B424" s="29"/>
+      <c r="C424" s="31"/>
+      <c r="D424" s="31"/>
+      <c r="E424" s="31"/>
+      <c r="F424" s="31"/>
+      <c r="G424" s="31"/>
+      <c r="H424" s="31"/>
     </row>
     <row r="425" ht="15.7" spans="1:8">
-      <c r="A425" s="30" t="s">
+      <c r="A425" s="31" t="s">
         <v>323</v>
       </c>
-      <c r="B425" s="30"/>
+      <c r="B425" s="31"/>
       <c r="C425" s="86" t="s">
         <v>324</v>
       </c>
@@ -7963,32 +8063,32 @@
       <c r="H425" s="86"/>
     </row>
     <row r="428" spans="1:8">
-      <c r="A428" s="28" t="s">
+      <c r="A428" s="29" t="s">
         <v>322</v>
       </c>
-      <c r="B428" s="28"/>
-      <c r="C428" s="30"/>
-      <c r="D428" s="30"/>
-      <c r="E428" s="30"/>
-      <c r="F428" s="30"/>
-      <c r="G428" s="30"/>
-      <c r="H428" s="30"/>
+      <c r="B428" s="29"/>
+      <c r="C428" s="31"/>
+      <c r="D428" s="31"/>
+      <c r="E428" s="31"/>
+      <c r="F428" s="31"/>
+      <c r="G428" s="31"/>
+      <c r="H428" s="31"/>
     </row>
     <row r="429" spans="1:8">
-      <c r="A429" s="28"/>
-      <c r="B429" s="28"/>
-      <c r="C429" s="30"/>
-      <c r="D429" s="30"/>
-      <c r="E429" s="30"/>
-      <c r="F429" s="30"/>
-      <c r="G429" s="30"/>
-      <c r="H429" s="30"/>
+      <c r="A429" s="29"/>
+      <c r="B429" s="29"/>
+      <c r="C429" s="31"/>
+      <c r="D429" s="31"/>
+      <c r="E429" s="31"/>
+      <c r="F429" s="31"/>
+      <c r="G429" s="31"/>
+      <c r="H429" s="31"/>
     </row>
     <row r="430" ht="15.7" spans="1:8">
-      <c r="A430" s="30" t="s">
+      <c r="A430" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="B430" s="30"/>
+      <c r="B430" s="31"/>
       <c r="C430" s="86" t="s">
         <v>326</v>
       </c>
@@ -7999,10 +8099,10 @@
       <c r="H430" s="86"/>
     </row>
     <row r="431" ht="15.7" spans="1:8">
-      <c r="A431" s="30" t="s">
+      <c r="A431" s="31" t="s">
         <v>327</v>
       </c>
-      <c r="B431" s="30"/>
+      <c r="B431" s="31"/>
       <c r="C431" s="86" t="s">
         <v>328</v>
       </c>
@@ -8013,10 +8113,10 @@
       <c r="H431" s="86"/>
     </row>
     <row r="432" ht="15.7" spans="1:8">
-      <c r="A432" s="30" t="s">
+      <c r="A432" s="31" t="s">
         <v>329</v>
       </c>
-      <c r="B432" s="30"/>
+      <c r="B432" s="31"/>
       <c r="C432" s="86" t="s">
         <v>330</v>
       </c>
@@ -8027,10 +8127,10 @@
       <c r="H432" s="86"/>
     </row>
     <row r="433" ht="15.7" spans="1:8">
-      <c r="A433" s="30" t="s">
+      <c r="A433" s="31" t="s">
         <v>331</v>
       </c>
-      <c r="B433" s="30"/>
+      <c r="B433" s="31"/>
       <c r="C433" s="86" t="s">
         <v>332</v>
       </c>
@@ -8041,10 +8141,10 @@
       <c r="H433" s="86"/>
     </row>
     <row r="434" ht="15.7" spans="1:8">
-      <c r="A434" s="30" t="s">
+      <c r="A434" s="31" t="s">
         <v>333</v>
       </c>
-      <c r="B434" s="30"/>
+      <c r="B434" s="31"/>
       <c r="C434" s="86"/>
       <c r="D434" s="86"/>
       <c r="E434" s="86"/>
@@ -8053,10 +8153,10 @@
       <c r="H434" s="86"/>
     </row>
     <row r="435" ht="15.7" spans="1:8">
-      <c r="A435" s="30" t="s">
+      <c r="A435" s="31" t="s">
         <v>334</v>
       </c>
-      <c r="B435" s="30"/>
+      <c r="B435" s="31"/>
       <c r="C435" s="86" t="s">
         <v>335</v>
       </c>
@@ -8067,10 +8167,10 @@
       <c r="H435" s="86"/>
     </row>
     <row r="436" ht="15.7" spans="1:8">
-      <c r="A436" s="30" t="s">
+      <c r="A436" s="31" t="s">
         <v>336</v>
       </c>
-      <c r="B436" s="30"/>
+      <c r="B436" s="31"/>
       <c r="C436" s="86" t="s">
         <v>337</v>
       </c>
@@ -8081,52 +8181,52 @@
       <c r="H436" s="86"/>
     </row>
     <row r="438" spans="1:8">
-      <c r="A438" s="28" t="s">
+      <c r="A438" s="29" t="s">
         <v>322</v>
       </c>
-      <c r="B438" s="28"/>
-      <c r="C438" s="30"/>
-      <c r="D438" s="30"/>
-      <c r="E438" s="30"/>
-      <c r="F438" s="30"/>
-      <c r="G438" s="30"/>
-      <c r="H438" s="30"/>
+      <c r="B438" s="29"/>
+      <c r="C438" s="31"/>
+      <c r="D438" s="31"/>
+      <c r="E438" s="31"/>
+      <c r="F438" s="31"/>
+      <c r="G438" s="31"/>
+      <c r="H438" s="31"/>
     </row>
     <row r="439" spans="1:8">
-      <c r="A439" s="28"/>
-      <c r="B439" s="28"/>
-      <c r="C439" s="30"/>
-      <c r="D439" s="30"/>
-      <c r="E439" s="30"/>
-      <c r="F439" s="30"/>
-      <c r="G439" s="30"/>
-      <c r="H439" s="30"/>
+      <c r="A439" s="29"/>
+      <c r="B439" s="29"/>
+      <c r="C439" s="31"/>
+      <c r="D439" s="31"/>
+      <c r="E439" s="31"/>
+      <c r="F439" s="31"/>
+      <c r="G439" s="31"/>
+      <c r="H439" s="31"/>
     </row>
     <row r="440" ht="15.7" spans="1:14">
-      <c r="A440" s="30" t="s">
+      <c r="A440" s="31" t="s">
         <v>338</v>
       </c>
-      <c r="B440" s="30"/>
+      <c r="B440" s="31"/>
       <c r="C440" s="86"/>
       <c r="D440" s="86"/>
       <c r="E440" s="86"/>
       <c r="F440" s="86"/>
       <c r="G440" s="86"/>
       <c r="H440" s="86"/>
-      <c r="I440" s="1" t="s">
+      <c r="I440" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="J440" s="1"/>
-      <c r="K440" s="1"/>
-      <c r="L440" s="1"/>
-      <c r="M440" s="1"/>
-      <c r="N440" s="1"/>
+      <c r="J440" s="2"/>
+      <c r="K440" s="2"/>
+      <c r="L440" s="2"/>
+      <c r="M440" s="2"/>
+      <c r="N440" s="2"/>
     </row>
     <row r="441" ht="15.7" spans="1:8">
-      <c r="A441" s="30" t="s">
+      <c r="A441" s="31" t="s">
         <v>340</v>
       </c>
-      <c r="B441" s="30"/>
+      <c r="B441" s="31"/>
       <c r="C441" s="86" t="s">
         <v>341</v>
       </c>
@@ -8137,10 +8237,10 @@
       <c r="H441" s="86"/>
     </row>
     <row r="442" ht="15.7" spans="1:8">
-      <c r="A442" s="30" t="s">
+      <c r="A442" s="31" t="s">
         <v>342</v>
       </c>
-      <c r="B442" s="30"/>
+      <c r="B442" s="31"/>
       <c r="C442" s="91" t="s">
         <v>100</v>
       </c>
@@ -8148,83 +8248,83 @@
       <c r="E442" s="68"/>
       <c r="F442" s="68"/>
       <c r="G442" s="68"/>
-      <c r="H442" s="14"/>
+      <c r="H442" s="15"/>
     </row>
     <row r="443" ht="15.7" spans="1:8">
-      <c r="A443" s="30" t="s">
+      <c r="A443" s="31" t="s">
         <v>343</v>
       </c>
-      <c r="B443" s="30"/>
-      <c r="C443" s="18"/>
-      <c r="D443" s="1"/>
-      <c r="E443" s="1"/>
-      <c r="F443" s="1"/>
-      <c r="G443" s="1"/>
-      <c r="H443" s="19"/>
+      <c r="B443" s="31"/>
+      <c r="C443" s="19"/>
+      <c r="D443" s="2"/>
+      <c r="E443" s="2"/>
+      <c r="F443" s="2"/>
+      <c r="G443" s="2"/>
+      <c r="H443" s="20"/>
     </row>
     <row r="444" ht="15.7" spans="1:8">
-      <c r="A444" s="30" t="s">
+      <c r="A444" s="31" t="s">
         <v>344</v>
       </c>
-      <c r="B444" s="30"/>
-      <c r="C444" s="18"/>
-      <c r="D444" s="1"/>
-      <c r="E444" s="1"/>
-      <c r="F444" s="1"/>
-      <c r="G444" s="1"/>
-      <c r="H444" s="19"/>
+      <c r="B444" s="31"/>
+      <c r="C444" s="19"/>
+      <c r="D444" s="2"/>
+      <c r="E444" s="2"/>
+      <c r="F444" s="2"/>
+      <c r="G444" s="2"/>
+      <c r="H444" s="20"/>
     </row>
     <row r="445" ht="15.7" spans="1:8">
-      <c r="A445" s="30" t="s">
+      <c r="A445" s="31" t="s">
         <v>345</v>
       </c>
-      <c r="B445" s="30"/>
-      <c r="C445" s="18"/>
-      <c r="D445" s="1"/>
-      <c r="E445" s="1"/>
-      <c r="F445" s="1"/>
-      <c r="G445" s="1"/>
-      <c r="H445" s="19"/>
+      <c r="B445" s="31"/>
+      <c r="C445" s="19"/>
+      <c r="D445" s="2"/>
+      <c r="E445" s="2"/>
+      <c r="F445" s="2"/>
+      <c r="G445" s="2"/>
+      <c r="H445" s="20"/>
     </row>
     <row r="446" ht="15.7" spans="1:8">
-      <c r="A446" s="30" t="s">
+      <c r="A446" s="31" t="s">
         <v>346</v>
       </c>
-      <c r="B446" s="30"/>
-      <c r="C446" s="23"/>
+      <c r="B446" s="31"/>
+      <c r="C446" s="24"/>
       <c r="D446" s="69"/>
       <c r="E446" s="69"/>
       <c r="F446" s="69"/>
       <c r="G446" s="69"/>
-      <c r="H446" s="24"/>
+      <c r="H446" s="25"/>
     </row>
     <row r="448" spans="1:8">
-      <c r="A448" s="28" t="s">
+      <c r="A448" s="29" t="s">
         <v>322</v>
       </c>
-      <c r="B448" s="28"/>
-      <c r="C448" s="30"/>
-      <c r="D448" s="30"/>
-      <c r="E448" s="30"/>
-      <c r="F448" s="30"/>
-      <c r="G448" s="30"/>
-      <c r="H448" s="30"/>
+      <c r="B448" s="29"/>
+      <c r="C448" s="31"/>
+      <c r="D448" s="31"/>
+      <c r="E448" s="31"/>
+      <c r="F448" s="31"/>
+      <c r="G448" s="31"/>
+      <c r="H448" s="31"/>
     </row>
     <row r="449" spans="1:8">
-      <c r="A449" s="28"/>
-      <c r="B449" s="28"/>
-      <c r="C449" s="30"/>
-      <c r="D449" s="30"/>
-      <c r="E449" s="30"/>
-      <c r="F449" s="30"/>
-      <c r="G449" s="30"/>
-      <c r="H449" s="30"/>
+      <c r="A449" s="29"/>
+      <c r="B449" s="29"/>
+      <c r="C449" s="31"/>
+      <c r="D449" s="31"/>
+      <c r="E449" s="31"/>
+      <c r="F449" s="31"/>
+      <c r="G449" s="31"/>
+      <c r="H449" s="31"/>
     </row>
     <row r="450" ht="15.7" spans="1:8">
-      <c r="A450" s="30" t="s">
+      <c r="A450" s="31" t="s">
         <v>347</v>
       </c>
-      <c r="B450" s="30"/>
+      <c r="B450" s="31"/>
       <c r="C450" s="93" t="s">
         <v>100</v>
       </c>
@@ -8235,10 +8335,10 @@
       <c r="H450" s="95"/>
     </row>
     <row r="451" ht="15.7" spans="1:8">
-      <c r="A451" s="30" t="s">
+      <c r="A451" s="31" t="s">
         <v>348</v>
       </c>
-      <c r="B451" s="30"/>
+      <c r="B451" s="31"/>
       <c r="C451" s="96"/>
       <c r="D451" s="97"/>
       <c r="E451" s="97"/>
@@ -8247,10 +8347,10 @@
       <c r="H451" s="98"/>
     </row>
     <row r="452" ht="15.7" spans="1:8">
-      <c r="A452" s="30" t="s">
+      <c r="A452" s="31" t="s">
         <v>349</v>
       </c>
-      <c r="B452" s="30"/>
+      <c r="B452" s="31"/>
       <c r="C452" s="96"/>
       <c r="D452" s="97"/>
       <c r="E452" s="97"/>
@@ -8259,10 +8359,10 @@
       <c r="H452" s="98"/>
     </row>
     <row r="453" ht="15.7" spans="1:8">
-      <c r="A453" s="30" t="s">
+      <c r="A453" s="31" t="s">
         <v>350</v>
       </c>
-      <c r="B453" s="30"/>
+      <c r="B453" s="31"/>
       <c r="C453" s="96"/>
       <c r="D453" s="97"/>
       <c r="E453" s="97"/>
@@ -8271,10 +8371,10 @@
       <c r="H453" s="98"/>
     </row>
     <row r="454" ht="15.7" spans="1:8">
-      <c r="A454" s="30" t="s">
+      <c r="A454" s="31" t="s">
         <v>351</v>
       </c>
-      <c r="B454" s="30"/>
+      <c r="B454" s="31"/>
       <c r="C454" s="96"/>
       <c r="D454" s="97"/>
       <c r="E454" s="97"/>
@@ -8283,10 +8383,10 @@
       <c r="H454" s="98"/>
     </row>
     <row r="455" ht="15.7" spans="1:8">
-      <c r="A455" s="30" t="s">
+      <c r="A455" s="31" t="s">
         <v>352</v>
       </c>
-      <c r="B455" s="30"/>
+      <c r="B455" s="31"/>
       <c r="C455" s="96"/>
       <c r="D455" s="97"/>
       <c r="E455" s="97"/>
@@ -8295,10 +8395,10 @@
       <c r="H455" s="98"/>
     </row>
     <row r="456" ht="15.7" spans="1:8">
-      <c r="A456" s="30" t="s">
+      <c r="A456" s="31" t="s">
         <v>353</v>
       </c>
-      <c r="B456" s="30"/>
+      <c r="B456" s="31"/>
       <c r="C456" s="99" t="s">
         <v>354</v>
       </c>
@@ -8309,32 +8409,32 @@
       <c r="H456" s="101"/>
     </row>
     <row r="458" spans="1:8">
-      <c r="A458" s="28" t="s">
+      <c r="A458" s="29" t="s">
         <v>322</v>
       </c>
-      <c r="B458" s="28"/>
-      <c r="C458" s="13"/>
+      <c r="B458" s="29"/>
+      <c r="C458" s="14"/>
       <c r="D458" s="68"/>
       <c r="E458" s="68"/>
       <c r="F458" s="68"/>
       <c r="G458" s="68"/>
-      <c r="H458" s="14"/>
+      <c r="H458" s="15"/>
     </row>
     <row r="459" spans="1:8">
-      <c r="A459" s="28"/>
-      <c r="B459" s="28"/>
-      <c r="C459" s="23"/>
+      <c r="A459" s="29"/>
+      <c r="B459" s="29"/>
+      <c r="C459" s="24"/>
       <c r="D459" s="69"/>
       <c r="E459" s="69"/>
       <c r="F459" s="69"/>
       <c r="G459" s="69"/>
-      <c r="H459" s="24"/>
+      <c r="H459" s="25"/>
     </row>
     <row r="460" ht="15.7" spans="1:8">
-      <c r="A460" s="30" t="s">
+      <c r="A460" s="31" t="s">
         <v>347</v>
       </c>
-      <c r="B460" s="30"/>
+      <c r="B460" s="31"/>
       <c r="C460" s="99" t="s">
         <v>355</v>
       </c>
@@ -8345,10 +8445,10 @@
       <c r="H460" s="101"/>
     </row>
     <row r="461" ht="15.7" spans="1:8">
-      <c r="A461" s="30" t="s">
+      <c r="A461" s="31" t="s">
         <v>348</v>
       </c>
-      <c r="B461" s="30"/>
+      <c r="B461" s="31"/>
       <c r="C461" s="99" t="s">
         <v>356</v>
       </c>
@@ -8359,10 +8459,10 @@
       <c r="H461" s="101"/>
     </row>
     <row r="462" ht="15.7" spans="1:8">
-      <c r="A462" s="30" t="s">
+      <c r="A462" s="31" t="s">
         <v>349</v>
       </c>
-      <c r="B462" s="30"/>
+      <c r="B462" s="31"/>
       <c r="C462" s="99"/>
       <c r="D462" s="100"/>
       <c r="E462" s="100"/>
@@ -8371,10 +8471,10 @@
       <c r="H462" s="101"/>
     </row>
     <row r="463" ht="15.7" spans="1:8">
-      <c r="A463" s="30" t="s">
+      <c r="A463" s="31" t="s">
         <v>350</v>
       </c>
-      <c r="B463" s="30"/>
+      <c r="B463" s="31"/>
       <c r="C463" s="99" t="s">
         <v>357</v>
       </c>
@@ -8385,10 +8485,10 @@
       <c r="H463" s="101"/>
     </row>
     <row r="464" ht="15.7" spans="1:8">
-      <c r="A464" s="30" t="s">
+      <c r="A464" s="31" t="s">
         <v>351</v>
       </c>
-      <c r="B464" s="30"/>
+      <c r="B464" s="31"/>
       <c r="C464" s="99" t="s">
         <v>358</v>
       </c>
@@ -8399,10 +8499,10 @@
       <c r="H464" s="101"/>
     </row>
     <row r="465" ht="15.7" spans="1:8">
-      <c r="A465" s="30" t="s">
+      <c r="A465" s="31" t="s">
         <v>352</v>
       </c>
-      <c r="B465" s="30"/>
+      <c r="B465" s="31"/>
       <c r="C465" s="99"/>
       <c r="D465" s="100"/>
       <c r="E465" s="100"/>
@@ -8411,10 +8511,10 @@
       <c r="H465" s="101"/>
     </row>
     <row r="466" ht="15.7" spans="1:8">
-      <c r="A466" s="30" t="s">
+      <c r="A466" s="31" t="s">
         <v>353</v>
       </c>
-      <c r="B466" s="30"/>
+      <c r="B466" s="31"/>
       <c r="C466" s="99"/>
       <c r="D466" s="100"/>
       <c r="E466" s="100"/>
@@ -8475,32 +8575,32 @@
       <c r="H472" s="102"/>
     </row>
     <row r="474" spans="1:8">
-      <c r="A474" s="28" t="s">
+      <c r="A474" s="29" t="s">
         <v>360</v>
       </c>
-      <c r="B474" s="28"/>
-      <c r="C474" s="13"/>
+      <c r="B474" s="29"/>
+      <c r="C474" s="14"/>
       <c r="D474" s="68"/>
       <c r="E474" s="68"/>
       <c r="F474" s="68"/>
       <c r="G474" s="68"/>
-      <c r="H474" s="14"/>
+      <c r="H474" s="15"/>
     </row>
     <row r="475" spans="1:8">
-      <c r="A475" s="28"/>
-      <c r="B475" s="28"/>
-      <c r="C475" s="23"/>
+      <c r="A475" s="29"/>
+      <c r="B475" s="29"/>
+      <c r="C475" s="24"/>
       <c r="D475" s="69"/>
       <c r="E475" s="69"/>
       <c r="F475" s="69"/>
       <c r="G475" s="69"/>
-      <c r="H475" s="24"/>
+      <c r="H475" s="25"/>
     </row>
     <row r="476" ht="15.7" spans="1:8">
-      <c r="A476" s="30" t="s">
+      <c r="A476" s="31" t="s">
         <v>361</v>
       </c>
-      <c r="B476" s="30"/>
+      <c r="B476" s="31"/>
       <c r="C476" s="103" t="s">
         <v>362</v>
       </c>
@@ -8521,10 +8621,10 @@
       <c r="H477" s="105"/>
     </row>
     <row r="478" ht="15.7" spans="1:8">
-      <c r="A478" s="30" t="s">
+      <c r="A478" s="31" t="s">
         <v>363</v>
       </c>
-      <c r="B478" s="30"/>
+      <c r="B478" s="31"/>
       <c r="C478" s="103" t="s">
         <v>364</v>
       </c>
@@ -8535,10 +8635,10 @@
       <c r="H478" s="103"/>
     </row>
     <row r="479" ht="15.7" spans="1:14">
-      <c r="A479" s="30" t="s">
+      <c r="A479" s="31" t="s">
         <v>365</v>
       </c>
-      <c r="B479" s="30"/>
+      <c r="B479" s="31"/>
       <c r="C479" s="103" t="s">
         <v>366</v>
       </c>
@@ -8547,20 +8647,20 @@
       <c r="F479" s="103"/>
       <c r="G479" s="103"/>
       <c r="H479" s="103"/>
-      <c r="I479" s="56" t="s">
+      <c r="I479" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="J479" s="56"/>
-      <c r="K479" s="56"/>
-      <c r="L479" s="56"/>
-      <c r="M479" s="56"/>
-      <c r="N479" s="56"/>
+      <c r="J479" s="1"/>
+      <c r="K479" s="1"/>
+      <c r="L479" s="1"/>
+      <c r="M479" s="1"/>
+      <c r="N479" s="1"/>
     </row>
     <row r="480" ht="15.7" spans="1:8">
-      <c r="A480" s="30" t="s">
+      <c r="A480" s="31" t="s">
         <v>368</v>
       </c>
-      <c r="B480" s="30"/>
+      <c r="B480" s="31"/>
       <c r="C480" s="103" t="s">
         <v>369</v>
       </c>
@@ -8571,10 +8671,10 @@
       <c r="H480" s="103"/>
     </row>
     <row r="481" ht="15.7" spans="1:8">
-      <c r="A481" s="30" t="s">
+      <c r="A481" s="31" t="s">
         <v>370</v>
       </c>
-      <c r="B481" s="30"/>
+      <c r="B481" s="31"/>
       <c r="C481" s="103" t="s">
         <v>371</v>
       </c>
@@ -8585,10 +8685,10 @@
       <c r="H481" s="103"/>
     </row>
     <row r="482" ht="15.7" spans="1:8">
-      <c r="A482" s="30" t="s">
+      <c r="A482" s="31" t="s">
         <v>372</v>
       </c>
-      <c r="B482" s="30"/>
+      <c r="B482" s="31"/>
       <c r="C482" s="103" t="s">
         <v>373</v>
       </c>
@@ -8599,10 +8699,10 @@
       <c r="H482" s="103"/>
     </row>
     <row r="483" ht="15.7" spans="1:8">
-      <c r="A483" s="30" t="s">
+      <c r="A483" s="31" t="s">
         <v>374</v>
       </c>
-      <c r="B483" s="30"/>
+      <c r="B483" s="31"/>
       <c r="C483" s="103" t="s">
         <v>375</v>
       </c>
@@ -8626,14 +8726,14 @@
       <c r="G484" s="103"/>
       <c r="H484" s="103"/>
     </row>
-    <row r="485" s="1" customFormat="1" ht="15.7" spans="1:1">
-      <c r="A485" s="18"/>
+    <row r="485" s="2" customFormat="1" ht="15.7" spans="1:1">
+      <c r="A485" s="19"/>
     </row>
     <row r="486" ht="15.7" spans="1:8">
-      <c r="A486" s="30" t="s">
+      <c r="A486" s="31" t="s">
         <v>378</v>
       </c>
-      <c r="B486" s="30"/>
+      <c r="B486" s="31"/>
       <c r="C486" s="103" t="s">
         <v>379</v>
       </c>
@@ -8644,10 +8744,10 @@
       <c r="H486" s="103"/>
     </row>
     <row r="487" ht="15.7" spans="1:8">
-      <c r="A487" s="30" t="s">
+      <c r="A487" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="B487" s="30"/>
+      <c r="B487" s="31"/>
       <c r="C487" s="103" t="s">
         <v>381</v>
       </c>
@@ -8658,10 +8758,10 @@
       <c r="H487" s="103"/>
     </row>
     <row r="488" ht="15.7" spans="1:14">
-      <c r="A488" s="30" t="s">
+      <c r="A488" s="31" t="s">
         <v>382</v>
       </c>
-      <c r="B488" s="30"/>
+      <c r="B488" s="31"/>
       <c r="C488" s="107" t="s">
         <v>383</v>
       </c>
@@ -8670,20 +8770,20 @@
       <c r="F488" s="103"/>
       <c r="G488" s="103"/>
       <c r="H488" s="103"/>
-      <c r="I488" s="56" t="s">
+      <c r="I488" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="J488" s="56"/>
-      <c r="K488" s="56"/>
-      <c r="L488" s="56"/>
-      <c r="M488" s="56"/>
-      <c r="N488" s="56"/>
+      <c r="J488" s="1"/>
+      <c r="K488" s="1"/>
+      <c r="L488" s="1"/>
+      <c r="M488" s="1"/>
+      <c r="N488" s="1"/>
     </row>
     <row r="489" ht="15.7" spans="1:8">
-      <c r="A489" s="30" t="s">
+      <c r="A489" s="31" t="s">
         <v>385</v>
       </c>
-      <c r="B489" s="30"/>
+      <c r="B489" s="31"/>
       <c r="C489" s="103" t="s">
         <v>386</v>
       </c>
@@ -8694,10 +8794,10 @@
       <c r="H489" s="103"/>
     </row>
     <row r="490" ht="15.7" spans="1:8">
-      <c r="A490" s="30" t="s">
+      <c r="A490" s="31" t="s">
         <v>387</v>
       </c>
-      <c r="B490" s="30"/>
+      <c r="B490" s="31"/>
       <c r="C490" s="103" t="s">
         <v>388</v>
       </c>
@@ -8708,10 +8808,10 @@
       <c r="H490" s="103"/>
     </row>
     <row r="491" ht="15.7" spans="1:14">
-      <c r="A491" s="30" t="s">
+      <c r="A491" s="31" t="s">
         <v>389</v>
       </c>
-      <c r="B491" s="30"/>
+      <c r="B491" s="31"/>
       <c r="C491" s="103" t="s">
         <v>390</v>
       </c>
@@ -8720,20 +8820,20 @@
       <c r="F491" s="103"/>
       <c r="G491" s="103"/>
       <c r="H491" s="103"/>
-      <c r="I491" s="56" t="s">
+      <c r="I491" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="J491" s="56"/>
-      <c r="K491" s="56"/>
-      <c r="L491" s="56"/>
-      <c r="M491" s="56"/>
-      <c r="N491" s="56"/>
+      <c r="J491" s="1"/>
+      <c r="K491" s="1"/>
+      <c r="L491" s="1"/>
+      <c r="M491" s="1"/>
+      <c r="N491" s="1"/>
     </row>
     <row r="492" ht="15.7" spans="1:14">
-      <c r="A492" s="30" t="s">
+      <c r="A492" s="31" t="s">
         <v>392</v>
       </c>
-      <c r="B492" s="30"/>
+      <c r="B492" s="31"/>
       <c r="C492" s="103" t="s">
         <v>393</v>
       </c>
@@ -8742,23 +8842,23 @@
       <c r="F492" s="103"/>
       <c r="G492" s="103"/>
       <c r="H492" s="103"/>
-      <c r="I492" s="56" t="s">
+      <c r="I492" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="J492" s="56"/>
-      <c r="K492" s="56"/>
-      <c r="L492" s="56"/>
-      <c r="M492" s="56"/>
-      <c r="N492" s="56"/>
-    </row>
-    <row r="493" s="1" customFormat="1" ht="15.7" spans="1:1">
-      <c r="A493" s="18"/>
+      <c r="J492" s="1"/>
+      <c r="K492" s="1"/>
+      <c r="L492" s="1"/>
+      <c r="M492" s="1"/>
+      <c r="N492" s="1"/>
+    </row>
+    <row r="493" s="2" customFormat="1" ht="15.7" spans="1:1">
+      <c r="A493" s="19"/>
     </row>
     <row r="494" ht="15.7" spans="1:8">
-      <c r="A494" s="30" t="s">
+      <c r="A494" s="31" t="s">
         <v>395</v>
       </c>
-      <c r="B494" s="30"/>
+      <c r="B494" s="31"/>
       <c r="C494" s="103" t="s">
         <v>396</v>
       </c>
@@ -8769,50 +8869,50 @@
       <c r="H494" s="103"/>
     </row>
     <row r="495" ht="15.7" spans="1:14">
-      <c r="A495" s="30" t="s">
+      <c r="A495" s="31" t="s">
         <v>397</v>
       </c>
-      <c r="B495" s="30"/>
+      <c r="B495" s="31"/>
       <c r="C495" s="103"/>
       <c r="D495" s="103"/>
       <c r="E495" s="103"/>
       <c r="F495" s="103"/>
       <c r="G495" s="103"/>
       <c r="H495" s="103"/>
-      <c r="I495" s="56" t="s">
+      <c r="I495" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="J495" s="56"/>
-      <c r="K495" s="56"/>
-      <c r="L495" s="56"/>
-      <c r="M495" s="56"/>
-      <c r="N495" s="56"/>
+      <c r="J495" s="1"/>
+      <c r="K495" s="1"/>
+      <c r="L495" s="1"/>
+      <c r="M495" s="1"/>
+      <c r="N495" s="1"/>
     </row>
     <row r="496" ht="15.7" spans="1:14">
-      <c r="A496" s="30" t="s">
+      <c r="A496" s="31" t="s">
         <v>399</v>
       </c>
-      <c r="B496" s="30"/>
+      <c r="B496" s="31"/>
       <c r="C496" s="103"/>
       <c r="D496" s="103"/>
       <c r="E496" s="103"/>
       <c r="F496" s="103"/>
       <c r="G496" s="103"/>
       <c r="H496" s="103"/>
-      <c r="I496" s="56" t="s">
+      <c r="I496" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="J496" s="56"/>
-      <c r="K496" s="56"/>
-      <c r="L496" s="56"/>
-      <c r="M496" s="56"/>
-      <c r="N496" s="56"/>
+      <c r="J496" s="1"/>
+      <c r="K496" s="1"/>
+      <c r="L496" s="1"/>
+      <c r="M496" s="1"/>
+      <c r="N496" s="1"/>
     </row>
     <row r="497" ht="15.7" spans="1:14">
-      <c r="A497" s="30" t="s">
+      <c r="A497" s="31" t="s">
         <v>401</v>
       </c>
-      <c r="B497" s="30"/>
+      <c r="B497" s="31"/>
       <c r="C497" s="107" t="s">
         <v>383</v>
       </c>
@@ -8821,20 +8921,20 @@
       <c r="F497" s="103"/>
       <c r="G497" s="103"/>
       <c r="H497" s="103"/>
-      <c r="I497" s="56" t="s">
+      <c r="I497" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="J497" s="56"/>
-      <c r="K497" s="56"/>
-      <c r="L497" s="56"/>
-      <c r="M497" s="56"/>
-      <c r="N497" s="56"/>
+      <c r="J497" s="1"/>
+      <c r="K497" s="1"/>
+      <c r="L497" s="1"/>
+      <c r="M497" s="1"/>
+      <c r="N497" s="1"/>
     </row>
     <row r="498" ht="15.7" spans="1:14">
-      <c r="A498" s="30" t="s">
+      <c r="A498" s="31" t="s">
         <v>403</v>
       </c>
-      <c r="B498" s="30"/>
+      <c r="B498" s="31"/>
       <c r="C498" s="103" t="s">
         <v>404</v>
       </c>
@@ -8843,20 +8943,20 @@
       <c r="F498" s="103"/>
       <c r="G498" s="103"/>
       <c r="H498" s="103"/>
-      <c r="I498" s="56" t="s">
+      <c r="I498" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="J498" s="56"/>
-      <c r="K498" s="56"/>
-      <c r="L498" s="56"/>
-      <c r="M498" s="56"/>
-      <c r="N498" s="56"/>
+      <c r="J498" s="1"/>
+      <c r="K498" s="1"/>
+      <c r="L498" s="1"/>
+      <c r="M498" s="1"/>
+      <c r="N498" s="1"/>
     </row>
     <row r="499" ht="15.7" spans="1:8">
-      <c r="A499" s="30" t="s">
+      <c r="A499" s="31" t="s">
         <v>406</v>
       </c>
-      <c r="B499" s="30"/>
+      <c r="B499" s="31"/>
       <c r="C499" s="103" t="s">
         <v>407</v>
       </c>
@@ -8872,8 +8972,8 @@
       </c>
       <c r="B500" s="108"/>
     </row>
-    <row r="501" s="1" customFormat="1" ht="15.7" spans="1:1">
-      <c r="A501" s="18"/>
+    <row r="501" s="2" customFormat="1" ht="15.7" spans="1:1">
+      <c r="A501" s="19"/>
     </row>
     <row r="502" ht="15.7" spans="1:8">
       <c r="A502" s="106" t="s">
@@ -8883,99 +8983,99 @@
       <c r="C502" s="109" t="s">
         <v>410</v>
       </c>
-      <c r="D502" s="56"/>
-      <c r="E502" s="56"/>
-      <c r="F502" s="56"/>
-      <c r="G502" s="56"/>
-      <c r="H502" s="56"/>
+      <c r="D502" s="1"/>
+      <c r="E502" s="1"/>
+      <c r="F502" s="1"/>
+      <c r="G502" s="1"/>
+      <c r="H502" s="1"/>
     </row>
     <row r="503" ht="15.7" spans="1:8">
-      <c r="A503" s="30" t="s">
+      <c r="A503" s="31" t="s">
         <v>411</v>
       </c>
-      <c r="B503" s="30"/>
-      <c r="C503" s="56"/>
-      <c r="D503" s="56"/>
-      <c r="E503" s="56"/>
-      <c r="F503" s="56"/>
-      <c r="G503" s="56"/>
-      <c r="H503" s="56"/>
+      <c r="B503" s="31"/>
+      <c r="C503" s="1"/>
+      <c r="D503" s="1"/>
+      <c r="E503" s="1"/>
+      <c r="F503" s="1"/>
+      <c r="G503" s="1"/>
+      <c r="H503" s="1"/>
     </row>
     <row r="504" ht="15.7" spans="1:8">
-      <c r="A504" s="30" t="s">
+      <c r="A504" s="31" t="s">
         <v>412</v>
       </c>
-      <c r="B504" s="30"/>
-      <c r="C504" s="56"/>
-      <c r="D504" s="56"/>
-      <c r="E504" s="56"/>
-      <c r="F504" s="56"/>
-      <c r="G504" s="56"/>
-      <c r="H504" s="56"/>
+      <c r="B504" s="31"/>
+      <c r="C504" s="1"/>
+      <c r="D504" s="1"/>
+      <c r="E504" s="1"/>
+      <c r="F504" s="1"/>
+      <c r="G504" s="1"/>
+      <c r="H504" s="1"/>
     </row>
     <row r="505" ht="15.7" spans="1:8">
-      <c r="A505" s="30" t="s">
+      <c r="A505" s="31" t="s">
         <v>413</v>
       </c>
-      <c r="B505" s="30"/>
-      <c r="C505" s="56"/>
-      <c r="D505" s="56"/>
-      <c r="E505" s="56"/>
-      <c r="F505" s="56"/>
-      <c r="G505" s="56"/>
-      <c r="H505" s="56"/>
+      <c r="B505" s="31"/>
+      <c r="C505" s="1"/>
+      <c r="D505" s="1"/>
+      <c r="E505" s="1"/>
+      <c r="F505" s="1"/>
+      <c r="G505" s="1"/>
+      <c r="H505" s="1"/>
     </row>
     <row r="506" ht="15.7" spans="1:8">
-      <c r="A506" s="30" t="s">
+      <c r="A506" s="31" t="s">
         <v>414</v>
       </c>
-      <c r="B506" s="30"/>
-      <c r="C506" s="56"/>
-      <c r="D506" s="56"/>
-      <c r="E506" s="56"/>
-      <c r="F506" s="56"/>
-      <c r="G506" s="56"/>
-      <c r="H506" s="56"/>
+      <c r="B506" s="31"/>
+      <c r="C506" s="1"/>
+      <c r="D506" s="1"/>
+      <c r="E506" s="1"/>
+      <c r="F506" s="1"/>
+      <c r="G506" s="1"/>
+      <c r="H506" s="1"/>
     </row>
     <row r="507" ht="15.7" spans="1:8">
-      <c r="A507" s="30" t="s">
+      <c r="A507" s="31" t="s">
         <v>415</v>
       </c>
-      <c r="B507" s="30"/>
-      <c r="C507" s="56"/>
-      <c r="D507" s="56"/>
-      <c r="E507" s="56"/>
-      <c r="F507" s="56"/>
-      <c r="G507" s="56"/>
-      <c r="H507" s="56"/>
+      <c r="B507" s="31"/>
+      <c r="C507" s="1"/>
+      <c r="D507" s="1"/>
+      <c r="E507" s="1"/>
+      <c r="F507" s="1"/>
+      <c r="G507" s="1"/>
+      <c r="H507" s="1"/>
     </row>
     <row r="511" spans="1:8">
-      <c r="A511" s="28" t="s">
+      <c r="A511" s="29" t="s">
         <v>416</v>
       </c>
-      <c r="B511" s="28"/>
-      <c r="C511" s="13"/>
+      <c r="B511" s="29"/>
+      <c r="C511" s="14"/>
       <c r="D511" s="68"/>
       <c r="E511" s="68"/>
       <c r="F511" s="68"/>
       <c r="G511" s="68"/>
-      <c r="H511" s="14"/>
+      <c r="H511" s="15"/>
     </row>
     <row r="512" spans="1:8">
-      <c r="A512" s="28"/>
-      <c r="B512" s="28"/>
-      <c r="C512" s="23"/>
+      <c r="A512" s="29"/>
+      <c r="B512" s="29"/>
+      <c r="C512" s="24"/>
       <c r="D512" s="69"/>
       <c r="E512" s="69"/>
       <c r="F512" s="69"/>
       <c r="G512" s="69"/>
-      <c r="H512" s="24"/>
+      <c r="H512" s="25"/>
     </row>
     <row r="513" ht="15.7" spans="1:14">
-      <c r="A513" s="30" t="s">
+      <c r="A513" s="31" t="s">
         <v>417</v>
       </c>
-      <c r="B513" s="30"/>
+      <c r="B513" s="31"/>
       <c r="C513" s="103" t="s">
         <v>418</v>
       </c>
@@ -8984,20 +9084,20 @@
       <c r="F513" s="103"/>
       <c r="G513" s="103"/>
       <c r="H513" s="103"/>
-      <c r="I513" s="56" t="s">
+      <c r="I513" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="J513" s="56"/>
-      <c r="K513" s="56"/>
-      <c r="L513" s="56"/>
-      <c r="M513" s="56"/>
-      <c r="N513" s="56"/>
+      <c r="J513" s="1"/>
+      <c r="K513" s="1"/>
+      <c r="L513" s="1"/>
+      <c r="M513" s="1"/>
+      <c r="N513" s="1"/>
     </row>
     <row r="514" ht="15.7" spans="1:14">
-      <c r="A514" s="30" t="s">
+      <c r="A514" s="31" t="s">
         <v>420</v>
       </c>
-      <c r="B514" s="30"/>
+      <c r="B514" s="31"/>
       <c r="C514" s="103" t="s">
         <v>421</v>
       </c>
@@ -9006,20 +9106,20 @@
       <c r="F514" s="103"/>
       <c r="G514" s="103"/>
       <c r="H514" s="103"/>
-      <c r="I514" s="56" t="s">
+      <c r="I514" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="J514" s="56"/>
-      <c r="K514" s="56"/>
-      <c r="L514" s="56"/>
-      <c r="M514" s="56"/>
-      <c r="N514" s="56"/>
+      <c r="J514" s="1"/>
+      <c r="K514" s="1"/>
+      <c r="L514" s="1"/>
+      <c r="M514" s="1"/>
+      <c r="N514" s="1"/>
     </row>
     <row r="515" ht="15.7" spans="1:8">
-      <c r="A515" s="30" t="s">
+      <c r="A515" s="31" t="s">
         <v>423</v>
       </c>
-      <c r="B515" s="30"/>
+      <c r="B515" s="31"/>
       <c r="C515" s="103" t="s">
         <v>424</v>
       </c>
@@ -9030,7 +9130,7 @@
       <c r="H515" s="103"/>
     </row>
     <row r="516" ht="15.7" spans="1:14">
-      <c r="A516" s="30" t="s">
+      <c r="A516" s="31" t="s">
         <v>425</v>
       </c>
       <c r="B516" s="87"/>
@@ -9042,17 +9142,17 @@
       <c r="F516" s="111"/>
       <c r="G516" s="111"/>
       <c r="H516" s="111"/>
-      <c r="I516" s="56" t="s">
+      <c r="I516" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="J516" s="56"/>
-      <c r="K516" s="56"/>
-      <c r="L516" s="56"/>
-      <c r="M516" s="56"/>
-      <c r="N516" s="56"/>
+      <c r="J516" s="1"/>
+      <c r="K516" s="1"/>
+      <c r="L516" s="1"/>
+      <c r="M516" s="1"/>
+      <c r="N516" s="1"/>
     </row>
     <row r="517" ht="15.7" spans="1:8">
-      <c r="A517" s="30" t="s">
+      <c r="A517" s="31" t="s">
         <v>427</v>
       </c>
       <c r="B517" s="87"/>
@@ -9064,7 +9164,7 @@
       <c r="H517" s="112"/>
     </row>
     <row r="518" ht="15.7" spans="1:8">
-      <c r="A518" s="30" t="s">
+      <c r="A518" s="31" t="s">
         <v>428</v>
       </c>
       <c r="B518" s="87"/>
@@ -9076,7 +9176,7 @@
       <c r="H518" s="112"/>
     </row>
     <row r="519" ht="15.7" spans="1:8">
-      <c r="A519" s="30" t="s">
+      <c r="A519" s="31" t="s">
         <v>429</v>
       </c>
       <c r="B519" s="87"/>
@@ -9088,7 +9188,7 @@
       <c r="H519" s="112"/>
     </row>
     <row r="520" ht="15.7" spans="1:8">
-      <c r="A520" s="30" t="s">
+      <c r="A520" s="31" t="s">
         <v>430</v>
       </c>
       <c r="B520" s="87"/>
@@ -9100,7 +9200,7 @@
       <c r="H520" s="112"/>
     </row>
     <row r="521" ht="15.7" spans="1:8">
-      <c r="A521" s="30" t="s">
+      <c r="A521" s="31" t="s">
         <v>431</v>
       </c>
       <c r="B521" s="87"/>
@@ -9112,7 +9212,7 @@
       <c r="H521" s="112"/>
     </row>
     <row r="522" ht="15.7" spans="1:8">
-      <c r="A522" s="30" t="s">
+      <c r="A522" s="31" t="s">
         <v>432</v>
       </c>
       <c r="B522" s="87"/>
@@ -9124,10 +9224,10 @@
       <c r="H522" s="112"/>
     </row>
     <row r="523" ht="15.7" spans="1:14">
-      <c r="A523" s="30" t="s">
+      <c r="A523" s="31" t="s">
         <v>433</v>
       </c>
-      <c r="B523" s="30"/>
+      <c r="B523" s="31"/>
       <c r="C523" s="103" t="s">
         <v>434</v>
       </c>
@@ -9136,20 +9236,20 @@
       <c r="F523" s="103"/>
       <c r="G523" s="103"/>
       <c r="H523" s="103"/>
-      <c r="I523" s="56" t="s">
+      <c r="I523" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="J523" s="56"/>
-      <c r="K523" s="56"/>
-      <c r="L523" s="56"/>
-      <c r="M523" s="56"/>
-      <c r="N523" s="56"/>
+      <c r="J523" s="1"/>
+      <c r="K523" s="1"/>
+      <c r="L523" s="1"/>
+      <c r="M523" s="1"/>
+      <c r="N523" s="1"/>
     </row>
     <row r="524" ht="15.7" spans="1:14">
-      <c r="A524" s="30" t="s">
+      <c r="A524" s="31" t="s">
         <v>436</v>
       </c>
-      <c r="B524" s="30"/>
+      <c r="B524" s="31"/>
       <c r="C524" s="103" t="s">
         <v>437</v>
       </c>
@@ -9158,20 +9258,20 @@
       <c r="F524" s="103"/>
       <c r="G524" s="103"/>
       <c r="H524" s="103"/>
-      <c r="I524" s="56" t="s">
+      <c r="I524" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="J524" s="56"/>
-      <c r="K524" s="56"/>
-      <c r="L524" s="56"/>
-      <c r="M524" s="56"/>
-      <c r="N524" s="56"/>
+      <c r="J524" s="1"/>
+      <c r="K524" s="1"/>
+      <c r="L524" s="1"/>
+      <c r="M524" s="1"/>
+      <c r="N524" s="1"/>
     </row>
     <row r="525" ht="15.7" spans="1:14">
-      <c r="A525" s="30" t="s">
+      <c r="A525" s="31" t="s">
         <v>439</v>
       </c>
-      <c r="B525" s="30"/>
+      <c r="B525" s="31"/>
       <c r="C525" s="103" t="s">
         <v>440</v>
       </c>
@@ -9180,35 +9280,284 @@
       <c r="F525" s="103"/>
       <c r="G525" s="103"/>
       <c r="H525" s="103"/>
-      <c r="I525" s="113" t="s">
+      <c r="I525" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="J525" s="113"/>
-      <c r="K525" s="113"/>
-      <c r="L525" s="113"/>
-      <c r="M525" s="113"/>
-      <c r="N525" s="113"/>
-    </row>
-    <row r="526" ht="15.7" spans="1:2">
-      <c r="A526" s="30" t="s">
+      <c r="J525" s="1"/>
+      <c r="K525" s="1"/>
+      <c r="L525" s="1"/>
+      <c r="M525" s="1"/>
+      <c r="N525" s="1"/>
+    </row>
+    <row r="526" ht="15.7" spans="1:8">
+      <c r="A526" s="31" t="s">
         <v>442</v>
       </c>
-      <c r="B526" s="30"/>
-    </row>
-    <row r="527" ht="15.7" spans="1:2">
-      <c r="A527" s="30" t="s">
+      <c r="B526" s="31"/>
+      <c r="C526" s="103" t="s">
         <v>443</v>
       </c>
-      <c r="B527" s="30"/>
-    </row>
-    <row r="528" ht="15.7" spans="1:2">
-      <c r="A528" s="30" t="s">
+      <c r="D526" s="103"/>
+      <c r="E526" s="103"/>
+      <c r="F526" s="103"/>
+      <c r="G526" s="103"/>
+      <c r="H526" s="103"/>
+    </row>
+    <row r="527" ht="15.7" spans="1:8">
+      <c r="A527" s="31" t="s">
         <v>444</v>
       </c>
-      <c r="B528" s="30"/>
+      <c r="B527" s="31"/>
+      <c r="C527" s="103" t="s">
+        <v>445</v>
+      </c>
+      <c r="D527" s="103"/>
+      <c r="E527" s="103"/>
+      <c r="F527" s="103"/>
+      <c r="G527" s="103"/>
+      <c r="H527" s="103"/>
+    </row>
+    <row r="528" s="2" customFormat="1" ht="15.7" spans="1:1">
+      <c r="A528" s="19"/>
+    </row>
+    <row r="529" ht="15.7" spans="1:8">
+      <c r="A529" s="31" t="s">
+        <v>446</v>
+      </c>
+      <c r="B529" s="31"/>
+      <c r="C529" s="103" t="s">
+        <v>447</v>
+      </c>
+      <c r="D529" s="103"/>
+      <c r="E529" s="103"/>
+      <c r="F529" s="103"/>
+      <c r="G529" s="103"/>
+      <c r="H529" s="103"/>
+    </row>
+    <row r="530" ht="15.7" spans="1:8">
+      <c r="A530" s="31" t="s">
+        <v>448</v>
+      </c>
+      <c r="B530" s="31"/>
+      <c r="C530" s="113" t="s">
+        <v>410</v>
+      </c>
+      <c r="D530" s="1"/>
+      <c r="E530" s="1"/>
+      <c r="F530" s="1"/>
+      <c r="G530" s="1"/>
+      <c r="H530" s="1"/>
+    </row>
+    <row r="531" ht="15.7" spans="1:8">
+      <c r="A531" s="31" t="s">
+        <v>449</v>
+      </c>
+      <c r="B531" s="31"/>
+      <c r="C531" s="1"/>
+      <c r="D531" s="1"/>
+      <c r="E531" s="1"/>
+      <c r="F531" s="1"/>
+      <c r="G531" s="1"/>
+      <c r="H531" s="1"/>
+    </row>
+    <row r="532" ht="15.7" spans="1:8">
+      <c r="A532" s="31" t="s">
+        <v>450</v>
+      </c>
+      <c r="B532" s="31"/>
+      <c r="C532" s="1"/>
+      <c r="D532" s="1"/>
+      <c r="E532" s="1"/>
+      <c r="F532" s="1"/>
+      <c r="G532" s="1"/>
+      <c r="H532" s="1"/>
+    </row>
+    <row r="533" ht="15.7" spans="1:8">
+      <c r="A533" s="31" t="s">
+        <v>451</v>
+      </c>
+      <c r="B533" s="31"/>
+      <c r="C533" s="1"/>
+      <c r="D533" s="1"/>
+      <c r="E533" s="1"/>
+      <c r="F533" s="1"/>
+      <c r="G533" s="1"/>
+      <c r="H533" s="1"/>
+    </row>
+    <row r="534" ht="15.7" spans="1:14">
+      <c r="A534" s="31" t="s">
+        <v>452</v>
+      </c>
+      <c r="B534" s="31"/>
+      <c r="C534" s="103" t="s">
+        <v>453</v>
+      </c>
+      <c r="D534" s="103"/>
+      <c r="E534" s="103"/>
+      <c r="F534" s="103"/>
+      <c r="G534" s="103"/>
+      <c r="H534" s="103"/>
+      <c r="I534" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="J534" s="1"/>
+      <c r="K534" s="1"/>
+      <c r="L534" s="1"/>
+      <c r="M534" s="1"/>
+      <c r="N534" s="1"/>
+    </row>
+    <row r="535" ht="15.7" spans="1:14">
+      <c r="A535" s="31" t="s">
+        <v>455</v>
+      </c>
+      <c r="B535" s="31"/>
+      <c r="C535" s="103"/>
+      <c r="D535" s="103"/>
+      <c r="E535" s="103"/>
+      <c r="F535" s="103"/>
+      <c r="G535" s="103"/>
+      <c r="H535" s="103"/>
+      <c r="I535" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="J535" s="1"/>
+      <c r="K535" s="1"/>
+      <c r="L535" s="1"/>
+      <c r="M535" s="1"/>
+      <c r="N535" s="1"/>
+    </row>
+    <row r="537" ht="15.7" spans="1:14">
+      <c r="A537" s="31" t="s">
+        <v>457</v>
+      </c>
+      <c r="B537" s="31"/>
+      <c r="C537" s="103" t="s">
+        <v>458</v>
+      </c>
+      <c r="D537" s="103"/>
+      <c r="E537" s="103"/>
+      <c r="F537" s="103"/>
+      <c r="G537" s="103"/>
+      <c r="H537" s="103"/>
+      <c r="I537" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="J537" s="1"/>
+      <c r="K537" s="1"/>
+      <c r="L537" s="1"/>
+      <c r="M537" s="1"/>
+      <c r="N537" s="1"/>
+    </row>
+    <row r="538" ht="15.7" spans="1:14">
+      <c r="A538" s="31" t="s">
+        <v>460</v>
+      </c>
+      <c r="B538" s="31"/>
+      <c r="C538" s="103" t="s">
+        <v>461</v>
+      </c>
+      <c r="D538" s="103"/>
+      <c r="E538" s="103"/>
+      <c r="F538" s="103"/>
+      <c r="G538" s="103"/>
+      <c r="H538" s="103"/>
+      <c r="I538" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="J538" s="1"/>
+      <c r="K538" s="1"/>
+      <c r="L538" s="1"/>
+      <c r="M538" s="1"/>
+      <c r="N538" s="1"/>
+    </row>
+    <row r="539" ht="15.7" spans="1:14">
+      <c r="A539" s="31" t="s">
+        <v>463</v>
+      </c>
+      <c r="B539" s="31"/>
+      <c r="C539" s="103" t="s">
+        <v>464</v>
+      </c>
+      <c r="D539" s="103"/>
+      <c r="E539" s="103"/>
+      <c r="F539" s="103"/>
+      <c r="G539" s="103"/>
+      <c r="H539" s="103"/>
+      <c r="I539" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="J539" s="1"/>
+      <c r="K539" s="1"/>
+      <c r="L539" s="1"/>
+      <c r="M539" s="1"/>
+      <c r="N539" s="1"/>
+    </row>
+    <row r="540" ht="15.7" spans="1:14">
+      <c r="A540" s="31" t="s">
+        <v>466</v>
+      </c>
+      <c r="B540" s="31"/>
+      <c r="C540" s="103"/>
+      <c r="D540" s="103"/>
+      <c r="E540" s="103"/>
+      <c r="F540" s="103"/>
+      <c r="G540" s="103"/>
+      <c r="H540" s="103"/>
+      <c r="I540" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="J540" s="1"/>
+      <c r="K540" s="1"/>
+      <c r="L540" s="1"/>
+      <c r="M540" s="1"/>
+      <c r="N540" s="1"/>
+    </row>
+    <row r="541" ht="15.7" spans="1:14">
+      <c r="A541" s="31" t="s">
+        <v>468</v>
+      </c>
+      <c r="B541" s="31"/>
+      <c r="C541" s="103" t="s">
+        <v>469</v>
+      </c>
+      <c r="D541" s="103"/>
+      <c r="E541" s="103"/>
+      <c r="F541" s="103"/>
+      <c r="G541" s="103"/>
+      <c r="H541" s="103"/>
+      <c r="I541" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="J541" s="1"/>
+      <c r="K541" s="1"/>
+      <c r="L541" s="1"/>
+      <c r="M541" s="1"/>
+      <c r="N541" s="1"/>
+    </row>
+    <row r="542" ht="15.7" spans="1:14">
+      <c r="A542" s="31" t="s">
+        <v>471</v>
+      </c>
+      <c r="B542" s="31"/>
+      <c r="C542" s="103" t="s">
+        <v>472</v>
+      </c>
+      <c r="D542" s="103"/>
+      <c r="E542" s="103"/>
+      <c r="F542" s="103"/>
+      <c r="G542" s="103"/>
+      <c r="H542" s="103"/>
+      <c r="I542" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="J542" s="1"/>
+      <c r="K542" s="1"/>
+      <c r="L542" s="1"/>
+      <c r="M542" s="1"/>
+      <c r="N542" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="651">
+  <mergeCells count="684">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="C3:H3"/>
@@ -9706,8 +10055,40 @@
     <mergeCell ref="C525:H525"/>
     <mergeCell ref="I525:N525"/>
     <mergeCell ref="A526:B526"/>
+    <mergeCell ref="C526:H526"/>
     <mergeCell ref="A527:B527"/>
-    <mergeCell ref="A528:B528"/>
+    <mergeCell ref="C527:H527"/>
+    <mergeCell ref="A528:XFD528"/>
+    <mergeCell ref="A529:B529"/>
+    <mergeCell ref="C529:H529"/>
+    <mergeCell ref="A530:B530"/>
+    <mergeCell ref="A531:B531"/>
+    <mergeCell ref="A532:B532"/>
+    <mergeCell ref="A533:B533"/>
+    <mergeCell ref="A534:B534"/>
+    <mergeCell ref="C534:H534"/>
+    <mergeCell ref="I534:N534"/>
+    <mergeCell ref="A535:B535"/>
+    <mergeCell ref="C535:H535"/>
+    <mergeCell ref="I535:N535"/>
+    <mergeCell ref="A537:B537"/>
+    <mergeCell ref="C537:H537"/>
+    <mergeCell ref="I537:N537"/>
+    <mergeCell ref="A538:B538"/>
+    <mergeCell ref="C538:H538"/>
+    <mergeCell ref="I538:N538"/>
+    <mergeCell ref="A539:B539"/>
+    <mergeCell ref="C539:H539"/>
+    <mergeCell ref="I539:N539"/>
+    <mergeCell ref="A540:B540"/>
+    <mergeCell ref="C540:H540"/>
+    <mergeCell ref="I540:N540"/>
+    <mergeCell ref="A541:B541"/>
+    <mergeCell ref="C541:H541"/>
+    <mergeCell ref="I541:N541"/>
+    <mergeCell ref="A542:B542"/>
+    <mergeCell ref="C542:H542"/>
+    <mergeCell ref="I542:N542"/>
     <mergeCell ref="I62:I65"/>
     <mergeCell ref="I67:I70"/>
     <mergeCell ref="I72:I75"/>
@@ -9860,6 +10241,7 @@
     <mergeCell ref="A511:B512"/>
     <mergeCell ref="C511:H512"/>
     <mergeCell ref="C516:H522"/>
+    <mergeCell ref="C530:H533"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -9870,14 +10252,39 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
